--- a/hasil_prediksi_regresi.xlsx
+++ b/hasil_prediksi_regresi.xlsx
@@ -492,7 +492,7 @@
         <v>45208</v>
       </c>
       <c r="B4" t="n">
-        <v>0.398022119986845</v>
+        <v>0.3980221199868451</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>45210</v>
       </c>
       <c r="B6" t="n">
-        <v>0.389550475157888</v>
+        <v>0.3895504751578879</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -562,7 +562,7 @@
         <v>45213</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3048312723393875</v>
+        <v>0.3048312723393876</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>45214</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2719596728261484</v>
+        <v>0.2719596728261485</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>45217</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2265438747164184</v>
+        <v>0.2265438747164183</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>45224</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2545092734014347</v>
+        <v>0.2545092734014348</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>45228</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3580001065557129</v>
+        <v>0.358000106555713</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>45233</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3990008640349132</v>
+        <v>0.3990008640349131</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>45235</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6863955658363711</v>
+        <v>0.6863955658363712</v>
       </c>
       <c r="C31" t="n">
-        <v>3.383369031412219</v>
+        <v>3.38336903141222</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>45242</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5386451657009347</v>
+        <v>0.5386451657009348</v>
       </c>
       <c r="C38" t="n">
         <v>2.732223274945706</v>
@@ -982,7 +982,7 @@
         <v>45243</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3647810355364007</v>
+        <v>0.3647810355364008</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>45244</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3993892058818434</v>
+        <v>0.3993892058818433</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>45245</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5219677838731254</v>
+        <v>0.5219677838731255</v>
       </c>
       <c r="C41" t="n">
         <v>3.122741499274411</v>
@@ -1024,7 +1024,7 @@
         <v>45246</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4393354067871367</v>
+        <v>0.4393354067871366</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>45247</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5216639425647073</v>
+        <v>0.5216639425647072</v>
       </c>
       <c r="C43" t="n">
-        <v>4.117471923191489</v>
+        <v>4.117471923191488</v>
       </c>
       <c r="D43" t="n">
         <v>0.4</v>
@@ -1094,7 +1094,7 @@
         <v>45251</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5455042832777444</v>
+        <v>0.5455042832777445</v>
       </c>
       <c r="C47" t="n">
         <v>1.590363983216982</v>
@@ -1122,10 +1122,10 @@
         <v>45253</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5222907059277031</v>
+        <v>0.5222907059277032</v>
       </c>
       <c r="C49" t="n">
-        <v>2.997237999633796</v>
+        <v>2.997237999633797</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1164,10 +1164,10 @@
         <v>45256</v>
       </c>
       <c r="B52" t="n">
-        <v>0.873016442865687</v>
+        <v>0.8730164428656871</v>
       </c>
       <c r="C52" t="n">
-        <v>7.800030123045557</v>
+        <v>7.800030123045558</v>
       </c>
       <c r="D52" t="n">
         <v>4.348599999999998</v>
@@ -1192,10 +1192,10 @@
         <v>45258</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6303593705402497</v>
+        <v>0.6303593705402498</v>
       </c>
       <c r="C54" t="n">
-        <v>5.134639859603653</v>
+        <v>5.134639859603654</v>
       </c>
       <c r="D54" t="n">
         <v>2.5</v>
@@ -1234,10 +1234,10 @@
         <v>45261</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7015820591771144</v>
+        <v>0.7015820591771142</v>
       </c>
       <c r="C57" t="n">
-        <v>3.207164502198152</v>
+        <v>3.207164502198151</v>
       </c>
       <c r="D57" t="n">
         <v>1.1</v>
@@ -1248,10 +1248,10 @@
         <v>45262</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8651828525191136</v>
+        <v>0.8651828525191135</v>
       </c>
       <c r="C58" t="n">
-        <v>7.187757279500511</v>
+        <v>7.18775727950051</v>
       </c>
       <c r="D58" t="n">
         <v>3.955999999999998</v>
@@ -1304,10 +1304,10 @@
         <v>45266</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5284986188646068</v>
+        <v>0.5284986188646067</v>
       </c>
       <c r="C62" t="n">
-        <v>3.126328878436447</v>
+        <v>3.126328878436446</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>45269</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5307986557350594</v>
+        <v>0.5307986557350592</v>
       </c>
       <c r="C65" t="n">
         <v>1.845521750563819</v>
@@ -1374,7 +1374,7 @@
         <v>45271</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4566357151597226</v>
+        <v>0.4566357151597227</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>45272</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3479839065410645</v>
+        <v>0.3479839065410644</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>45274</v>
       </c>
       <c r="B70" t="n">
-        <v>0.327055593281731</v>
+        <v>0.3270555932817309</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>45275</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3045805475120756</v>
+        <v>0.3045805475120755</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>45276</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3971182578040697</v>
+        <v>0.3971182578040696</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>45281</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3931479324336059</v>
+        <v>0.3931479324336058</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>3.471200000000003</v>
+        <v>3.471200000000002</v>
       </c>
     </row>
     <row r="79">
@@ -1570,7 +1570,7 @@
         <v>45285</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3828652229037419</v>
+        <v>0.382865222903742</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>45287</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6393155497735739</v>
+        <v>0.6393155497735737</v>
       </c>
       <c r="C83" t="n">
         <v>3.421313953279985</v>
@@ -1668,7 +1668,7 @@
         <v>45292</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6767938205516582</v>
+        <v>0.676793820551658</v>
       </c>
       <c r="C88" t="n">
         <v>3.41589389977074</v>
@@ -1682,7 +1682,7 @@
         <v>45293</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5386359450413757</v>
+        <v>0.5386359450413758</v>
       </c>
       <c r="C89" t="n">
         <v>2.431297317971372</v>
@@ -1710,10 +1710,10 @@
         <v>45295</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8217352578104227</v>
+        <v>0.8217352578104226</v>
       </c>
       <c r="C91" t="n">
-        <v>4.370648601343684</v>
+        <v>4.370648601343683</v>
       </c>
       <c r="D91" t="n">
         <v>30.8</v>
@@ -1724,10 +1724,10 @@
         <v>45296</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8653605979762244</v>
+        <v>0.8653605979762243</v>
       </c>
       <c r="C92" t="n">
-        <v>3.994460932682967</v>
+        <v>3.994460932682966</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -1738,7 +1738,7 @@
         <v>45297</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7606510491336251</v>
+        <v>0.760651049133625</v>
       </c>
       <c r="C93" t="n">
         <v>4.079907230440488</v>
@@ -1752,10 +1752,10 @@
         <v>45298</v>
       </c>
       <c r="B94" t="n">
-        <v>0.835417904345209</v>
+        <v>0.8354179043452089</v>
       </c>
       <c r="C94" t="n">
-        <v>5.873030667162509</v>
+        <v>5.873030667162508</v>
       </c>
       <c r="D94" t="n">
         <v>17.76559999999999</v>
@@ -1836,7 +1836,7 @@
         <v>45304</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5971657378944152</v>
+        <v>0.5971657378944153</v>
       </c>
       <c r="C100" t="n">
         <v>2.476764283752466</v>
@@ -1856,7 +1856,7 @@
         <v>6.626218372355458</v>
       </c>
       <c r="D101" t="n">
-        <v>4.329399999999998</v>
+        <v>4.329399999999999</v>
       </c>
     </row>
     <row r="102">
@@ -1878,10 +1878,10 @@
         <v>45307</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5688848524788789</v>
+        <v>0.5688848524788788</v>
       </c>
       <c r="C103" t="n">
-        <v>6.881748046917161</v>
+        <v>6.881748046917159</v>
       </c>
       <c r="D103" t="n">
         <v>0.5127999999999998</v>
@@ -1892,7 +1892,7 @@
         <v>45308</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4106108663403279</v>
+        <v>0.410610866340328</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>45309</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6793112685158811</v>
+        <v>0.679311268515881</v>
       </c>
       <c r="C105" t="n">
-        <v>2.59605818425606</v>
+        <v>2.596058184256059</v>
       </c>
       <c r="D105" t="n">
         <v>7.7</v>
@@ -1920,10 +1920,10 @@
         <v>45310</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6855200897306054</v>
+        <v>0.6855200897306055</v>
       </c>
       <c r="C106" t="n">
-        <v>5.607024341486183</v>
+        <v>5.607024341486184</v>
       </c>
       <c r="D106" t="n">
         <v>11</v>
@@ -1948,7 +1948,7 @@
         <v>45312</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4956902082062916</v>
+        <v>0.4956902082062917</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -1962,10 +1962,10 @@
         <v>45313</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5321963963341396</v>
+        <v>0.5321963963341395</v>
       </c>
       <c r="C109" t="n">
-        <v>2.941205328428025</v>
+        <v>2.941205328428024</v>
       </c>
       <c r="D109" t="n">
         <v>0.3058</v>
@@ -2032,10 +2032,10 @@
         <v>45318</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5808213352327292</v>
+        <v>0.5808213352327293</v>
       </c>
       <c r="C114" t="n">
-        <v>7.960977256177133</v>
+        <v>7.960977256177135</v>
       </c>
       <c r="D114" t="n">
         <v>28</v>
@@ -2046,10 +2046,10 @@
         <v>45319</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8796315278463425</v>
+        <v>0.8796315278463426</v>
       </c>
       <c r="C115" t="n">
-        <v>9.162020012449247</v>
+        <v>9.162020012449249</v>
       </c>
       <c r="D115" t="n">
         <v>24</v>
@@ -2102,7 +2102,7 @@
         <v>45323</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8206295276233608</v>
+        <v>0.8206295276233609</v>
       </c>
       <c r="C119" t="n">
         <v>7.014868260959584</v>
@@ -2144,7 +2144,7 @@
         <v>45326</v>
       </c>
       <c r="B122" t="n">
-        <v>0.6944567507862162</v>
+        <v>0.694456750786216</v>
       </c>
       <c r="C122" t="n">
         <v>5.137421332964434</v>
@@ -2158,10 +2158,10 @@
         <v>45327</v>
       </c>
       <c r="B123" t="n">
-        <v>0.7606498705461762</v>
+        <v>0.7606498705461763</v>
       </c>
       <c r="C123" t="n">
-        <v>4.885511830356995</v>
+        <v>4.885511830356996</v>
       </c>
       <c r="D123" t="n">
         <v>6.8</v>
@@ -2186,13 +2186,13 @@
         <v>45329</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9053270282401844</v>
+        <v>0.9053270282401845</v>
       </c>
       <c r="C125" t="n">
-        <v>9.930096901322905</v>
+        <v>9.930096901322907</v>
       </c>
       <c r="D125" t="n">
-        <v>25.67060000000003</v>
+        <v>25.67060000000002</v>
       </c>
     </row>
     <row r="126">
@@ -2200,10 +2200,10 @@
         <v>45330</v>
       </c>
       <c r="B126" t="n">
-        <v>0.6159552461409686</v>
+        <v>0.6159552461409687</v>
       </c>
       <c r="C126" t="n">
-        <v>9.555742851254003</v>
+        <v>9.555742851254005</v>
       </c>
       <c r="D126" t="n">
         <v>8.097999999999999</v>
@@ -2214,10 +2214,10 @@
         <v>45331</v>
       </c>
       <c r="B127" t="n">
-        <v>0.5521573582560415</v>
+        <v>0.5521573582560414</v>
       </c>
       <c r="C127" t="n">
-        <v>5.770093786819347</v>
+        <v>5.770093786819346</v>
       </c>
       <c r="D127" t="n">
         <v>102</v>
@@ -2228,10 +2228,10 @@
         <v>45332</v>
       </c>
       <c r="B128" t="n">
-        <v>0.6601477537727189</v>
+        <v>0.6601477537727192</v>
       </c>
       <c r="C128" t="n">
-        <v>7.508042443912964</v>
+        <v>7.508042443912966</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -2242,10 +2242,10 @@
         <v>45333</v>
       </c>
       <c r="B129" t="n">
-        <v>0.6765250086662531</v>
+        <v>0.676525008666253</v>
       </c>
       <c r="C129" t="n">
-        <v>6.021802667938337</v>
+        <v>6.021802667938336</v>
       </c>
       <c r="D129" t="n">
         <v>5.8</v>
@@ -2256,7 +2256,7 @@
         <v>45334</v>
       </c>
       <c r="B130" t="n">
-        <v>0.6311800693692425</v>
+        <v>0.6311800693692424</v>
       </c>
       <c r="C130" t="n">
         <v>3.582251595810415</v>
@@ -2270,7 +2270,7 @@
         <v>45335</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7114925747882963</v>
+        <v>0.7114925747882964</v>
       </c>
       <c r="C131" t="n">
         <v>3.69147942848798</v>
@@ -2284,7 +2284,7 @@
         <v>45336</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6921971206416161</v>
+        <v>0.6921971206416159</v>
       </c>
       <c r="C132" t="n">
         <v>12.74020270287613</v>
@@ -2298,7 +2298,7 @@
         <v>45337</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8483465232668083</v>
+        <v>0.8483465232668082</v>
       </c>
       <c r="C133" t="n">
         <v>16.18722019318312</v>
@@ -2382,10 +2382,10 @@
         <v>45343</v>
       </c>
       <c r="B139" t="n">
-        <v>0.6272421858863223</v>
+        <v>0.6272421858863224</v>
       </c>
       <c r="C139" t="n">
-        <v>3.124531371937037</v>
+        <v>3.124531371937038</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -2424,10 +2424,10 @@
         <v>45346</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5638390426582345</v>
+        <v>0.5638390426582344</v>
       </c>
       <c r="C142" t="n">
-        <v>2.319339063400255</v>
+        <v>2.319339063400254</v>
       </c>
       <c r="D142" t="n">
         <v>5.7</v>
@@ -2438,10 +2438,10 @@
         <v>45347</v>
       </c>
       <c r="B143" t="n">
-        <v>0.6731456392223835</v>
+        <v>0.6731456392223834</v>
       </c>
       <c r="C143" t="n">
-        <v>3.602378713035061</v>
+        <v>3.60237871303506</v>
       </c>
       <c r="D143" t="n">
         <v>20.8</v>
@@ -2452,10 +2452,10 @@
         <v>45348</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6595457622646388</v>
+        <v>0.6595457622646389</v>
       </c>
       <c r="C144" t="n">
-        <v>2.653567560814718</v>
+        <v>2.653567560814719</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -2466,10 +2466,10 @@
         <v>45349</v>
       </c>
       <c r="B145" t="n">
-        <v>0.6614837287722037</v>
+        <v>0.6614837287722038</v>
       </c>
       <c r="C145" t="n">
-        <v>8.87101335989594</v>
+        <v>8.871013359895942</v>
       </c>
       <c r="D145" t="n">
         <v>38.5</v>
@@ -2522,10 +2522,10 @@
         <v>45353</v>
       </c>
       <c r="B149" t="n">
-        <v>0.7134624134348982</v>
+        <v>0.7134624134348981</v>
       </c>
       <c r="C149" t="n">
-        <v>2.799115709616576</v>
+        <v>2.799115709616575</v>
       </c>
       <c r="D149" t="n">
         <v>17.7</v>
@@ -2578,7 +2578,7 @@
         <v>45357</v>
       </c>
       <c r="B153" t="n">
-        <v>0.5647752645554502</v>
+        <v>0.5647752645554501</v>
       </c>
       <c r="C153" t="n">
         <v>1.732574493092533</v>
@@ -2592,10 +2592,10 @@
         <v>45358</v>
       </c>
       <c r="B154" t="n">
-        <v>0.5975479309112662</v>
+        <v>0.5975479309112661</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9924836689305058</v>
+        <v>0.9924836689305055</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>45359</v>
       </c>
       <c r="B155" t="n">
-        <v>0.6100113409615292</v>
+        <v>0.6100113409615291</v>
       </c>
       <c r="C155" t="n">
-        <v>2.711856256728248</v>
+        <v>2.711856256728247</v>
       </c>
       <c r="D155" t="n">
         <v>4.2</v>
@@ -2648,10 +2648,10 @@
         <v>45362</v>
       </c>
       <c r="B158" t="n">
-        <v>0.8100957006788497</v>
+        <v>0.8100957006788498</v>
       </c>
       <c r="C158" t="n">
-        <v>6.828519852671979</v>
+        <v>6.82851985267198</v>
       </c>
       <c r="D158" t="n">
         <v>16</v>
@@ -2690,10 +2690,10 @@
         <v>45365</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7971775959213273</v>
+        <v>0.7971775959213272</v>
       </c>
       <c r="C161" t="n">
-        <v>3.984561347197653</v>
+        <v>3.984561347197652</v>
       </c>
       <c r="D161" t="n">
         <v>31.8</v>
@@ -2718,7 +2718,7 @@
         <v>45367</v>
       </c>
       <c r="B163" t="n">
-        <v>0.8967414439235195</v>
+        <v>0.8967414439235196</v>
       </c>
       <c r="C163" t="n">
         <v>4.661885852342222</v>
@@ -2774,7 +2774,7 @@
         <v>45371</v>
       </c>
       <c r="B167" t="n">
-        <v>0.5293063645841131</v>
+        <v>0.5293063645841132</v>
       </c>
       <c r="C167" t="n">
         <v>1.422870767156104</v>
@@ -2788,7 +2788,7 @@
         <v>45372</v>
       </c>
       <c r="B168" t="n">
-        <v>0.5226795223642369</v>
+        <v>0.522679522364237</v>
       </c>
       <c r="C168" t="n">
         <v>1.469773340431835</v>
@@ -2802,10 +2802,10 @@
         <v>45373</v>
       </c>
       <c r="B169" t="n">
-        <v>0.538632300138758</v>
+        <v>0.5386323001387578</v>
       </c>
       <c r="C169" t="n">
-        <v>2.071274805328707</v>
+        <v>2.071274805328706</v>
       </c>
       <c r="D169" t="n">
         <v>3.8</v>
@@ -2822,7 +2822,7 @@
         <v>7.164657727978263</v>
       </c>
       <c r="D170" t="n">
-        <v>5.479999999999992</v>
+        <v>5.479999999999991</v>
       </c>
     </row>
     <row r="171">
@@ -2830,10 +2830,10 @@
         <v>45375</v>
       </c>
       <c r="B171" t="n">
-        <v>0.6188969395939001</v>
+        <v>0.6188969395939002</v>
       </c>
       <c r="C171" t="n">
-        <v>5.825375352957536</v>
+        <v>5.825375352957538</v>
       </c>
       <c r="D171" t="n">
         <v>1.5456</v>
@@ -2858,10 +2858,10 @@
         <v>45377</v>
       </c>
       <c r="B173" t="n">
-        <v>0.6821954420571796</v>
+        <v>0.6821954420571797</v>
       </c>
       <c r="C173" t="n">
-        <v>2.902832766942432</v>
+        <v>2.902832766942433</v>
       </c>
       <c r="D173" t="n">
         <v>0.4</v>
@@ -2878,7 +2878,7 @@
         <v>2.425624613324813</v>
       </c>
       <c r="D174" t="n">
-        <v>2.990800000000001</v>
+        <v>2.990800000000002</v>
       </c>
     </row>
     <row r="175">
@@ -2886,10 +2886,10 @@
         <v>45379</v>
       </c>
       <c r="B175" t="n">
-        <v>0.7813387081198087</v>
+        <v>0.7813387081198088</v>
       </c>
       <c r="C175" t="n">
-        <v>6.173307971322581</v>
+        <v>6.173307971322582</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -2900,13 +2900,13 @@
         <v>45380</v>
       </c>
       <c r="B176" t="n">
-        <v>0.6212844867043926</v>
+        <v>0.6212844867043927</v>
       </c>
       <c r="C176" t="n">
         <v>1.537996775108</v>
       </c>
       <c r="D176" t="n">
-        <v>0.6757999999999986</v>
+        <v>0.6757999999999985</v>
       </c>
     </row>
     <row r="177">
@@ -2956,10 +2956,10 @@
         <v>45384</v>
       </c>
       <c r="B180" t="n">
-        <v>0.6152134433936568</v>
+        <v>0.6152134433936569</v>
       </c>
       <c r="C180" t="n">
-        <v>5.349320599061287</v>
+        <v>5.349320599061288</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -2970,10 +2970,10 @@
         <v>45385</v>
       </c>
       <c r="B181" t="n">
-        <v>0.5741070077073042</v>
+        <v>0.5741070077073039</v>
       </c>
       <c r="C181" t="n">
-        <v>5.370556169942116</v>
+        <v>5.370556169942113</v>
       </c>
       <c r="D181" t="n">
         <v>5.6</v>
@@ -2998,10 +2998,10 @@
         <v>45387</v>
       </c>
       <c r="B183" t="n">
-        <v>0.5970453914727883</v>
+        <v>0.5970453914727882</v>
       </c>
       <c r="C183" t="n">
-        <v>2.536098591393335</v>
+        <v>2.536098591393334</v>
       </c>
       <c r="D183" t="n">
         <v>2.8</v>
@@ -3040,10 +3040,10 @@
         <v>45390</v>
       </c>
       <c r="B186" t="n">
-        <v>0.5876272587936126</v>
+        <v>0.5876272587936127</v>
       </c>
       <c r="C186" t="n">
-        <v>3.916630085689826</v>
+        <v>3.916630085689827</v>
       </c>
       <c r="D186" t="n">
         <v>1.468</v>
@@ -3082,7 +3082,7 @@
         <v>45393</v>
       </c>
       <c r="B189" t="n">
-        <v>0.6475707753085949</v>
+        <v>0.647570775308595</v>
       </c>
       <c r="C189" t="n">
         <v>2.205407529279158</v>
@@ -3096,7 +3096,7 @@
         <v>45394</v>
       </c>
       <c r="B190" t="n">
-        <v>0.6681079156317319</v>
+        <v>0.668107915631732</v>
       </c>
       <c r="C190" t="n">
         <v>8.086443764359734</v>
@@ -3124,10 +3124,10 @@
         <v>45396</v>
       </c>
       <c r="B192" t="n">
-        <v>0.6585220196694228</v>
+        <v>0.6585220196694227</v>
       </c>
       <c r="C192" t="n">
-        <v>5.945400479715078</v>
+        <v>5.945400479715077</v>
       </c>
       <c r="D192" t="n">
         <v>1</v>
@@ -3144,7 +3144,7 @@
         <v>2.754436596686535</v>
       </c>
       <c r="D193" t="n">
-        <v>2.888000000000002</v>
+        <v>2.888000000000003</v>
       </c>
     </row>
     <row r="194">
@@ -3152,10 +3152,10 @@
         <v>45398</v>
       </c>
       <c r="B194" t="n">
-        <v>0.6016813909270059</v>
+        <v>0.601681390927006</v>
       </c>
       <c r="C194" t="n">
-        <v>3.88665810646912</v>
+        <v>3.886658106469121</v>
       </c>
       <c r="D194" t="n">
         <v>7.091199999999996</v>
@@ -3166,10 +3166,10 @@
         <v>45399</v>
       </c>
       <c r="B195" t="n">
-        <v>0.5785255607064146</v>
+        <v>0.5785255607064145</v>
       </c>
       <c r="C195" t="n">
-        <v>4.778920850506943</v>
+        <v>4.778920850506942</v>
       </c>
       <c r="D195" t="n">
         <v>27.2</v>
@@ -3180,7 +3180,7 @@
         <v>45400</v>
       </c>
       <c r="B196" t="n">
-        <v>0.7031269047308365</v>
+        <v>0.7031269047308364</v>
       </c>
       <c r="C196" t="n">
         <v>3.200191472112055</v>
@@ -3200,7 +3200,7 @@
         <v>4.049953548698233</v>
       </c>
       <c r="D197" t="n">
-        <v>1.455800000000001</v>
+        <v>1.4558</v>
       </c>
     </row>
     <row r="198">
@@ -3208,7 +3208,7 @@
         <v>45402</v>
       </c>
       <c r="B198" t="n">
-        <v>0.5422665316985877</v>
+        <v>0.5422665316985876</v>
       </c>
       <c r="C198" t="n">
         <v>2.990420141799103</v>
@@ -3222,10 +3222,10 @@
         <v>45403</v>
       </c>
       <c r="B199" t="n">
-        <v>0.5908502696717893</v>
+        <v>0.5908502696717894</v>
       </c>
       <c r="C199" t="n">
-        <v>2.277254760462982</v>
+        <v>2.277254760462983</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -3236,10 +3236,10 @@
         <v>45404</v>
       </c>
       <c r="B200" t="n">
-        <v>0.5968302854028604</v>
+        <v>0.5968302854028605</v>
       </c>
       <c r="C200" t="n">
-        <v>4.107814315168788</v>
+        <v>4.107814315168789</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>45405</v>
       </c>
       <c r="B201" t="n">
-        <v>0.4741776701731452</v>
+        <v>0.4741776701731453</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -3278,10 +3278,10 @@
         <v>45407</v>
       </c>
       <c r="B203" t="n">
-        <v>0.6398009946427408</v>
+        <v>0.6398009946427409</v>
       </c>
       <c r="C203" t="n">
-        <v>3.999119567854858</v>
+        <v>3.999119567854859</v>
       </c>
       <c r="D203" t="n">
         <v>0.4</v>
@@ -3292,10 +3292,10 @@
         <v>45408</v>
       </c>
       <c r="B204" t="n">
-        <v>0.6357887884295207</v>
+        <v>0.6357887884295208</v>
       </c>
       <c r="C204" t="n">
-        <v>1.958362813652489</v>
+        <v>1.95836281365249</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -3320,13 +3320,13 @@
         <v>45410</v>
       </c>
       <c r="B206" t="n">
-        <v>0.5825347924056378</v>
+        <v>0.5825347924056379</v>
       </c>
       <c r="C206" t="n">
-        <v>3.9757117926263</v>
+        <v>3.975711792626301</v>
       </c>
       <c r="D206" t="n">
-        <v>2.157799999999999</v>
+        <v>2.1578</v>
       </c>
     </row>
     <row r="207">
@@ -3334,7 +3334,7 @@
         <v>45411</v>
       </c>
       <c r="B207" t="n">
-        <v>0.6229728122839406</v>
+        <v>0.6229728122839405</v>
       </c>
       <c r="C207" t="n">
         <v>3.829057604075966</v>
@@ -3348,10 +3348,10 @@
         <v>45412</v>
       </c>
       <c r="B208" t="n">
-        <v>0.5427132788923316</v>
+        <v>0.5427132788923317</v>
       </c>
       <c r="C208" t="n">
-        <v>2.489516068575404</v>
+        <v>2.489516068575405</v>
       </c>
       <c r="D208" t="n">
         <v>0.680199999999999</v>
@@ -3362,7 +3362,7 @@
         <v>45413</v>
       </c>
       <c r="B209" t="n">
-        <v>0.4763619073504655</v>
+        <v>0.4763619073504656</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -3376,10 +3376,10 @@
         <v>45414</v>
       </c>
       <c r="B210" t="n">
-        <v>0.6231398185415968</v>
+        <v>0.6231398185415967</v>
       </c>
       <c r="C210" t="n">
-        <v>2.003562196523038</v>
+        <v>2.003562196523037</v>
       </c>
       <c r="D210" t="n">
         <v>1.0828</v>
@@ -3390,10 +3390,10 @@
         <v>45415</v>
       </c>
       <c r="B211" t="n">
-        <v>0.5646821328953007</v>
+        <v>0.5646821328953008</v>
       </c>
       <c r="C211" t="n">
-        <v>2.306860895868562</v>
+        <v>2.306860895868563</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>0.741799999999999</v>
+        <v>0.7417999999999989</v>
       </c>
     </row>
     <row r="217">
@@ -3578,7 +3578,7 @@
         <v>4.239810067529065</v>
       </c>
       <c r="D224" t="n">
-        <v>2.598599999999998</v>
+        <v>2.598599999999999</v>
       </c>
     </row>
     <row r="225">
@@ -3614,7 +3614,7 @@
         <v>45431</v>
       </c>
       <c r="B227" t="n">
-        <v>0.4910694578892125</v>
+        <v>0.4910694578892124</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -3698,7 +3698,7 @@
         <v>45437</v>
       </c>
       <c r="B233" t="n">
-        <v>0.5089081454955678</v>
+        <v>0.5089081454955677</v>
       </c>
       <c r="C233" t="n">
         <v>1.817577728318225</v>
@@ -3726,10 +3726,10 @@
         <v>45439</v>
       </c>
       <c r="B235" t="n">
-        <v>0.5311941822650036</v>
+        <v>0.5311941822650035</v>
       </c>
       <c r="C235" t="n">
-        <v>2.23738072041006</v>
+        <v>2.237380720410059</v>
       </c>
       <c r="D235" t="n">
         <v>0.6803999999999998</v>
@@ -3796,7 +3796,7 @@
         <v>45444</v>
       </c>
       <c r="B240" t="n">
-        <v>0.5721017298332798</v>
+        <v>0.5721017298332797</v>
       </c>
       <c r="C240" t="n">
         <v>1.13608945181148</v>
@@ -3810,7 +3810,7 @@
         <v>45445</v>
       </c>
       <c r="B241" t="n">
-        <v>0.5084004926895577</v>
+        <v>0.5084004926895578</v>
       </c>
       <c r="C241" t="n">
         <v>1.203907048870917</v>
@@ -3838,10 +3838,10 @@
         <v>45447</v>
       </c>
       <c r="B243" t="n">
-        <v>0.648013438549764</v>
+        <v>0.6480134385497641</v>
       </c>
       <c r="C243" t="n">
-        <v>4.268196550211384</v>
+        <v>4.268196550211385</v>
       </c>
       <c r="D243" t="n">
         <v>0.1878000000000001</v>
@@ -3922,7 +3922,7 @@
         <v>45453</v>
       </c>
       <c r="B249" t="n">
-        <v>0.4716115110184628</v>
+        <v>0.4716115110184627</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -3950,7 +3950,7 @@
         <v>45455</v>
       </c>
       <c r="B251" t="n">
-        <v>0.6781518407982752</v>
+        <v>0.6781518407982751</v>
       </c>
       <c r="C251" t="n">
         <v>1.52959254887264</v>
@@ -3964,10 +3964,10 @@
         <v>45456</v>
       </c>
       <c r="B252" t="n">
-        <v>0.524043782393077</v>
+        <v>0.5240437823930771</v>
       </c>
       <c r="C252" t="n">
-        <v>6.927484617616406</v>
+        <v>6.927484617616407</v>
       </c>
       <c r="D252" t="n">
         <v>4.066600000000002</v>
@@ -4006,10 +4006,10 @@
         <v>45459</v>
       </c>
       <c r="B255" t="n">
-        <v>0.5652624936982453</v>
+        <v>0.5652624936982452</v>
       </c>
       <c r="C255" t="n">
-        <v>2.025038587369898</v>
+        <v>2.025038587369897</v>
       </c>
       <c r="D255" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>45461</v>
       </c>
       <c r="B257" t="n">
-        <v>0.4694909619594375</v>
+        <v>0.4694909619594376</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>45465</v>
       </c>
       <c r="B261" t="n">
-        <v>0.3846449063601613</v>
+        <v>0.3846449063601614</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>45466</v>
       </c>
       <c r="B262" t="n">
-        <v>0.4459234250164935</v>
+        <v>0.4459234250164936</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
       </c>
       <c r="D262" t="n">
-        <v>0.5128</v>
+        <v>0.5128000000000001</v>
       </c>
     </row>
     <row r="263">
@@ -4160,7 +4160,7 @@
         <v>45470</v>
       </c>
       <c r="B266" t="n">
-        <v>0.5353645635632728</v>
+        <v>0.5353645635632729</v>
       </c>
       <c r="C266" t="n">
         <v>2.656179206481989</v>
@@ -4174,10 +4174,10 @@
         <v>45471</v>
       </c>
       <c r="B267" t="n">
-        <v>0.506375298633666</v>
+        <v>0.5063752986336659</v>
       </c>
       <c r="C267" t="n">
-        <v>3.833819591227477</v>
+        <v>3.833819591227476</v>
       </c>
       <c r="D267" t="n">
         <v>12.27179999999998</v>
@@ -4188,7 +4188,7 @@
         <v>45472</v>
       </c>
       <c r="B268" t="n">
-        <v>0.488164737735768</v>
+        <v>0.4881647377357679</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -4286,10 +4286,10 @@
         <v>45479</v>
       </c>
       <c r="B275" t="n">
-        <v>0.8079943653719357</v>
+        <v>0.8079943653719358</v>
       </c>
       <c r="C275" t="n">
-        <v>6.452119838577457</v>
+        <v>6.452119838577458</v>
       </c>
       <c r="D275" t="n">
         <v>49.3</v>
@@ -4314,10 +4314,10 @@
         <v>45481</v>
       </c>
       <c r="B277" t="n">
-        <v>0.702075449785115</v>
+        <v>0.7020754497851149</v>
       </c>
       <c r="C277" t="n">
-        <v>9.318660669975596</v>
+        <v>9.318660669975595</v>
       </c>
       <c r="D277" t="n">
         <v>54</v>
@@ -4328,10 +4328,10 @@
         <v>45482</v>
       </c>
       <c r="B278" t="n">
-        <v>0.526917414355365</v>
+        <v>0.5269174143553651</v>
       </c>
       <c r="C278" t="n">
-        <v>2.805194182490699</v>
+        <v>2.8051941824907</v>
       </c>
       <c r="D278" t="n">
         <v>1.6</v>
@@ -4370,7 +4370,7 @@
         <v>45485</v>
       </c>
       <c r="B281" t="n">
-        <v>0.4576411908222787</v>
+        <v>0.4576411908222786</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -4384,7 +4384,7 @@
         <v>45486</v>
       </c>
       <c r="B282" t="n">
-        <v>0.4507945668831747</v>
+        <v>0.4507945668831746</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -4440,7 +4440,7 @@
         <v>45490</v>
       </c>
       <c r="B286" t="n">
-        <v>0.1884961841813258</v>
+        <v>0.1884961841813259</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -4524,7 +4524,7 @@
         <v>45496</v>
       </c>
       <c r="B292" t="n">
-        <v>0.09681995191218704</v>
+        <v>0.09681995191218705</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -4594,7 +4594,7 @@
         <v>45501</v>
       </c>
       <c r="B297" t="n">
-        <v>0.09293553791662294</v>
+        <v>0.09293553791662293</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>45503</v>
       </c>
       <c r="B299" t="n">
-        <v>0.07393180279855724</v>
+        <v>0.07393180279855725</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>45505</v>
       </c>
       <c r="B301" t="n">
-        <v>0.09541090740282396</v>
+        <v>0.09541090740282394</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>45508</v>
       </c>
       <c r="B304" t="n">
-        <v>0.4613527619822734</v>
+        <v>0.4613527619822736</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>45509</v>
       </c>
       <c r="B305" t="n">
-        <v>0.3587829611335077</v>
+        <v>0.3587829611335076</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>45510</v>
       </c>
       <c r="B306" t="n">
-        <v>0.5458632182290317</v>
+        <v>0.5458632182290318</v>
       </c>
       <c r="C306" t="n">
         <v>1.686971468576795</v>
@@ -4762,7 +4762,7 @@
         <v>45513</v>
       </c>
       <c r="B309" t="n">
-        <v>0.335639066534003</v>
+        <v>0.3356390665340031</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -4860,7 +4860,7 @@
         <v>45520</v>
       </c>
       <c r="B316" t="n">
-        <v>0.08174513568189039</v>
+        <v>0.0817451356818904</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>45523</v>
       </c>
       <c r="B319" t="n">
-        <v>0.08329654833080859</v>
+        <v>0.08329654833080857</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -4916,7 +4916,7 @@
         <v>45524</v>
       </c>
       <c r="B320" t="n">
-        <v>0.08030512476906947</v>
+        <v>0.08030512476906944</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>45528</v>
       </c>
       <c r="B324" t="n">
-        <v>0.1616222977231761</v>
+        <v>0.161622297723176</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -5224,10 +5224,10 @@
         <v>45546</v>
       </c>
       <c r="B342" t="n">
-        <v>0.5821525215871545</v>
+        <v>0.5821525215871544</v>
       </c>
       <c r="C342" t="n">
-        <v>1.930418863067878</v>
+        <v>1.930418863067877</v>
       </c>
       <c r="D342" t="n">
         <v>0</v>
@@ -5266,10 +5266,10 @@
         <v>45549</v>
       </c>
       <c r="B345" t="n">
-        <v>0.6143031593514859</v>
+        <v>0.6143031593514858</v>
       </c>
       <c r="C345" t="n">
-        <v>3.472986687333013</v>
+        <v>3.472986687333012</v>
       </c>
       <c r="D345" t="n">
         <v>0</v>
@@ -5280,7 +5280,7 @@
         <v>45550</v>
       </c>
       <c r="B346" t="n">
-        <v>0.2933990163620504</v>
+        <v>0.2933990163620505</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -5322,7 +5322,7 @@
         <v>45553</v>
       </c>
       <c r="B349" t="n">
-        <v>0.3087420091178686</v>
+        <v>0.3087420091178688</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -5350,7 +5350,7 @@
         <v>45555</v>
       </c>
       <c r="B351" t="n">
-        <v>0.2628918310569057</v>
+        <v>0.2628918310569056</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -5406,7 +5406,7 @@
         <v>45559</v>
       </c>
       <c r="B355" t="n">
-        <v>0.2789238659910883</v>
+        <v>0.2789238659910884</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -5448,10 +5448,10 @@
         <v>45562</v>
       </c>
       <c r="B358" t="n">
-        <v>0.6710172535067042</v>
+        <v>0.6710172535067043</v>
       </c>
       <c r="C358" t="n">
-        <v>1.836636768513898</v>
+        <v>1.836636768513899</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -5462,10 +5462,10 @@
         <v>45563</v>
       </c>
       <c r="B359" t="n">
-        <v>0.5739026379411332</v>
+        <v>0.5739026379411331</v>
       </c>
       <c r="C359" t="n">
-        <v>4.592690647541967</v>
+        <v>4.592690647541966</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>45580</v>
       </c>
       <c r="B376" t="n">
-        <v>0.1617460029956692</v>
+        <v>0.1617460029956691</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -5714,7 +5714,7 @@
         <v>45581</v>
       </c>
       <c r="B377" t="n">
-        <v>0.3450014798995562</v>
+        <v>0.3450014798995561</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -5840,7 +5840,7 @@
         <v>45590</v>
       </c>
       <c r="B386" t="n">
-        <v>0.4442581171198016</v>
+        <v>0.4442581171198017</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -5854,10 +5854,10 @@
         <v>45591</v>
       </c>
       <c r="B387" t="n">
-        <v>0.5616894229937246</v>
+        <v>0.5616894229937245</v>
       </c>
       <c r="C387" t="n">
-        <v>6.300221176024884</v>
+        <v>6.300221176024882</v>
       </c>
       <c r="D387" t="n">
         <v>0</v>
@@ -5896,7 +5896,7 @@
         <v>45594</v>
       </c>
       <c r="B390" t="n">
-        <v>0.4969633336512889</v>
+        <v>0.4969633336512888</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -5924,7 +5924,7 @@
         <v>45596</v>
       </c>
       <c r="B392" t="n">
-        <v>0.345853287972559</v>
+        <v>0.3458532879725589</v>
       </c>
       <c r="C392" t="n">
         <v>0</v>
@@ -5980,10 +5980,10 @@
         <v>45600</v>
       </c>
       <c r="B396" t="n">
-        <v>0.6145107631884618</v>
+        <v>0.6145107631884619</v>
       </c>
       <c r="C396" t="n">
-        <v>3.815691669916423</v>
+        <v>3.815691669916424</v>
       </c>
       <c r="D396" t="n">
         <v>0</v>
@@ -6022,10 +6022,10 @@
         <v>45603</v>
       </c>
       <c r="B399" t="n">
-        <v>0.5184549986118759</v>
+        <v>0.5184549986118761</v>
       </c>
       <c r="C399" t="n">
-        <v>2.215269087749166</v>
+        <v>2.215269087749167</v>
       </c>
       <c r="D399" t="n">
         <v>0</v>
@@ -6036,7 +6036,7 @@
         <v>45604</v>
       </c>
       <c r="B400" t="n">
-        <v>0.4563280825354313</v>
+        <v>0.4563280825354314</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -6092,10 +6092,10 @@
         <v>45608</v>
       </c>
       <c r="B404" t="n">
-        <v>0.545718018731988</v>
+        <v>0.5457180187319882</v>
       </c>
       <c r="C404" t="n">
-        <v>5.534024309843983</v>
+        <v>5.534024309843986</v>
       </c>
       <c r="D404" t="n">
         <v>1.2</v>
@@ -6134,7 +6134,7 @@
         <v>45611</v>
       </c>
       <c r="B407" t="n">
-        <v>0.4493725122893397</v>
+        <v>0.4493725122893398</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -6176,10 +6176,10 @@
         <v>45614</v>
       </c>
       <c r="B410" t="n">
-        <v>0.5348117361349767</v>
+        <v>0.5348117361349768</v>
       </c>
       <c r="C410" t="n">
-        <v>2.87893997397127</v>
+        <v>2.878939973971271</v>
       </c>
       <c r="D410" t="n">
         <v>0</v>
@@ -6190,7 +6190,7 @@
         <v>45615</v>
       </c>
       <c r="B411" t="n">
-        <v>0.7023112482035476</v>
+        <v>0.7023112482035477</v>
       </c>
       <c r="C411" t="n">
         <v>12.33734591260592</v>
@@ -6218,7 +6218,7 @@
         <v>45617</v>
       </c>
       <c r="B413" t="n">
-        <v>0.5477872388443777</v>
+        <v>0.5477872388443779</v>
       </c>
       <c r="C413" t="n">
         <v>3.533258669496035</v>
@@ -6260,7 +6260,7 @@
         <v>45620</v>
       </c>
       <c r="B416" t="n">
-        <v>0.4702381994626352</v>
+        <v>0.4702381994626351</v>
       </c>
       <c r="C416" t="n">
         <v>0</v>
@@ -6288,7 +6288,7 @@
         <v>45622</v>
       </c>
       <c r="B418" t="n">
-        <v>0.3311718783284066</v>
+        <v>0.3311718783284067</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -6358,7 +6358,7 @@
         <v>45627</v>
       </c>
       <c r="B423" t="n">
-        <v>0.4102625317681609</v>
+        <v>0.4102625317681608</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -6414,10 +6414,10 @@
         <v>45631</v>
       </c>
       <c r="B427" t="n">
-        <v>0.830176400625548</v>
+        <v>0.8301764006255479</v>
       </c>
       <c r="C427" t="n">
-        <v>8.838511539417876</v>
+        <v>8.838511539417874</v>
       </c>
       <c r="D427" t="n">
         <v>48.2</v>
@@ -6428,10 +6428,10 @@
         <v>45632</v>
       </c>
       <c r="B428" t="n">
-        <v>0.8058105007361079</v>
+        <v>0.8058105007361077</v>
       </c>
       <c r="C428" t="n">
-        <v>4.650195920635751</v>
+        <v>4.650195920635749</v>
       </c>
       <c r="D428" t="n">
         <v>22.91199999999998</v>
@@ -6442,10 +6442,10 @@
         <v>45633</v>
       </c>
       <c r="B429" t="n">
-        <v>0.8871594813393211</v>
+        <v>0.887159481339321</v>
       </c>
       <c r="C429" t="n">
-        <v>6.719865711367146</v>
+        <v>6.719865711367145</v>
       </c>
       <c r="D429" t="n">
         <v>30.4</v>
@@ -6554,7 +6554,7 @@
         <v>45641</v>
       </c>
       <c r="B437" t="n">
-        <v>0.5401827186297204</v>
+        <v>0.5401827186297203</v>
       </c>
       <c r="C437" t="n">
         <v>2.396524276461486</v>
@@ -6596,7 +6596,7 @@
         <v>45644</v>
       </c>
       <c r="B440" t="n">
-        <v>0.7070612025238103</v>
+        <v>0.7070612025238104</v>
       </c>
       <c r="C440" t="n">
         <v>2.904271475269873</v>
@@ -6610,7 +6610,7 @@
         <v>45645</v>
       </c>
       <c r="B441" t="n">
-        <v>0.4377002739810766</v>
+        <v>0.4377002739810765</v>
       </c>
       <c r="C441" t="n">
         <v>0</v>
@@ -6624,7 +6624,7 @@
         <v>45646</v>
       </c>
       <c r="B442" t="n">
-        <v>0.7873851076570989</v>
+        <v>0.787385107657099</v>
       </c>
       <c r="C442" t="n">
         <v>3.100824836764138</v>
@@ -6666,10 +6666,10 @@
         <v>45649</v>
       </c>
       <c r="B445" t="n">
-        <v>0.8441483664156209</v>
+        <v>0.8441483664156207</v>
       </c>
       <c r="C445" t="n">
-        <v>5.966039607355538</v>
+        <v>5.966039607355537</v>
       </c>
       <c r="D445" t="n">
         <v>17</v>
@@ -6708,10 +6708,10 @@
         <v>45652</v>
       </c>
       <c r="B448" t="n">
-        <v>0.8289113153297688</v>
+        <v>0.8289113153297689</v>
       </c>
       <c r="C448" t="n">
-        <v>6.944299057721949</v>
+        <v>6.94429905772195</v>
       </c>
       <c r="D448" t="n">
         <v>0</v>
@@ -6764,7 +6764,7 @@
         <v>45656</v>
       </c>
       <c r="B452" t="n">
-        <v>0.450183655247764</v>
+        <v>0.4501836552477639</v>
       </c>
       <c r="C452" t="n">
         <v>0</v>
@@ -6806,7 +6806,7 @@
         <v>45659</v>
       </c>
       <c r="B455" t="n">
-        <v>0.4303631093432024</v>
+        <v>0.4303631093432023</v>
       </c>
       <c r="C455" t="n">
         <v>0</v>
@@ -6820,7 +6820,7 @@
         <v>45660</v>
       </c>
       <c r="B456" t="n">
-        <v>0.4799424790037595</v>
+        <v>0.4799424790037596</v>
       </c>
       <c r="C456" t="n">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>45661</v>
       </c>
       <c r="B457" t="n">
-        <v>0.4997123260572151</v>
+        <v>0.4997123260572152</v>
       </c>
       <c r="C457" t="n">
         <v>0</v>
@@ -6918,10 +6918,10 @@
         <v>45667</v>
       </c>
       <c r="B463" t="n">
-        <v>0.8576123155542973</v>
+        <v>0.8576123155542974</v>
       </c>
       <c r="C463" t="n">
-        <v>7.749416996700412</v>
+        <v>7.749416996700413</v>
       </c>
       <c r="D463" t="n">
         <v>23.2</v>
@@ -6946,10 +6946,10 @@
         <v>45669</v>
       </c>
       <c r="B465" t="n">
-        <v>0.8082208436084815</v>
+        <v>0.8082208436084816</v>
       </c>
       <c r="C465" t="n">
-        <v>3.678818216715371</v>
+        <v>3.678818216715372</v>
       </c>
       <c r="D465" t="n">
         <v>0</v>
@@ -6960,10 +6960,10 @@
         <v>45670</v>
       </c>
       <c r="B466" t="n">
-        <v>0.5438535901732581</v>
+        <v>0.543853590173258</v>
       </c>
       <c r="C466" t="n">
-        <v>2.630234393792</v>
+        <v>2.630234393791999</v>
       </c>
       <c r="D466" t="n">
         <v>29.2</v>
@@ -6974,10 +6974,10 @@
         <v>45671</v>
       </c>
       <c r="B467" t="n">
-        <v>0.6533800393692882</v>
+        <v>0.6533800393692885</v>
       </c>
       <c r="C467" t="n">
-        <v>5.037834297637138</v>
+        <v>5.03783429763714</v>
       </c>
       <c r="D467" t="n">
         <v>18</v>
@@ -6988,7 +6988,7 @@
         <v>45672</v>
       </c>
       <c r="B468" t="n">
-        <v>0.9043075028134727</v>
+        <v>0.9043075028134726</v>
       </c>
       <c r="C468" t="n">
         <v>5.652041768246904</v>
@@ -7058,10 +7058,10 @@
         <v>45677</v>
       </c>
       <c r="B473" t="n">
-        <v>0.561295183317899</v>
+        <v>0.5612951833178991</v>
       </c>
       <c r="C473" t="n">
-        <v>7.28124109210452</v>
+        <v>7.281241092104522</v>
       </c>
       <c r="D473" t="n">
         <v>60</v>
@@ -7086,10 +7086,10 @@
         <v>45679</v>
       </c>
       <c r="B475" t="n">
-        <v>0.874088345827584</v>
+        <v>0.8740883458275841</v>
       </c>
       <c r="C475" t="n">
-        <v>18.34190087194008</v>
+        <v>18.34190087194009</v>
       </c>
       <c r="D475" t="n">
         <v>0</v>
@@ -7114,10 +7114,10 @@
         <v>45681</v>
       </c>
       <c r="B477" t="n">
-        <v>0.6901195443471889</v>
+        <v>0.6901195443471888</v>
       </c>
       <c r="C477" t="n">
-        <v>4.770403239587233</v>
+        <v>4.770403239587232</v>
       </c>
       <c r="D477" t="n">
         <v>2</v>
@@ -7128,10 +7128,10 @@
         <v>45682</v>
       </c>
       <c r="B478" t="n">
-        <v>0.735702611433107</v>
+        <v>0.7357026114331071</v>
       </c>
       <c r="C478" t="n">
-        <v>6.779152374376298</v>
+        <v>6.779152374376299</v>
       </c>
       <c r="D478" t="n">
         <v>0</v>
@@ -7254,10 +7254,10 @@
         <v>45691</v>
       </c>
       <c r="B487" t="n">
-        <v>0.7960474432024165</v>
+        <v>0.7960474432024164</v>
       </c>
       <c r="C487" t="n">
-        <v>8.872127523842821</v>
+        <v>8.872127523842819</v>
       </c>
       <c r="D487" t="n">
         <v>0</v>
@@ -7268,10 +7268,10 @@
         <v>45692</v>
       </c>
       <c r="B488" t="n">
-        <v>0.7114272670147616</v>
+        <v>0.7114272670147617</v>
       </c>
       <c r="C488" t="n">
-        <v>3.620835161282826</v>
+        <v>3.620835161282827</v>
       </c>
       <c r="D488" t="n">
         <v>1</v>
@@ -7310,10 +7310,10 @@
         <v>45695</v>
       </c>
       <c r="B491" t="n">
-        <v>0.5819866955781737</v>
+        <v>0.5819866955781736</v>
       </c>
       <c r="C491" t="n">
-        <v>6.152387331238021</v>
+        <v>6.15238733123802</v>
       </c>
       <c r="D491" t="n">
         <v>75.3</v>
@@ -7324,7 +7324,7 @@
         <v>45696</v>
       </c>
       <c r="B492" t="n">
-        <v>0.8048818923143686</v>
+        <v>0.8048818923143684</v>
       </c>
       <c r="C492" t="n">
         <v>10.81716478696837</v>
@@ -7408,7 +7408,7 @@
         <v>45702</v>
       </c>
       <c r="B498" t="n">
-        <v>0.5013759925442058</v>
+        <v>0.501375992544206</v>
       </c>
       <c r="C498" t="n">
         <v>2.630497363348577</v>
@@ -7422,10 +7422,10 @@
         <v>45703</v>
       </c>
       <c r="B499" t="n">
-        <v>0.5640514774046359</v>
+        <v>0.564051477404636</v>
       </c>
       <c r="C499" t="n">
-        <v>3.863449447716696</v>
+        <v>3.863449447716697</v>
       </c>
       <c r="D499" t="n">
         <v>1.6</v>
@@ -7450,7 +7450,7 @@
         <v>45705</v>
       </c>
       <c r="B501" t="n">
-        <v>0.5693505933218604</v>
+        <v>0.5693505933218606</v>
       </c>
       <c r="C501" t="n">
         <v>3.343054956184784</v>
@@ -7478,7 +7478,7 @@
         <v>45707</v>
       </c>
       <c r="B503" t="n">
-        <v>0.8675651477300524</v>
+        <v>0.8675651477300526</v>
       </c>
       <c r="C503" t="n">
         <v>10.45859492347376</v>
@@ -7492,7 +7492,7 @@
         <v>45708</v>
       </c>
       <c r="B504" t="n">
-        <v>0.8784196169076117</v>
+        <v>0.8784196169076116</v>
       </c>
       <c r="C504" t="n">
         <v>9.076090982667537</v>
@@ -7506,7 +7506,7 @@
         <v>45709</v>
       </c>
       <c r="B505" t="n">
-        <v>0.8587690904133539</v>
+        <v>0.858769090413354</v>
       </c>
       <c r="C505" t="n">
         <v>7.539609918039369</v>
@@ -7576,10 +7576,10 @@
         <v>45714</v>
       </c>
       <c r="B510" t="n">
-        <v>0.8093563290297964</v>
+        <v>0.8093563290297965</v>
       </c>
       <c r="C510" t="n">
-        <v>2.444163088820308</v>
+        <v>2.444163088820309</v>
       </c>
       <c r="D510" t="n">
         <v>0</v>
@@ -7590,7 +7590,7 @@
         <v>45715</v>
       </c>
       <c r="B511" t="n">
-        <v>0.8452992521074636</v>
+        <v>0.8452992521074637</v>
       </c>
       <c r="C511" t="n">
         <v>4.254976790253171</v>
@@ -7632,10 +7632,10 @@
         <v>45718</v>
       </c>
       <c r="B514" t="n">
-        <v>0.6541276626302784</v>
+        <v>0.6541276626302783</v>
       </c>
       <c r="C514" t="n">
-        <v>2.721027808949529</v>
+        <v>2.721027808949528</v>
       </c>
       <c r="D514" t="n">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>45719</v>
       </c>
       <c r="B515" t="n">
-        <v>0.654790080259955</v>
+        <v>0.6547900802599552</v>
       </c>
       <c r="C515" t="n">
         <v>2.084786994293095</v>
@@ -7688,10 +7688,10 @@
         <v>45722</v>
       </c>
       <c r="B518" t="n">
-        <v>0.6284213560667068</v>
+        <v>0.6284213560667067</v>
       </c>
       <c r="C518" t="n">
-        <v>2.731880758199756</v>
+        <v>2.731880758199755</v>
       </c>
       <c r="D518" t="n">
         <v>4.097799999999984</v>
@@ -7716,7 +7716,7 @@
         <v>45724</v>
       </c>
       <c r="B520" t="n">
-        <v>0.5734744121782089</v>
+        <v>0.5734744121782088</v>
       </c>
       <c r="C520" t="n">
         <v>1.729532806605319</v>
@@ -7744,7 +7744,7 @@
         <v>45726</v>
       </c>
       <c r="B522" t="n">
-        <v>0.6157397415874565</v>
+        <v>0.6157397415874564</v>
       </c>
       <c r="C522" t="n">
         <v>3.25465891019841</v>
@@ -7772,7 +7772,7 @@
         <v>45728</v>
       </c>
       <c r="B524" t="n">
-        <v>0.5798433315560015</v>
+        <v>0.5798433315560017</v>
       </c>
       <c r="C524" t="n">
         <v>3.705586451392097</v>
@@ -7856,10 +7856,10 @@
         <v>45734</v>
       </c>
       <c r="B530" t="n">
-        <v>0.6012446873364883</v>
+        <v>0.6012446873364884</v>
       </c>
       <c r="C530" t="n">
-        <v>4.290313319038438</v>
+        <v>4.290313319038439</v>
       </c>
       <c r="D530" t="n">
         <v>1.3</v>
@@ -7870,7 +7870,7 @@
         <v>45735</v>
       </c>
       <c r="B531" t="n">
-        <v>0.7035039687528097</v>
+        <v>0.7035039687528098</v>
       </c>
       <c r="C531" t="n">
         <v>3.469915835471959</v>
@@ -7954,7 +7954,7 @@
         <v>45741</v>
       </c>
       <c r="B537" t="n">
-        <v>0.6889851419161733</v>
+        <v>0.6889851419161732</v>
       </c>
       <c r="C537" t="n">
         <v>3.043799510865261</v>
@@ -7996,7 +7996,7 @@
         <v>45744</v>
       </c>
       <c r="B540" t="n">
-        <v>0.7620121690153326</v>
+        <v>0.7620121690153328</v>
       </c>
       <c r="C540" t="n">
         <v>2.070629063935999</v>
@@ -8038,7 +8038,7 @@
         <v>45747</v>
       </c>
       <c r="B543" t="n">
-        <v>0.5142223604230912</v>
+        <v>0.5142223604230913</v>
       </c>
       <c r="C543" t="n">
         <v>2.944838787611054</v>
@@ -8052,7 +8052,7 @@
         <v>45748</v>
       </c>
       <c r="B544" t="n">
-        <v>0.4671381387810058</v>
+        <v>0.4671381387810059</v>
       </c>
       <c r="C544" t="n">
         <v>0</v>
@@ -8080,10 +8080,10 @@
         <v>45750</v>
       </c>
       <c r="B546" t="n">
-        <v>0.6941594348572729</v>
+        <v>0.6941594348572728</v>
       </c>
       <c r="C546" t="n">
-        <v>5.230887774941912</v>
+        <v>5.230887774941911</v>
       </c>
       <c r="D546" t="n">
         <v>5.9</v>
@@ -8094,10 +8094,10 @@
         <v>45751</v>
       </c>
       <c r="B547" t="n">
-        <v>0.6689462873953371</v>
+        <v>0.6689462873953372</v>
       </c>
       <c r="C547" t="n">
-        <v>2.545942421035887</v>
+        <v>2.545942421035888</v>
       </c>
       <c r="D547" t="n">
         <v>7.03039999999999</v>
@@ -8122,7 +8122,7 @@
         <v>45753</v>
       </c>
       <c r="B549" t="n">
-        <v>0.6939541227160728</v>
+        <v>0.6939541227160727</v>
       </c>
       <c r="C549" t="n">
         <v>3.060835915375255</v>
@@ -8150,10 +8150,10 @@
         <v>45755</v>
       </c>
       <c r="B551" t="n">
-        <v>0.6688356734346622</v>
+        <v>0.6688356734346621</v>
       </c>
       <c r="C551" t="n">
-        <v>2.370906105472824</v>
+        <v>2.370906105472823</v>
       </c>
       <c r="D551" t="n">
         <v>0</v>
@@ -8178,10 +8178,10 @@
         <v>45757</v>
       </c>
       <c r="B553" t="n">
-        <v>0.5147702658455117</v>
+        <v>0.5147702658455118</v>
       </c>
       <c r="C553" t="n">
-        <v>1.653880433313365</v>
+        <v>1.653880433313366</v>
       </c>
       <c r="D553" t="n">
         <v>0</v>
@@ -8192,7 +8192,7 @@
         <v>45758</v>
       </c>
       <c r="B554" t="n">
-        <v>0.6039565807606836</v>
+        <v>0.6039565807606837</v>
       </c>
       <c r="C554" t="n">
         <v>2.291613237505276</v>
@@ -8206,7 +8206,7 @@
         <v>45759</v>
       </c>
       <c r="B555" t="n">
-        <v>0.5916871904944286</v>
+        <v>0.5916871904944287</v>
       </c>
       <c r="C555" t="n">
         <v>3.130299735845075</v>
@@ -8332,7 +8332,7 @@
         <v>45768</v>
       </c>
       <c r="B564" t="n">
-        <v>0.5711035206473755</v>
+        <v>0.5711035206473754</v>
       </c>
       <c r="C564" t="n">
         <v>2.590180679721001</v>
@@ -8346,10 +8346,10 @@
         <v>45769</v>
       </c>
       <c r="B565" t="n">
-        <v>0.5337899588186922</v>
+        <v>0.5337899588186923</v>
       </c>
       <c r="C565" t="n">
-        <v>7.523365926099917</v>
+        <v>7.523365926099919</v>
       </c>
       <c r="D565" t="n">
         <v>9.5</v>
@@ -8374,10 +8374,10 @@
         <v>45771</v>
       </c>
       <c r="B567" t="n">
-        <v>0.5864226055317719</v>
+        <v>0.5864226055317718</v>
       </c>
       <c r="C567" t="n">
-        <v>4.519697027361765</v>
+        <v>4.519697027361764</v>
       </c>
       <c r="D567" t="n">
         <v>0</v>
@@ -8570,10 +8570,10 @@
         <v>45785</v>
       </c>
       <c r="B581" t="n">
-        <v>0.6294250064937332</v>
+        <v>0.6294250064937333</v>
       </c>
       <c r="C581" t="n">
-        <v>3.189645507627348</v>
+        <v>3.189645507627349</v>
       </c>
       <c r="D581" t="n">
         <v>0</v>
@@ -8598,7 +8598,7 @@
         <v>45787</v>
       </c>
       <c r="B583" t="n">
-        <v>0.4474672449510656</v>
+        <v>0.4474672449510657</v>
       </c>
       <c r="C583" t="n">
         <v>0</v>
@@ -8752,7 +8752,7 @@
         <v>45798</v>
       </c>
       <c r="B594" t="n">
-        <v>0.4867032426922556</v>
+        <v>0.4867032426922555</v>
       </c>
       <c r="C594" t="n">
         <v>0</v>
@@ -8822,10 +8822,10 @@
         <v>45803</v>
       </c>
       <c r="B599" t="n">
-        <v>0.8638956751079988</v>
+        <v>0.863895675107999</v>
       </c>
       <c r="C599" t="n">
-        <v>3.571580197587023</v>
+        <v>3.571580197587024</v>
       </c>
       <c r="D599" t="n">
         <v>21.3</v>
@@ -8892,10 +8892,10 @@
         <v>45808</v>
       </c>
       <c r="B604" t="n">
-        <v>0.7134783315798312</v>
+        <v>0.7134783315798314</v>
       </c>
       <c r="C604" t="n">
-        <v>1.862199803994248</v>
+        <v>1.862199803994249</v>
       </c>
       <c r="D604" t="n">
         <v>1.6</v>
@@ -8990,7 +8990,7 @@
         <v>45815</v>
       </c>
       <c r="B611" t="n">
-        <v>0.3313551784391255</v>
+        <v>0.3313551784391257</v>
       </c>
       <c r="C611" t="n">
         <v>0</v>
@@ -9004,7 +9004,7 @@
         <v>45816</v>
       </c>
       <c r="B612" t="n">
-        <v>0.6060579124269316</v>
+        <v>0.6060579124269317</v>
       </c>
       <c r="C612" t="n">
         <v>1.235751815254928</v>
@@ -9046,7 +9046,7 @@
         <v>45819</v>
       </c>
       <c r="B615" t="n">
-        <v>0.583988991232103</v>
+        <v>0.5839889912321029</v>
       </c>
       <c r="C615" t="n">
         <v>2.461441285563702</v>
@@ -9060,7 +9060,7 @@
         <v>45820</v>
       </c>
       <c r="B616" t="n">
-        <v>0.5719398519138186</v>
+        <v>0.5719398519138185</v>
       </c>
       <c r="C616" t="n">
         <v>3.268716793999795</v>
@@ -9074,7 +9074,7 @@
         <v>45821</v>
       </c>
       <c r="B617" t="n">
-        <v>0.3988271006760501</v>
+        <v>0.39882710067605</v>
       </c>
       <c r="C617" t="n">
         <v>0</v>
@@ -9088,7 +9088,7 @@
         <v>45822</v>
       </c>
       <c r="B618" t="n">
-        <v>0.4259021200033521</v>
+        <v>0.425902120003352</v>
       </c>
       <c r="C618" t="n">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>45823</v>
       </c>
       <c r="B619" t="n">
-        <v>0.6102933692348889</v>
+        <v>0.610293369234889</v>
       </c>
       <c r="C619" t="n">
-        <v>3.865006934798735</v>
+        <v>3.865006934798736</v>
       </c>
       <c r="D619" t="n">
         <v>1.897800000000001</v>
@@ -9130,7 +9130,7 @@
         <v>45825</v>
       </c>
       <c r="B621" t="n">
-        <v>0.4480136383160434</v>
+        <v>0.4480136383160433</v>
       </c>
       <c r="C621" t="n">
         <v>0</v>
@@ -9158,10 +9158,10 @@
         <v>45827</v>
       </c>
       <c r="B623" t="n">
-        <v>0.8530287062078927</v>
+        <v>0.8530287062078928</v>
       </c>
       <c r="C623" t="n">
-        <v>2.961796716484327</v>
+        <v>2.961796716484328</v>
       </c>
       <c r="D623" t="n">
         <v>9.319200000000006</v>
@@ -9192,7 +9192,7 @@
         <v>2.150896587270167</v>
       </c>
       <c r="D625" t="n">
-        <v>4.485599999999996</v>
+        <v>4.485599999999994</v>
       </c>
     </row>
     <row r="626">
@@ -9242,10 +9242,10 @@
         <v>45833</v>
       </c>
       <c r="B629" t="n">
-        <v>0.6778222638741759</v>
+        <v>0.6778222638741758</v>
       </c>
       <c r="C629" t="n">
-        <v>8.147235813339917</v>
+        <v>8.147235813339915</v>
       </c>
       <c r="D629" t="n">
         <v>0</v>
@@ -9284,7 +9284,7 @@
         <v>45836</v>
       </c>
       <c r="B632" t="n">
-        <v>0.4487147476949568</v>
+        <v>0.4487147476949567</v>
       </c>
       <c r="C632" t="n">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>45837</v>
       </c>
       <c r="B633" t="n">
-        <v>0.4666337341075696</v>
+        <v>0.4666337341075697</v>
       </c>
       <c r="C633" t="n">
         <v>0</v>
@@ -9312,10 +9312,10 @@
         <v>45838</v>
       </c>
       <c r="B634" t="n">
-        <v>0.8467119734173166</v>
+        <v>0.8467119734173165</v>
       </c>
       <c r="C634" t="n">
-        <v>3.308345577545605</v>
+        <v>3.308345577545604</v>
       </c>
       <c r="D634" t="n">
         <v>17.9</v>
@@ -9326,10 +9326,10 @@
         <v>45839</v>
       </c>
       <c r="B635" t="n">
-        <v>0.575816259709151</v>
+        <v>0.5758162597091511</v>
       </c>
       <c r="C635" t="n">
-        <v>4.050648741002503</v>
+        <v>4.050648741002504</v>
       </c>
       <c r="D635" t="n">
         <v>0</v>
@@ -9340,7 +9340,7 @@
         <v>45840</v>
       </c>
       <c r="B636" t="n">
-        <v>0.4987639556228683</v>
+        <v>0.4987639556228682</v>
       </c>
       <c r="C636" t="n">
         <v>0</v>
@@ -9424,10 +9424,10 @@
         <v>45846</v>
       </c>
       <c r="B642" t="n">
-        <v>0.5034020233046819</v>
+        <v>0.5034020233046818</v>
       </c>
       <c r="C642" t="n">
-        <v>4.495100814257091</v>
+        <v>4.49510081425709</v>
       </c>
       <c r="D642" t="n">
         <v>0</v>
@@ -9438,7 +9438,7 @@
         <v>45847</v>
       </c>
       <c r="B643" t="n">
-        <v>0.4223778564938643</v>
+        <v>0.4223778564938642</v>
       </c>
       <c r="C643" t="n">
         <v>0</v>
@@ -9466,7 +9466,7 @@
         <v>45849</v>
       </c>
       <c r="B645" t="n">
-        <v>0.4898507563975751</v>
+        <v>0.4898507563975752</v>
       </c>
       <c r="C645" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>45851</v>
       </c>
       <c r="B647" t="n">
-        <v>0.3763416862870642</v>
+        <v>0.3763416862870643</v>
       </c>
       <c r="C647" t="n">
         <v>0</v>
@@ -9508,7 +9508,7 @@
         <v>45852</v>
       </c>
       <c r="B648" t="n">
-        <v>0.4204444125663502</v>
+        <v>0.4204444125663501</v>
       </c>
       <c r="C648" t="n">
         <v>0</v>
@@ -9522,10 +9522,10 @@
         <v>45853</v>
       </c>
       <c r="B649" t="n">
-        <v>0.5639541949435043</v>
+        <v>0.5639541949435042</v>
       </c>
       <c r="C649" t="n">
-        <v>2.12437119335845</v>
+        <v>2.124371193358449</v>
       </c>
       <c r="D649" t="n">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>45854</v>
       </c>
       <c r="B650" t="n">
-        <v>0.4756710882988253</v>
+        <v>0.4756710882988254</v>
       </c>
       <c r="C650" t="n">
         <v>0</v>
@@ -9564,7 +9564,7 @@
         <v>45856</v>
       </c>
       <c r="B652" t="n">
-        <v>0.6142595664601411</v>
+        <v>0.614259566460141</v>
       </c>
       <c r="C652" t="n">
         <v>1.087545356833928</v>
@@ -9578,10 +9578,10 @@
         <v>45857</v>
       </c>
       <c r="B653" t="n">
-        <v>0.5288658015028035</v>
+        <v>0.5288658015028036</v>
       </c>
       <c r="C653" t="n">
-        <v>2.34555384408988</v>
+        <v>2.345553844089881</v>
       </c>
       <c r="D653" t="n">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>45858</v>
       </c>
       <c r="B654" t="n">
-        <v>0.4547665154904347</v>
+        <v>0.4547665154904346</v>
       </c>
       <c r="C654" t="n">
         <v>0</v>
@@ -9718,7 +9718,7 @@
         <v>45867</v>
       </c>
       <c r="B663" t="n">
-        <v>0.291168166645539</v>
+        <v>0.2911681666455389</v>
       </c>
       <c r="C663" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>45868</v>
       </c>
       <c r="B664" t="n">
-        <v>0.40660716629296</v>
+        <v>0.4066071662929601</v>
       </c>
       <c r="C664" t="n">
         <v>0</v>
@@ -9774,7 +9774,7 @@
         <v>45871</v>
       </c>
       <c r="B667" t="n">
-        <v>0.4083619525778767</v>
+        <v>0.4083619525778766</v>
       </c>
       <c r="C667" t="n">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>45875</v>
       </c>
       <c r="B671" t="n">
-        <v>0.3606621041759567</v>
+        <v>0.3606621041759566</v>
       </c>
       <c r="C671" t="n">
         <v>0</v>
@@ -9858,7 +9858,7 @@
         <v>45877</v>
       </c>
       <c r="B673" t="n">
-        <v>0.3493888662148496</v>
+        <v>0.3493888662148495</v>
       </c>
       <c r="C673" t="n">
         <v>0</v>
@@ -9900,7 +9900,7 @@
         <v>45880</v>
       </c>
       <c r="B676" t="n">
-        <v>0.4137328344809002</v>
+        <v>0.4137328344809001</v>
       </c>
       <c r="C676" t="n">
         <v>0</v>
@@ -9928,10 +9928,10 @@
         <v>45882</v>
       </c>
       <c r="B678" t="n">
-        <v>0.8494910890276413</v>
+        <v>0.849491089027641</v>
       </c>
       <c r="C678" t="n">
-        <v>4.790673926165188</v>
+        <v>4.790673926165186</v>
       </c>
       <c r="D678" t="n">
         <v>0.1606000000000001</v>
@@ -9984,7 +9984,7 @@
         <v>45886</v>
       </c>
       <c r="B682" t="n">
-        <v>0.404969026849571</v>
+        <v>0.4049690268495711</v>
       </c>
       <c r="C682" t="n">
         <v>0</v>
@@ -10026,7 +10026,7 @@
         <v>45889</v>
       </c>
       <c r="B685" t="n">
-        <v>0.7254567910111602</v>
+        <v>0.7254567910111601</v>
       </c>
       <c r="C685" t="n">
         <v>3.639097977275751</v>
@@ -10040,10 +10040,10 @@
         <v>45890</v>
       </c>
       <c r="B686" t="n">
-        <v>0.5942086855802543</v>
+        <v>0.5942086855802542</v>
       </c>
       <c r="C686" t="n">
-        <v>2.198364901199709</v>
+        <v>2.198364901199708</v>
       </c>
       <c r="D686" t="n">
         <v>0</v>
@@ -10054,10 +10054,10 @@
         <v>45891</v>
       </c>
       <c r="B687" t="n">
-        <v>0.6294041105284431</v>
+        <v>0.6294041105284434</v>
       </c>
       <c r="C687" t="n">
-        <v>3.011198567475624</v>
+        <v>3.011198567475625</v>
       </c>
       <c r="D687" t="n">
         <v>0</v>
@@ -10138,7 +10138,7 @@
         <v>45897</v>
       </c>
       <c r="B693" t="n">
-        <v>0.3035834169876413</v>
+        <v>0.3035834169876412</v>
       </c>
       <c r="C693" t="n">
         <v>0</v>
@@ -10152,7 +10152,7 @@
         <v>45898</v>
       </c>
       <c r="B694" t="n">
-        <v>0.3669748395870044</v>
+        <v>0.3669748395870043</v>
       </c>
       <c r="C694" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>45902</v>
       </c>
       <c r="B698" t="n">
-        <v>0.5310074206473697</v>
+        <v>0.5310074206473698</v>
       </c>
       <c r="C698" t="n">
-        <v>2.089351612850327</v>
+        <v>2.089351612850328</v>
       </c>
       <c r="D698" t="n">
         <v>0</v>
@@ -10236,7 +10236,7 @@
         <v>45904</v>
       </c>
       <c r="B700" t="n">
-        <v>0.3710028910611862</v>
+        <v>0.3710028910611863</v>
       </c>
       <c r="C700" t="n">
         <v>0</v>
@@ -10264,7 +10264,7 @@
         <v>45906</v>
       </c>
       <c r="B702" t="n">
-        <v>0.3133615319446331</v>
+        <v>0.313361531944633</v>
       </c>
       <c r="C702" t="n">
         <v>0</v>
@@ -10334,10 +10334,10 @@
         <v>45911</v>
       </c>
       <c r="B707" t="n">
-        <v>0.5465079707486221</v>
+        <v>0.5465079707486222</v>
       </c>
       <c r="C707" t="n">
-        <v>2.038860422371579</v>
+        <v>2.03886042237158</v>
       </c>
       <c r="D707" t="n">
         <v>0.8</v>
@@ -10362,10 +10362,10 @@
         <v>45913</v>
       </c>
       <c r="B709" t="n">
-        <v>0.5884543603987867</v>
+        <v>0.5884543603987868</v>
       </c>
       <c r="C709" t="n">
-        <v>4.180334934642795</v>
+        <v>4.180334934642796</v>
       </c>
       <c r="D709" t="n">
         <v>0</v>
@@ -10376,10 +10376,10 @@
         <v>45914</v>
       </c>
       <c r="B710" t="n">
-        <v>0.5100633001771364</v>
+        <v>0.5100633001771363</v>
       </c>
       <c r="C710" t="n">
-        <v>2.148850867375336</v>
+        <v>2.148850867375335</v>
       </c>
       <c r="D710" t="n">
         <v>0</v>
@@ -10390,7 +10390,7 @@
         <v>45915</v>
       </c>
       <c r="B711" t="n">
-        <v>0.4024717109460021</v>
+        <v>0.402471710946002</v>
       </c>
       <c r="C711" t="n">
         <v>0</v>
@@ -10460,7 +10460,7 @@
         <v>45920</v>
       </c>
       <c r="B716" t="n">
-        <v>0.4925949630841377</v>
+        <v>0.4925949630841378</v>
       </c>
       <c r="C716" t="n">
         <v>0</v>
@@ -10488,10 +10488,10 @@
         <v>45922</v>
       </c>
       <c r="B718" t="n">
-        <v>0.7326843542430715</v>
+        <v>0.7326843542430717</v>
       </c>
       <c r="C718" t="n">
-        <v>5.54236763296862</v>
+        <v>5.542367632968621</v>
       </c>
       <c r="D718" t="n">
         <v>6.6</v>
@@ -10516,7 +10516,7 @@
         <v>45924</v>
       </c>
       <c r="B720" t="n">
-        <v>0.562646727834087</v>
+        <v>0.5626467278340871</v>
       </c>
       <c r="C720" t="n">
         <v>2.849186225063177</v>
@@ -10530,7 +10530,7 @@
         <v>45925</v>
       </c>
       <c r="B721" t="n">
-        <v>0.4305241319894096</v>
+        <v>0.4305241319894095</v>
       </c>
       <c r="C721" t="n">
         <v>0</v>
@@ -10544,7 +10544,7 @@
         <v>45926</v>
       </c>
       <c r="B722" t="n">
-        <v>0.401703344776872</v>
+        <v>0.4017033447768719</v>
       </c>
       <c r="C722" t="n">
         <v>0</v>
@@ -10614,7 +10614,7 @@
         <v>45931</v>
       </c>
       <c r="B727" t="n">
-        <v>0.4901470123475741</v>
+        <v>0.4901470123475739</v>
       </c>
       <c r="C727" t="n">
         <v>0</v>
@@ -10628,7 +10628,7 @@
         <v>45932</v>
       </c>
       <c r="B728" t="n">
-        <v>0.4741825225413329</v>
+        <v>0.4741825225413328</v>
       </c>
       <c r="C728" t="n">
         <v>0</v>
@@ -10810,7 +10810,7 @@
         <v>45945</v>
       </c>
       <c r="B741" t="n">
-        <v>0.3654005396091462</v>
+        <v>0.3654005396091461</v>
       </c>
       <c r="C741" t="n">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>45946</v>
       </c>
       <c r="B742" t="n">
-        <v>0.332755160510871</v>
+        <v>0.3327551605108711</v>
       </c>
       <c r="C742" t="n">
         <v>0</v>
@@ -10852,7 +10852,7 @@
         <v>45948</v>
       </c>
       <c r="B744" t="n">
-        <v>0.3808146433183972</v>
+        <v>0.3808146433183973</v>
       </c>
       <c r="C744" t="n">
         <v>0</v>
@@ -10894,7 +10894,7 @@
         <v>45951</v>
       </c>
       <c r="B747" t="n">
-        <v>0.3734835440440022</v>
+        <v>0.3734835440440023</v>
       </c>
       <c r="C747" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>45953</v>
       </c>
       <c r="B749" t="n">
-        <v>0.585398847815439</v>
+        <v>0.5853988478154389</v>
       </c>
       <c r="C749" t="n">
-        <v>5.309394862564063</v>
+        <v>5.309394862564062</v>
       </c>
       <c r="D749" t="n">
         <v>8.9</v>
@@ -10936,10 +10936,10 @@
         <v>45954</v>
       </c>
       <c r="B750" t="n">
-        <v>0.5362456761942597</v>
+        <v>0.5362456761942596</v>
       </c>
       <c r="C750" t="n">
-        <v>4.530429488389799</v>
+        <v>4.530429488389798</v>
       </c>
       <c r="D750" t="n">
         <v>4.5</v>
@@ -10950,7 +10950,7 @@
         <v>45955</v>
       </c>
       <c r="B751" t="n">
-        <v>0.4973598536129167</v>
+        <v>0.4973598536129168</v>
       </c>
       <c r="C751" t="n">
         <v>0</v>
@@ -10964,10 +10964,10 @@
         <v>45956</v>
       </c>
       <c r="B752" t="n">
-        <v>0.5047362839418051</v>
+        <v>0.5047362839418053</v>
       </c>
       <c r="C752" t="n">
-        <v>1.810670467057122</v>
+        <v>1.810670467057123</v>
       </c>
       <c r="D752" t="n">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>45957</v>
       </c>
       <c r="B753" t="n">
-        <v>0.5350794988513683</v>
+        <v>0.5350794988513684</v>
       </c>
       <c r="C753" t="n">
         <v>2.673537991756485</v>
@@ -10992,7 +10992,7 @@
         <v>45958</v>
       </c>
       <c r="B754" t="n">
-        <v>0.49464223215178</v>
+        <v>0.4946422321517799</v>
       </c>
       <c r="C754" t="n">
         <v>0</v>
@@ -11118,7 +11118,7 @@
         <v>45964</v>
       </c>
       <c r="B763" t="n">
-        <v>0.4192309702424785</v>
+        <v>0.4192309702424786</v>
       </c>
       <c r="C763" t="n">
         <v>0</v>
@@ -11132,7 +11132,7 @@
         <v>45965</v>
       </c>
       <c r="B764" t="n">
-        <v>0.3403415520551974</v>
+        <v>0.3403415520551973</v>
       </c>
       <c r="C764" t="n">
         <v>0</v>
@@ -11244,10 +11244,10 @@
         <v>45969</v>
       </c>
       <c r="B772" t="n">
-        <v>0.7011993851604901</v>
+        <v>0.70119938516049</v>
       </c>
       <c r="C772" t="n">
-        <v>3.141534419411791</v>
+        <v>3.14153441941179</v>
       </c>
       <c r="D772" t="n">
         <v>0</v>
@@ -11272,7 +11272,7 @@
         <v>45970</v>
       </c>
       <c r="B774" t="n">
-        <v>0.6741424655479457</v>
+        <v>0.6741424655479458</v>
       </c>
       <c r="C774" t="n">
         <v>5.171823575301167</v>
@@ -11286,7 +11286,7 @@
         <v>45970</v>
       </c>
       <c r="B775" t="n">
-        <v>0.4375250544187814</v>
+        <v>0.4375250544187815</v>
       </c>
       <c r="C775" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>45971</v>
       </c>
       <c r="B777" t="n">
-        <v>0.4100413684026653</v>
+        <v>0.4100413684026654</v>
       </c>
       <c r="C777" t="n">
         <v>0</v>
@@ -11412,7 +11412,7 @@
         <v>45978</v>
       </c>
       <c r="B784" t="n">
-        <v>0.4922264451962894</v>
+        <v>0.4922264451962893</v>
       </c>
       <c r="C784" t="n">
         <v>0</v>
@@ -11482,7 +11482,7 @@
         <v>45983</v>
       </c>
       <c r="B789" t="n">
-        <v>0.3991706438179306</v>
+        <v>0.3991706438179305</v>
       </c>
       <c r="C789" t="n">
         <v>0</v>
@@ -11510,10 +11510,10 @@
         <v>45985</v>
       </c>
       <c r="B791" t="n">
-        <v>0.5177742414720283</v>
+        <v>0.5177742414720282</v>
       </c>
       <c r="C791" t="n">
-        <v>3.879230097346982</v>
+        <v>3.879230097346981</v>
       </c>
       <c r="D791" t="n">
         <v>0</v>
@@ -11538,7 +11538,7 @@
         <v>45987</v>
       </c>
       <c r="B793" t="n">
-        <v>0.3475148681612625</v>
+        <v>0.3475148681612626</v>
       </c>
       <c r="C793" t="n">
         <v>0</v>
@@ -11580,7 +11580,7 @@
         <v>45990</v>
       </c>
       <c r="B796" t="n">
-        <v>0.2948074263379828</v>
+        <v>0.2948074263379829</v>
       </c>
       <c r="C796" t="n">
         <v>0</v>
@@ -11594,7 +11594,7 @@
         <v>45991</v>
       </c>
       <c r="B797" t="n">
-        <v>0.3035760477361415</v>
+        <v>0.3035760477361414</v>
       </c>
       <c r="C797" t="n">
         <v>0</v>
@@ -11608,7 +11608,7 @@
         <v>45992</v>
       </c>
       <c r="B798" t="n">
-        <v>0.3628053557552069</v>
+        <v>0.3628053557552068</v>
       </c>
       <c r="C798" t="n">
         <v>0</v>
@@ -11622,7 +11622,7 @@
         <v>45993</v>
       </c>
       <c r="B799" t="n">
-        <v>0.3511299150532705</v>
+        <v>0.3511299150532704</v>
       </c>
       <c r="C799" t="n">
         <v>0</v>
@@ -11692,10 +11692,10 @@
         <v>45998</v>
       </c>
       <c r="B804" t="n">
-        <v>0.509940880171464</v>
+        <v>0.5099408801714641</v>
       </c>
       <c r="C804" t="n">
-        <v>3.705524552381057</v>
+        <v>3.705524552381058</v>
       </c>
       <c r="D804" t="inlineStr"/>
     </row>

--- a/hasil_prediksi_regresi.xlsx
+++ b/hasil_prediksi_regresi.xlsx
@@ -464,7 +464,7 @@
         <v>45206</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4920352014806178</v>
+        <v>0.4920352014806177</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -478,7 +478,7 @@
         <v>45207</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4879952396172115</v>
+        <v>0.4879952396172114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>45208</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3980221199868451</v>
+        <v>0.398022119986845</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>45210</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3895504751578879</v>
+        <v>0.389550475157888</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -534,10 +534,10 @@
         <v>45211</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5203473271812081</v>
+        <v>0.5203473271812079</v>
       </c>
       <c r="C7" t="n">
-        <v>1.610014107865612</v>
+        <v>2.221530249161143</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>45212</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4083650289630855</v>
+        <v>0.4083650289630856</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>45214</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2719596728261485</v>
+        <v>0.2719596728261484</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -604,7 +604,7 @@
         <v>45216</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2093494681083282</v>
+        <v>0.2093494681083281</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>45217</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2265438747164183</v>
+        <v>0.2265438747164184</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>45220</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3306912875034692</v>
+        <v>0.3306912875034693</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>2.756200000000001</v>
+        <v>2.7562</v>
       </c>
     </row>
     <row r="20">
@@ -730,7 +730,7 @@
         <v>45225</v>
       </c>
       <c r="B21" t="n">
-        <v>0.419145943056859</v>
+        <v>0.4191459430568589</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>45227</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4224801203111327</v>
+        <v>0.4224801203111328</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3673294013151443</v>
+        <v>0.3673294013151444</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>45233</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3990008640349131</v>
+        <v>0.3990008640349132</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>45234</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4841642179324313</v>
+        <v>0.4841642179324314</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0.6863955658363712</v>
       </c>
       <c r="C31" t="n">
-        <v>3.38336903141222</v>
+        <v>3.173111883676218</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>45236</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5811021978390882</v>
+        <v>0.5811021978390881</v>
       </c>
       <c r="C32" t="n">
-        <v>3.274647346658357</v>
+        <v>2.133359451313051</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>45237</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3886179074155395</v>
+        <v>0.3886179074155394</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -926,10 +926,10 @@
         <v>45239</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5241014379249022</v>
+        <v>0.5241014379249023</v>
       </c>
       <c r="C35" t="n">
-        <v>2.963373391056445</v>
+        <v>3.057552366582301</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>45240</v>
       </c>
       <c r="B36" t="n">
-        <v>0.418066294142563</v>
+        <v>0.4180662941425631</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -954,10 +954,10 @@
         <v>45241</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5608799994286362</v>
+        <v>0.5608799994286361</v>
       </c>
       <c r="C37" t="n">
-        <v>3.873926783697096</v>
+        <v>3.262149476848078</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>45242</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5386451657009348</v>
+        <v>0.5386451657009347</v>
       </c>
       <c r="C38" t="n">
-        <v>2.732223274945706</v>
+        <v>2.777887930635885</v>
       </c>
       <c r="D38" t="n">
         <v>11.36499999999999</v>
@@ -982,7 +982,7 @@
         <v>45243</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3647810355364008</v>
+        <v>0.3647810355364007</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0.5219677838731255</v>
       </c>
       <c r="C41" t="n">
-        <v>3.122741499274411</v>
+        <v>4.058099210016316</v>
       </c>
       <c r="D41" t="n">
         <v>4.065</v>
@@ -1038,10 +1038,10 @@
         <v>45247</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5216639425647072</v>
+        <v>0.5216639425647073</v>
       </c>
       <c r="C43" t="n">
-        <v>4.117471923191488</v>
+        <v>3.594442101230046</v>
       </c>
       <c r="D43" t="n">
         <v>0.4</v>
@@ -1055,7 +1055,7 @@
         <v>0.516257560632157</v>
       </c>
       <c r="C44" t="n">
-        <v>2.16780876210278</v>
+        <v>2.434546381049948</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>0.5535984515924846</v>
       </c>
       <c r="C45" t="n">
-        <v>3.758900996108435</v>
+        <v>3.77754300329316</v>
       </c>
       <c r="D45" t="n">
         <v>4</v>
@@ -1083,7 +1083,7 @@
         <v>0.6163786705171393</v>
       </c>
       <c r="C46" t="n">
-        <v>3.88545915310468</v>
+        <v>3.475478599223167</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1094,10 +1094,10 @@
         <v>45251</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5455042832777445</v>
+        <v>0.5455042832777444</v>
       </c>
       <c r="C47" t="n">
-        <v>1.590363983216982</v>
+        <v>1.490010175290135</v>
       </c>
       <c r="D47" t="n">
         <v>15</v>
@@ -1108,7 +1108,7 @@
         <v>45252</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4607435332284489</v>
+        <v>0.460743533228449</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0.5222907059277032</v>
       </c>
       <c r="C49" t="n">
-        <v>2.997237999633797</v>
+        <v>3.851103479083721</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0.6393976565740269</v>
       </c>
       <c r="C50" t="n">
-        <v>4.360512853120571</v>
+        <v>3.395145725214697</v>
       </c>
       <c r="D50" t="n">
         <v>3.5</v>
@@ -1150,10 +1150,10 @@
         <v>45255</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6370013591791233</v>
+        <v>0.6370013591791234</v>
       </c>
       <c r="C51" t="n">
-        <v>2.361616614142582</v>
+        <v>2.619960718441433</v>
       </c>
       <c r="D51" t="n">
         <v>18.1</v>
@@ -1167,7 +1167,7 @@
         <v>0.8730164428656871</v>
       </c>
       <c r="C52" t="n">
-        <v>7.800030123045558</v>
+        <v>7.950283804636141</v>
       </c>
       <c r="D52" t="n">
         <v>4.348599999999998</v>
@@ -1181,7 +1181,7 @@
         <v>0.5375593643859228</v>
       </c>
       <c r="C53" t="n">
-        <v>2.639918544209723</v>
+        <v>4.100924887326755</v>
       </c>
       <c r="D53" t="n">
         <v>1.473400000000001</v>
@@ -1195,7 +1195,7 @@
         <v>0.6303593705402498</v>
       </c>
       <c r="C54" t="n">
-        <v>5.134639859603654</v>
+        <v>4.800425723087825</v>
       </c>
       <c r="D54" t="n">
         <v>2.5</v>
@@ -1206,10 +1206,10 @@
         <v>45259</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5289962134961118</v>
+        <v>0.5289962134961117</v>
       </c>
       <c r="C55" t="n">
-        <v>1.99804768032221</v>
+        <v>2.322710267688857</v>
       </c>
       <c r="D55" t="n">
         <v>18.1</v>
@@ -1223,7 +1223,7 @@
         <v>0.5483438923789292</v>
       </c>
       <c r="C56" t="n">
-        <v>2.738506509400238</v>
+        <v>3.018002261395256</v>
       </c>
       <c r="D56" t="n">
         <v>3</v>
@@ -1234,10 +1234,10 @@
         <v>45261</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7015820591771142</v>
+        <v>0.7015820591771144</v>
       </c>
       <c r="C57" t="n">
-        <v>3.207164502198151</v>
+        <v>3.511602283688592</v>
       </c>
       <c r="D57" t="n">
         <v>1.1</v>
@@ -1248,10 +1248,10 @@
         <v>45262</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8651828525191135</v>
+        <v>0.8651828525191136</v>
       </c>
       <c r="C58" t="n">
-        <v>7.18775727950051</v>
+        <v>7.056270568940914</v>
       </c>
       <c r="D58" t="n">
         <v>3.955999999999998</v>
@@ -1265,7 +1265,7 @@
         <v>0.5497547925238435</v>
       </c>
       <c r="C59" t="n">
-        <v>1.461188596684878</v>
+        <v>1.803489697699398</v>
       </c>
       <c r="D59" t="n">
         <v>2.3</v>
@@ -1276,10 +1276,10 @@
         <v>45264</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6203553928733703</v>
+        <v>0.6203553928733704</v>
       </c>
       <c r="C60" t="n">
-        <v>4.418299328014452</v>
+        <v>3.731735484469074</v>
       </c>
       <c r="D60" t="n">
         <v>1.4</v>
@@ -1290,10 +1290,10 @@
         <v>45265</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8631794310575603</v>
+        <v>0.8631794310575605</v>
       </c>
       <c r="C61" t="n">
-        <v>2.970652753131583</v>
+        <v>3.545400505977159</v>
       </c>
       <c r="D61" t="n">
         <v>5.698999999999995</v>
@@ -1304,10 +1304,10 @@
         <v>45266</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5284986188646067</v>
+        <v>0.5284986188646068</v>
       </c>
       <c r="C62" t="n">
-        <v>3.126328878436446</v>
+        <v>3.506202633219934</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1318,10 +1318,10 @@
         <v>45267</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5317174614396249</v>
+        <v>0.5317174614396248</v>
       </c>
       <c r="C63" t="n">
-        <v>1.913826075975027</v>
+        <v>1.690121598669565</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0.597787541344148</v>
       </c>
       <c r="C64" t="n">
-        <v>1.554696072431421</v>
+        <v>1.683938946786517</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1346,10 +1346,10 @@
         <v>45269</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5307986557350592</v>
+        <v>0.5307986557350594</v>
       </c>
       <c r="C65" t="n">
-        <v>1.845521750563819</v>
+        <v>2.036207407515852</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>45271</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4566357151597227</v>
+        <v>0.4566357151597226</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>45272</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3479839065410644</v>
+        <v>0.3479839065410645</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>45276</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3971182578040696</v>
+        <v>0.3971182578040697</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>45277</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3462251617414872</v>
+        <v>0.346225161741487</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5790000000000012</v>
+        <v>0.5790000000000011</v>
       </c>
     </row>
     <row r="76">
@@ -1500,7 +1500,7 @@
         <v>45280</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4032282430930699</v>
+        <v>0.4032282430930698</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>45283</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4298383737523833</v>
+        <v>0.4298383737523834</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>45285</v>
       </c>
       <c r="B81" t="n">
-        <v>0.382865222903742</v>
+        <v>0.3828652229037419</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>45286</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6174154157101397</v>
+        <v>0.6174154157101396</v>
       </c>
       <c r="C82" t="n">
-        <v>3.414050361443481</v>
+        <v>2.82265136365197</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1598,10 +1598,10 @@
         <v>45287</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6393155497735737</v>
+        <v>0.6393155497735739</v>
       </c>
       <c r="C83" t="n">
-        <v>3.421313953279985</v>
+        <v>3.52394059259112</v>
       </c>
       <c r="D83" t="n">
         <v>2.5</v>
@@ -1612,10 +1612,10 @@
         <v>45288</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5219262073059439</v>
+        <v>0.5219262073059437</v>
       </c>
       <c r="C84" t="n">
-        <v>3.793226095166593</v>
+        <v>3.443038993201881</v>
       </c>
       <c r="D84" t="n">
         <v>1.064400000000001</v>
@@ -1626,7 +1626,7 @@
         <v>45289</v>
       </c>
       <c r="B85" t="n">
-        <v>0.471063445000704</v>
+        <v>0.4710634450007041</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>0.6134103083184622</v>
       </c>
       <c r="C86" t="n">
-        <v>3.551462558749678</v>
+        <v>3.128369114178533</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>45291</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5916358772877336</v>
+        <v>0.5916358772877335</v>
       </c>
       <c r="C87" t="n">
-        <v>8.619063646897635</v>
+        <v>7.740494164122402</v>
       </c>
       <c r="D87" t="n">
         <v>1.8</v>
@@ -1668,10 +1668,10 @@
         <v>45292</v>
       </c>
       <c r="B88" t="n">
-        <v>0.676793820551658</v>
+        <v>0.6767938205516583</v>
       </c>
       <c r="C88" t="n">
-        <v>3.41589389977074</v>
+        <v>3.260225821887526</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         <v>0.5386359450413758</v>
       </c>
       <c r="C89" t="n">
-        <v>2.431297317971372</v>
+        <v>2.829882914026973</v>
       </c>
       <c r="D89" t="n">
         <v>2.5</v>
@@ -1696,10 +1696,10 @@
         <v>45294</v>
       </c>
       <c r="B90" t="n">
-        <v>0.558902693267424</v>
+        <v>0.5589026932674239</v>
       </c>
       <c r="C90" t="n">
-        <v>3.422064796877078</v>
+        <v>4.188654216358209</v>
       </c>
       <c r="D90" t="n">
         <v>8.5</v>
@@ -1713,7 +1713,7 @@
         <v>0.8217352578104226</v>
       </c>
       <c r="C91" t="n">
-        <v>4.370648601343683</v>
+        <v>5.844214450025648</v>
       </c>
       <c r="D91" t="n">
         <v>30.8</v>
@@ -1724,10 +1724,10 @@
         <v>45296</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8653605979762243</v>
+        <v>0.8653605979762244</v>
       </c>
       <c r="C92" t="n">
-        <v>3.994460932682966</v>
+        <v>4.111200221076965</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -1741,7 +1741,7 @@
         <v>0.760651049133625</v>
       </c>
       <c r="C93" t="n">
-        <v>4.079907230440488</v>
+        <v>3.876701173070271</v>
       </c>
       <c r="D93" t="n">
         <v>1.3</v>
@@ -1755,7 +1755,7 @@
         <v>0.8354179043452089</v>
       </c>
       <c r="C94" t="n">
-        <v>5.873030667162508</v>
+        <v>3.969709369705896</v>
       </c>
       <c r="D94" t="n">
         <v>17.76559999999999</v>
@@ -1766,10 +1766,10 @@
         <v>45299</v>
       </c>
       <c r="B95" t="n">
-        <v>0.7195021082719735</v>
+        <v>0.7195021082719736</v>
       </c>
       <c r="C95" t="n">
-        <v>4.113513981434799</v>
+        <v>2.860841471898813</v>
       </c>
       <c r="D95" t="n">
         <v>20.07160000000002</v>
@@ -1780,10 +1780,10 @@
         <v>45300</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6688965932595626</v>
+        <v>0.6688965932595625</v>
       </c>
       <c r="C96" t="n">
-        <v>6.38336198988718</v>
+        <v>7.420707456197054</v>
       </c>
       <c r="D96" t="n">
         <v>1.164</v>
@@ -1797,7 +1797,7 @@
         <v>0.5563110351016165</v>
       </c>
       <c r="C97" t="n">
-        <v>5.488413566161183</v>
+        <v>3.98410157661874</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -1808,10 +1808,10 @@
         <v>45302</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5461753991940953</v>
+        <v>0.5461753991940952</v>
       </c>
       <c r="C98" t="n">
-        <v>3.072676758532428</v>
+        <v>2.160243983909828</v>
       </c>
       <c r="D98" t="n">
         <v>42</v>
@@ -1822,10 +1822,10 @@
         <v>45303</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8410979574573755</v>
+        <v>0.8410979574573754</v>
       </c>
       <c r="C99" t="n">
-        <v>6.389187599996281</v>
+        <v>5.792873921250621</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -1836,10 +1836,10 @@
         <v>45304</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5971657378944153</v>
+        <v>0.5971657378944154</v>
       </c>
       <c r="C100" t="n">
-        <v>2.476764283752466</v>
+        <v>2.916879981759646</v>
       </c>
       <c r="D100" t="n">
         <v>2.4</v>
@@ -1853,7 +1853,7 @@
         <v>0.6445426954166745</v>
       </c>
       <c r="C101" t="n">
-        <v>6.626218372355458</v>
+        <v>5.992858619575002</v>
       </c>
       <c r="D101" t="n">
         <v>4.329399999999999</v>
@@ -1864,10 +1864,10 @@
         <v>45306</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5659617292885978</v>
+        <v>0.5659617292885979</v>
       </c>
       <c r="C102" t="n">
-        <v>2.789813947766479</v>
+        <v>3.30051029487456</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -1878,13 +1878,13 @@
         <v>45307</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5688848524788788</v>
+        <v>0.5688848524788789</v>
       </c>
       <c r="C103" t="n">
-        <v>6.881748046917159</v>
+        <v>6.172359634061852</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5127999999999998</v>
+        <v>0.5127999999999999</v>
       </c>
     </row>
     <row r="104">
@@ -1906,10 +1906,10 @@
         <v>45309</v>
       </c>
       <c r="B105" t="n">
-        <v>0.679311268515881</v>
+        <v>0.6793112685158811</v>
       </c>
       <c r="C105" t="n">
-        <v>2.596058184256059</v>
+        <v>2.910349195977753</v>
       </c>
       <c r="D105" t="n">
         <v>7.7</v>
@@ -1920,10 +1920,10 @@
         <v>45310</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6855200897306055</v>
+        <v>0.6855200897306054</v>
       </c>
       <c r="C106" t="n">
-        <v>5.607024341486184</v>
+        <v>5.037385687593342</v>
       </c>
       <c r="D106" t="n">
         <v>11</v>
@@ -1934,10 +1934,10 @@
         <v>45311</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9040548313909953</v>
+        <v>0.9040548313909952</v>
       </c>
       <c r="C107" t="n">
-        <v>6.801894884007867</v>
+        <v>7.109172790285445</v>
       </c>
       <c r="D107" t="n">
         <v>6.344600000000008</v>
@@ -1962,10 +1962,10 @@
         <v>45313</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5321963963341395</v>
+        <v>0.5321963963341396</v>
       </c>
       <c r="C109" t="n">
-        <v>2.941205328428024</v>
+        <v>2.744944914203729</v>
       </c>
       <c r="D109" t="n">
         <v>0.3058</v>
@@ -1976,10 +1976,10 @@
         <v>45314</v>
       </c>
       <c r="B110" t="n">
-        <v>0.52162261820185</v>
+        <v>0.5216226182018499</v>
       </c>
       <c r="C110" t="n">
-        <v>2.627935552403367</v>
+        <v>2.552354754374536</v>
       </c>
       <c r="D110" t="n">
         <v>0.8544000000000004</v>
@@ -1993,7 +1993,7 @@
         <v>0.5073291221230101</v>
       </c>
       <c r="C111" t="n">
-        <v>3.381620974059144</v>
+        <v>3.789411934309778</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>45316</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5279111436805419</v>
+        <v>0.5279111436805418</v>
       </c>
       <c r="C112" t="n">
-        <v>3.512420587987198</v>
+        <v>3.955340673627117</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>0.5808213352327293</v>
       </c>
       <c r="C114" t="n">
-        <v>7.960977256177135</v>
+        <v>8.209151397654402</v>
       </c>
       <c r="D114" t="n">
         <v>28</v>
@@ -2049,7 +2049,7 @@
         <v>0.8796315278463426</v>
       </c>
       <c r="C115" t="n">
-        <v>9.162020012449249</v>
+        <v>14.37221122940696</v>
       </c>
       <c r="D115" t="n">
         <v>24</v>
@@ -2063,7 +2063,7 @@
         <v>0.8690870464496612</v>
       </c>
       <c r="C116" t="n">
-        <v>10.0517737392461</v>
+        <v>12.55048768217033</v>
       </c>
       <c r="D116" t="n">
         <v>17.6</v>
@@ -2074,10 +2074,10 @@
         <v>45321</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9299302791491262</v>
+        <v>0.9299302791491263</v>
       </c>
       <c r="C117" t="n">
-        <v>12.26996060560081</v>
+        <v>13.41508518848713</v>
       </c>
       <c r="D117" t="n">
         <v>110.5</v>
@@ -2088,13 +2088,13 @@
         <v>45322</v>
       </c>
       <c r="B118" t="n">
-        <v>0.8945224485882179</v>
+        <v>0.8945224485882181</v>
       </c>
       <c r="C118" t="n">
-        <v>8.907421815151313</v>
+        <v>7.185943657529791</v>
       </c>
       <c r="D118" t="n">
-        <v>50.64359999999997</v>
+        <v>50.64359999999996</v>
       </c>
     </row>
     <row r="119">
@@ -2102,10 +2102,10 @@
         <v>45323</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8206295276233609</v>
+        <v>0.8206295276233607</v>
       </c>
       <c r="C119" t="n">
-        <v>7.014868260959584</v>
+        <v>7.400810098651673</v>
       </c>
       <c r="D119" t="n">
         <v>20.1</v>
@@ -2119,7 +2119,7 @@
         <v>0.8511553580861597</v>
       </c>
       <c r="C120" t="n">
-        <v>12.3495671688655</v>
+        <v>9.459994180710515</v>
       </c>
       <c r="D120" t="n">
         <v>20.3</v>
@@ -2133,10 +2133,10 @@
         <v>0.7333050419172189</v>
       </c>
       <c r="C121" t="n">
-        <v>5.939525652964364</v>
+        <v>5.209801901406315</v>
       </c>
       <c r="D121" t="n">
-        <v>7.763599999999999</v>
+        <v>7.7636</v>
       </c>
     </row>
     <row r="122">
@@ -2147,7 +2147,7 @@
         <v>0.694456750786216</v>
       </c>
       <c r="C122" t="n">
-        <v>5.137421332964434</v>
+        <v>5.50293607515018</v>
       </c>
       <c r="D122" t="n">
         <v>14</v>
@@ -2161,7 +2161,7 @@
         <v>0.7606498705461763</v>
       </c>
       <c r="C123" t="n">
-        <v>4.885511830356996</v>
+        <v>6.43624771224597</v>
       </c>
       <c r="D123" t="n">
         <v>6.8</v>
@@ -2172,10 +2172,10 @@
         <v>45328</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8361327308702484</v>
+        <v>0.8361327308702483</v>
       </c>
       <c r="C124" t="n">
-        <v>9.066493746253419</v>
+        <v>10.80969815389427</v>
       </c>
       <c r="D124" t="n">
         <v>14.8</v>
@@ -2189,7 +2189,7 @@
         <v>0.9053270282401845</v>
       </c>
       <c r="C125" t="n">
-        <v>9.930096901322907</v>
+        <v>8.490395400526952</v>
       </c>
       <c r="D125" t="n">
         <v>25.67060000000002</v>
@@ -2200,10 +2200,10 @@
         <v>45330</v>
       </c>
       <c r="B126" t="n">
-        <v>0.6159552461409687</v>
+        <v>0.6159552461409686</v>
       </c>
       <c r="C126" t="n">
-        <v>9.555742851254005</v>
+        <v>7.572070734170345</v>
       </c>
       <c r="D126" t="n">
         <v>8.097999999999999</v>
@@ -2214,10 +2214,10 @@
         <v>45331</v>
       </c>
       <c r="B127" t="n">
-        <v>0.5521573582560414</v>
+        <v>0.5521573582560415</v>
       </c>
       <c r="C127" t="n">
-        <v>5.770093786819346</v>
+        <v>6.860606359741219</v>
       </c>
       <c r="D127" t="n">
         <v>102</v>
@@ -2228,10 +2228,10 @@
         <v>45332</v>
       </c>
       <c r="B128" t="n">
-        <v>0.6601477537727192</v>
+        <v>0.6601477537727191</v>
       </c>
       <c r="C128" t="n">
-        <v>7.508042443912966</v>
+        <v>6.54141064969289</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0.676525008666253</v>
       </c>
       <c r="C129" t="n">
-        <v>6.021802667938336</v>
+        <v>6.125928353271243</v>
       </c>
       <c r="D129" t="n">
         <v>5.8</v>
@@ -2256,10 +2256,10 @@
         <v>45334</v>
       </c>
       <c r="B130" t="n">
-        <v>0.6311800693692424</v>
+        <v>0.6311800693692425</v>
       </c>
       <c r="C130" t="n">
-        <v>3.582251595810415</v>
+        <v>4.357503047419172</v>
       </c>
       <c r="D130" t="n">
         <v>3</v>
@@ -2273,7 +2273,7 @@
         <v>0.7114925747882964</v>
       </c>
       <c r="C131" t="n">
-        <v>3.69147942848798</v>
+        <v>3.273440153675918</v>
       </c>
       <c r="D131" t="n">
         <v>140.9</v>
@@ -2284,10 +2284,10 @@
         <v>45336</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6921971206416159</v>
+        <v>0.6921971206416158</v>
       </c>
       <c r="C132" t="n">
-        <v>12.74020270287613</v>
+        <v>14.42320966875988</v>
       </c>
       <c r="D132" t="n">
         <v>3</v>
@@ -2298,10 +2298,10 @@
         <v>45337</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8483465232668082</v>
+        <v>0.8483465232668083</v>
       </c>
       <c r="C133" t="n">
-        <v>16.18722019318312</v>
+        <v>11.39378434842018</v>
       </c>
       <c r="D133" t="n">
         <v>7.5</v>
@@ -2315,7 +2315,7 @@
         <v>0.7940699211738689</v>
       </c>
       <c r="C134" t="n">
-        <v>9.208463961854701</v>
+        <v>11.73495830561783</v>
       </c>
       <c r="D134" t="n">
         <v>18.4</v>
@@ -2329,7 +2329,7 @@
         <v>0.856839123725705</v>
       </c>
       <c r="C135" t="n">
-        <v>5.746239231397254</v>
+        <v>6.636111869142137</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>0.8196100036002032</v>
       </c>
       <c r="C136" t="n">
-        <v>12.18158593216689</v>
+        <v>14.15859835492503</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0.7454849495120597</v>
       </c>
       <c r="C137" t="n">
-        <v>6.219242828781031</v>
+        <v>5.931676411708223</v>
       </c>
       <c r="D137" t="n">
         <v>2.947200000000001</v>
@@ -2371,7 +2371,7 @@
         <v>0.6711642397539803</v>
       </c>
       <c r="C138" t="n">
-        <v>1.383793790149061</v>
+        <v>1.840892637636576</v>
       </c>
       <c r="D138" t="n">
         <v>0.2</v>
@@ -2382,10 +2382,10 @@
         <v>45343</v>
       </c>
       <c r="B139" t="n">
-        <v>0.6272421858863224</v>
+        <v>0.6272421858863225</v>
       </c>
       <c r="C139" t="n">
-        <v>3.124531371937038</v>
+        <v>4.54062133924024</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0.539790418523346</v>
       </c>
       <c r="C140" t="n">
-        <v>3.932424080218675</v>
+        <v>5.403511730160079</v>
       </c>
       <c r="D140" t="n">
         <v>3.2</v>
@@ -2413,7 +2413,7 @@
         <v>0.5016416498943336</v>
       </c>
       <c r="C141" t="n">
-        <v>2.839943007211883</v>
+        <v>2.821694812428129</v>
       </c>
       <c r="D141" t="n">
         <v>3.261399999999998</v>
@@ -2424,10 +2424,10 @@
         <v>45346</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5638390426582344</v>
+        <v>0.5638390426582345</v>
       </c>
       <c r="C142" t="n">
-        <v>2.319339063400254</v>
+        <v>2.583073203313833</v>
       </c>
       <c r="D142" t="n">
         <v>5.7</v>
@@ -2438,10 +2438,10 @@
         <v>45347</v>
       </c>
       <c r="B143" t="n">
-        <v>0.6731456392223834</v>
+        <v>0.6731456392223835</v>
       </c>
       <c r="C143" t="n">
-        <v>3.60237871303506</v>
+        <v>3.909771163239692</v>
       </c>
       <c r="D143" t="n">
         <v>20.8</v>
@@ -2452,10 +2452,10 @@
         <v>45348</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6595457622646389</v>
+        <v>0.6595457622646388</v>
       </c>
       <c r="C144" t="n">
-        <v>2.653567560814719</v>
+        <v>3.670842376153066</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>0.6614837287722038</v>
       </c>
       <c r="C145" t="n">
-        <v>8.871013359895942</v>
+        <v>11.20487359830665</v>
       </c>
       <c r="D145" t="n">
         <v>38.5</v>
@@ -2483,7 +2483,7 @@
         <v>0.5930611187729703</v>
       </c>
       <c r="C146" t="n">
-        <v>3.768663894952966</v>
+        <v>3.856354790127981</v>
       </c>
       <c r="D146" t="n">
         <v>75.5</v>
@@ -2497,7 +2497,7 @@
         <v>0.8635275555977577</v>
       </c>
       <c r="C147" t="n">
-        <v>9.860121818503444</v>
+        <v>8.674201890833606</v>
       </c>
       <c r="D147" t="n">
         <v>10</v>
@@ -2511,7 +2511,7 @@
         <v>0.92016718389315</v>
       </c>
       <c r="C148" t="n">
-        <v>8.371685911160904</v>
+        <v>10.45991123465749</v>
       </c>
       <c r="D148" t="n">
         <v>13.06300000000002</v>
@@ -2525,7 +2525,7 @@
         <v>0.7134624134348981</v>
       </c>
       <c r="C149" t="n">
-        <v>2.799115709616575</v>
+        <v>4.032503473773661</v>
       </c>
       <c r="D149" t="n">
         <v>17.7</v>
@@ -2536,10 +2536,10 @@
         <v>45354</v>
       </c>
       <c r="B150" t="n">
-        <v>0.8822899108634429</v>
+        <v>0.8822899108634428</v>
       </c>
       <c r="C150" t="n">
-        <v>4.925882370982801</v>
+        <v>4.869312628644415</v>
       </c>
       <c r="D150" t="n">
         <v>6.8</v>
@@ -2550,10 +2550,10 @@
         <v>45355</v>
       </c>
       <c r="B151" t="n">
-        <v>0.8445761305652377</v>
+        <v>0.8445761305652375</v>
       </c>
       <c r="C151" t="n">
-        <v>6.413675579702719</v>
+        <v>5.685886961836133</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
         <v>0.6342013804587561</v>
       </c>
       <c r="C152" t="n">
-        <v>2.693769117566136</v>
+        <v>2.444519427707446</v>
       </c>
       <c r="D152" t="n">
         <v>2.061200000000003</v>
@@ -2578,10 +2578,10 @@
         <v>45357</v>
       </c>
       <c r="B153" t="n">
-        <v>0.5647752645554501</v>
+        <v>0.5647752645554502</v>
       </c>
       <c r="C153" t="n">
-        <v>1.732574493092533</v>
+        <v>1.616776890192263</v>
       </c>
       <c r="D153" t="n">
         <v>4</v>
@@ -2595,7 +2595,7 @@
         <v>0.5975479309112661</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9924836689305055</v>
+        <v>1.13210186425649</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>45359</v>
       </c>
       <c r="B155" t="n">
-        <v>0.6100113409615291</v>
+        <v>0.6100113409615292</v>
       </c>
       <c r="C155" t="n">
-        <v>2.711856256728247</v>
+        <v>3.093464432250879</v>
       </c>
       <c r="D155" t="n">
         <v>4.2</v>
@@ -2620,10 +2620,10 @@
         <v>45360</v>
       </c>
       <c r="B156" t="n">
-        <v>0.5459842386718818</v>
+        <v>0.5459842386718819</v>
       </c>
       <c r="C156" t="n">
-        <v>8.344238063620923</v>
+        <v>8.465293548057746</v>
       </c>
       <c r="D156" t="n">
         <v>47.7</v>
@@ -2637,7 +2637,7 @@
         <v>0.7827959695193301</v>
       </c>
       <c r="C157" t="n">
-        <v>4.711648982342663</v>
+        <v>5.198120855787711</v>
       </c>
       <c r="D157" t="n">
         <v>10.4</v>
@@ -2651,7 +2651,7 @@
         <v>0.8100957006788498</v>
       </c>
       <c r="C158" t="n">
-        <v>6.82851985267198</v>
+        <v>8.486348423152348</v>
       </c>
       <c r="D158" t="n">
         <v>16</v>
@@ -2662,10 +2662,10 @@
         <v>45363</v>
       </c>
       <c r="B159" t="n">
-        <v>0.8498568946170809</v>
+        <v>0.8498568946170808</v>
       </c>
       <c r="C159" t="n">
-        <v>6.217374720978313</v>
+        <v>5.190335709427381</v>
       </c>
       <c r="D159" t="n">
         <v>4.3</v>
@@ -2679,7 +2679,7 @@
         <v>0.7244934043012743</v>
       </c>
       <c r="C160" t="n">
-        <v>2.770438509796337</v>
+        <v>3.425198000616264</v>
       </c>
       <c r="D160" t="n">
         <v>24</v>
@@ -2690,10 +2690,10 @@
         <v>45365</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7971775959213272</v>
+        <v>0.7971775959213273</v>
       </c>
       <c r="C161" t="n">
-        <v>3.984561347197652</v>
+        <v>3.915327100652468</v>
       </c>
       <c r="D161" t="n">
         <v>31.8</v>
@@ -2707,7 +2707,7 @@
         <v>0.8774654156950468</v>
       </c>
       <c r="C162" t="n">
-        <v>3.036639573993303</v>
+        <v>2.5596574606788</v>
       </c>
       <c r="D162" t="n">
         <v>6.5</v>
@@ -2718,10 +2718,10 @@
         <v>45367</v>
       </c>
       <c r="B163" t="n">
-        <v>0.8967414439235196</v>
+        <v>0.8967414439235195</v>
       </c>
       <c r="C163" t="n">
-        <v>4.661885852342222</v>
+        <v>3.800678366248887</v>
       </c>
       <c r="D163" t="n">
         <v>19</v>
@@ -2735,7 +2735,7 @@
         <v>0.9412279696491029</v>
       </c>
       <c r="C164" t="n">
-        <v>7.468704474991622</v>
+        <v>7.990168015072685</v>
       </c>
       <c r="D164" t="n">
         <v>21.7</v>
@@ -2749,7 +2749,7 @@
         <v>0.9176459620403129</v>
       </c>
       <c r="C165" t="n">
-        <v>10.55301432673138</v>
+        <v>10.0537014568279</v>
       </c>
       <c r="D165" t="n">
         <v>0.3</v>
@@ -2760,13 +2760,13 @@
         <v>45370</v>
       </c>
       <c r="B166" t="n">
-        <v>0.7335580133764212</v>
+        <v>0.7335580133764213</v>
       </c>
       <c r="C166" t="n">
-        <v>4.793481799508156</v>
+        <v>5.30352476120327</v>
       </c>
       <c r="D166" t="n">
-        <v>9.695399999999999</v>
+        <v>9.695400000000001</v>
       </c>
     </row>
     <row r="167">
@@ -2777,7 +2777,7 @@
         <v>0.5293063645841132</v>
       </c>
       <c r="C167" t="n">
-        <v>1.422870767156104</v>
+        <v>1.821744749629206</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -2788,10 +2788,10 @@
         <v>45372</v>
       </c>
       <c r="B168" t="n">
-        <v>0.522679522364237</v>
+        <v>0.5226795223642371</v>
       </c>
       <c r="C168" t="n">
-        <v>1.469773340431835</v>
+        <v>1.471800851034039</v>
       </c>
       <c r="D168" t="n">
         <v>63.3</v>
@@ -2802,10 +2802,10 @@
         <v>45373</v>
       </c>
       <c r="B169" t="n">
-        <v>0.5386323001387578</v>
+        <v>0.538632300138758</v>
       </c>
       <c r="C169" t="n">
-        <v>2.071274805328706</v>
+        <v>1.704195631186577</v>
       </c>
       <c r="D169" t="n">
         <v>3.8</v>
@@ -2816,10 +2816,10 @@
         <v>45374</v>
       </c>
       <c r="B170" t="n">
-        <v>0.8268105229705636</v>
+        <v>0.8268105229705633</v>
       </c>
       <c r="C170" t="n">
-        <v>7.164657727978263</v>
+        <v>6.638618046905147</v>
       </c>
       <c r="D170" t="n">
         <v>5.479999999999991</v>
@@ -2833,7 +2833,7 @@
         <v>0.6188969395939002</v>
       </c>
       <c r="C171" t="n">
-        <v>5.825375352957538</v>
+        <v>3.846247438489593</v>
       </c>
       <c r="D171" t="n">
         <v>1.5456</v>
@@ -2844,10 +2844,10 @@
         <v>45376</v>
       </c>
       <c r="B172" t="n">
-        <v>0.5672652167825204</v>
+        <v>0.5672652167825203</v>
       </c>
       <c r="C172" t="n">
-        <v>0.7761071498782727</v>
+        <v>0.9457773492925475</v>
       </c>
       <c r="D172" t="n">
         <v>0.5777999999999993</v>
@@ -2858,10 +2858,10 @@
         <v>45377</v>
       </c>
       <c r="B173" t="n">
-        <v>0.6821954420571797</v>
+        <v>0.6821954420571796</v>
       </c>
       <c r="C173" t="n">
-        <v>2.902832766942433</v>
+        <v>2.667308930941409</v>
       </c>
       <c r="D173" t="n">
         <v>0.4</v>
@@ -2875,7 +2875,7 @@
         <v>0.6207041787695327</v>
       </c>
       <c r="C174" t="n">
-        <v>2.425624613324813</v>
+        <v>1.729276966754737</v>
       </c>
       <c r="D174" t="n">
         <v>2.990800000000002</v>
@@ -2886,10 +2886,10 @@
         <v>45379</v>
       </c>
       <c r="B175" t="n">
-        <v>0.7813387081198088</v>
+        <v>0.7813387081198087</v>
       </c>
       <c r="C175" t="n">
-        <v>6.173307971322582</v>
+        <v>4.276386011112467</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -2900,10 +2900,10 @@
         <v>45380</v>
       </c>
       <c r="B176" t="n">
-        <v>0.6212844867043927</v>
+        <v>0.6212844867043928</v>
       </c>
       <c r="C176" t="n">
-        <v>1.537996775108</v>
+        <v>1.183869102934647</v>
       </c>
       <c r="D176" t="n">
         <v>0.6757999999999985</v>
@@ -2928,10 +2928,10 @@
         <v>45382</v>
       </c>
       <c r="B178" t="n">
-        <v>0.5640348258331525</v>
+        <v>0.5640348258331523</v>
       </c>
       <c r="C178" t="n">
-        <v>1.729078489705815</v>
+        <v>1.434261076869799</v>
       </c>
       <c r="D178" t="n">
         <v>18.2</v>
@@ -2942,10 +2942,10 @@
         <v>45383</v>
       </c>
       <c r="B179" t="n">
-        <v>0.7329177353759927</v>
+        <v>0.7329177353759926</v>
       </c>
       <c r="C179" t="n">
-        <v>3.594703727772826</v>
+        <v>3.271524412273334</v>
       </c>
       <c r="D179" t="n">
         <v>1.2</v>
@@ -2956,10 +2956,10 @@
         <v>45384</v>
       </c>
       <c r="B180" t="n">
-        <v>0.6152134433936569</v>
+        <v>0.6152134433936568</v>
       </c>
       <c r="C180" t="n">
-        <v>5.349320599061288</v>
+        <v>4.556616420370315</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -2970,10 +2970,10 @@
         <v>45385</v>
       </c>
       <c r="B181" t="n">
-        <v>0.5741070077073039</v>
+        <v>0.5741070077073041</v>
       </c>
       <c r="C181" t="n">
-        <v>5.370556169942113</v>
+        <v>4.557028029765322</v>
       </c>
       <c r="D181" t="n">
         <v>5.6</v>
@@ -2987,7 +2987,7 @@
         <v>0.7553507887645372</v>
       </c>
       <c r="C182" t="n">
-        <v>3.862279244560886</v>
+        <v>3.49002562953618</v>
       </c>
       <c r="D182" t="n">
         <v>10.83299999999999</v>
@@ -2998,10 +2998,10 @@
         <v>45387</v>
       </c>
       <c r="B183" t="n">
-        <v>0.5970453914727882</v>
+        <v>0.5970453914727883</v>
       </c>
       <c r="C183" t="n">
-        <v>2.536098591393334</v>
+        <v>3.378648506238957</v>
       </c>
       <c r="D183" t="n">
         <v>2.8</v>
@@ -3015,7 +3015,7 @@
         <v>0.6565364054270275</v>
       </c>
       <c r="C184" t="n">
-        <v>7.956856755690697</v>
+        <v>5.942867392474082</v>
       </c>
       <c r="D184" t="n">
         <v>2.465800000000004</v>
@@ -3029,7 +3029,7 @@
         <v>0.642385335703814</v>
       </c>
       <c r="C185" t="n">
-        <v>8.215902576677703</v>
+        <v>6.864167551813791</v>
       </c>
       <c r="D185" t="n">
         <v>1.460400000000001</v>
@@ -3040,10 +3040,10 @@
         <v>45390</v>
       </c>
       <c r="B186" t="n">
-        <v>0.5876272587936127</v>
+        <v>0.5876272587936126</v>
       </c>
       <c r="C186" t="n">
-        <v>3.916630085689827</v>
+        <v>3.612131213694088</v>
       </c>
       <c r="D186" t="n">
         <v>1.468</v>
@@ -3057,7 +3057,7 @@
         <v>0.5467330820088573</v>
       </c>
       <c r="C187" t="n">
-        <v>5.425534971381536</v>
+        <v>4.389664279418172</v>
       </c>
       <c r="D187" t="n">
         <v>8.699999999999999</v>
@@ -3068,10 +3068,10 @@
         <v>45392</v>
       </c>
       <c r="B188" t="n">
-        <v>0.6793195670258857</v>
+        <v>0.6793195670258858</v>
       </c>
       <c r="C188" t="n">
-        <v>4.189617602514002</v>
+        <v>3.228525559402069</v>
       </c>
       <c r="D188" t="n">
         <v>0.7</v>
@@ -3082,10 +3082,10 @@
         <v>45393</v>
       </c>
       <c r="B189" t="n">
-        <v>0.647570775308595</v>
+        <v>0.6475707753085949</v>
       </c>
       <c r="C189" t="n">
-        <v>2.205407529279158</v>
+        <v>2.260560380059367</v>
       </c>
       <c r="D189" t="n">
         <v>39</v>
@@ -3096,10 +3096,10 @@
         <v>45394</v>
       </c>
       <c r="B190" t="n">
-        <v>0.668107915631732</v>
+        <v>0.6681079156317319</v>
       </c>
       <c r="C190" t="n">
-        <v>8.086443764359734</v>
+        <v>6.871268079566001</v>
       </c>
       <c r="D190" t="n">
         <v>1</v>
@@ -3110,13 +3110,13 @@
         <v>45395</v>
       </c>
       <c r="B191" t="n">
-        <v>0.8372792583861844</v>
+        <v>0.8372792583861846</v>
       </c>
       <c r="C191" t="n">
-        <v>7.702209651824664</v>
+        <v>6.464493181594413</v>
       </c>
       <c r="D191" t="n">
-        <v>2.890200000000001</v>
+        <v>2.890200000000002</v>
       </c>
     </row>
     <row r="192">
@@ -3124,10 +3124,10 @@
         <v>45396</v>
       </c>
       <c r="B192" t="n">
-        <v>0.6585220196694227</v>
+        <v>0.6585220196694228</v>
       </c>
       <c r="C192" t="n">
-        <v>5.945400479715077</v>
+        <v>5.876439349634035</v>
       </c>
       <c r="D192" t="n">
         <v>1</v>
@@ -3138,10 +3138,10 @@
         <v>45397</v>
       </c>
       <c r="B193" t="n">
-        <v>0.6895115810946463</v>
+        <v>0.6895115810946464</v>
       </c>
       <c r="C193" t="n">
-        <v>2.754436596686535</v>
+        <v>2.746246568741462</v>
       </c>
       <c r="D193" t="n">
         <v>2.888000000000003</v>
@@ -3152,13 +3152,13 @@
         <v>45398</v>
       </c>
       <c r="B194" t="n">
-        <v>0.601681390927006</v>
+        <v>0.6016813909270061</v>
       </c>
       <c r="C194" t="n">
-        <v>3.886658106469121</v>
+        <v>4.731333451772544</v>
       </c>
       <c r="D194" t="n">
-        <v>7.091199999999996</v>
+        <v>7.091199999999997</v>
       </c>
     </row>
     <row r="195">
@@ -3166,10 +3166,10 @@
         <v>45399</v>
       </c>
       <c r="B195" t="n">
-        <v>0.5785255607064145</v>
+        <v>0.5785255607064144</v>
       </c>
       <c r="C195" t="n">
-        <v>4.778920850506942</v>
+        <v>4.190548102560415</v>
       </c>
       <c r="D195" t="n">
         <v>27.2</v>
@@ -3180,10 +3180,10 @@
         <v>45400</v>
       </c>
       <c r="B196" t="n">
-        <v>0.7031269047308364</v>
+        <v>0.7031269047308363</v>
       </c>
       <c r="C196" t="n">
-        <v>3.200191472112055</v>
+        <v>2.946042762297269</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -3194,10 +3194,10 @@
         <v>45401</v>
       </c>
       <c r="B197" t="n">
-        <v>0.603040660386426</v>
+        <v>0.6030406603864262</v>
       </c>
       <c r="C197" t="n">
-        <v>4.049953548698233</v>
+        <v>3.230291768522882</v>
       </c>
       <c r="D197" t="n">
         <v>1.4558</v>
@@ -3208,10 +3208,10 @@
         <v>45402</v>
       </c>
       <c r="B198" t="n">
-        <v>0.5422665316985876</v>
+        <v>0.5422665316985877</v>
       </c>
       <c r="C198" t="n">
-        <v>2.990420141799103</v>
+        <v>2.7086967670439</v>
       </c>
       <c r="D198" t="n">
         <v>1.800800000000002</v>
@@ -3222,10 +3222,10 @@
         <v>45403</v>
       </c>
       <c r="B199" t="n">
-        <v>0.5908502696717894</v>
+        <v>0.5908502696717893</v>
       </c>
       <c r="C199" t="n">
-        <v>2.277254760462983</v>
+        <v>1.637589624320376</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -3236,10 +3236,10 @@
         <v>45404</v>
       </c>
       <c r="B200" t="n">
-        <v>0.5968302854028605</v>
+        <v>0.5968302854028604</v>
       </c>
       <c r="C200" t="n">
-        <v>4.107814315168789</v>
+        <v>4.278295337687635</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -3267,7 +3267,7 @@
         <v>0.5942644488630356</v>
       </c>
       <c r="C202" t="n">
-        <v>1.41532367332375</v>
+        <v>1.777024553649943</v>
       </c>
       <c r="D202" t="n">
         <v>13</v>
@@ -3278,10 +3278,10 @@
         <v>45407</v>
       </c>
       <c r="B203" t="n">
-        <v>0.6398009946427409</v>
+        <v>0.6398009946427408</v>
       </c>
       <c r="C203" t="n">
-        <v>3.999119567854859</v>
+        <v>5.209820563967174</v>
       </c>
       <c r="D203" t="n">
         <v>0.4</v>
@@ -3292,10 +3292,10 @@
         <v>45408</v>
       </c>
       <c r="B204" t="n">
-        <v>0.6357887884295208</v>
+        <v>0.6357887884295207</v>
       </c>
       <c r="C204" t="n">
-        <v>1.95836281365249</v>
+        <v>1.776185086901955</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -3309,7 +3309,7 @@
         <v>0.5322687452796224</v>
       </c>
       <c r="C205" t="n">
-        <v>4.994224029172851</v>
+        <v>6.3897619832924</v>
       </c>
       <c r="D205" t="n">
         <v>2</v>
@@ -3320,10 +3320,10 @@
         <v>45410</v>
       </c>
       <c r="B206" t="n">
-        <v>0.5825347924056379</v>
+        <v>0.5825347924056378</v>
       </c>
       <c r="C206" t="n">
-        <v>3.975711792626301</v>
+        <v>3.893512007692707</v>
       </c>
       <c r="D206" t="n">
         <v>2.1578</v>
@@ -3334,10 +3334,10 @@
         <v>45411</v>
       </c>
       <c r="B207" t="n">
-        <v>0.6229728122839405</v>
+        <v>0.6229728122839406</v>
       </c>
       <c r="C207" t="n">
-        <v>3.829057604075966</v>
+        <v>4.28192096270352</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         <v>0.5427132788923317</v>
       </c>
       <c r="C208" t="n">
-        <v>2.489516068575405</v>
+        <v>2.331538689072394</v>
       </c>
       <c r="D208" t="n">
         <v>0.680199999999999</v>
@@ -3362,7 +3362,7 @@
         <v>45413</v>
       </c>
       <c r="B209" t="n">
-        <v>0.4763619073504656</v>
+        <v>0.4763619073504655</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -3379,7 +3379,7 @@
         <v>0.6231398185415967</v>
       </c>
       <c r="C210" t="n">
-        <v>2.003562196523037</v>
+        <v>1.829024826460397</v>
       </c>
       <c r="D210" t="n">
         <v>1.0828</v>
@@ -3393,7 +3393,7 @@
         <v>0.5646821328953008</v>
       </c>
       <c r="C211" t="n">
-        <v>2.306860895868563</v>
+        <v>2.183316484690951</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>45417</v>
       </c>
       <c r="B213" t="n">
-        <v>0.4871287583334393</v>
+        <v>0.4871287583334392</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>45418</v>
       </c>
       <c r="B214" t="n">
-        <v>0.4971807608685485</v>
+        <v>0.4971807608685486</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>45419</v>
       </c>
       <c r="B215" t="n">
-        <v>0.4869719643480509</v>
+        <v>0.486971964348051</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>0.8265999999999997</v>
+        <v>0.8265999999999998</v>
       </c>
     </row>
     <row r="219">
@@ -3544,7 +3544,7 @@
         <v>45426</v>
       </c>
       <c r="B222" t="n">
-        <v>0.3605500008849505</v>
+        <v>0.3605500008849506</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -3561,10 +3561,10 @@
         <v>0.5480295794067125</v>
       </c>
       <c r="C223" t="n">
-        <v>2.130479519383814</v>
+        <v>2.179469081047345</v>
       </c>
       <c r="D223" t="n">
-        <v>2.879999999999998</v>
+        <v>2.879999999999999</v>
       </c>
     </row>
     <row r="224">
@@ -3575,10 +3575,10 @@
         <v>0.5308110799726768</v>
       </c>
       <c r="C224" t="n">
-        <v>4.239810067529065</v>
+        <v>4.437630055979652</v>
       </c>
       <c r="D224" t="n">
-        <v>2.598599999999999</v>
+        <v>2.598599999999998</v>
       </c>
     </row>
     <row r="225">
@@ -3628,10 +3628,10 @@
         <v>45432</v>
       </c>
       <c r="B228" t="n">
-        <v>0.5089241696345972</v>
+        <v>0.5089241696345973</v>
       </c>
       <c r="C228" t="n">
-        <v>1.934179368379229</v>
+        <v>1.826595209350334</v>
       </c>
       <c r="D228" t="n">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>0.5155751494371943</v>
       </c>
       <c r="C229" t="n">
-        <v>3.192525850893405</v>
+        <v>2.576396741325159</v>
       </c>
       <c r="D229" t="n">
         <v>0</v>
@@ -3656,13 +3656,13 @@
         <v>45434</v>
       </c>
       <c r="B230" t="n">
-        <v>0.5085132721293392</v>
+        <v>0.5085132721293391</v>
       </c>
       <c r="C230" t="n">
-        <v>2.72817334610643</v>
+        <v>2.586126325194651</v>
       </c>
       <c r="D230" t="n">
-        <v>1.2148</v>
+        <v>1.214800000000001</v>
       </c>
     </row>
     <row r="231">
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="D231" t="n">
-        <v>9.383599999999984</v>
+        <v>9.383599999999982</v>
       </c>
     </row>
     <row r="232">
@@ -3687,7 +3687,7 @@
         <v>0.6262704025613759</v>
       </c>
       <c r="C232" t="n">
-        <v>2.573526480934829</v>
+        <v>2.566299957787445</v>
       </c>
       <c r="D232" t="n">
         <v>3.5</v>
@@ -3698,10 +3698,10 @@
         <v>45437</v>
       </c>
       <c r="B233" t="n">
-        <v>0.5089081454955677</v>
+        <v>0.5089081454955676</v>
       </c>
       <c r="C233" t="n">
-        <v>1.817577728318225</v>
+        <v>2.237849090671701</v>
       </c>
       <c r="D233" t="n">
         <v>2.1</v>
@@ -3715,7 +3715,7 @@
         <v>0.7828140833662349</v>
       </c>
       <c r="C234" t="n">
-        <v>9.336058470031297</v>
+        <v>8.112064877427827</v>
       </c>
       <c r="D234" t="n">
         <v>5.2422</v>
@@ -3726,10 +3726,10 @@
         <v>45439</v>
       </c>
       <c r="B235" t="n">
-        <v>0.5311941822650035</v>
+        <v>0.5311941822650034</v>
       </c>
       <c r="C235" t="n">
-        <v>2.237380720410059</v>
+        <v>2.104336480513212</v>
       </c>
       <c r="D235" t="n">
         <v>0.6803999999999998</v>
@@ -3743,7 +3743,7 @@
         <v>0.5135131877626005</v>
       </c>
       <c r="C236" t="n">
-        <v>1.430268823755982</v>
+        <v>0.8367242724721405</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0.507199856610434</v>
       </c>
       <c r="C237" t="n">
-        <v>1.408604019195506</v>
+        <v>1.322221954764496</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>
@@ -3771,10 +3771,10 @@
         <v>0.5007406418803912</v>
       </c>
       <c r="C238" t="n">
-        <v>1.74399741886019</v>
+        <v>1.399850211515672</v>
       </c>
       <c r="D238" t="n">
-        <v>0.154</v>
+        <v>0.1540000000000001</v>
       </c>
     </row>
     <row r="239">
@@ -3782,10 +3782,10 @@
         <v>45443</v>
       </c>
       <c r="B239" t="n">
-        <v>0.5646499522288002</v>
+        <v>0.5646499522288004</v>
       </c>
       <c r="C239" t="n">
-        <v>2.438580042616365</v>
+        <v>2.284846724395396</v>
       </c>
       <c r="D239" t="n">
         <v>1.825400000000001</v>
@@ -3796,10 +3796,10 @@
         <v>45444</v>
       </c>
       <c r="B240" t="n">
-        <v>0.5721017298332797</v>
+        <v>0.5721017298332798</v>
       </c>
       <c r="C240" t="n">
-        <v>1.13608945181148</v>
+        <v>1.351641732131123</v>
       </c>
       <c r="D240" t="n">
         <v>9.250599999999974</v>
@@ -3810,10 +3810,10 @@
         <v>45445</v>
       </c>
       <c r="B241" t="n">
-        <v>0.5084004926895578</v>
+        <v>0.5084004926895577</v>
       </c>
       <c r="C241" t="n">
-        <v>1.203907048870917</v>
+        <v>1.179376866674406</v>
       </c>
       <c r="D241" t="n">
         <v>1.5</v>
@@ -3824,10 +3824,10 @@
         <v>45446</v>
       </c>
       <c r="B242" t="n">
-        <v>0.5234392103759294</v>
+        <v>0.5234392103759293</v>
       </c>
       <c r="C242" t="n">
-        <v>2.01271051322595</v>
+        <v>2.537525492705688</v>
       </c>
       <c r="D242" t="n">
         <v>1.886800000000001</v>
@@ -3841,7 +3841,7 @@
         <v>0.6480134385497641</v>
       </c>
       <c r="C243" t="n">
-        <v>4.268196550211385</v>
+        <v>4.64436410690829</v>
       </c>
       <c r="D243" t="n">
         <v>0.1878000000000001</v>
@@ -3852,10 +3852,10 @@
         <v>45448</v>
       </c>
       <c r="B244" t="n">
-        <v>0.5294192414373192</v>
+        <v>0.5294192414373191</v>
       </c>
       <c r="C244" t="n">
-        <v>1.555300420264133</v>
+        <v>1.517682065341465</v>
       </c>
       <c r="D244" t="n">
         <v>0.1618</v>
@@ -3866,7 +3866,7 @@
         <v>45449</v>
       </c>
       <c r="B245" t="n">
-        <v>0.4947341595923913</v>
+        <v>0.4947341595923912</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -3894,10 +3894,10 @@
         <v>45451</v>
       </c>
       <c r="B247" t="n">
-        <v>0.5048029980223512</v>
+        <v>0.5048029980223513</v>
       </c>
       <c r="C247" t="n">
-        <v>1.488899153996132</v>
+        <v>1.362315557101154</v>
       </c>
       <c r="D247" t="n">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>0.5143615670050823</v>
       </c>
       <c r="C248" t="n">
-        <v>1.654634452435068</v>
+        <v>1.69746856610278</v>
       </c>
       <c r="D248" t="n">
         <v>0</v>
@@ -3922,13 +3922,13 @@
         <v>45453</v>
       </c>
       <c r="B249" t="n">
-        <v>0.4716115110184627</v>
+        <v>0.4716115110184628</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
       </c>
       <c r="D249" t="n">
-        <v>5.649800000000003</v>
+        <v>5.649800000000002</v>
       </c>
     </row>
     <row r="250">
@@ -3936,7 +3936,7 @@
         <v>45454</v>
       </c>
       <c r="B250" t="n">
-        <v>0.3660675761822661</v>
+        <v>0.3660675761822662</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -3950,10 +3950,10 @@
         <v>45455</v>
       </c>
       <c r="B251" t="n">
-        <v>0.6781518407982751</v>
+        <v>0.678151840798275</v>
       </c>
       <c r="C251" t="n">
-        <v>1.52959254887264</v>
+        <v>1.583551834676704</v>
       </c>
       <c r="D251" t="n">
         <v>0</v>
@@ -3964,10 +3964,10 @@
         <v>45456</v>
       </c>
       <c r="B252" t="n">
-        <v>0.5240437823930771</v>
+        <v>0.5240437823930769</v>
       </c>
       <c r="C252" t="n">
-        <v>6.927484617616407</v>
+        <v>5.548972039212313</v>
       </c>
       <c r="D252" t="n">
         <v>4.066600000000002</v>
@@ -3978,13 +3978,13 @@
         <v>45457</v>
       </c>
       <c r="B253" t="n">
-        <v>0.5028249531327953</v>
+        <v>0.5028249531327952</v>
       </c>
       <c r="C253" t="n">
-        <v>2.859710944537971</v>
+        <v>2.342920603002153</v>
       </c>
       <c r="D253" t="n">
-        <v>5.962</v>
+        <v>5.961999999999999</v>
       </c>
     </row>
     <row r="254">
@@ -4009,7 +4009,7 @@
         <v>0.5652624936982452</v>
       </c>
       <c r="C255" t="n">
-        <v>2.025038587369897</v>
+        <v>1.714984258468852</v>
       </c>
       <c r="D255" t="n">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>0.7067439061121115</v>
       </c>
       <c r="C256" t="n">
-        <v>2.621759416278866</v>
+        <v>2.74875212490663</v>
       </c>
       <c r="D256" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>45461</v>
       </c>
       <c r="B257" t="n">
-        <v>0.4694909619594376</v>
+        <v>0.4694909619594375</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -4062,10 +4062,10 @@
         <v>45463</v>
       </c>
       <c r="B259" t="n">
-        <v>0.5192395915887044</v>
+        <v>0.5192395915887043</v>
       </c>
       <c r="C259" t="n">
-        <v>0.7152415492480261</v>
+        <v>0.6078251759314431</v>
       </c>
       <c r="D259" t="n">
         <v>2.868199999999999</v>
@@ -4090,7 +4090,7 @@
         <v>45465</v>
       </c>
       <c r="B261" t="n">
-        <v>0.3846449063601614</v>
+        <v>0.3846449063601613</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>45467</v>
       </c>
       <c r="B263" t="n">
-        <v>0.497148104854411</v>
+        <v>0.4971481048544111</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0.640335386047659</v>
       </c>
       <c r="C265" t="n">
-        <v>3.247846436973563</v>
+        <v>2.02264478120445</v>
       </c>
       <c r="D265" t="n">
-        <v>5.948799999999996</v>
+        <v>5.948799999999997</v>
       </c>
     </row>
     <row r="266">
@@ -4163,7 +4163,7 @@
         <v>0.5353645635632729</v>
       </c>
       <c r="C266" t="n">
-        <v>2.656179206481989</v>
+        <v>2.970862171042616</v>
       </c>
       <c r="D266" t="n">
         <v>2.5</v>
@@ -4174,10 +4174,10 @@
         <v>45471</v>
       </c>
       <c r="B267" t="n">
-        <v>0.5063752986336659</v>
+        <v>0.506375298633666</v>
       </c>
       <c r="C267" t="n">
-        <v>3.833819591227476</v>
+        <v>3.718349762353845</v>
       </c>
       <c r="D267" t="n">
         <v>12.27179999999998</v>
@@ -4188,7 +4188,7 @@
         <v>45472</v>
       </c>
       <c r="B268" t="n">
-        <v>0.4881647377357679</v>
+        <v>0.488164737735768</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -4202,10 +4202,10 @@
         <v>45473</v>
       </c>
       <c r="B269" t="n">
-        <v>0.6998586026656031</v>
+        <v>0.6998586026656032</v>
       </c>
       <c r="C269" t="n">
-        <v>2.716531371783307</v>
+        <v>2.638398840108784</v>
       </c>
       <c r="D269" t="n">
         <v>0.4626000000000001</v>
@@ -4216,10 +4216,10 @@
         <v>45474</v>
       </c>
       <c r="B270" t="n">
-        <v>0.5321555697556051</v>
+        <v>0.532155569755605</v>
       </c>
       <c r="C270" t="n">
-        <v>3.593770023853552</v>
+        <v>2.898706213003582</v>
       </c>
       <c r="D270" t="n">
         <v>0.6</v>
@@ -4233,7 +4233,7 @@
         <v>0.5099530016026679</v>
       </c>
       <c r="C271" t="n">
-        <v>1.901571506375802</v>
+        <v>1.707042305940107</v>
       </c>
       <c r="D271" t="n">
         <v>0</v>
@@ -4244,10 +4244,10 @@
         <v>45476</v>
       </c>
       <c r="B272" t="n">
-        <v>0.6254521692641032</v>
+        <v>0.6254521692641033</v>
       </c>
       <c r="C272" t="n">
-        <v>4.725618795903967</v>
+        <v>4.217952773889561</v>
       </c>
       <c r="D272" t="n">
         <v>2.5</v>
@@ -4261,7 +4261,7 @@
         <v>0.6101685444387959</v>
       </c>
       <c r="C273" t="n">
-        <v>1.627815031380777</v>
+        <v>1.705544346021819</v>
       </c>
       <c r="D273" t="n">
         <v>14.5</v>
@@ -4275,7 +4275,7 @@
         <v>0.8186192486740351</v>
       </c>
       <c r="C274" t="n">
-        <v>5.742438653864687</v>
+        <v>4.822882809301856</v>
       </c>
       <c r="D274" t="n">
         <v>15.3</v>
@@ -4289,7 +4289,7 @@
         <v>0.8079943653719358</v>
       </c>
       <c r="C275" t="n">
-        <v>6.452119838577458</v>
+        <v>4.109391890237401</v>
       </c>
       <c r="D275" t="n">
         <v>49.3</v>
@@ -4300,10 +4300,10 @@
         <v>45480</v>
       </c>
       <c r="B276" t="n">
-        <v>0.8330527017718291</v>
+        <v>0.8330527017718292</v>
       </c>
       <c r="C276" t="n">
-        <v>4.104535309856796</v>
+        <v>6.675611596879231</v>
       </c>
       <c r="D276" t="n">
         <v>3.2284</v>
@@ -4317,7 +4317,7 @@
         <v>0.7020754497851149</v>
       </c>
       <c r="C277" t="n">
-        <v>9.318660669975595</v>
+        <v>10.76511449178787</v>
       </c>
       <c r="D277" t="n">
         <v>54</v>
@@ -4331,7 +4331,7 @@
         <v>0.5269174143553651</v>
       </c>
       <c r="C278" t="n">
-        <v>2.8051941824907</v>
+        <v>3.720532136443087</v>
       </c>
       <c r="D278" t="n">
         <v>1.6</v>
@@ -4342,10 +4342,10 @@
         <v>45483</v>
       </c>
       <c r="B279" t="n">
-        <v>0.656951092006937</v>
+        <v>0.6569510920069372</v>
       </c>
       <c r="C279" t="n">
-        <v>3.825465336020034</v>
+        <v>3.270728988851051</v>
       </c>
       <c r="D279" t="n">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>45484</v>
       </c>
       <c r="B280" t="n">
-        <v>0.4992316895568283</v>
+        <v>0.4992316895568284</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -4398,7 +4398,7 @@
         <v>45487</v>
       </c>
       <c r="B283" t="n">
-        <v>0.3767664819147035</v>
+        <v>0.3767664819147036</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -4412,7 +4412,7 @@
         <v>45488</v>
       </c>
       <c r="B284" t="n">
-        <v>0.2793826714601609</v>
+        <v>0.279382671460161</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -4426,7 +4426,7 @@
         <v>45489</v>
       </c>
       <c r="B285" t="n">
-        <v>0.2495192532355736</v>
+        <v>0.2495192532355735</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -4440,7 +4440,7 @@
         <v>45490</v>
       </c>
       <c r="B286" t="n">
-        <v>0.1884961841813259</v>
+        <v>0.1884961841813258</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>45495</v>
       </c>
       <c r="B291" t="n">
-        <v>0.1275522744543615</v>
+        <v>0.1275522744543614</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -4524,7 +4524,7 @@
         <v>45496</v>
       </c>
       <c r="B292" t="n">
-        <v>0.09681995191218705</v>
+        <v>0.09681995191218704</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>45500</v>
       </c>
       <c r="B296" t="n">
-        <v>0.07781026060328199</v>
+        <v>0.07781026060328197</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>45503</v>
       </c>
       <c r="B299" t="n">
-        <v>0.07393180279855725</v>
+        <v>0.07393180279855723</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>45504</v>
       </c>
       <c r="B300" t="n">
-        <v>0.103294420936256</v>
+        <v>0.1032944209362559</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>45508</v>
       </c>
       <c r="B304" t="n">
-        <v>0.4613527619822736</v>
+        <v>0.4613527619822735</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>45509</v>
       </c>
       <c r="B305" t="n">
-        <v>0.3587829611335076</v>
+        <v>0.3587829611335077</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -4720,10 +4720,10 @@
         <v>45510</v>
       </c>
       <c r="B306" t="n">
-        <v>0.5458632182290318</v>
+        <v>0.5458632182290317</v>
       </c>
       <c r="C306" t="n">
-        <v>1.686971468576795</v>
+        <v>2.239883282210281</v>
       </c>
       <c r="D306" t="n">
         <v>0</v>
@@ -4734,7 +4734,7 @@
         <v>45511</v>
       </c>
       <c r="B307" t="n">
-        <v>0.4446281352667342</v>
+        <v>0.4446281352667343</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -4748,7 +4748,7 @@
         <v>45512</v>
       </c>
       <c r="B308" t="n">
-        <v>0.3521983527642471</v>
+        <v>0.352198352764247</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>45513</v>
       </c>
       <c r="B309" t="n">
-        <v>0.3356390665340031</v>
+        <v>0.335639066534003</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -4776,7 +4776,7 @@
         <v>45514</v>
       </c>
       <c r="B310" t="n">
-        <v>0.2378777171378638</v>
+        <v>0.2378777171378639</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -4804,7 +4804,7 @@
         <v>45516</v>
       </c>
       <c r="B312" t="n">
-        <v>0.1908680349616997</v>
+        <v>0.1908680349616998</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -4832,7 +4832,7 @@
         <v>45518</v>
       </c>
       <c r="B314" t="n">
-        <v>0.08941677191292043</v>
+        <v>0.08941677191292044</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -4860,7 +4860,7 @@
         <v>45520</v>
       </c>
       <c r="B316" t="n">
-        <v>0.0817451356818904</v>
+        <v>0.08174513568189039</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>45528</v>
       </c>
       <c r="B324" t="n">
-        <v>0.161622297723176</v>
+        <v>0.1616222977231761</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>45541</v>
       </c>
       <c r="B337" t="n">
-        <v>0.1192954947444457</v>
+        <v>0.1192954947444458</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -5224,10 +5224,10 @@
         <v>45546</v>
       </c>
       <c r="B342" t="n">
-        <v>0.5821525215871544</v>
+        <v>0.5821525215871547</v>
       </c>
       <c r="C342" t="n">
-        <v>1.930418863067877</v>
+        <v>2.882707777101287</v>
       </c>
       <c r="D342" t="n">
         <v>0</v>
@@ -5266,10 +5266,10 @@
         <v>45549</v>
       </c>
       <c r="B345" t="n">
-        <v>0.6143031593514858</v>
+        <v>0.614303159351486</v>
       </c>
       <c r="C345" t="n">
-        <v>3.472986687333012</v>
+        <v>3.487801539373954</v>
       </c>
       <c r="D345" t="n">
         <v>0</v>
@@ -5280,7 +5280,7 @@
         <v>45550</v>
       </c>
       <c r="B346" t="n">
-        <v>0.2933990163620505</v>
+        <v>0.2933990163620504</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>45552</v>
       </c>
       <c r="B348" t="n">
-        <v>0.3721913717085886</v>
+        <v>0.3721913717085885</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -5406,7 +5406,7 @@
         <v>45559</v>
       </c>
       <c r="B355" t="n">
-        <v>0.2789238659910884</v>
+        <v>0.2789238659910883</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>45560</v>
       </c>
       <c r="B356" t="n">
-        <v>0.4093152773211484</v>
+        <v>0.4093152773211485</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -5434,10 +5434,10 @@
         <v>45561</v>
       </c>
       <c r="B357" t="n">
-        <v>0.6272674319855349</v>
+        <v>0.6272674319855348</v>
       </c>
       <c r="C357" t="n">
-        <v>2.195235611988172</v>
+        <v>1.870981744917278</v>
       </c>
       <c r="D357" t="n">
         <v>55</v>
@@ -5448,10 +5448,10 @@
         <v>45562</v>
       </c>
       <c r="B358" t="n">
-        <v>0.6710172535067043</v>
+        <v>0.6710172535067044</v>
       </c>
       <c r="C358" t="n">
-        <v>1.836636768513899</v>
+        <v>2.190012454471563</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -5462,10 +5462,10 @@
         <v>45563</v>
       </c>
       <c r="B359" t="n">
-        <v>0.5739026379411331</v>
+        <v>0.5739026379411329</v>
       </c>
       <c r="C359" t="n">
-        <v>4.592690647541966</v>
+        <v>4.200585107876173</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>45568</v>
       </c>
       <c r="B364" t="n">
-        <v>0.3558412521532806</v>
+        <v>0.3558412521532807</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -5546,7 +5546,7 @@
         <v>45569</v>
       </c>
       <c r="B365" t="n">
-        <v>0.3615564135335621</v>
+        <v>0.3615564135335622</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -5574,7 +5574,7 @@
         <v>45571</v>
       </c>
       <c r="B367" t="n">
-        <v>0.2865973341813741</v>
+        <v>0.2865973341813742</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>45573</v>
       </c>
       <c r="B369" t="n">
-        <v>0.260833992355376</v>
+        <v>0.2608339923553759</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>45579</v>
       </c>
       <c r="B375" t="n">
-        <v>0.2074939819465397</v>
+        <v>0.2074939819465396</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -5714,7 +5714,7 @@
         <v>45581</v>
       </c>
       <c r="B377" t="n">
-        <v>0.3450014798995561</v>
+        <v>0.3450014798995562</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -5742,7 +5742,7 @@
         <v>45583</v>
       </c>
       <c r="B379" t="n">
-        <v>0.2811870679929647</v>
+        <v>0.2811870679929646</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -5756,7 +5756,7 @@
         <v>45584</v>
       </c>
       <c r="B380" t="n">
-        <v>0.2321261119942902</v>
+        <v>0.2321261119942901</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -5812,7 +5812,7 @@
         <v>45588</v>
       </c>
       <c r="B384" t="n">
-        <v>0.1225638888229805</v>
+        <v>0.1225638888229804</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -5840,7 +5840,7 @@
         <v>45590</v>
       </c>
       <c r="B386" t="n">
-        <v>0.4442581171198017</v>
+        <v>0.4442581171198016</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -5854,10 +5854,10 @@
         <v>45591</v>
       </c>
       <c r="B387" t="n">
-        <v>0.5616894229937245</v>
+        <v>0.5616894229937246</v>
       </c>
       <c r="C387" t="n">
-        <v>6.300221176024882</v>
+        <v>8.003623780219534</v>
       </c>
       <c r="D387" t="n">
         <v>0</v>
@@ -5868,7 +5868,7 @@
         <v>45592</v>
       </c>
       <c r="B388" t="n">
-        <v>0.3589223662657646</v>
+        <v>0.3589223662657647</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -5896,7 +5896,7 @@
         <v>45594</v>
       </c>
       <c r="B390" t="n">
-        <v>0.4969633336512888</v>
+        <v>0.4969633336512889</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -5910,7 +5910,7 @@
         <v>45595</v>
       </c>
       <c r="B391" t="n">
-        <v>0.4349425782051545</v>
+        <v>0.4349425782051544</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>45597</v>
       </c>
       <c r="B393" t="n">
-        <v>0.330460632204354</v>
+        <v>0.3304606322043539</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -5952,7 +5952,7 @@
         <v>45598</v>
       </c>
       <c r="B394" t="n">
-        <v>0.3561450571255933</v>
+        <v>0.3561450571255932</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -5980,10 +5980,10 @@
         <v>45600</v>
       </c>
       <c r="B396" t="n">
-        <v>0.6145107631884619</v>
+        <v>0.6145107631884618</v>
       </c>
       <c r="C396" t="n">
-        <v>3.815691669916424</v>
+        <v>3.601497593512541</v>
       </c>
       <c r="D396" t="n">
         <v>0</v>
@@ -5994,10 +5994,10 @@
         <v>45601</v>
       </c>
       <c r="B397" t="n">
-        <v>0.7440013806637578</v>
+        <v>0.7440013806637579</v>
       </c>
       <c r="C397" t="n">
-        <v>6.873740302480207</v>
+        <v>7.48175149395463</v>
       </c>
       <c r="D397" t="n">
         <v>14.5</v>
@@ -6008,7 +6008,7 @@
         <v>45602</v>
       </c>
       <c r="B398" t="n">
-        <v>0.4667458847402077</v>
+        <v>0.4667458847402076</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -6025,7 +6025,7 @@
         <v>0.5184549986118761</v>
       </c>
       <c r="C399" t="n">
-        <v>2.215269087749167</v>
+        <v>3.195941795980881</v>
       </c>
       <c r="D399" t="n">
         <v>0</v>
@@ -6036,7 +6036,7 @@
         <v>45604</v>
       </c>
       <c r="B400" t="n">
-        <v>0.4563280825354314</v>
+        <v>0.4563280825354313</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -6064,10 +6064,10 @@
         <v>45606</v>
       </c>
       <c r="B402" t="n">
-        <v>0.5041410998363981</v>
+        <v>0.504141099836398</v>
       </c>
       <c r="C402" t="n">
-        <v>2.434185098407837</v>
+        <v>2.190163393926078</v>
       </c>
       <c r="D402" t="n">
         <v>0</v>
@@ -6078,7 +6078,7 @@
         <v>45607</v>
       </c>
       <c r="B403" t="n">
-        <v>0.4582346576523381</v>
+        <v>0.4582346576523382</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -6092,10 +6092,10 @@
         <v>45608</v>
       </c>
       <c r="B404" t="n">
-        <v>0.5457180187319882</v>
+        <v>0.5457180187319881</v>
       </c>
       <c r="C404" t="n">
-        <v>5.534024309843986</v>
+        <v>5.330465684940647</v>
       </c>
       <c r="D404" t="n">
         <v>1.2</v>
@@ -6106,10 +6106,10 @@
         <v>45609</v>
       </c>
       <c r="B405" t="n">
-        <v>0.6372149492212233</v>
+        <v>0.6372149492212232</v>
       </c>
       <c r="C405" t="n">
-        <v>3.787970734907435</v>
+        <v>4.104628114558738</v>
       </c>
       <c r="D405" t="n">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>45611</v>
       </c>
       <c r="B407" t="n">
-        <v>0.4493725122893398</v>
+        <v>0.4493725122893397</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -6165,7 +6165,7 @@
         <v>0.7139501404498139</v>
       </c>
       <c r="C409" t="n">
-        <v>2.11923495770868</v>
+        <v>2.776819977304696</v>
       </c>
       <c r="D409" t="n">
         <v>17.8</v>
@@ -6179,7 +6179,7 @@
         <v>0.5348117361349768</v>
       </c>
       <c r="C410" t="n">
-        <v>2.878939973971271</v>
+        <v>1.852359223096843</v>
       </c>
       <c r="D410" t="n">
         <v>0</v>
@@ -6190,10 +6190,10 @@
         <v>45615</v>
       </c>
       <c r="B411" t="n">
-        <v>0.7023112482035477</v>
+        <v>0.7023112482035476</v>
       </c>
       <c r="C411" t="n">
-        <v>12.33734591260592</v>
+        <v>12.03069155875365</v>
       </c>
       <c r="D411" t="n">
         <v>8</v>
@@ -6207,7 +6207,7 @@
         <v>0.5592867886840136</v>
       </c>
       <c r="C412" t="n">
-        <v>4.129315378275301</v>
+        <v>3.691192210328198</v>
       </c>
       <c r="D412" t="n">
         <v>0</v>
@@ -6218,10 +6218,10 @@
         <v>45617</v>
       </c>
       <c r="B413" t="n">
-        <v>0.5477872388443779</v>
+        <v>0.5477872388443777</v>
       </c>
       <c r="C413" t="n">
-        <v>3.533258669496035</v>
+        <v>3.472473059332368</v>
       </c>
       <c r="D413" t="n">
         <v>0</v>
@@ -6232,7 +6232,7 @@
         <v>45618</v>
       </c>
       <c r="B414" t="n">
-        <v>0.4843940050543519</v>
+        <v>0.484394005054352</v>
       </c>
       <c r="C414" t="n">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>45619</v>
       </c>
       <c r="B415" t="n">
-        <v>0.4249790624763853</v>
+        <v>0.4249790624763854</v>
       </c>
       <c r="C415" t="n">
         <v>0</v>
@@ -6288,7 +6288,7 @@
         <v>45622</v>
       </c>
       <c r="B418" t="n">
-        <v>0.3311718783284067</v>
+        <v>0.3311718783284066</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -6319,7 +6319,7 @@
         <v>0.5568204930334677</v>
       </c>
       <c r="C420" t="n">
-        <v>1.735728218313645</v>
+        <v>1.885509509011951</v>
       </c>
       <c r="D420" t="n">
         <v>0.6</v>
@@ -6344,7 +6344,7 @@
         <v>45626</v>
       </c>
       <c r="B422" t="n">
-        <v>0.3858113567042111</v>
+        <v>0.385811356704211</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -6375,7 +6375,7 @@
         <v>0.51617591250427</v>
       </c>
       <c r="C424" t="n">
-        <v>1.726028924641505</v>
+        <v>1.510754004753299</v>
       </c>
       <c r="D424" t="n">
         <v>26</v>
@@ -6389,7 +6389,7 @@
         <v>0.5142482614620966</v>
       </c>
       <c r="C425" t="n">
-        <v>2.112902272436703</v>
+        <v>2.439856108364649</v>
       </c>
       <c r="D425" t="n">
         <v>4</v>
@@ -6403,7 +6403,7 @@
         <v>0.6417862996655945</v>
       </c>
       <c r="C426" t="n">
-        <v>5.975600542498914</v>
+        <v>5.07668438236902</v>
       </c>
       <c r="D426" t="n">
         <v>10.4</v>
@@ -6417,7 +6417,7 @@
         <v>0.8301764006255479</v>
       </c>
       <c r="C427" t="n">
-        <v>8.838511539417874</v>
+        <v>9.090991964787412</v>
       </c>
       <c r="D427" t="n">
         <v>48.2</v>
@@ -6428,10 +6428,10 @@
         <v>45632</v>
       </c>
       <c r="B428" t="n">
-        <v>0.8058105007361077</v>
+        <v>0.8058105007361079</v>
       </c>
       <c r="C428" t="n">
-        <v>4.650195920635749</v>
+        <v>4.130750175976504</v>
       </c>
       <c r="D428" t="n">
         <v>22.91199999999998</v>
@@ -6445,7 +6445,7 @@
         <v>0.887159481339321</v>
       </c>
       <c r="C429" t="n">
-        <v>6.719865711367145</v>
+        <v>6.67341779689452</v>
       </c>
       <c r="D429" t="n">
         <v>30.4</v>
@@ -6459,7 +6459,7 @@
         <v>0.8543454492658756</v>
       </c>
       <c r="C430" t="n">
-        <v>4.196255350190712</v>
+        <v>4.308370591432912</v>
       </c>
       <c r="D430" t="n">
         <v>0</v>
@@ -6470,10 +6470,10 @@
         <v>45635</v>
       </c>
       <c r="B431" t="n">
-        <v>0.7766867906585027</v>
+        <v>0.7766867906585028</v>
       </c>
       <c r="C431" t="n">
-        <v>3.820799092581536</v>
+        <v>4.320221018401207</v>
       </c>
       <c r="D431" t="n">
         <v>26</v>
@@ -6487,7 +6487,7 @@
         <v>0.824644739815207</v>
       </c>
       <c r="C432" t="n">
-        <v>5.083178231809853</v>
+        <v>4.721971872407353</v>
       </c>
       <c r="D432" t="n">
         <v>0.7</v>
@@ -6498,10 +6498,10 @@
         <v>45637</v>
       </c>
       <c r="B433" t="n">
-        <v>0.8169529638970774</v>
+        <v>0.8169529638970773</v>
       </c>
       <c r="C433" t="n">
-        <v>3.825321000051056</v>
+        <v>3.99425790016479</v>
       </c>
       <c r="D433" t="n">
         <v>1</v>
@@ -6515,7 +6515,7 @@
         <v>0.5139468030710469</v>
       </c>
       <c r="C434" t="n">
-        <v>0.706167110841958</v>
+        <v>0.9441927627502532</v>
       </c>
       <c r="D434" t="n">
         <v>0</v>
@@ -6554,10 +6554,10 @@
         <v>45641</v>
       </c>
       <c r="B437" t="n">
-        <v>0.5401827186297203</v>
+        <v>0.5401827186297204</v>
       </c>
       <c r="C437" t="n">
-        <v>2.396524276461486</v>
+        <v>2.636271776587573</v>
       </c>
       <c r="D437" t="n">
         <v>18.5</v>
@@ -6568,10 +6568,10 @@
         <v>45642</v>
       </c>
       <c r="B438" t="n">
-        <v>0.5942849534538854</v>
+        <v>0.5942849534538853</v>
       </c>
       <c r="C438" t="n">
-        <v>2.368821561002353</v>
+        <v>3.41377564574016</v>
       </c>
       <c r="D438" t="n">
         <v>6.5</v>
@@ -6585,7 +6585,7 @@
         <v>0.5918282701295904</v>
       </c>
       <c r="C439" t="n">
-        <v>4.049129018104111</v>
+        <v>5.865633275127244</v>
       </c>
       <c r="D439" t="n">
         <v>13.68380000000002</v>
@@ -6599,7 +6599,7 @@
         <v>0.7070612025238104</v>
       </c>
       <c r="C440" t="n">
-        <v>2.904271475269873</v>
+        <v>2.992307869398391</v>
       </c>
       <c r="D440" t="n">
         <v>1.2</v>
@@ -6610,7 +6610,7 @@
         <v>45645</v>
       </c>
       <c r="B441" t="n">
-        <v>0.4377002739810765</v>
+        <v>0.4377002739810766</v>
       </c>
       <c r="C441" t="n">
         <v>0</v>
@@ -6624,10 +6624,10 @@
         <v>45646</v>
       </c>
       <c r="B442" t="n">
-        <v>0.787385107657099</v>
+        <v>0.7873851076570989</v>
       </c>
       <c r="C442" t="n">
-        <v>3.100824836764138</v>
+        <v>2.682953014607342</v>
       </c>
       <c r="D442" t="n">
         <v>10.2</v>
@@ -6641,7 +6641,7 @@
         <v>0.7886188062332041</v>
       </c>
       <c r="C443" t="n">
-        <v>2.860579389345909</v>
+        <v>3.671303868665479</v>
       </c>
       <c r="D443" t="n">
         <v>19</v>
@@ -6655,7 +6655,7 @@
         <v>0.7156023282315008</v>
       </c>
       <c r="C444" t="n">
-        <v>5.140261328852711</v>
+        <v>4.363556723766967</v>
       </c>
       <c r="D444" t="n">
         <v>43.8</v>
@@ -6666,10 +6666,10 @@
         <v>45649</v>
       </c>
       <c r="B445" t="n">
-        <v>0.8441483664156207</v>
+        <v>0.844148366415621</v>
       </c>
       <c r="C445" t="n">
-        <v>5.966039607355537</v>
+        <v>6.696052251804472</v>
       </c>
       <c r="D445" t="n">
         <v>17</v>
@@ -6683,7 +6683,7 @@
         <v>0.9058485486216314</v>
       </c>
       <c r="C446" t="n">
-        <v>3.935271615295327</v>
+        <v>4.422416082236911</v>
       </c>
       <c r="D446" t="n">
         <v>3.4</v>
@@ -6694,10 +6694,10 @@
         <v>45651</v>
       </c>
       <c r="B447" t="n">
-        <v>0.7072701689943444</v>
+        <v>0.7072701689943445</v>
       </c>
       <c r="C447" t="n">
-        <v>4.300682146860978</v>
+        <v>4.956955660966229</v>
       </c>
       <c r="D447" t="n">
         <v>8.199999999999999</v>
@@ -6708,10 +6708,10 @@
         <v>45652</v>
       </c>
       <c r="B448" t="n">
-        <v>0.8289113153297689</v>
+        <v>0.828911315329769</v>
       </c>
       <c r="C448" t="n">
-        <v>6.94429905772195</v>
+        <v>5.820738044805349</v>
       </c>
       <c r="D448" t="n">
         <v>0</v>
@@ -6725,7 +6725,7 @@
         <v>0.5404871465819118</v>
       </c>
       <c r="C449" t="n">
-        <v>1.260390262671593</v>
+        <v>1.441962225271294</v>
       </c>
       <c r="D449" t="n">
         <v>0</v>
@@ -6736,10 +6736,10 @@
         <v>45654</v>
       </c>
       <c r="B450" t="n">
-        <v>0.5847090978509796</v>
+        <v>0.5847090978509795</v>
       </c>
       <c r="C450" t="n">
-        <v>3.773054242470666</v>
+        <v>3.176266493412191</v>
       </c>
       <c r="D450" t="n">
         <v>0</v>
@@ -6781,7 +6781,7 @@
         <v>0.5090346415140928</v>
       </c>
       <c r="C453" t="n">
-        <v>4.048348169834841</v>
+        <v>3.447197800613284</v>
       </c>
       <c r="D453" t="n">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>45661</v>
       </c>
       <c r="B457" t="n">
-        <v>0.4997123260572152</v>
+        <v>0.4997123260572151</v>
       </c>
       <c r="C457" t="n">
         <v>0</v>
@@ -6862,7 +6862,7 @@
         <v>45663</v>
       </c>
       <c r="B459" t="n">
-        <v>0.4941750977064953</v>
+        <v>0.4941750977064952</v>
       </c>
       <c r="C459" t="n">
         <v>0</v>
@@ -6876,10 +6876,10 @@
         <v>45664</v>
       </c>
       <c r="B460" t="n">
-        <v>0.518407656281986</v>
+        <v>0.5184076562819859</v>
       </c>
       <c r="C460" t="n">
-        <v>4.667706296246907</v>
+        <v>4.645625757740525</v>
       </c>
       <c r="D460" t="n">
         <v>9</v>
@@ -6907,7 +6907,7 @@
         <v>0.7844077846611686</v>
       </c>
       <c r="C462" t="n">
-        <v>3.510796286693948</v>
+        <v>4.46583836345919</v>
       </c>
       <c r="D462" t="n">
         <v>6.5</v>
@@ -6918,10 +6918,10 @@
         <v>45667</v>
       </c>
       <c r="B463" t="n">
-        <v>0.8576123155542974</v>
+        <v>0.8576123155542975</v>
       </c>
       <c r="C463" t="n">
-        <v>7.749416996700413</v>
+        <v>10.89890632825781</v>
       </c>
       <c r="D463" t="n">
         <v>23.2</v>
@@ -6935,7 +6935,7 @@
         <v>0.6346368465859699</v>
       </c>
       <c r="C464" t="n">
-        <v>4.995272801471597</v>
+        <v>5.601833315320335</v>
       </c>
       <c r="D464" t="n">
         <v>2</v>
@@ -6949,7 +6949,7 @@
         <v>0.8082208436084816</v>
       </c>
       <c r="C465" t="n">
-        <v>3.678818216715372</v>
+        <v>3.19653187351624</v>
       </c>
       <c r="D465" t="n">
         <v>0</v>
@@ -6963,7 +6963,7 @@
         <v>0.543853590173258</v>
       </c>
       <c r="C466" t="n">
-        <v>2.630234393791999</v>
+        <v>2.627625278682206</v>
       </c>
       <c r="D466" t="n">
         <v>29.2</v>
@@ -6974,10 +6974,10 @@
         <v>45671</v>
       </c>
       <c r="B467" t="n">
-        <v>0.6533800393692885</v>
+        <v>0.6533800393692883</v>
       </c>
       <c r="C467" t="n">
-        <v>5.03783429763714</v>
+        <v>5.169925890812815</v>
       </c>
       <c r="D467" t="n">
         <v>18</v>
@@ -6988,10 +6988,10 @@
         <v>45672</v>
       </c>
       <c r="B468" t="n">
-        <v>0.9043075028134726</v>
+        <v>0.9043075028134727</v>
       </c>
       <c r="C468" t="n">
-        <v>5.652041768246904</v>
+        <v>6.737528830215903</v>
       </c>
       <c r="D468" t="n">
         <v>0</v>
@@ -7002,10 +7002,10 @@
         <v>45673</v>
       </c>
       <c r="B469" t="n">
-        <v>0.7131675480559672</v>
+        <v>0.7131675480559673</v>
       </c>
       <c r="C469" t="n">
-        <v>8.778532389057094</v>
+        <v>7.615226523568289</v>
       </c>
       <c r="D469" t="n">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0.5119342390753092</v>
       </c>
       <c r="C470" t="n">
-        <v>4.272515135473455</v>
+        <v>3.716379054850026</v>
       </c>
       <c r="D470" t="n">
         <v>38.5</v>
@@ -7030,10 +7030,10 @@
         <v>45675</v>
       </c>
       <c r="B471" t="n">
-        <v>0.5907986200553593</v>
+        <v>0.5907986200553597</v>
       </c>
       <c r="C471" t="n">
-        <v>2.612187203657826</v>
+        <v>2.931797641445821</v>
       </c>
       <c r="D471" t="n">
         <v>6.4</v>
@@ -7047,7 +7047,7 @@
         <v>0.8399125215041328</v>
       </c>
       <c r="C472" t="n">
-        <v>9.533101957827082</v>
+        <v>8.36182490835027</v>
       </c>
       <c r="D472" t="n">
         <v>29.2</v>
@@ -7058,10 +7058,10 @@
         <v>45677</v>
       </c>
       <c r="B473" t="n">
-        <v>0.5612951833178991</v>
+        <v>0.561295183317899</v>
       </c>
       <c r="C473" t="n">
-        <v>7.281241092104522</v>
+        <v>6.454563797205282</v>
       </c>
       <c r="D473" t="n">
         <v>60</v>
@@ -7072,10 +7072,10 @@
         <v>45678</v>
       </c>
       <c r="B474" t="n">
-        <v>0.8974297717186935</v>
+        <v>0.8974297717186936</v>
       </c>
       <c r="C474" t="n">
-        <v>4.182535256850912</v>
+        <v>4.074487750966145</v>
       </c>
       <c r="D474" t="n">
         <v>22.1</v>
@@ -7089,7 +7089,7 @@
         <v>0.8740883458275841</v>
       </c>
       <c r="C475" t="n">
-        <v>18.34190087194009</v>
+        <v>15.83728451667019</v>
       </c>
       <c r="D475" t="n">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0.8957599930292255</v>
       </c>
       <c r="C476" t="n">
-        <v>5.27771682641403</v>
+        <v>4.997280124876285</v>
       </c>
       <c r="D476" t="n">
         <v>0</v>
@@ -7114,10 +7114,10 @@
         <v>45681</v>
       </c>
       <c r="B477" t="n">
-        <v>0.6901195443471888</v>
+        <v>0.6901195443471889</v>
       </c>
       <c r="C477" t="n">
-        <v>4.770403239587232</v>
+        <v>4.710034825523326</v>
       </c>
       <c r="D477" t="n">
         <v>2</v>
@@ -7128,10 +7128,10 @@
         <v>45682</v>
       </c>
       <c r="B478" t="n">
-        <v>0.7357026114331071</v>
+        <v>0.735702611433107</v>
       </c>
       <c r="C478" t="n">
-        <v>6.779152374376299</v>
+        <v>4.848301721034378</v>
       </c>
       <c r="D478" t="n">
         <v>0</v>
@@ -7145,7 +7145,7 @@
         <v>0.8529453766653637</v>
       </c>
       <c r="C479" t="n">
-        <v>5.369156181454595</v>
+        <v>5.45868983916198</v>
       </c>
       <c r="D479" t="n">
         <v>0.5</v>
@@ -7156,10 +7156,10 @@
         <v>45684</v>
       </c>
       <c r="B480" t="n">
-        <v>0.6743263003498964</v>
+        <v>0.6743263003498965</v>
       </c>
       <c r="C480" t="n">
-        <v>3.951381791849184</v>
+        <v>3.445632886516885</v>
       </c>
       <c r="D480" t="n">
         <v>0</v>
@@ -7170,10 +7170,10 @@
         <v>45685</v>
       </c>
       <c r="B481" t="n">
-        <v>0.6440474491118418</v>
+        <v>0.6440474491118416</v>
       </c>
       <c r="C481" t="n">
-        <v>7.605337677091291</v>
+        <v>9.466291681906139</v>
       </c>
       <c r="D481" t="n">
         <v>184.8</v>
@@ -7184,10 +7184,10 @@
         <v>45686</v>
       </c>
       <c r="B482" t="n">
-        <v>0.8701390010765763</v>
+        <v>0.8701390010765762</v>
       </c>
       <c r="C482" t="n">
-        <v>10.15838174463839</v>
+        <v>8.219676639767428</v>
       </c>
       <c r="D482" t="n">
         <v>8.300000000000001</v>
@@ -7201,7 +7201,7 @@
         <v>0.9232236164478275</v>
       </c>
       <c r="C483" t="n">
-        <v>10.46361802842855</v>
+        <v>10.79158298376677</v>
       </c>
       <c r="D483" t="n">
         <v>9.5</v>
@@ -7215,7 +7215,7 @@
         <v>0.8818648430420414</v>
       </c>
       <c r="C484" t="n">
-        <v>4.33672849270753</v>
+        <v>3.776572549115313</v>
       </c>
       <c r="D484" t="n">
         <v>1</v>
@@ -7229,7 +7229,7 @@
         <v>0.9066120908218515</v>
       </c>
       <c r="C485" t="n">
-        <v>6.701284221044214</v>
+        <v>6.202318845356598</v>
       </c>
       <c r="D485" t="n">
         <v>1.3</v>
@@ -7243,7 +7243,7 @@
         <v>0.6942102712435864</v>
       </c>
       <c r="C486" t="n">
-        <v>5.753573755085137</v>
+        <v>6.676233160035889</v>
       </c>
       <c r="D486" t="n">
         <v>0</v>
@@ -7257,7 +7257,7 @@
         <v>0.7960474432024164</v>
       </c>
       <c r="C487" t="n">
-        <v>8.872127523842819</v>
+        <v>8.113132890890094</v>
       </c>
       <c r="D487" t="n">
         <v>0</v>
@@ -7271,7 +7271,7 @@
         <v>0.7114272670147617</v>
       </c>
       <c r="C488" t="n">
-        <v>3.620835161282827</v>
+        <v>2.703175430362086</v>
       </c>
       <c r="D488" t="n">
         <v>1</v>
@@ -7282,10 +7282,10 @@
         <v>45693</v>
       </c>
       <c r="B489" t="n">
-        <v>0.8092097826815058</v>
+        <v>0.8092097826815059</v>
       </c>
       <c r="C489" t="n">
-        <v>5.167242600202576</v>
+        <v>4.590020730058435</v>
       </c>
       <c r="D489" t="n">
         <v>13.8</v>
@@ -7296,10 +7296,10 @@
         <v>45694</v>
       </c>
       <c r="B490" t="n">
-        <v>0.7135545860631615</v>
+        <v>0.7135545860631616</v>
       </c>
       <c r="C490" t="n">
-        <v>5.195414176072879</v>
+        <v>4.9858195612435</v>
       </c>
       <c r="D490" t="n">
         <v>8.4</v>
@@ -7310,10 +7310,10 @@
         <v>45695</v>
       </c>
       <c r="B491" t="n">
-        <v>0.5819866955781736</v>
+        <v>0.5819866955781737</v>
       </c>
       <c r="C491" t="n">
-        <v>6.15238733123802</v>
+        <v>6.271190596035717</v>
       </c>
       <c r="D491" t="n">
         <v>75.3</v>
@@ -7324,10 +7324,10 @@
         <v>45696</v>
       </c>
       <c r="B492" t="n">
-        <v>0.8048818923143684</v>
+        <v>0.8048818923143686</v>
       </c>
       <c r="C492" t="n">
-        <v>10.81716478696837</v>
+        <v>11.52912467615086</v>
       </c>
       <c r="D492" t="n">
         <v>0.3</v>
@@ -7341,7 +7341,7 @@
         <v>0.8504675552923681</v>
       </c>
       <c r="C493" t="n">
-        <v>14.17991883110176</v>
+        <v>15.09196923831735</v>
       </c>
       <c r="D493" t="n">
         <v>1.7</v>
@@ -7352,10 +7352,10 @@
         <v>45698</v>
       </c>
       <c r="B494" t="n">
-        <v>0.7389694979932361</v>
+        <v>0.7389694979932362</v>
       </c>
       <c r="C494" t="n">
-        <v>5.239712466850962</v>
+        <v>6.392040772628227</v>
       </c>
       <c r="D494" t="n">
         <v>1.1</v>
@@ -7369,7 +7369,7 @@
         <v>0.7953570467183441</v>
       </c>
       <c r="C495" t="n">
-        <v>6.631424088672192</v>
+        <v>5.078074655307706</v>
       </c>
       <c r="D495" t="n">
         <v>0.8</v>
@@ -7380,10 +7380,10 @@
         <v>45700</v>
       </c>
       <c r="B496" t="n">
-        <v>0.8071250311569589</v>
+        <v>0.807125031156959</v>
       </c>
       <c r="C496" t="n">
-        <v>7.553630859973363</v>
+        <v>7.611444072215621</v>
       </c>
       <c r="D496" t="n">
         <v>0</v>
@@ -7394,10 +7394,10 @@
         <v>45701</v>
       </c>
       <c r="B497" t="n">
-        <v>0.6797039480228133</v>
+        <v>0.6797039480228132</v>
       </c>
       <c r="C497" t="n">
-        <v>5.992074882322068</v>
+        <v>4.642333186220857</v>
       </c>
       <c r="D497" t="n">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>0.501375992544206</v>
       </c>
       <c r="C498" t="n">
-        <v>2.630497363348577</v>
+        <v>2.597307578563811</v>
       </c>
       <c r="D498" t="n">
         <v>1.140400000000001</v>
@@ -7425,7 +7425,7 @@
         <v>0.564051477404636</v>
       </c>
       <c r="C499" t="n">
-        <v>3.863449447716697</v>
+        <v>3.199535819645781</v>
       </c>
       <c r="D499" t="n">
         <v>1.6</v>
@@ -7436,10 +7436,10 @@
         <v>45704</v>
       </c>
       <c r="B500" t="n">
-        <v>0.6535447169092424</v>
+        <v>0.6535447169092425</v>
       </c>
       <c r="C500" t="n">
-        <v>7.18928918522458</v>
+        <v>6.883807066089669</v>
       </c>
       <c r="D500" t="n">
         <v>0.6</v>
@@ -7450,10 +7450,10 @@
         <v>45705</v>
       </c>
       <c r="B501" t="n">
-        <v>0.5693505933218606</v>
+        <v>0.5693505933218604</v>
       </c>
       <c r="C501" t="n">
-        <v>3.343054956184784</v>
+        <v>4.685580284448696</v>
       </c>
       <c r="D501" t="n">
         <v>27.9</v>
@@ -7467,7 +7467,7 @@
         <v>0.816558579578174</v>
       </c>
       <c r="C502" t="n">
-        <v>9.495245522756557</v>
+        <v>9.8906827605286</v>
       </c>
       <c r="D502" t="n">
         <v>5</v>
@@ -7481,7 +7481,7 @@
         <v>0.8675651477300526</v>
       </c>
       <c r="C503" t="n">
-        <v>10.45859492347376</v>
+        <v>11.74848350686993</v>
       </c>
       <c r="D503" t="n">
         <v>18.6</v>
@@ -7492,10 +7492,10 @@
         <v>45708</v>
       </c>
       <c r="B504" t="n">
-        <v>0.8784196169076116</v>
+        <v>0.8784196169076117</v>
       </c>
       <c r="C504" t="n">
-        <v>9.076090982667537</v>
+        <v>9.105318413024794</v>
       </c>
       <c r="D504" t="n">
         <v>0</v>
@@ -7506,10 +7506,10 @@
         <v>45709</v>
       </c>
       <c r="B505" t="n">
-        <v>0.858769090413354</v>
+        <v>0.8587690904133539</v>
       </c>
       <c r="C505" t="n">
-        <v>7.539609918039369</v>
+        <v>10.86313546913748</v>
       </c>
       <c r="D505" t="n">
         <v>2</v>
@@ -7520,10 +7520,10 @@
         <v>45710</v>
       </c>
       <c r="B506" t="n">
-        <v>0.6146875687600643</v>
+        <v>0.6146875687600641</v>
       </c>
       <c r="C506" t="n">
-        <v>4.391781751941889</v>
+        <v>6.576873728216564</v>
       </c>
       <c r="D506" t="n">
         <v>5.5</v>
@@ -7537,7 +7537,7 @@
         <v>0.8387862724332987</v>
       </c>
       <c r="C507" t="n">
-        <v>13.94618485809175</v>
+        <v>14.88319440322257</v>
       </c>
       <c r="D507" t="n">
         <v>87.7</v>
@@ -7551,7 +7551,7 @@
         <v>0.8888573018451132</v>
       </c>
       <c r="C508" t="n">
-        <v>10.88065242728643</v>
+        <v>10.26994703147993</v>
       </c>
       <c r="D508" t="n">
         <v>0.2</v>
@@ -7565,7 +7565,7 @@
         <v>0.9255695129122531</v>
       </c>
       <c r="C509" t="n">
-        <v>16.78328788714641</v>
+        <v>12.69712096129836</v>
       </c>
       <c r="D509" t="n">
         <v>0</v>
@@ -7579,7 +7579,7 @@
         <v>0.8093563290297965</v>
       </c>
       <c r="C510" t="n">
-        <v>2.444163088820309</v>
+        <v>1.947156873359519</v>
       </c>
       <c r="D510" t="n">
         <v>0</v>
@@ -7593,7 +7593,7 @@
         <v>0.8452992521074637</v>
       </c>
       <c r="C511" t="n">
-        <v>4.254976790253171</v>
+        <v>5.425152149765165</v>
       </c>
       <c r="D511" t="n">
         <v>8.4</v>
@@ -7607,7 +7607,7 @@
         <v>0.7289981535049217</v>
       </c>
       <c r="C512" t="n">
-        <v>4.240383360107971</v>
+        <v>3.851392833091846</v>
       </c>
       <c r="D512" t="n">
         <v>2</v>
@@ -7621,7 +7621,7 @@
         <v>0.6887669228252058</v>
       </c>
       <c r="C513" t="n">
-        <v>1.705458054544654</v>
+        <v>2.078750551678521</v>
       </c>
       <c r="D513" t="n">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>45718</v>
       </c>
       <c r="B514" t="n">
-        <v>0.6541276626302783</v>
+        <v>0.6541276626302784</v>
       </c>
       <c r="C514" t="n">
-        <v>2.721027808949528</v>
+        <v>2.620314110031018</v>
       </c>
       <c r="D514" t="n">
         <v>0</v>
@@ -7646,10 +7646,10 @@
         <v>45719</v>
       </c>
       <c r="B515" t="n">
-        <v>0.6547900802599552</v>
+        <v>0.6547900802599551</v>
       </c>
       <c r="C515" t="n">
-        <v>2.084786994293095</v>
+        <v>2.0581557986975</v>
       </c>
       <c r="D515" t="n">
         <v>40.5</v>
@@ -7660,10 +7660,10 @@
         <v>45720</v>
       </c>
       <c r="B516" t="n">
-        <v>0.683028157623597</v>
+        <v>0.6830281576235969</v>
       </c>
       <c r="C516" t="n">
-        <v>5.42128130905048</v>
+        <v>5.612377237763057</v>
       </c>
       <c r="D516" t="n">
         <v>9.981999999999994</v>
@@ -7674,10 +7674,10 @@
         <v>45721</v>
       </c>
       <c r="B517" t="n">
-        <v>0.842171484471203</v>
+        <v>0.8421714844712033</v>
       </c>
       <c r="C517" t="n">
-        <v>4.288004698224318</v>
+        <v>3.842210624357751</v>
       </c>
       <c r="D517" t="n">
         <v>0</v>
@@ -7688,10 +7688,10 @@
         <v>45722</v>
       </c>
       <c r="B518" t="n">
-        <v>0.6284213560667067</v>
+        <v>0.6284213560667068</v>
       </c>
       <c r="C518" t="n">
-        <v>2.731880758199755</v>
+        <v>2.876402100039298</v>
       </c>
       <c r="D518" t="n">
         <v>4.097799999999984</v>
@@ -7705,7 +7705,7 @@
         <v>0.5055458973110307</v>
       </c>
       <c r="C519" t="n">
-        <v>1.976169470630532</v>
+        <v>2.576025990306179</v>
       </c>
       <c r="D519" t="n">
         <v>2.4136</v>
@@ -7716,13 +7716,13 @@
         <v>45724</v>
       </c>
       <c r="B520" t="n">
-        <v>0.5734744121782088</v>
+        <v>0.5734744121782089</v>
       </c>
       <c r="C520" t="n">
-        <v>1.729532806605319</v>
+        <v>1.715070923173667</v>
       </c>
       <c r="D520" t="n">
-        <v>2.801799999999999</v>
+        <v>2.8018</v>
       </c>
     </row>
     <row r="521">
@@ -7733,7 +7733,7 @@
         <v>0.6519301047905433</v>
       </c>
       <c r="C521" t="n">
-        <v>3.417455912792077</v>
+        <v>2.596691568483844</v>
       </c>
       <c r="D521" t="n">
         <v>0</v>
@@ -7744,10 +7744,10 @@
         <v>45726</v>
       </c>
       <c r="B522" t="n">
-        <v>0.6157397415874564</v>
+        <v>0.6157397415874561</v>
       </c>
       <c r="C522" t="n">
-        <v>3.25465891019841</v>
+        <v>2.887774794924617</v>
       </c>
       <c r="D522" t="n">
         <v>0</v>
@@ -7758,10 +7758,10 @@
         <v>45727</v>
       </c>
       <c r="B523" t="n">
-        <v>0.6378345200703147</v>
+        <v>0.6378345200703148</v>
       </c>
       <c r="C523" t="n">
-        <v>3.876685262416005</v>
+        <v>3.902188278018563</v>
       </c>
       <c r="D523" t="n">
         <v>0</v>
@@ -7772,10 +7772,10 @@
         <v>45728</v>
       </c>
       <c r="B524" t="n">
-        <v>0.5798433315560017</v>
+        <v>0.5798433315560015</v>
       </c>
       <c r="C524" t="n">
-        <v>3.705586451392097</v>
+        <v>2.665999117240503</v>
       </c>
       <c r="D524" t="n">
         <v>0</v>
@@ -7800,10 +7800,10 @@
         <v>45730</v>
       </c>
       <c r="B526" t="n">
-        <v>0.5232744981648526</v>
+        <v>0.5232744981648527</v>
       </c>
       <c r="C526" t="n">
-        <v>7.170160008153847</v>
+        <v>4.487232923292765</v>
       </c>
       <c r="D526" t="n">
         <v>1.3</v>
@@ -7814,7 +7814,7 @@
         <v>45731</v>
       </c>
       <c r="B527" t="n">
-        <v>0.4264088704772401</v>
+        <v>0.4264088704772403</v>
       </c>
       <c r="C527" t="n">
         <v>0</v>
@@ -7856,10 +7856,10 @@
         <v>45734</v>
       </c>
       <c r="B530" t="n">
-        <v>0.6012446873364884</v>
+        <v>0.6012446873364883</v>
       </c>
       <c r="C530" t="n">
-        <v>4.290313319038439</v>
+        <v>3.811731719890886</v>
       </c>
       <c r="D530" t="n">
         <v>1.3</v>
@@ -7870,10 +7870,10 @@
         <v>45735</v>
       </c>
       <c r="B531" t="n">
-        <v>0.7035039687528098</v>
+        <v>0.7035039687528096</v>
       </c>
       <c r="C531" t="n">
-        <v>3.469915835471959</v>
+        <v>2.994781150543983</v>
       </c>
       <c r="D531" t="n">
         <v>6</v>
@@ -7887,7 +7887,7 @@
         <v>0.5835120164905726</v>
       </c>
       <c r="C532" t="n">
-        <v>3.395001365431255</v>
+        <v>2.649527669379522</v>
       </c>
       <c r="D532" t="n">
         <v>1.4</v>
@@ -7898,10 +7898,10 @@
         <v>45737</v>
       </c>
       <c r="B533" t="n">
-        <v>0.5838502438167428</v>
+        <v>0.583850243816743</v>
       </c>
       <c r="C533" t="n">
-        <v>4.260935377748363</v>
+        <v>3.112444314597755</v>
       </c>
       <c r="D533" t="n">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>0.542293227201108</v>
       </c>
       <c r="C534" t="n">
-        <v>3.89864641188185</v>
+        <v>3.365790781914113</v>
       </c>
       <c r="D534" t="n">
         <v>20.3</v>
@@ -7926,10 +7926,10 @@
         <v>45739</v>
       </c>
       <c r="B535" t="n">
-        <v>0.7103538468442796</v>
+        <v>0.7103538468442794</v>
       </c>
       <c r="C535" t="n">
-        <v>5.249430491282453</v>
+        <v>5.780580167182641</v>
       </c>
       <c r="D535" t="n">
         <v>1.2</v>
@@ -7940,10 +7940,10 @@
         <v>45740</v>
       </c>
       <c r="B536" t="n">
-        <v>0.75968067179775</v>
+        <v>0.7596806717977499</v>
       </c>
       <c r="C536" t="n">
-        <v>3.780599792219381</v>
+        <v>4.316790422631318</v>
       </c>
       <c r="D536" t="n">
         <v>0</v>
@@ -7957,7 +7957,7 @@
         <v>0.6889851419161732</v>
       </c>
       <c r="C537" t="n">
-        <v>3.043799510865261</v>
+        <v>2.842848577454403</v>
       </c>
       <c r="D537" t="n">
         <v>1</v>
@@ -7971,7 +7971,7 @@
         <v>0.6746910165168177</v>
       </c>
       <c r="C538" t="n">
-        <v>8.810951497297076</v>
+        <v>8.84121162514262</v>
       </c>
       <c r="D538" t="n">
         <v>0</v>
@@ -7985,7 +7985,7 @@
         <v>0.7704496085973154</v>
       </c>
       <c r="C539" t="n">
-        <v>8.886690854258447</v>
+        <v>8.975758954237634</v>
       </c>
       <c r="D539" t="n">
         <v>5.4</v>
@@ -7996,10 +7996,10 @@
         <v>45744</v>
       </c>
       <c r="B540" t="n">
-        <v>0.7620121690153328</v>
+        <v>0.7620121690153326</v>
       </c>
       <c r="C540" t="n">
-        <v>2.070629063935999</v>
+        <v>1.725293428506964</v>
       </c>
       <c r="D540" t="n">
         <v>0.3</v>
@@ -8013,10 +8013,10 @@
         <v>0.7990173876479546</v>
       </c>
       <c r="C541" t="n">
-        <v>3.849463334044613</v>
+        <v>3.938808110867392</v>
       </c>
       <c r="D541" t="n">
-        <v>5.221599999999993</v>
+        <v>5.221599999999992</v>
       </c>
     </row>
     <row r="542">
@@ -8027,7 +8027,7 @@
         <v>0.5669213880624064</v>
       </c>
       <c r="C542" t="n">
-        <v>1.306482832323365</v>
+        <v>1.702499677545984</v>
       </c>
       <c r="D542" t="n">
         <v>0</v>
@@ -8041,7 +8041,7 @@
         <v>0.5142223604230913</v>
       </c>
       <c r="C543" t="n">
-        <v>2.944838787611054</v>
+        <v>2.468480261996567</v>
       </c>
       <c r="D543" t="n">
         <v>1</v>
@@ -8052,7 +8052,7 @@
         <v>45748</v>
       </c>
       <c r="B544" t="n">
-        <v>0.4671381387810059</v>
+        <v>0.4671381387810057</v>
       </c>
       <c r="C544" t="n">
         <v>0</v>
@@ -8066,10 +8066,10 @@
         <v>45749</v>
       </c>
       <c r="B545" t="n">
-        <v>0.863727058630214</v>
+        <v>0.8637270586302139</v>
       </c>
       <c r="C545" t="n">
-        <v>6.256975924906822</v>
+        <v>7.920402728679885</v>
       </c>
       <c r="D545" t="n">
         <v>8.199999999999999</v>
@@ -8080,10 +8080,10 @@
         <v>45750</v>
       </c>
       <c r="B546" t="n">
-        <v>0.6941594348572728</v>
+        <v>0.6941594348572729</v>
       </c>
       <c r="C546" t="n">
-        <v>5.230887774941911</v>
+        <v>3.736684329414377</v>
       </c>
       <c r="D546" t="n">
         <v>5.9</v>
@@ -8094,10 +8094,10 @@
         <v>45751</v>
       </c>
       <c r="B547" t="n">
-        <v>0.6689462873953372</v>
+        <v>0.6689462873953371</v>
       </c>
       <c r="C547" t="n">
-        <v>2.545942421035888</v>
+        <v>1.568059606937335</v>
       </c>
       <c r="D547" t="n">
         <v>7.03039999999999</v>
@@ -8108,10 +8108,10 @@
         <v>45752</v>
       </c>
       <c r="B548" t="n">
-        <v>0.7265169970968494</v>
+        <v>0.7265169970968492</v>
       </c>
       <c r="C548" t="n">
-        <v>3.085791178149459</v>
+        <v>2.299038612591088</v>
       </c>
       <c r="D548" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>45753</v>
       </c>
       <c r="B549" t="n">
-        <v>0.6939541227160727</v>
+        <v>0.6939541227160728</v>
       </c>
       <c r="C549" t="n">
-        <v>3.060835915375255</v>
+        <v>2.966755528047156</v>
       </c>
       <c r="D549" t="n">
         <v>43</v>
@@ -8136,10 +8136,10 @@
         <v>45754</v>
       </c>
       <c r="B550" t="n">
-        <v>0.812560754979197</v>
+        <v>0.8125607549791971</v>
       </c>
       <c r="C550" t="n">
-        <v>6.510056281116986</v>
+        <v>5.808405711051805</v>
       </c>
       <c r="D550" t="n">
         <v>0</v>
@@ -8150,10 +8150,10 @@
         <v>45755</v>
       </c>
       <c r="B551" t="n">
-        <v>0.6688356734346621</v>
+        <v>0.6688356734346623</v>
       </c>
       <c r="C551" t="n">
-        <v>2.370906105472823</v>
+        <v>2.000771619945209</v>
       </c>
       <c r="D551" t="n">
         <v>0</v>
@@ -8164,10 +8164,10 @@
         <v>45756</v>
       </c>
       <c r="B552" t="n">
-        <v>0.5158672321228751</v>
+        <v>0.515867232122875</v>
       </c>
       <c r="C552" t="n">
-        <v>2.739771540850756</v>
+        <v>2.251062737633839</v>
       </c>
       <c r="D552" t="n">
         <v>0</v>
@@ -8181,7 +8181,7 @@
         <v>0.5147702658455118</v>
       </c>
       <c r="C553" t="n">
-        <v>1.653880433313366</v>
+        <v>1.46780839721915</v>
       </c>
       <c r="D553" t="n">
         <v>0</v>
@@ -8195,7 +8195,7 @@
         <v>0.6039565807606837</v>
       </c>
       <c r="C554" t="n">
-        <v>2.291613237505276</v>
+        <v>2.48549631933344</v>
       </c>
       <c r="D554" t="n">
         <v>0</v>
@@ -8209,7 +8209,7 @@
         <v>0.5916871904944287</v>
       </c>
       <c r="C555" t="n">
-        <v>3.130299735845075</v>
+        <v>2.716294587601511</v>
       </c>
       <c r="D555" t="n">
         <v>11.1</v>
@@ -8223,7 +8223,7 @@
         <v>0.6172721849263246</v>
       </c>
       <c r="C556" t="n">
-        <v>4.947901828644985</v>
+        <v>2.710824087989558</v>
       </c>
       <c r="D556" t="n">
         <v>8.9</v>
@@ -8234,10 +8234,10 @@
         <v>45761</v>
       </c>
       <c r="B557" t="n">
-        <v>0.8172393145286216</v>
+        <v>0.8172393145286215</v>
       </c>
       <c r="C557" t="n">
-        <v>3.524012138272999</v>
+        <v>3.81026131902999</v>
       </c>
       <c r="D557" t="n">
         <v>0</v>
@@ -8251,7 +8251,7 @@
         <v>0.5201857968754013</v>
       </c>
       <c r="C558" t="n">
-        <v>1.192909053088606</v>
+        <v>1.165209988863849</v>
       </c>
       <c r="D558" t="n">
         <v>2.5</v>
@@ -8279,7 +8279,7 @@
         <v>0.7065450468540031</v>
       </c>
       <c r="C560" t="n">
-        <v>3.515796671643523</v>
+        <v>2.863286106217015</v>
       </c>
       <c r="D560" t="n">
         <v>0</v>
@@ -8290,10 +8290,10 @@
         <v>45765</v>
       </c>
       <c r="B561" t="n">
-        <v>0.8531295162949699</v>
+        <v>0.85312951629497</v>
       </c>
       <c r="C561" t="n">
-        <v>5.919304028098892</v>
+        <v>5.950418827685827</v>
       </c>
       <c r="D561" t="n">
         <v>2.8</v>
@@ -8307,7 +8307,7 @@
         <v>0.734527345237714</v>
       </c>
       <c r="C562" t="n">
-        <v>2.257545042724925</v>
+        <v>2.394756154056657</v>
       </c>
       <c r="D562" t="n">
         <v>2.1</v>
@@ -8321,7 +8321,7 @@
         <v>0.6363824248150591</v>
       </c>
       <c r="C563" t="n">
-        <v>2.783222700701065</v>
+        <v>2.546038586230001</v>
       </c>
       <c r="D563" t="n">
         <v>0</v>
@@ -8332,10 +8332,10 @@
         <v>45768</v>
       </c>
       <c r="B564" t="n">
-        <v>0.5711035206473754</v>
+        <v>0.5711035206473756</v>
       </c>
       <c r="C564" t="n">
-        <v>2.590180679721001</v>
+        <v>3.112945711155868</v>
       </c>
       <c r="D564" t="n">
         <v>7.5</v>
@@ -8349,7 +8349,7 @@
         <v>0.5337899588186923</v>
       </c>
       <c r="C565" t="n">
-        <v>7.523365926099919</v>
+        <v>4.891723233181753</v>
       </c>
       <c r="D565" t="n">
         <v>9.5</v>
@@ -8363,7 +8363,7 @@
         <v>0.688967039179245</v>
       </c>
       <c r="C566" t="n">
-        <v>3.186839518724017</v>
+        <v>3.001032301116997</v>
       </c>
       <c r="D566" t="n">
         <v>0</v>
@@ -8374,10 +8374,10 @@
         <v>45771</v>
       </c>
       <c r="B567" t="n">
-        <v>0.5864226055317718</v>
+        <v>0.5864226055317719</v>
       </c>
       <c r="C567" t="n">
-        <v>4.519697027361764</v>
+        <v>4.105365377219591</v>
       </c>
       <c r="D567" t="n">
         <v>0</v>
@@ -8405,7 +8405,7 @@
         <v>0.5125922222640014</v>
       </c>
       <c r="C569" t="n">
-        <v>2.755634643984327</v>
+        <v>2.836159563032948</v>
       </c>
       <c r="D569" t="n">
         <v>25</v>
@@ -8419,7 +8419,7 @@
         <v>0.5991762150520433</v>
       </c>
       <c r="C570" t="n">
-        <v>3.232028534780063</v>
+        <v>3.486409973546346</v>
       </c>
       <c r="D570" t="n">
         <v>0</v>
@@ -8430,10 +8430,10 @@
         <v>45775</v>
       </c>
       <c r="B571" t="n">
-        <v>0.6336259159891791</v>
+        <v>0.6336259159891792</v>
       </c>
       <c r="C571" t="n">
-        <v>2.818699791061272</v>
+        <v>2.389663712745556</v>
       </c>
       <c r="D571" t="n">
         <v>0</v>
@@ -8472,7 +8472,7 @@
         <v>45778</v>
       </c>
       <c r="B574" t="n">
-        <v>0.4082976846334093</v>
+        <v>0.4082976846334092</v>
       </c>
       <c r="C574" t="n">
         <v>0</v>
@@ -8500,7 +8500,7 @@
         <v>45780</v>
       </c>
       <c r="B576" t="n">
-        <v>0.4292104476937676</v>
+        <v>0.4292104476937677</v>
       </c>
       <c r="C576" t="n">
         <v>0</v>
@@ -8517,7 +8517,7 @@
         <v>0.6655982749468849</v>
       </c>
       <c r="C577" t="n">
-        <v>3.946037893039961</v>
+        <v>3.255513388749899</v>
       </c>
       <c r="D577" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>45782</v>
       </c>
       <c r="B578" t="n">
-        <v>0.5378552575161665</v>
+        <v>0.5378552575161666</v>
       </c>
       <c r="C578" t="n">
-        <v>2.800768653202126</v>
+        <v>2.918353192298228</v>
       </c>
       <c r="D578" t="n">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>45783</v>
       </c>
       <c r="B579" t="n">
-        <v>0.4535596692287977</v>
+        <v>0.4535596692287978</v>
       </c>
       <c r="C579" t="n">
         <v>0</v>
@@ -8556,10 +8556,10 @@
         <v>45784</v>
       </c>
       <c r="B580" t="n">
-        <v>0.5111943530855151</v>
+        <v>0.5111943530855152</v>
       </c>
       <c r="C580" t="n">
-        <v>0.8888974294717458</v>
+        <v>1.177913373282528</v>
       </c>
       <c r="D580" t="n">
         <v>3.7</v>
@@ -8573,7 +8573,7 @@
         <v>0.6294250064937333</v>
       </c>
       <c r="C581" t="n">
-        <v>3.189645507627349</v>
+        <v>3.419466827039319</v>
       </c>
       <c r="D581" t="n">
         <v>0</v>
@@ -8584,10 +8584,10 @@
         <v>45786</v>
       </c>
       <c r="B582" t="n">
-        <v>0.596167251925572</v>
+        <v>0.5961672519255719</v>
       </c>
       <c r="C582" t="n">
-        <v>2.915270574680551</v>
+        <v>2.848091062271436</v>
       </c>
       <c r="D582" t="n">
         <v>0</v>
@@ -8598,7 +8598,7 @@
         <v>45787</v>
       </c>
       <c r="B583" t="n">
-        <v>0.4474672449510657</v>
+        <v>0.4474672449510655</v>
       </c>
       <c r="C583" t="n">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>0.5541668603126075</v>
       </c>
       <c r="C584" t="n">
-        <v>2.636830506240892</v>
+        <v>2.393683042116448</v>
       </c>
       <c r="D584" t="n">
         <v>27</v>
@@ -8629,7 +8629,7 @@
         <v>0.6066937834275038</v>
       </c>
       <c r="C585" t="n">
-        <v>1.838676888281157</v>
+        <v>2.389131023090127</v>
       </c>
       <c r="D585" t="n">
         <v>0</v>
@@ -8643,7 +8643,7 @@
         <v>0.5097304559833894</v>
       </c>
       <c r="C586" t="n">
-        <v>3.693617380358785</v>
+        <v>4.072347610827026</v>
       </c>
       <c r="D586" t="n">
         <v>55.2</v>
@@ -8654,7 +8654,7 @@
         <v>45791</v>
       </c>
       <c r="B587" t="n">
-        <v>0.4374344515451136</v>
+        <v>0.4374344515451135</v>
       </c>
       <c r="C587" t="n">
         <v>0</v>
@@ -8668,10 +8668,10 @@
         <v>45792</v>
       </c>
       <c r="B588" t="n">
-        <v>0.5371703744830838</v>
+        <v>0.537170374483084</v>
       </c>
       <c r="C588" t="n">
-        <v>1.162689521762181</v>
+        <v>1.258536746805722</v>
       </c>
       <c r="D588" t="n">
         <v>37.2</v>
@@ -8699,7 +8699,7 @@
         <v>0.6894646326454434</v>
       </c>
       <c r="C590" t="n">
-        <v>1.746858395936174</v>
+        <v>1.982749824738496</v>
       </c>
       <c r="D590" t="n">
         <v>5.7</v>
@@ -8710,10 +8710,10 @@
         <v>45795</v>
       </c>
       <c r="B591" t="n">
-        <v>0.7281076101925431</v>
+        <v>0.7281076101925432</v>
       </c>
       <c r="C591" t="n">
-        <v>5.725705159379744</v>
+        <v>4.665007031424646</v>
       </c>
       <c r="D591" t="n">
         <v>1</v>
@@ -8724,10 +8724,10 @@
         <v>45796</v>
       </c>
       <c r="B592" t="n">
-        <v>0.5573470645310041</v>
+        <v>0.557347064531004</v>
       </c>
       <c r="C592" t="n">
-        <v>2.496595145889618</v>
+        <v>1.954150520140596</v>
       </c>
       <c r="D592" t="n">
         <v>0</v>
@@ -8738,10 +8738,10 @@
         <v>45797</v>
       </c>
       <c r="B593" t="n">
-        <v>0.591448520134725</v>
+        <v>0.5914485201347249</v>
       </c>
       <c r="C593" t="n">
-        <v>2.806953648685332</v>
+        <v>2.730234770185476</v>
       </c>
       <c r="D593" t="n">
         <v>0</v>
@@ -8752,7 +8752,7 @@
         <v>45798</v>
       </c>
       <c r="B594" t="n">
-        <v>0.4867032426922555</v>
+        <v>0.4867032426922556</v>
       </c>
       <c r="C594" t="n">
         <v>0</v>
@@ -8766,10 +8766,10 @@
         <v>45799</v>
       </c>
       <c r="B595" t="n">
-        <v>0.7812214453413079</v>
+        <v>0.7812214453413078</v>
       </c>
       <c r="C595" t="n">
-        <v>5.187359092281192</v>
+        <v>4.878725601660284</v>
       </c>
       <c r="D595" t="n">
         <v>4.9</v>
@@ -8783,7 +8783,7 @@
         <v>0.8004814536786949</v>
       </c>
       <c r="C596" t="n">
-        <v>2.845592340233923</v>
+        <v>3.937773743959925</v>
       </c>
       <c r="D596" t="n">
         <v>7.5</v>
@@ -8797,7 +8797,7 @@
         <v>0.8523183024059477</v>
       </c>
       <c r="C597" t="n">
-        <v>3.627550452714077</v>
+        <v>4.065188446715834</v>
       </c>
       <c r="D597" t="n">
         <v>0.5</v>
@@ -8811,7 +8811,7 @@
         <v>0.6801628366623106</v>
       </c>
       <c r="C598" t="n">
-        <v>2.501395649896059</v>
+        <v>2.218957178343596</v>
       </c>
       <c r="D598" t="n">
         <v>33</v>
@@ -8825,7 +8825,7 @@
         <v>0.863895675107999</v>
       </c>
       <c r="C599" t="n">
-        <v>3.571580197587024</v>
+        <v>3.62754974175037</v>
       </c>
       <c r="D599" t="n">
         <v>21.3</v>
@@ -8839,7 +8839,7 @@
         <v>0.8538446414844801</v>
       </c>
       <c r="C600" t="n">
-        <v>3.258494254255252</v>
+        <v>3.355827524102742</v>
       </c>
       <c r="D600" t="n">
         <v>0</v>
@@ -8850,10 +8850,10 @@
         <v>45805</v>
       </c>
       <c r="B601" t="n">
-        <v>0.5210369764891942</v>
+        <v>0.5210369764891943</v>
       </c>
       <c r="C601" t="n">
-        <v>2.376989712034914</v>
+        <v>1.394762717432543</v>
       </c>
       <c r="D601" t="n">
         <v>0</v>
@@ -8864,7 +8864,7 @@
         <v>45806</v>
       </c>
       <c r="B602" t="n">
-        <v>0.4670448064202873</v>
+        <v>0.4670448064202874</v>
       </c>
       <c r="C602" t="n">
         <v>0</v>
@@ -8878,10 +8878,10 @@
         <v>45807</v>
       </c>
       <c r="B603" t="n">
-        <v>0.5106588914120298</v>
+        <v>0.5106588914120297</v>
       </c>
       <c r="C603" t="n">
-        <v>0.4156350695241038</v>
+        <v>0.5803523251481646</v>
       </c>
       <c r="D603" t="n">
         <v>0</v>
@@ -8892,10 +8892,10 @@
         <v>45808</v>
       </c>
       <c r="B604" t="n">
-        <v>0.7134783315798314</v>
+        <v>0.7134783315798313</v>
       </c>
       <c r="C604" t="n">
-        <v>1.862199803994249</v>
+        <v>2.17388541536594</v>
       </c>
       <c r="D604" t="n">
         <v>1.6</v>
@@ -8906,10 +8906,10 @@
         <v>45809</v>
       </c>
       <c r="B605" t="n">
-        <v>0.533490902309529</v>
+        <v>0.5334909023095289</v>
       </c>
       <c r="C605" t="n">
-        <v>3.190852049842102</v>
+        <v>2.477194968726562</v>
       </c>
       <c r="D605" t="n">
         <v>0</v>
@@ -8923,7 +8923,7 @@
         <v>0.501155274216417</v>
       </c>
       <c r="C606" t="n">
-        <v>0.9423614756587569</v>
+        <v>1.365752623583184</v>
       </c>
       <c r="D606" t="n">
         <v>0</v>
@@ -8962,7 +8962,7 @@
         <v>45813</v>
       </c>
       <c r="B609" t="n">
-        <v>0.402737469892167</v>
+        <v>0.4027374698921669</v>
       </c>
       <c r="C609" t="n">
         <v>0</v>
@@ -8990,7 +8990,7 @@
         <v>45815</v>
       </c>
       <c r="B611" t="n">
-        <v>0.3313551784391257</v>
+        <v>0.3313551784391256</v>
       </c>
       <c r="C611" t="n">
         <v>0</v>
@@ -9007,7 +9007,7 @@
         <v>0.6060579124269317</v>
       </c>
       <c r="C612" t="n">
-        <v>1.235751815254928</v>
+        <v>1.036450663494984</v>
       </c>
       <c r="D612" t="n">
         <v>0</v>
@@ -9046,10 +9046,10 @@
         <v>45819</v>
       </c>
       <c r="B615" t="n">
-        <v>0.5839889912321029</v>
+        <v>0.583988991232103</v>
       </c>
       <c r="C615" t="n">
-        <v>2.461441285563702</v>
+        <v>2.233376557861513</v>
       </c>
       <c r="D615" t="n">
         <v>0</v>
@@ -9060,10 +9060,10 @@
         <v>45820</v>
       </c>
       <c r="B616" t="n">
-        <v>0.5719398519138185</v>
+        <v>0.5719398519138186</v>
       </c>
       <c r="C616" t="n">
-        <v>3.268716793999795</v>
+        <v>3.648575964512566</v>
       </c>
       <c r="D616" t="n">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>45823</v>
       </c>
       <c r="B619" t="n">
-        <v>0.610293369234889</v>
+        <v>0.6102933692348889</v>
       </c>
       <c r="C619" t="n">
-        <v>3.865006934798736</v>
+        <v>3.264798536377042</v>
       </c>
       <c r="D619" t="n">
         <v>1.897800000000001</v>
@@ -9130,7 +9130,7 @@
         <v>45825</v>
       </c>
       <c r="B621" t="n">
-        <v>0.4480136383160433</v>
+        <v>0.4480136383160434</v>
       </c>
       <c r="C621" t="n">
         <v>0</v>
@@ -9158,10 +9158,10 @@
         <v>45827</v>
       </c>
       <c r="B623" t="n">
-        <v>0.8530287062078928</v>
+        <v>0.8530287062078927</v>
       </c>
       <c r="C623" t="n">
-        <v>2.961796716484328</v>
+        <v>2.662780777428707</v>
       </c>
       <c r="D623" t="n">
         <v>9.319200000000006</v>
@@ -9172,10 +9172,10 @@
         <v>45828</v>
       </c>
       <c r="B624" t="n">
-        <v>0.7426201471877412</v>
+        <v>0.7426201471877411</v>
       </c>
       <c r="C624" t="n">
-        <v>6.362078789806795</v>
+        <v>9.014144673113796</v>
       </c>
       <c r="D624" t="n">
         <v>10.9</v>
@@ -9189,10 +9189,10 @@
         <v>0.5263635989977204</v>
       </c>
       <c r="C625" t="n">
-        <v>2.150896587270167</v>
+        <v>1.944115943314049</v>
       </c>
       <c r="D625" t="n">
-        <v>4.485599999999994</v>
+        <v>4.485599999999996</v>
       </c>
     </row>
     <row r="626">
@@ -9203,7 +9203,7 @@
         <v>0.7689333617597063</v>
       </c>
       <c r="C626" t="n">
-        <v>3.072889663110046</v>
+        <v>2.737351025369966</v>
       </c>
       <c r="D626" t="n">
         <v>2.347999999999999</v>
@@ -9217,7 +9217,7 @@
         <v>0.5051532153318391</v>
       </c>
       <c r="C627" t="n">
-        <v>3.862048795973251</v>
+        <v>2.936723596771235</v>
       </c>
       <c r="D627" t="n">
         <v>0.4</v>
@@ -9231,7 +9231,7 @@
         <v>0.5192725579498095</v>
       </c>
       <c r="C628" t="n">
-        <v>2.617858917410949</v>
+        <v>2.905115919079918</v>
       </c>
       <c r="D628" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>45833</v>
       </c>
       <c r="B629" t="n">
-        <v>0.6778222638741758</v>
+        <v>0.6778222638741755</v>
       </c>
       <c r="C629" t="n">
-        <v>8.147235813339915</v>
+        <v>9.034978994188434</v>
       </c>
       <c r="D629" t="n">
         <v>0</v>
@@ -9259,7 +9259,7 @@
         <v>0.5015194578873258</v>
       </c>
       <c r="C630" t="n">
-        <v>2.036967708323065</v>
+        <v>1.833052288942467</v>
       </c>
       <c r="D630" t="n">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>45837</v>
       </c>
       <c r="B633" t="n">
-        <v>0.4666337341075697</v>
+        <v>0.4666337341075696</v>
       </c>
       <c r="C633" t="n">
         <v>0</v>
@@ -9312,10 +9312,10 @@
         <v>45838</v>
       </c>
       <c r="B634" t="n">
-        <v>0.8467119734173165</v>
+        <v>0.8467119734173166</v>
       </c>
       <c r="C634" t="n">
-        <v>3.308345577545604</v>
+        <v>2.781384104480896</v>
       </c>
       <c r="D634" t="n">
         <v>17.9</v>
@@ -9326,10 +9326,10 @@
         <v>45839</v>
       </c>
       <c r="B635" t="n">
-        <v>0.5758162597091511</v>
+        <v>0.575816259709151</v>
       </c>
       <c r="C635" t="n">
-        <v>4.050648741002504</v>
+        <v>3.25494344886304</v>
       </c>
       <c r="D635" t="n">
         <v>0</v>
@@ -9357,7 +9357,7 @@
         <v>0.5458431708070733</v>
       </c>
       <c r="C637" t="n">
-        <v>2.743344801619562</v>
+        <v>3.116595865788111</v>
       </c>
       <c r="D637" t="n">
         <v>0</v>
@@ -9371,7 +9371,7 @@
         <v>0.587905724096879</v>
       </c>
       <c r="C638" t="n">
-        <v>2.559368450264849</v>
+        <v>3.292043805945521</v>
       </c>
       <c r="D638" t="n">
         <v>0</v>
@@ -9396,7 +9396,7 @@
         <v>45844</v>
       </c>
       <c r="B640" t="n">
-        <v>0.4101161142277014</v>
+        <v>0.4101161142277015</v>
       </c>
       <c r="C640" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0.7836996704073962</v>
       </c>
       <c r="C641" t="n">
-        <v>3.244916760470931</v>
+        <v>3.02346085537641</v>
       </c>
       <c r="D641" t="n">
         <v>72.7</v>
@@ -9424,10 +9424,10 @@
         <v>45846</v>
       </c>
       <c r="B642" t="n">
-        <v>0.5034020233046818</v>
+        <v>0.5034020233046819</v>
       </c>
       <c r="C642" t="n">
-        <v>4.49510081425709</v>
+        <v>4.198122348589103</v>
       </c>
       <c r="D642" t="n">
         <v>0</v>
@@ -9438,7 +9438,7 @@
         <v>45847</v>
       </c>
       <c r="B643" t="n">
-        <v>0.4223778564938642</v>
+        <v>0.4223778564938643</v>
       </c>
       <c r="C643" t="n">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>0.534534811181533</v>
       </c>
       <c r="C644" t="n">
-        <v>3.589434218949315</v>
+        <v>3.089451507219304</v>
       </c>
       <c r="D644" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>45850</v>
       </c>
       <c r="B646" t="n">
-        <v>0.4494556372584895</v>
+        <v>0.4494556372584894</v>
       </c>
       <c r="C646" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>45851</v>
       </c>
       <c r="B647" t="n">
-        <v>0.3763416862870643</v>
+        <v>0.3763416862870642</v>
       </c>
       <c r="C647" t="n">
         <v>0</v>
@@ -9522,10 +9522,10 @@
         <v>45853</v>
       </c>
       <c r="B649" t="n">
-        <v>0.5639541949435042</v>
+        <v>0.5639541949435041</v>
       </c>
       <c r="C649" t="n">
-        <v>2.124371193358449</v>
+        <v>1.562645087977458</v>
       </c>
       <c r="D649" t="n">
         <v>0</v>
@@ -9550,7 +9550,7 @@
         <v>45855</v>
       </c>
       <c r="B651" t="n">
-        <v>0.3974289906449338</v>
+        <v>0.3974289906449339</v>
       </c>
       <c r="C651" t="n">
         <v>0</v>
@@ -9564,10 +9564,10 @@
         <v>45856</v>
       </c>
       <c r="B652" t="n">
-        <v>0.614259566460141</v>
+        <v>0.6142595664601409</v>
       </c>
       <c r="C652" t="n">
-        <v>1.087545356833928</v>
+        <v>1.238997547866041</v>
       </c>
       <c r="D652" t="n">
         <v>0.2</v>
@@ -9578,10 +9578,10 @@
         <v>45857</v>
       </c>
       <c r="B653" t="n">
-        <v>0.5288658015028036</v>
+        <v>0.5288658015028035</v>
       </c>
       <c r="C653" t="n">
-        <v>2.345553844089881</v>
+        <v>2.806202919463383</v>
       </c>
       <c r="D653" t="n">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>45858</v>
       </c>
       <c r="B654" t="n">
-        <v>0.4547665154904346</v>
+        <v>0.4547665154904347</v>
       </c>
       <c r="C654" t="n">
         <v>0</v>
@@ -9634,7 +9634,7 @@
         <v>45861</v>
       </c>
       <c r="B657" t="n">
-        <v>0.377392217725625</v>
+        <v>0.3773922177256249</v>
       </c>
       <c r="C657" t="n">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>45864</v>
       </c>
       <c r="B660" t="n">
-        <v>0.2462114950648672</v>
+        <v>0.2462114950648673</v>
       </c>
       <c r="C660" t="n">
         <v>0</v>
@@ -9774,7 +9774,7 @@
         <v>45871</v>
       </c>
       <c r="B667" t="n">
-        <v>0.4083619525778766</v>
+        <v>0.4083619525778767</v>
       </c>
       <c r="C667" t="n">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>45875</v>
       </c>
       <c r="B671" t="n">
-        <v>0.3606621041759566</v>
+        <v>0.3606621041759567</v>
       </c>
       <c r="C671" t="n">
         <v>0</v>
@@ -9844,7 +9844,7 @@
         <v>45876</v>
       </c>
       <c r="B672" t="n">
-        <v>0.3789800482764679</v>
+        <v>0.3789800482764678</v>
       </c>
       <c r="C672" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0.6101437968540308</v>
       </c>
       <c r="C674" t="n">
-        <v>2.632316944071753</v>
+        <v>2.817463981106063</v>
       </c>
       <c r="D674" t="n">
         <v>0</v>
@@ -9900,7 +9900,7 @@
         <v>45880</v>
       </c>
       <c r="B676" t="n">
-        <v>0.4137328344809001</v>
+        <v>0.4137328344809</v>
       </c>
       <c r="C676" t="n">
         <v>0</v>
@@ -9917,7 +9917,7 @@
         <v>0.7890607046336864</v>
       </c>
       <c r="C677" t="n">
-        <v>3.368147264472319</v>
+        <v>4.070472891813433</v>
       </c>
       <c r="D677" t="n">
         <v>60.8</v>
@@ -9928,10 +9928,10 @@
         <v>45882</v>
       </c>
       <c r="B678" t="n">
-        <v>0.849491089027641</v>
+        <v>0.8494910890276411</v>
       </c>
       <c r="C678" t="n">
-        <v>4.790673926165186</v>
+        <v>3.611054910488064</v>
       </c>
       <c r="D678" t="n">
         <v>0.1606000000000001</v>
@@ -9945,7 +9945,7 @@
         <v>0.6581909140146529</v>
       </c>
       <c r="C679" t="n">
-        <v>3.116795816541434</v>
+        <v>2.709134631673479</v>
       </c>
       <c r="D679" t="n">
         <v>1.2</v>
@@ -9984,7 +9984,7 @@
         <v>45886</v>
       </c>
       <c r="B682" t="n">
-        <v>0.4049690268495711</v>
+        <v>0.404969026849571</v>
       </c>
       <c r="C682" t="n">
         <v>0</v>
@@ -10012,7 +10012,7 @@
         <v>45888</v>
       </c>
       <c r="B684" t="n">
-        <v>0.367659964181074</v>
+        <v>0.3676599641810741</v>
       </c>
       <c r="C684" t="n">
         <v>0</v>
@@ -10026,10 +10026,10 @@
         <v>45889</v>
       </c>
       <c r="B685" t="n">
-        <v>0.7254567910111601</v>
+        <v>0.7254567910111602</v>
       </c>
       <c r="C685" t="n">
-        <v>3.639097977275751</v>
+        <v>2.856335291413427</v>
       </c>
       <c r="D685" t="n">
         <v>2.6</v>
@@ -10043,7 +10043,7 @@
         <v>0.5942086855802542</v>
       </c>
       <c r="C686" t="n">
-        <v>2.198364901199708</v>
+        <v>1.616298218108149</v>
       </c>
       <c r="D686" t="n">
         <v>0</v>
@@ -10054,10 +10054,10 @@
         <v>45891</v>
       </c>
       <c r="B687" t="n">
-        <v>0.6294041105284434</v>
+        <v>0.6294041105284433</v>
       </c>
       <c r="C687" t="n">
-        <v>3.011198567475625</v>
+        <v>3.139552585378862</v>
       </c>
       <c r="D687" t="n">
         <v>0</v>
@@ -10110,10 +10110,10 @@
         <v>45895</v>
       </c>
       <c r="B691" t="n">
-        <v>0.5149248748856882</v>
+        <v>0.5149248748856881</v>
       </c>
       <c r="C691" t="n">
-        <v>2.898920787743925</v>
+        <v>2.101651417762363</v>
       </c>
       <c r="D691" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>45896</v>
       </c>
       <c r="B692" t="n">
-        <v>0.4615925234587425</v>
+        <v>0.4615925234587424</v>
       </c>
       <c r="C692" t="n">
         <v>0</v>
@@ -10138,7 +10138,7 @@
         <v>45897</v>
       </c>
       <c r="B693" t="n">
-        <v>0.3035834169876412</v>
+        <v>0.3035834169876413</v>
       </c>
       <c r="C693" t="n">
         <v>0</v>
@@ -10152,7 +10152,7 @@
         <v>45898</v>
       </c>
       <c r="B694" t="n">
-        <v>0.3669748395870043</v>
+        <v>0.3669748395870044</v>
       </c>
       <c r="C694" t="n">
         <v>0</v>
@@ -10166,10 +10166,10 @@
         <v>45899</v>
       </c>
       <c r="B695" t="n">
-        <v>0.5290173049184633</v>
+        <v>0.5290173049184632</v>
       </c>
       <c r="C695" t="n">
-        <v>1.416090807940197</v>
+        <v>1.301384608320695</v>
       </c>
       <c r="D695" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0.5310074206473698</v>
       </c>
       <c r="C698" t="n">
-        <v>2.089351612850328</v>
+        <v>2.541196806817879</v>
       </c>
       <c r="D698" t="n">
         <v>0</v>
@@ -10236,7 +10236,7 @@
         <v>45904</v>
       </c>
       <c r="B700" t="n">
-        <v>0.3710028910611863</v>
+        <v>0.3710028910611864</v>
       </c>
       <c r="C700" t="n">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         <v>45908</v>
       </c>
       <c r="B704" t="n">
-        <v>0.3444378792488159</v>
+        <v>0.344437879248816</v>
       </c>
       <c r="C704" t="n">
         <v>0</v>
@@ -10320,7 +10320,7 @@
         <v>45910</v>
       </c>
       <c r="B706" t="n">
-        <v>0.4910368171651653</v>
+        <v>0.4910368171651654</v>
       </c>
       <c r="C706" t="n">
         <v>0</v>
@@ -10337,7 +10337,7 @@
         <v>0.5465079707486222</v>
       </c>
       <c r="C707" t="n">
-        <v>2.03886042237158</v>
+        <v>3.054220265148638</v>
       </c>
       <c r="D707" t="n">
         <v>0.8</v>
@@ -10362,10 +10362,10 @@
         <v>45913</v>
       </c>
       <c r="B709" t="n">
-        <v>0.5884543603987868</v>
+        <v>0.5884543603987867</v>
       </c>
       <c r="C709" t="n">
-        <v>4.180334934642796</v>
+        <v>3.514082276379015</v>
       </c>
       <c r="D709" t="n">
         <v>0</v>
@@ -10376,10 +10376,10 @@
         <v>45914</v>
       </c>
       <c r="B710" t="n">
-        <v>0.5100633001771363</v>
+        <v>0.5100633001771364</v>
       </c>
       <c r="C710" t="n">
-        <v>2.148850867375335</v>
+        <v>2.317056432597268</v>
       </c>
       <c r="D710" t="n">
         <v>0</v>
@@ -10390,7 +10390,7 @@
         <v>45915</v>
       </c>
       <c r="B711" t="n">
-        <v>0.402471710946002</v>
+        <v>0.4024717109460021</v>
       </c>
       <c r="C711" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0.7835218857286179</v>
       </c>
       <c r="C715" t="n">
-        <v>5.388842554775719</v>
+        <v>6.149125005148153</v>
       </c>
       <c r="D715" t="n">
         <v>8.800000000000001</v>
@@ -10474,10 +10474,10 @@
         <v>45921</v>
       </c>
       <c r="B717" t="n">
-        <v>0.8548125919708112</v>
+        <v>0.8548125919708113</v>
       </c>
       <c r="C717" t="n">
-        <v>5.979339391037778</v>
+        <v>6.637861373122997</v>
       </c>
       <c r="D717" t="n">
         <v>0</v>
@@ -10491,7 +10491,7 @@
         <v>0.7326843542430717</v>
       </c>
       <c r="C718" t="n">
-        <v>5.542367632968621</v>
+        <v>3.208349809391944</v>
       </c>
       <c r="D718" t="n">
         <v>6.6</v>
@@ -10519,7 +10519,7 @@
         <v>0.5626467278340871</v>
       </c>
       <c r="C720" t="n">
-        <v>2.849186225063177</v>
+        <v>3.932572915632323</v>
       </c>
       <c r="D720" t="n">
         <v>0</v>
@@ -10530,7 +10530,7 @@
         <v>45925</v>
       </c>
       <c r="B721" t="n">
-        <v>0.4305241319894095</v>
+        <v>0.4305241319894096</v>
       </c>
       <c r="C721" t="n">
         <v>0</v>
@@ -10544,7 +10544,7 @@
         <v>45926</v>
       </c>
       <c r="B722" t="n">
-        <v>0.4017033447768719</v>
+        <v>0.401703344776872</v>
       </c>
       <c r="C722" t="n">
         <v>0</v>
@@ -10558,7 +10558,7 @@
         <v>45927</v>
       </c>
       <c r="B723" t="n">
-        <v>0.3793998636156005</v>
+        <v>0.3793998636156004</v>
       </c>
       <c r="C723" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>45930</v>
       </c>
       <c r="B726" t="n">
-        <v>0.4253700723344085</v>
+        <v>0.4253700723344084</v>
       </c>
       <c r="C726" t="n">
         <v>0</v>
@@ -10628,7 +10628,7 @@
         <v>45932</v>
       </c>
       <c r="B728" t="n">
-        <v>0.4741825225413328</v>
+        <v>0.4741825225413329</v>
       </c>
       <c r="C728" t="n">
         <v>0</v>
@@ -10684,7 +10684,7 @@
         <v>45936</v>
       </c>
       <c r="B732" t="n">
-        <v>0.3224596156607714</v>
+        <v>0.3224596156607713</v>
       </c>
       <c r="C732" t="n">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         <v>45938</v>
       </c>
       <c r="B734" t="n">
-        <v>0.474479773445863</v>
+        <v>0.4744797734458631</v>
       </c>
       <c r="C734" t="n">
         <v>0</v>
@@ -10740,7 +10740,7 @@
         <v>45940</v>
       </c>
       <c r="B736" t="n">
-        <v>0.1805686034245034</v>
+        <v>0.1805686034245033</v>
       </c>
       <c r="C736" t="n">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>45946</v>
       </c>
       <c r="B742" t="n">
-        <v>0.3327551605108711</v>
+        <v>0.332755160510871</v>
       </c>
       <c r="C742" t="n">
         <v>0</v>
@@ -10852,7 +10852,7 @@
         <v>45948</v>
       </c>
       <c r="B744" t="n">
-        <v>0.3808146433183973</v>
+        <v>0.3808146433183972</v>
       </c>
       <c r="C744" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>45953</v>
       </c>
       <c r="B749" t="n">
-        <v>0.5853988478154389</v>
+        <v>0.585398847815439</v>
       </c>
       <c r="C749" t="n">
-        <v>5.309394862564062</v>
+        <v>4.658235673406624</v>
       </c>
       <c r="D749" t="n">
         <v>8.9</v>
@@ -10936,10 +10936,10 @@
         <v>45954</v>
       </c>
       <c r="B750" t="n">
-        <v>0.5362456761942596</v>
+        <v>0.5362456761942597</v>
       </c>
       <c r="C750" t="n">
-        <v>4.530429488389798</v>
+        <v>4.475176406736795</v>
       </c>
       <c r="D750" t="n">
         <v>4.5</v>
@@ -10967,7 +10967,7 @@
         <v>0.5047362839418053</v>
       </c>
       <c r="C752" t="n">
-        <v>1.810670467057123</v>
+        <v>1.54659050016882</v>
       </c>
       <c r="D752" t="n">
         <v>0</v>
@@ -10978,10 +10978,10 @@
         <v>45957</v>
       </c>
       <c r="B753" t="n">
-        <v>0.5350794988513684</v>
+        <v>0.5350794988513683</v>
       </c>
       <c r="C753" t="n">
-        <v>2.673537991756485</v>
+        <v>2.747575430977959</v>
       </c>
       <c r="D753" t="n">
         <v>2.4</v>
@@ -10992,7 +10992,7 @@
         <v>45958</v>
       </c>
       <c r="B754" t="n">
-        <v>0.4946422321517799</v>
+        <v>0.49464223215178</v>
       </c>
       <c r="C754" t="n">
         <v>0</v>
@@ -11006,10 +11006,10 @@
         <v>45959</v>
       </c>
       <c r="B755" t="n">
-        <v>0.7198243368700129</v>
+        <v>0.7198243368700128</v>
       </c>
       <c r="C755" t="n">
-        <v>5.491349502890897</v>
+        <v>5.206701407489943</v>
       </c>
       <c r="D755" t="n">
         <v>67</v>
@@ -11023,7 +11023,7 @@
         <v>0.6306544758247848</v>
       </c>
       <c r="C756" t="n">
-        <v>1.121432890412144</v>
+        <v>1.391170753215097</v>
       </c>
       <c r="D756" t="n">
         <v>16</v>
@@ -11037,7 +11037,7 @@
         <v>0.6393517848859426</v>
       </c>
       <c r="C757" t="n">
-        <v>1.988801193987408</v>
+        <v>2.768157517827485</v>
       </c>
       <c r="D757" t="n">
         <v>43.6</v>
@@ -11048,10 +11048,10 @@
         <v>45962</v>
       </c>
       <c r="B758" t="n">
-        <v>0.5399583918300476</v>
+        <v>0.5399583918300477</v>
       </c>
       <c r="C758" t="n">
-        <v>1.807402238453202</v>
+        <v>2.862661422059138</v>
       </c>
       <c r="D758" t="n">
         <v>43.6</v>
@@ -11090,7 +11090,7 @@
         <v>45963</v>
       </c>
       <c r="B761" t="n">
-        <v>0.4220107050918281</v>
+        <v>0.422010705091828</v>
       </c>
       <c r="C761" t="n">
         <v>0</v>
@@ -11132,7 +11132,7 @@
         <v>45965</v>
       </c>
       <c r="B764" t="n">
-        <v>0.3403415520551973</v>
+        <v>0.3403415520551974</v>
       </c>
       <c r="C764" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>45966</v>
       </c>
       <c r="B766" t="n">
-        <v>0.3009870245185536</v>
+        <v>0.3009870245185537</v>
       </c>
       <c r="C766" t="n">
         <v>0</v>
@@ -11174,7 +11174,7 @@
         <v>45966</v>
       </c>
       <c r="B767" t="n">
-        <v>0.3800653750508979</v>
+        <v>0.380065375050898</v>
       </c>
       <c r="C767" t="n">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>45967</v>
       </c>
       <c r="B768" t="n">
-        <v>0.3936867443146891</v>
+        <v>0.393686744314689</v>
       </c>
       <c r="C768" t="n">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>45967</v>
       </c>
       <c r="B769" t="n">
-        <v>0.3890531689358644</v>
+        <v>0.3890531689358645</v>
       </c>
       <c r="C769" t="n">
         <v>0</v>
@@ -11230,7 +11230,7 @@
         <v>45968</v>
       </c>
       <c r="B771" t="n">
-        <v>0.4464464232770021</v>
+        <v>0.446446423277002</v>
       </c>
       <c r="C771" t="n">
         <v>0</v>
@@ -11244,10 +11244,10 @@
         <v>45969</v>
       </c>
       <c r="B772" t="n">
-        <v>0.70119938516049</v>
+        <v>0.7011993851604902</v>
       </c>
       <c r="C772" t="n">
-        <v>3.14153441941179</v>
+        <v>3.03104450660441</v>
       </c>
       <c r="D772" t="n">
         <v>0</v>
@@ -11272,10 +11272,10 @@
         <v>45970</v>
       </c>
       <c r="B774" t="n">
-        <v>0.6741424655479458</v>
+        <v>0.6741424655479457</v>
       </c>
       <c r="C774" t="n">
-        <v>5.171823575301167</v>
+        <v>3.680226729697862</v>
       </c>
       <c r="D774" t="n">
         <v>12.4</v>
@@ -11314,7 +11314,7 @@
         <v>45971</v>
       </c>
       <c r="B777" t="n">
-        <v>0.4100413684026654</v>
+        <v>0.4100413684026653</v>
       </c>
       <c r="C777" t="n">
         <v>0</v>
@@ -11331,7 +11331,7 @@
         <v>0.5048800435255082</v>
       </c>
       <c r="C778" t="n">
-        <v>2.799174686963932</v>
+        <v>2.63276268546552</v>
       </c>
       <c r="D778" t="n">
         <v>0.9</v>
@@ -11348,7 +11348,7 @@
         <v>0</v>
       </c>
       <c r="D779" t="n">
-        <v>2.865800000000002</v>
+        <v>2.865800000000001</v>
       </c>
     </row>
     <row r="780">
@@ -11387,7 +11387,7 @@
         <v>0.8138898691163383</v>
       </c>
       <c r="C782" t="n">
-        <v>4.941968413977532</v>
+        <v>4.235218196396866</v>
       </c>
       <c r="D782" t="n">
         <v>3.2</v>
@@ -11398,10 +11398,10 @@
         <v>45977</v>
       </c>
       <c r="B783" t="n">
-        <v>0.6798120614993526</v>
+        <v>0.6798120614993525</v>
       </c>
       <c r="C783" t="n">
-        <v>3.428212957436692</v>
+        <v>3.271057440944114</v>
       </c>
       <c r="D783" t="n">
         <v>0</v>
@@ -11426,7 +11426,7 @@
         <v>45979</v>
       </c>
       <c r="B785" t="n">
-        <v>0.390378881377291</v>
+        <v>0.3903788813772912</v>
       </c>
       <c r="C785" t="n">
         <v>0</v>
@@ -11443,7 +11443,7 @@
         <v>0.73068470371022</v>
       </c>
       <c r="C786" t="n">
-        <v>3.986716675845785</v>
+        <v>5.841863145316158</v>
       </c>
       <c r="D786" t="n">
         <v>2.5</v>
@@ -11457,7 +11457,7 @@
         <v>0.5910717144552399</v>
       </c>
       <c r="C787" t="n">
-        <v>1.83351812659317</v>
+        <v>2.562850011895767</v>
       </c>
       <c r="D787" t="n">
         <v>15.3</v>
@@ -11468,7 +11468,7 @@
         <v>45982</v>
       </c>
       <c r="B788" t="n">
-        <v>0.4742446892382762</v>
+        <v>0.4742446892382761</v>
       </c>
       <c r="C788" t="n">
         <v>0</v>
@@ -11510,10 +11510,10 @@
         <v>45985</v>
       </c>
       <c r="B791" t="n">
-        <v>0.5177742414720282</v>
+        <v>0.5177742414720283</v>
       </c>
       <c r="C791" t="n">
-        <v>3.879230097346981</v>
+        <v>3.537991977401319</v>
       </c>
       <c r="D791" t="n">
         <v>0</v>
@@ -11552,7 +11552,7 @@
         <v>45988</v>
       </c>
       <c r="B794" t="n">
-        <v>0.4297599157858611</v>
+        <v>0.4297599157858612</v>
       </c>
       <c r="C794" t="n">
         <v>0</v>
@@ -11566,7 +11566,7 @@
         <v>45989</v>
       </c>
       <c r="B795" t="n">
-        <v>0.3888053595453166</v>
+        <v>0.3888053595453167</v>
       </c>
       <c r="C795" t="n">
         <v>0</v>
@@ -11580,7 +11580,7 @@
         <v>45990</v>
       </c>
       <c r="B796" t="n">
-        <v>0.2948074263379829</v>
+        <v>0.2948074263379828</v>
       </c>
       <c r="C796" t="n">
         <v>0</v>
@@ -11594,7 +11594,7 @@
         <v>45991</v>
       </c>
       <c r="B797" t="n">
-        <v>0.3035760477361414</v>
+        <v>0.3035760477361416</v>
       </c>
       <c r="C797" t="n">
         <v>0</v>
@@ -11608,7 +11608,7 @@
         <v>45992</v>
       </c>
       <c r="B798" t="n">
-        <v>0.3628053557552068</v>
+        <v>0.3628053557552069</v>
       </c>
       <c r="C798" t="n">
         <v>0</v>
@@ -11622,7 +11622,7 @@
         <v>45993</v>
       </c>
       <c r="B799" t="n">
-        <v>0.3511299150532704</v>
+        <v>0.3511299150532705</v>
       </c>
       <c r="C799" t="n">
         <v>0</v>
@@ -11667,7 +11667,7 @@
         <v>0.8431645597157855</v>
       </c>
       <c r="C802" t="n">
-        <v>4.721559829016554</v>
+        <v>5.975726665143214</v>
       </c>
       <c r="D802" t="n">
         <v>0</v>
@@ -11678,10 +11678,10 @@
         <v>45997</v>
       </c>
       <c r="B803" t="n">
-        <v>0.6158737662398615</v>
+        <v>0.6158737662398613</v>
       </c>
       <c r="C803" t="n">
-        <v>2.922999331483911</v>
+        <v>2.701957494808036</v>
       </c>
       <c r="D803" t="n">
         <v>0</v>
@@ -11692,10 +11692,10 @@
         <v>45998</v>
       </c>
       <c r="B804" t="n">
-        <v>0.5099408801714641</v>
+        <v>0.509940880171464</v>
       </c>
       <c r="C804" t="n">
-        <v>3.705524552381058</v>
+        <v>3.571689484475568</v>
       </c>
       <c r="D804" t="inlineStr"/>
     </row>

--- a/hasil_prediksi_regresi.xlsx
+++ b/hasil_prediksi_regresi.xlsx
@@ -478,7 +478,7 @@
         <v>45207</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4879952396172114</v>
+        <v>0.4879952396172115</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>45208</v>
       </c>
       <c r="B4" t="n">
-        <v>0.398022119986845</v>
+        <v>0.3980221199868451</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -534,7 +534,7 @@
         <v>45211</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5203473271812079</v>
+        <v>0.520347327181208</v>
       </c>
       <c r="C7" t="n">
         <v>2.221530249161143</v>
@@ -548,7 +548,7 @@
         <v>45212</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4083650289630856</v>
+        <v>0.4083650289630855</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -604,7 +604,7 @@
         <v>45216</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2093494681083281</v>
+        <v>0.2093494681083282</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>45217</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2265438747164184</v>
+        <v>0.2265438747164183</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>45222</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3688807373288775</v>
+        <v>0.3688807373288776</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>2.7562</v>
+        <v>2.756200000000001</v>
       </c>
     </row>
     <row r="20">
@@ -758,7 +758,7 @@
         <v>45227</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4224801203111328</v>
+        <v>0.4224801203111327</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>45232</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4429058195292648</v>
+        <v>0.4429058195292646</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>45233</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3990008640349132</v>
+        <v>0.3990008640349131</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>45237</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3886179074155394</v>
+        <v>0.3886179074155395</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -926,10 +926,10 @@
         <v>45239</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5241014379249023</v>
+        <v>0.5241014379249022</v>
       </c>
       <c r="C35" t="n">
-        <v>3.057552366582301</v>
+        <v>3.0575523665823</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>45240</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4180662941425631</v>
+        <v>0.4180662941425629</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -954,10 +954,10 @@
         <v>45241</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5608799994286361</v>
+        <v>0.5608799994286362</v>
       </c>
       <c r="C37" t="n">
-        <v>3.262149476848078</v>
+        <v>3.262149476848079</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>45242</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5386451657009347</v>
+        <v>0.5386451657009348</v>
       </c>
       <c r="C38" t="n">
         <v>2.777887930635885</v>
@@ -1038,10 +1038,10 @@
         <v>45247</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5216639425647073</v>
+        <v>0.5216639425647072</v>
       </c>
       <c r="C43" t="n">
-        <v>3.594442101230046</v>
+        <v>3.594442101230045</v>
       </c>
       <c r="D43" t="n">
         <v>0.4</v>
@@ -1080,10 +1080,10 @@
         <v>45250</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6163786705171393</v>
+        <v>0.6163786705171395</v>
       </c>
       <c r="C46" t="n">
-        <v>3.475478599223167</v>
+        <v>3.475478599223168</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>45251</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5455042832777444</v>
+        <v>0.5455042832777445</v>
       </c>
       <c r="C47" t="n">
         <v>1.490010175290135</v>
@@ -1108,7 +1108,7 @@
         <v>45252</v>
       </c>
       <c r="B48" t="n">
-        <v>0.460743533228449</v>
+        <v>0.4607435332284488</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1122,10 +1122,10 @@
         <v>45253</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5222907059277032</v>
+        <v>0.5222907059277031</v>
       </c>
       <c r="C49" t="n">
-        <v>3.851103479083721</v>
+        <v>3.85110347908372</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>7.950283804636141</v>
       </c>
       <c r="D52" t="n">
-        <v>4.348599999999998</v>
+        <v>4.348599999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1178,10 +1178,10 @@
         <v>45257</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5375593643859228</v>
+        <v>0.537559364385923</v>
       </c>
       <c r="C53" t="n">
-        <v>4.100924887326755</v>
+        <v>4.100924887326757</v>
       </c>
       <c r="D53" t="n">
         <v>1.473400000000001</v>
@@ -1192,10 +1192,10 @@
         <v>45258</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6303593705402498</v>
+        <v>0.6303593705402497</v>
       </c>
       <c r="C54" t="n">
-        <v>4.800425723087825</v>
+        <v>4.800425723087824</v>
       </c>
       <c r="D54" t="n">
         <v>2.5</v>
@@ -1206,7 +1206,7 @@
         <v>45259</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5289962134961117</v>
+        <v>0.5289962134961118</v>
       </c>
       <c r="C55" t="n">
         <v>2.322710267688857</v>
@@ -1220,10 +1220,10 @@
         <v>45260</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5483438923789292</v>
+        <v>0.5483438923789291</v>
       </c>
       <c r="C56" t="n">
-        <v>3.018002261395256</v>
+        <v>3.018002261395255</v>
       </c>
       <c r="D56" t="n">
         <v>3</v>
@@ -1248,10 +1248,10 @@
         <v>45262</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8651828525191136</v>
+        <v>0.8651828525191135</v>
       </c>
       <c r="C58" t="n">
-        <v>7.056270568940914</v>
+        <v>7.056270568940913</v>
       </c>
       <c r="D58" t="n">
         <v>3.955999999999998</v>
@@ -1276,10 +1276,10 @@
         <v>45264</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6203553928733704</v>
+        <v>0.6203553928733703</v>
       </c>
       <c r="C60" t="n">
-        <v>3.731735484469074</v>
+        <v>3.731735484469073</v>
       </c>
       <c r="D60" t="n">
         <v>1.4</v>
@@ -1290,10 +1290,10 @@
         <v>45265</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8631794310575605</v>
+        <v>0.8631794310575603</v>
       </c>
       <c r="C61" t="n">
-        <v>3.545400505977159</v>
+        <v>3.545400505977158</v>
       </c>
       <c r="D61" t="n">
         <v>5.698999999999995</v>
@@ -1318,7 +1318,7 @@
         <v>45267</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5317174614396248</v>
+        <v>0.5317174614396249</v>
       </c>
       <c r="C63" t="n">
         <v>1.690121598669565</v>
@@ -1332,7 +1332,7 @@
         <v>45268</v>
       </c>
       <c r="B64" t="n">
-        <v>0.597787541344148</v>
+        <v>0.5977875413441481</v>
       </c>
       <c r="C64" t="n">
         <v>1.683938946786517</v>
@@ -1346,10 +1346,10 @@
         <v>45269</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5307986557350594</v>
+        <v>0.5307986557350592</v>
       </c>
       <c r="C65" t="n">
-        <v>2.036207407515852</v>
+        <v>2.036207407515851</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>45272</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3479839065410645</v>
+        <v>0.3479839065410644</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1416,13 +1416,13 @@
         <v>45274</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3270555932817309</v>
+        <v>0.327055593281731</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>8.883599999999989</v>
+        <v>8.883599999999987</v>
       </c>
     </row>
     <row r="71">
@@ -1458,7 +1458,7 @@
         <v>45277</v>
       </c>
       <c r="B73" t="n">
-        <v>0.346225161741487</v>
+        <v>0.3462251617414872</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>45280</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4032282430930698</v>
+        <v>0.4032282430930699</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>45283</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4298383737523834</v>
+        <v>0.4298383737523833</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>45286</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6174154157101396</v>
+        <v>0.6174154157101395</v>
       </c>
       <c r="C82" t="n">
-        <v>2.82265136365197</v>
+        <v>2.822651363651969</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>45289</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4710634450007041</v>
+        <v>0.471063445000704</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>45290</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6134103083184622</v>
+        <v>0.6134103083184621</v>
       </c>
       <c r="C86" t="n">
         <v>3.128369114178533</v>
@@ -1654,10 +1654,10 @@
         <v>45291</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5916358772877335</v>
+        <v>0.5916358772877336</v>
       </c>
       <c r="C87" t="n">
-        <v>7.740494164122402</v>
+        <v>7.740494164122404</v>
       </c>
       <c r="D87" t="n">
         <v>1.8</v>
@@ -1668,7 +1668,7 @@
         <v>45292</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6767938205516583</v>
+        <v>0.6767938205516582</v>
       </c>
       <c r="C88" t="n">
         <v>3.260225821887526</v>
@@ -1696,10 +1696,10 @@
         <v>45294</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5589026932674239</v>
+        <v>0.5589026932674241</v>
       </c>
       <c r="C90" t="n">
-        <v>4.188654216358209</v>
+        <v>4.188654216358211</v>
       </c>
       <c r="D90" t="n">
         <v>8.5</v>
@@ -1724,7 +1724,7 @@
         <v>45296</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8653605979762244</v>
+        <v>0.8653605979762243</v>
       </c>
       <c r="C92" t="n">
         <v>4.111200221076965</v>
@@ -1766,10 +1766,10 @@
         <v>45299</v>
       </c>
       <c r="B95" t="n">
-        <v>0.7195021082719736</v>
+        <v>0.7195021082719735</v>
       </c>
       <c r="C95" t="n">
-        <v>2.860841471898813</v>
+        <v>2.860841471898812</v>
       </c>
       <c r="D95" t="n">
         <v>20.07160000000002</v>
@@ -1794,10 +1794,10 @@
         <v>45301</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5563110351016165</v>
+        <v>0.5563110351016164</v>
       </c>
       <c r="C97" t="n">
-        <v>3.98410157661874</v>
+        <v>3.984101576618739</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>45302</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5461753991940952</v>
+        <v>0.5461753991940953</v>
       </c>
       <c r="C98" t="n">
         <v>2.160243983909828</v>
@@ -1822,10 +1822,10 @@
         <v>45303</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8410979574573754</v>
+        <v>0.8410979574573755</v>
       </c>
       <c r="C99" t="n">
-        <v>5.792873921250621</v>
+        <v>5.792873921250622</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -1836,10 +1836,10 @@
         <v>45304</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5971657378944154</v>
+        <v>0.5971657378944155</v>
       </c>
       <c r="C100" t="n">
-        <v>2.916879981759646</v>
+        <v>2.916879981759647</v>
       </c>
       <c r="D100" t="n">
         <v>2.4</v>
@@ -1878,13 +1878,13 @@
         <v>45307</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5688848524788789</v>
+        <v>0.5688848524788788</v>
       </c>
       <c r="C103" t="n">
-        <v>6.172359634061852</v>
+        <v>6.172359634061851</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5127999999999999</v>
+        <v>0.5127999999999998</v>
       </c>
     </row>
     <row r="104">
@@ -1892,7 +1892,7 @@
         <v>45308</v>
       </c>
       <c r="B104" t="n">
-        <v>0.410610866340328</v>
+        <v>0.4106108663403279</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>45309</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6793112685158811</v>
+        <v>0.6793112685158809</v>
       </c>
       <c r="C105" t="n">
-        <v>2.910349195977753</v>
+        <v>2.910349195977752</v>
       </c>
       <c r="D105" t="n">
         <v>7.7</v>
@@ -1920,10 +1920,10 @@
         <v>45310</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6855200897306054</v>
+        <v>0.6855200897306055</v>
       </c>
       <c r="C106" t="n">
-        <v>5.037385687593342</v>
+        <v>5.037385687593343</v>
       </c>
       <c r="D106" t="n">
         <v>11</v>
@@ -1934,10 +1934,10 @@
         <v>45311</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9040548313909952</v>
+        <v>0.9040548313909953</v>
       </c>
       <c r="C107" t="n">
-        <v>7.109172790285445</v>
+        <v>7.109172790285446</v>
       </c>
       <c r="D107" t="n">
         <v>6.344600000000008</v>
@@ -1948,7 +1948,7 @@
         <v>45312</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4956902082062917</v>
+        <v>0.4956902082062916</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -1962,10 +1962,10 @@
         <v>45313</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5321963963341396</v>
+        <v>0.5321963963341395</v>
       </c>
       <c r="C109" t="n">
-        <v>2.744944914203729</v>
+        <v>2.744944914203728</v>
       </c>
       <c r="D109" t="n">
         <v>0.3058</v>
@@ -2004,10 +2004,10 @@
         <v>45316</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5279111436805418</v>
+        <v>0.527911143680542</v>
       </c>
       <c r="C112" t="n">
-        <v>3.955340673627117</v>
+        <v>3.955340673627119</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>45317</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4598346521752082</v>
+        <v>0.4598346521752083</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -2032,10 +2032,10 @@
         <v>45318</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5808213352327293</v>
+        <v>0.5808213352327292</v>
       </c>
       <c r="C114" t="n">
-        <v>8.209151397654402</v>
+        <v>8.2091513976544</v>
       </c>
       <c r="D114" t="n">
         <v>28</v>
@@ -2060,7 +2060,7 @@
         <v>45320</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8690870464496612</v>
+        <v>0.8690870464496611</v>
       </c>
       <c r="C116" t="n">
         <v>12.55048768217033</v>
@@ -2088,13 +2088,13 @@
         <v>45322</v>
       </c>
       <c r="B118" t="n">
-        <v>0.8945224485882181</v>
+        <v>0.8945224485882179</v>
       </c>
       <c r="C118" t="n">
-        <v>7.185943657529791</v>
+        <v>7.18594365752979</v>
       </c>
       <c r="D118" t="n">
-        <v>50.64359999999996</v>
+        <v>50.64359999999997</v>
       </c>
     </row>
     <row r="119">
@@ -2102,10 +2102,10 @@
         <v>45323</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8206295276233607</v>
+        <v>0.8206295276233608</v>
       </c>
       <c r="C119" t="n">
-        <v>7.400810098651673</v>
+        <v>7.400810098651675</v>
       </c>
       <c r="D119" t="n">
         <v>20.1</v>
@@ -2136,7 +2136,7 @@
         <v>5.209801901406315</v>
       </c>
       <c r="D121" t="n">
-        <v>7.7636</v>
+        <v>7.763599999999999</v>
       </c>
     </row>
     <row r="122">
@@ -2144,10 +2144,10 @@
         <v>45326</v>
       </c>
       <c r="B122" t="n">
-        <v>0.694456750786216</v>
+        <v>0.6944567507862162</v>
       </c>
       <c r="C122" t="n">
-        <v>5.50293607515018</v>
+        <v>5.502936075150181</v>
       </c>
       <c r="D122" t="n">
         <v>14</v>
@@ -2172,7 +2172,7 @@
         <v>45328</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8361327308702483</v>
+        <v>0.8361327308702484</v>
       </c>
       <c r="C124" t="n">
         <v>10.80969815389427</v>
@@ -2192,7 +2192,7 @@
         <v>8.490395400526952</v>
       </c>
       <c r="D125" t="n">
-        <v>25.67060000000002</v>
+        <v>25.67060000000003</v>
       </c>
     </row>
     <row r="126">
@@ -2200,10 +2200,10 @@
         <v>45330</v>
       </c>
       <c r="B126" t="n">
-        <v>0.6159552461409686</v>
+        <v>0.6159552461409685</v>
       </c>
       <c r="C126" t="n">
-        <v>7.572070734170345</v>
+        <v>7.572070734170344</v>
       </c>
       <c r="D126" t="n">
         <v>8.097999999999999</v>
@@ -2256,7 +2256,7 @@
         <v>45334</v>
       </c>
       <c r="B130" t="n">
-        <v>0.6311800693692425</v>
+        <v>0.6311800693692424</v>
       </c>
       <c r="C130" t="n">
         <v>4.357503047419172</v>
@@ -2284,7 +2284,7 @@
         <v>45336</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6921971206416158</v>
+        <v>0.6921971206416159</v>
       </c>
       <c r="C132" t="n">
         <v>14.42320966875988</v>
@@ -2340,10 +2340,10 @@
         <v>45340</v>
       </c>
       <c r="B136" t="n">
-        <v>0.8196100036002032</v>
+        <v>0.8196100036002031</v>
       </c>
       <c r="C136" t="n">
-        <v>14.15859835492503</v>
+        <v>14.15859835492502</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>45342</v>
       </c>
       <c r="B138" t="n">
-        <v>0.6711642397539803</v>
+        <v>0.6711642397539802</v>
       </c>
       <c r="C138" t="n">
-        <v>1.840892637636576</v>
+        <v>1.840892637636575</v>
       </c>
       <c r="D138" t="n">
         <v>0.2</v>
@@ -2382,10 +2382,10 @@
         <v>45343</v>
       </c>
       <c r="B139" t="n">
-        <v>0.6272421858863225</v>
+        <v>0.6272421858863223</v>
       </c>
       <c r="C139" t="n">
-        <v>4.54062133924024</v>
+        <v>4.540621339240238</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         <v>45344</v>
       </c>
       <c r="B140" t="n">
-        <v>0.539790418523346</v>
+        <v>0.5397904185233459</v>
       </c>
       <c r="C140" t="n">
-        <v>5.403511730160079</v>
+        <v>5.403511730160078</v>
       </c>
       <c r="D140" t="n">
         <v>3.2</v>
@@ -2438,10 +2438,10 @@
         <v>45347</v>
       </c>
       <c r="B143" t="n">
-        <v>0.6731456392223835</v>
+        <v>0.6731456392223832</v>
       </c>
       <c r="C143" t="n">
-        <v>3.909771163239692</v>
+        <v>3.909771163239691</v>
       </c>
       <c r="D143" t="n">
         <v>20.8</v>
@@ -2452,7 +2452,7 @@
         <v>45348</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6595457622646388</v>
+        <v>0.6595457622646389</v>
       </c>
       <c r="C144" t="n">
         <v>3.670842376153066</v>
@@ -2480,7 +2480,7 @@
         <v>45350</v>
       </c>
       <c r="B146" t="n">
-        <v>0.5930611187729703</v>
+        <v>0.5930611187729704</v>
       </c>
       <c r="C146" t="n">
         <v>3.856354790127981</v>
@@ -2508,10 +2508,10 @@
         <v>45352</v>
       </c>
       <c r="B148" t="n">
-        <v>0.92016718389315</v>
+        <v>0.9201671838931501</v>
       </c>
       <c r="C148" t="n">
-        <v>10.45991123465749</v>
+        <v>10.4599112346575</v>
       </c>
       <c r="D148" t="n">
         <v>13.06300000000002</v>
@@ -2550,7 +2550,7 @@
         <v>45355</v>
       </c>
       <c r="B151" t="n">
-        <v>0.8445761305652375</v>
+        <v>0.8445761305652376</v>
       </c>
       <c r="C151" t="n">
         <v>5.685886961836133</v>
@@ -2564,7 +2564,7 @@
         <v>45356</v>
       </c>
       <c r="B152" t="n">
-        <v>0.6342013804587561</v>
+        <v>0.634201380458756</v>
       </c>
       <c r="C152" t="n">
         <v>2.444519427707446</v>
@@ -2578,10 +2578,10 @@
         <v>45357</v>
       </c>
       <c r="B153" t="n">
-        <v>0.5647752645554502</v>
+        <v>0.5647752645554501</v>
       </c>
       <c r="C153" t="n">
-        <v>1.616776890192263</v>
+        <v>1.616776890192262</v>
       </c>
       <c r="D153" t="n">
         <v>4</v>
@@ -2592,7 +2592,7 @@
         <v>45358</v>
       </c>
       <c r="B154" t="n">
-        <v>0.5975479309112661</v>
+        <v>0.5975479309112662</v>
       </c>
       <c r="C154" t="n">
         <v>1.13210186425649</v>
@@ -2606,7 +2606,7 @@
         <v>45359</v>
       </c>
       <c r="B155" t="n">
-        <v>0.6100113409615292</v>
+        <v>0.6100113409615293</v>
       </c>
       <c r="C155" t="n">
         <v>3.093464432250879</v>
@@ -2620,10 +2620,10 @@
         <v>45360</v>
       </c>
       <c r="B156" t="n">
-        <v>0.5459842386718819</v>
+        <v>0.5459842386718818</v>
       </c>
       <c r="C156" t="n">
-        <v>8.465293548057746</v>
+        <v>8.465293548057744</v>
       </c>
       <c r="D156" t="n">
         <v>47.7</v>
@@ -2634,10 +2634,10 @@
         <v>45361</v>
       </c>
       <c r="B157" t="n">
-        <v>0.7827959695193301</v>
+        <v>0.7827959695193299</v>
       </c>
       <c r="C157" t="n">
-        <v>5.198120855787711</v>
+        <v>5.19812085578771</v>
       </c>
       <c r="D157" t="n">
         <v>10.4</v>
@@ -2690,7 +2690,7 @@
         <v>45365</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7971775959213273</v>
+        <v>0.7971775959213272</v>
       </c>
       <c r="C161" t="n">
         <v>3.915327100652468</v>
@@ -2704,10 +2704,10 @@
         <v>45366</v>
       </c>
       <c r="B162" t="n">
-        <v>0.8774654156950468</v>
+        <v>0.8774654156950469</v>
       </c>
       <c r="C162" t="n">
-        <v>2.5596574606788</v>
+        <v>2.559657460678801</v>
       </c>
       <c r="D162" t="n">
         <v>6.5</v>
@@ -2760,13 +2760,13 @@
         <v>45370</v>
       </c>
       <c r="B166" t="n">
-        <v>0.7335580133764213</v>
+        <v>0.7335580133764212</v>
       </c>
       <c r="C166" t="n">
-        <v>5.30352476120327</v>
+        <v>5.303524761203269</v>
       </c>
       <c r="D166" t="n">
-        <v>9.695400000000001</v>
+        <v>9.695399999999999</v>
       </c>
     </row>
     <row r="167">
@@ -2774,10 +2774,10 @@
         <v>45371</v>
       </c>
       <c r="B167" t="n">
-        <v>0.5293063645841132</v>
+        <v>0.5293063645841133</v>
       </c>
       <c r="C167" t="n">
-        <v>1.821744749629206</v>
+        <v>1.821744749629207</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -2788,7 +2788,7 @@
         <v>45372</v>
       </c>
       <c r="B168" t="n">
-        <v>0.5226795223642371</v>
+        <v>0.522679522364237</v>
       </c>
       <c r="C168" t="n">
         <v>1.471800851034039</v>
@@ -2802,10 +2802,10 @@
         <v>45373</v>
       </c>
       <c r="B169" t="n">
-        <v>0.538632300138758</v>
+        <v>0.5386323001387581</v>
       </c>
       <c r="C169" t="n">
-        <v>1.704195631186577</v>
+        <v>1.704195631186578</v>
       </c>
       <c r="D169" t="n">
         <v>3.8</v>
@@ -2816,13 +2816,13 @@
         <v>45374</v>
       </c>
       <c r="B170" t="n">
-        <v>0.8268105229705633</v>
+        <v>0.8268105229705637</v>
       </c>
       <c r="C170" t="n">
-        <v>6.638618046905147</v>
+        <v>6.63861804690515</v>
       </c>
       <c r="D170" t="n">
-        <v>5.479999999999991</v>
+        <v>5.479999999999992</v>
       </c>
     </row>
     <row r="171">
@@ -2830,10 +2830,10 @@
         <v>45375</v>
       </c>
       <c r="B171" t="n">
-        <v>0.6188969395939002</v>
+        <v>0.6188969395939004</v>
       </c>
       <c r="C171" t="n">
-        <v>3.846247438489593</v>
+        <v>3.846247438489594</v>
       </c>
       <c r="D171" t="n">
         <v>1.5456</v>
@@ -2844,10 +2844,10 @@
         <v>45376</v>
       </c>
       <c r="B172" t="n">
-        <v>0.5672652167825203</v>
+        <v>0.5672652167825204</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9457773492925475</v>
+        <v>0.9457773492925478</v>
       </c>
       <c r="D172" t="n">
         <v>0.5777999999999993</v>
@@ -2858,10 +2858,10 @@
         <v>45377</v>
       </c>
       <c r="B173" t="n">
-        <v>0.6821954420571796</v>
+        <v>0.6821954420571797</v>
       </c>
       <c r="C173" t="n">
-        <v>2.667308930941409</v>
+        <v>2.66730893094141</v>
       </c>
       <c r="D173" t="n">
         <v>0.4</v>
@@ -2872,7 +2872,7 @@
         <v>45378</v>
       </c>
       <c r="B174" t="n">
-        <v>0.6207041787695327</v>
+        <v>0.6207041787695325</v>
       </c>
       <c r="C174" t="n">
         <v>1.729276966754737</v>
@@ -2906,7 +2906,7 @@
         <v>1.183869102934647</v>
       </c>
       <c r="D176" t="n">
-        <v>0.6757999999999985</v>
+        <v>0.6757999999999986</v>
       </c>
     </row>
     <row r="177">
@@ -2928,10 +2928,10 @@
         <v>45382</v>
       </c>
       <c r="B178" t="n">
-        <v>0.5640348258331523</v>
+        <v>0.5640348258331526</v>
       </c>
       <c r="C178" t="n">
-        <v>1.434261076869799</v>
+        <v>1.4342610768698</v>
       </c>
       <c r="D178" t="n">
         <v>18.2</v>
@@ -2942,10 +2942,10 @@
         <v>45383</v>
       </c>
       <c r="B179" t="n">
-        <v>0.7329177353759926</v>
+        <v>0.7329177353759927</v>
       </c>
       <c r="C179" t="n">
-        <v>3.271524412273334</v>
+        <v>3.271524412273335</v>
       </c>
       <c r="D179" t="n">
         <v>1.2</v>
@@ -2956,7 +2956,7 @@
         <v>45384</v>
       </c>
       <c r="B180" t="n">
-        <v>0.6152134433936568</v>
+        <v>0.6152134433936569</v>
       </c>
       <c r="C180" t="n">
         <v>4.556616420370315</v>
@@ -2970,10 +2970,10 @@
         <v>45385</v>
       </c>
       <c r="B181" t="n">
-        <v>0.5741070077073041</v>
+        <v>0.5741070077073039</v>
       </c>
       <c r="C181" t="n">
-        <v>4.557028029765322</v>
+        <v>4.557028029765321</v>
       </c>
       <c r="D181" t="n">
         <v>5.6</v>
@@ -2984,10 +2984,10 @@
         <v>45386</v>
       </c>
       <c r="B182" t="n">
-        <v>0.7553507887645372</v>
+        <v>0.7553507887645373</v>
       </c>
       <c r="C182" t="n">
-        <v>3.49002562953618</v>
+        <v>3.490025629536181</v>
       </c>
       <c r="D182" t="n">
         <v>10.83299999999999</v>
@@ -2998,10 +2998,10 @@
         <v>45387</v>
       </c>
       <c r="B183" t="n">
-        <v>0.5970453914727883</v>
+        <v>0.5970453914727882</v>
       </c>
       <c r="C183" t="n">
-        <v>3.378648506238957</v>
+        <v>3.378648506238956</v>
       </c>
       <c r="D183" t="n">
         <v>2.8</v>
@@ -3012,10 +3012,10 @@
         <v>45388</v>
       </c>
       <c r="B184" t="n">
-        <v>0.6565364054270275</v>
+        <v>0.6565364054270274</v>
       </c>
       <c r="C184" t="n">
-        <v>5.942867392474082</v>
+        <v>5.942867392474081</v>
       </c>
       <c r="D184" t="n">
         <v>2.465800000000004</v>
@@ -3040,10 +3040,10 @@
         <v>45390</v>
       </c>
       <c r="B186" t="n">
-        <v>0.5876272587936126</v>
+        <v>0.5876272587936127</v>
       </c>
       <c r="C186" t="n">
-        <v>3.612131213694088</v>
+        <v>3.612131213694089</v>
       </c>
       <c r="D186" t="n">
         <v>1.468</v>
@@ -3068,10 +3068,10 @@
         <v>45392</v>
       </c>
       <c r="B188" t="n">
-        <v>0.6793195670258858</v>
+        <v>0.6793195670258856</v>
       </c>
       <c r="C188" t="n">
-        <v>3.228525559402069</v>
+        <v>3.228525559402068</v>
       </c>
       <c r="D188" t="n">
         <v>0.7</v>
@@ -3096,10 +3096,10 @@
         <v>45394</v>
       </c>
       <c r="B190" t="n">
-        <v>0.6681079156317319</v>
+        <v>0.6681079156317318</v>
       </c>
       <c r="C190" t="n">
-        <v>6.871268079566001</v>
+        <v>6.871268079565999</v>
       </c>
       <c r="D190" t="n">
         <v>1</v>
@@ -3110,13 +3110,13 @@
         <v>45395</v>
       </c>
       <c r="B191" t="n">
-        <v>0.8372792583861846</v>
+        <v>0.8372792583861844</v>
       </c>
       <c r="C191" t="n">
-        <v>6.464493181594413</v>
+        <v>6.464493181594412</v>
       </c>
       <c r="D191" t="n">
-        <v>2.890200000000002</v>
+        <v>2.890200000000001</v>
       </c>
     </row>
     <row r="192">
@@ -3144,7 +3144,7 @@
         <v>2.746246568741462</v>
       </c>
       <c r="D193" t="n">
-        <v>2.888000000000003</v>
+        <v>2.888000000000002</v>
       </c>
     </row>
     <row r="194">
@@ -3152,13 +3152,13 @@
         <v>45398</v>
       </c>
       <c r="B194" t="n">
-        <v>0.6016813909270061</v>
+        <v>0.601681390927006</v>
       </c>
       <c r="C194" t="n">
-        <v>4.731333451772544</v>
+        <v>4.731333451772543</v>
       </c>
       <c r="D194" t="n">
-        <v>7.091199999999997</v>
+        <v>7.091199999999996</v>
       </c>
     </row>
     <row r="195">
@@ -3180,10 +3180,10 @@
         <v>45400</v>
       </c>
       <c r="B196" t="n">
-        <v>0.7031269047308363</v>
+        <v>0.7031269047308365</v>
       </c>
       <c r="C196" t="n">
-        <v>2.946042762297269</v>
+        <v>2.94604276229727</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -3194,13 +3194,13 @@
         <v>45401</v>
       </c>
       <c r="B197" t="n">
-        <v>0.6030406603864262</v>
+        <v>0.603040660386426</v>
       </c>
       <c r="C197" t="n">
-        <v>3.230291768522882</v>
+        <v>3.230291768522881</v>
       </c>
       <c r="D197" t="n">
-        <v>1.4558</v>
+        <v>1.455800000000001</v>
       </c>
     </row>
     <row r="198">
@@ -3250,7 +3250,7 @@
         <v>45405</v>
       </c>
       <c r="B201" t="n">
-        <v>0.4741776701731453</v>
+        <v>0.4741776701731452</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>45406</v>
       </c>
       <c r="B202" t="n">
-        <v>0.5942644488630356</v>
+        <v>0.5942644488630358</v>
       </c>
       <c r="C202" t="n">
         <v>1.777024553649943</v>
@@ -3278,10 +3278,10 @@
         <v>45407</v>
       </c>
       <c r="B203" t="n">
-        <v>0.6398009946427408</v>
+        <v>0.6398009946427409</v>
       </c>
       <c r="C203" t="n">
-        <v>5.209820563967174</v>
+        <v>5.209820563967175</v>
       </c>
       <c r="D203" t="n">
         <v>0.4</v>
@@ -3306,10 +3306,10 @@
         <v>45409</v>
       </c>
       <c r="B205" t="n">
-        <v>0.5322687452796224</v>
+        <v>0.5322687452796223</v>
       </c>
       <c r="C205" t="n">
-        <v>6.3897619832924</v>
+        <v>6.389761983292399</v>
       </c>
       <c r="D205" t="n">
         <v>2</v>
@@ -3334,7 +3334,7 @@
         <v>45411</v>
       </c>
       <c r="B207" t="n">
-        <v>0.6229728122839406</v>
+        <v>0.6229728122839405</v>
       </c>
       <c r="C207" t="n">
         <v>4.28192096270352</v>
@@ -3348,7 +3348,7 @@
         <v>45412</v>
       </c>
       <c r="B208" t="n">
-        <v>0.5427132788923317</v>
+        <v>0.5427132788923316</v>
       </c>
       <c r="C208" t="n">
         <v>2.331538689072394</v>
@@ -3362,7 +3362,7 @@
         <v>45413</v>
       </c>
       <c r="B209" t="n">
-        <v>0.4763619073504655</v>
+        <v>0.4763619073504656</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -3376,7 +3376,7 @@
         <v>45414</v>
       </c>
       <c r="B210" t="n">
-        <v>0.6231398185415967</v>
+        <v>0.6231398185415968</v>
       </c>
       <c r="C210" t="n">
         <v>1.829024826460397</v>
@@ -3390,10 +3390,10 @@
         <v>45415</v>
       </c>
       <c r="B211" t="n">
-        <v>0.5646821328953008</v>
+        <v>0.5646821328953007</v>
       </c>
       <c r="C211" t="n">
-        <v>2.183316484690951</v>
+        <v>2.18331648469095</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>45417</v>
       </c>
       <c r="B213" t="n">
-        <v>0.4871287583334392</v>
+        <v>0.4871287583334393</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>45418</v>
       </c>
       <c r="B214" t="n">
-        <v>0.4971807608685486</v>
+        <v>0.4971807608685484</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -3460,13 +3460,13 @@
         <v>45420</v>
       </c>
       <c r="B216" t="n">
-        <v>0.3217938906040174</v>
+        <v>0.3217938906040173</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>0.7417999999999989</v>
+        <v>0.741799999999999</v>
       </c>
     </row>
     <row r="217">
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>0.8265999999999998</v>
+        <v>0.8265999999999997</v>
       </c>
     </row>
     <row r="219">
@@ -3516,7 +3516,7 @@
         <v>45424</v>
       </c>
       <c r="B220" t="n">
-        <v>0.3535698498254002</v>
+        <v>0.3535698498254003</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>45426</v>
       </c>
       <c r="B222" t="n">
-        <v>0.3605500008849506</v>
+        <v>0.3605500008849505</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -3564,7 +3564,7 @@
         <v>2.179469081047345</v>
       </c>
       <c r="D223" t="n">
-        <v>2.879999999999999</v>
+        <v>2.879999999999998</v>
       </c>
     </row>
     <row r="224">
@@ -3572,13 +3572,13 @@
         <v>45428</v>
       </c>
       <c r="B224" t="n">
-        <v>0.5308110799726768</v>
+        <v>0.5308110799726766</v>
       </c>
       <c r="C224" t="n">
-        <v>4.437630055979652</v>
+        <v>4.437630055979651</v>
       </c>
       <c r="D224" t="n">
-        <v>2.598599999999998</v>
+        <v>2.598599999999999</v>
       </c>
     </row>
     <row r="225">
@@ -3600,7 +3600,7 @@
         <v>45430</v>
       </c>
       <c r="B226" t="n">
-        <v>0.3870191415272287</v>
+        <v>0.3870191415272288</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>45431</v>
       </c>
       <c r="B227" t="n">
-        <v>0.4910694578892124</v>
+        <v>0.4910694578892125</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -3642,10 +3642,10 @@
         <v>45433</v>
       </c>
       <c r="B229" t="n">
-        <v>0.5155751494371943</v>
+        <v>0.5155751494371944</v>
       </c>
       <c r="C229" t="n">
-        <v>2.576396741325159</v>
+        <v>2.57639674132516</v>
       </c>
       <c r="D229" t="n">
         <v>0</v>
@@ -3656,13 +3656,13 @@
         <v>45434</v>
       </c>
       <c r="B230" t="n">
-        <v>0.5085132721293391</v>
+        <v>0.5085132721293392</v>
       </c>
       <c r="C230" t="n">
-        <v>2.586126325194651</v>
+        <v>2.586126325194652</v>
       </c>
       <c r="D230" t="n">
-        <v>1.214800000000001</v>
+        <v>1.2148</v>
       </c>
     </row>
     <row r="231">
@@ -3684,7 +3684,7 @@
         <v>45436</v>
       </c>
       <c r="B232" t="n">
-        <v>0.6262704025613759</v>
+        <v>0.626270402561376</v>
       </c>
       <c r="C232" t="n">
         <v>2.566299957787445</v>
@@ -3698,7 +3698,7 @@
         <v>45437</v>
       </c>
       <c r="B233" t="n">
-        <v>0.5089081454955676</v>
+        <v>0.5089081454955677</v>
       </c>
       <c r="C233" t="n">
         <v>2.237849090671701</v>
@@ -3712,10 +3712,10 @@
         <v>45438</v>
       </c>
       <c r="B234" t="n">
-        <v>0.7828140833662349</v>
+        <v>0.782814083366235</v>
       </c>
       <c r="C234" t="n">
-        <v>8.112064877427827</v>
+        <v>8.112064877427828</v>
       </c>
       <c r="D234" t="n">
         <v>5.2422</v>
@@ -3740,10 +3740,10 @@
         <v>45440</v>
       </c>
       <c r="B236" t="n">
-        <v>0.5135131877626005</v>
+        <v>0.5135131877626006</v>
       </c>
       <c r="C236" t="n">
-        <v>0.8367242724721405</v>
+        <v>0.8367242724721408</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
@@ -3774,7 +3774,7 @@
         <v>1.399850211515672</v>
       </c>
       <c r="D238" t="n">
-        <v>0.1540000000000001</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="239">
@@ -3782,10 +3782,10 @@
         <v>45443</v>
       </c>
       <c r="B239" t="n">
-        <v>0.5646499522288004</v>
+        <v>0.5646499522288002</v>
       </c>
       <c r="C239" t="n">
-        <v>2.284846724395396</v>
+        <v>2.284846724395395</v>
       </c>
       <c r="D239" t="n">
         <v>1.825400000000001</v>
@@ -3802,7 +3802,7 @@
         <v>1.351641732131123</v>
       </c>
       <c r="D240" t="n">
-        <v>9.250599999999974</v>
+        <v>9.250599999999976</v>
       </c>
     </row>
     <row r="241">
@@ -3824,10 +3824,10 @@
         <v>45446</v>
       </c>
       <c r="B242" t="n">
-        <v>0.5234392103759293</v>
+        <v>0.5234392103759296</v>
       </c>
       <c r="C242" t="n">
-        <v>2.537525492705688</v>
+        <v>2.537525492705689</v>
       </c>
       <c r="D242" t="n">
         <v>1.886800000000001</v>
@@ -3838,10 +3838,10 @@
         <v>45447</v>
       </c>
       <c r="B243" t="n">
-        <v>0.6480134385497641</v>
+        <v>0.648013438549764</v>
       </c>
       <c r="C243" t="n">
-        <v>4.64436410690829</v>
+        <v>4.644364106908289</v>
       </c>
       <c r="D243" t="n">
         <v>0.1878000000000001</v>
@@ -3866,7 +3866,7 @@
         <v>45449</v>
       </c>
       <c r="B245" t="n">
-        <v>0.4947341595923912</v>
+        <v>0.4947341595923913</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -3880,7 +3880,7 @@
         <v>45450</v>
       </c>
       <c r="B246" t="n">
-        <v>0.4814389367187457</v>
+        <v>0.4814389367187458</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -3894,7 +3894,7 @@
         <v>45451</v>
       </c>
       <c r="B247" t="n">
-        <v>0.5048029980223513</v>
+        <v>0.5048029980223512</v>
       </c>
       <c r="C247" t="n">
         <v>1.362315557101154</v>
@@ -3908,10 +3908,10 @@
         <v>45452</v>
       </c>
       <c r="B248" t="n">
-        <v>0.5143615670050823</v>
+        <v>0.5143615670050825</v>
       </c>
       <c r="C248" t="n">
-        <v>1.69746856610278</v>
+        <v>1.697468566102781</v>
       </c>
       <c r="D248" t="n">
         <v>0</v>
@@ -3922,7 +3922,7 @@
         <v>45453</v>
       </c>
       <c r="B249" t="n">
-        <v>0.4716115110184628</v>
+        <v>0.4716115110184627</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -3936,7 +3936,7 @@
         <v>45454</v>
       </c>
       <c r="B250" t="n">
-        <v>0.3660675761822662</v>
+        <v>0.3660675761822661</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -3950,7 +3950,7 @@
         <v>45455</v>
       </c>
       <c r="B251" t="n">
-        <v>0.678151840798275</v>
+        <v>0.6781518407982751</v>
       </c>
       <c r="C251" t="n">
         <v>1.583551834676704</v>
@@ -3964,10 +3964,10 @@
         <v>45456</v>
       </c>
       <c r="B252" t="n">
-        <v>0.5240437823930769</v>
+        <v>0.524043782393077</v>
       </c>
       <c r="C252" t="n">
-        <v>5.548972039212313</v>
+        <v>5.548972039212314</v>
       </c>
       <c r="D252" t="n">
         <v>4.066600000000002</v>
@@ -3978,13 +3978,13 @@
         <v>45457</v>
       </c>
       <c r="B253" t="n">
-        <v>0.5028249531327952</v>
+        <v>0.5028249531327954</v>
       </c>
       <c r="C253" t="n">
-        <v>2.342920603002153</v>
+        <v>2.342920603002155</v>
       </c>
       <c r="D253" t="n">
-        <v>5.961999999999999</v>
+        <v>5.961999999999998</v>
       </c>
     </row>
     <row r="254">
@@ -4006,10 +4006,10 @@
         <v>45459</v>
       </c>
       <c r="B255" t="n">
-        <v>0.5652624936982452</v>
+        <v>0.5652624936982454</v>
       </c>
       <c r="C255" t="n">
-        <v>1.714984258468852</v>
+        <v>1.714984258468853</v>
       </c>
       <c r="D255" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>45461</v>
       </c>
       <c r="B257" t="n">
-        <v>0.4694909619594375</v>
+        <v>0.4694909619594376</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>45465</v>
       </c>
       <c r="B261" t="n">
-        <v>0.3846449063601613</v>
+        <v>0.3846449063601614</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>2.02264478120445</v>
       </c>
       <c r="D265" t="n">
-        <v>5.948799999999997</v>
+        <v>5.948799999999996</v>
       </c>
     </row>
     <row r="266">
@@ -4160,10 +4160,10 @@
         <v>45470</v>
       </c>
       <c r="B266" t="n">
-        <v>0.5353645635632729</v>
+        <v>0.5353645635632728</v>
       </c>
       <c r="C266" t="n">
-        <v>2.970862171042616</v>
+        <v>2.970862171042615</v>
       </c>
       <c r="D266" t="n">
         <v>2.5</v>
@@ -4202,10 +4202,10 @@
         <v>45473</v>
       </c>
       <c r="B269" t="n">
-        <v>0.6998586026656032</v>
+        <v>0.6998586026656031</v>
       </c>
       <c r="C269" t="n">
-        <v>2.638398840108784</v>
+        <v>2.638398840108783</v>
       </c>
       <c r="D269" t="n">
         <v>0.4626000000000001</v>
@@ -4216,10 +4216,10 @@
         <v>45474</v>
       </c>
       <c r="B270" t="n">
-        <v>0.532155569755605</v>
+        <v>0.5321555697556052</v>
       </c>
       <c r="C270" t="n">
-        <v>2.898706213003582</v>
+        <v>2.898706213003583</v>
       </c>
       <c r="D270" t="n">
         <v>0.6</v>
@@ -4230,7 +4230,7 @@
         <v>45475</v>
       </c>
       <c r="B271" t="n">
-        <v>0.5099530016026679</v>
+        <v>0.5099530016026678</v>
       </c>
       <c r="C271" t="n">
         <v>1.707042305940107</v>
@@ -4244,10 +4244,10 @@
         <v>45476</v>
       </c>
       <c r="B272" t="n">
-        <v>0.6254521692641033</v>
+        <v>0.6254521692641032</v>
       </c>
       <c r="C272" t="n">
-        <v>4.217952773889561</v>
+        <v>4.21795277388956</v>
       </c>
       <c r="D272" t="n">
         <v>2.5</v>
@@ -4258,10 +4258,10 @@
         <v>45477</v>
       </c>
       <c r="B273" t="n">
-        <v>0.6101685444387959</v>
+        <v>0.6101685444387958</v>
       </c>
       <c r="C273" t="n">
-        <v>1.705544346021819</v>
+        <v>1.705544346021818</v>
       </c>
       <c r="D273" t="n">
         <v>14.5</v>
@@ -4272,7 +4272,7 @@
         <v>45478</v>
       </c>
       <c r="B274" t="n">
-        <v>0.8186192486740351</v>
+        <v>0.8186192486740352</v>
       </c>
       <c r="C274" t="n">
         <v>4.822882809301856</v>
@@ -4286,10 +4286,10 @@
         <v>45479</v>
       </c>
       <c r="B275" t="n">
-        <v>0.8079943653719358</v>
+        <v>0.8079943653719357</v>
       </c>
       <c r="C275" t="n">
-        <v>4.109391890237401</v>
+        <v>4.1093918902374</v>
       </c>
       <c r="D275" t="n">
         <v>49.3</v>
@@ -4314,7 +4314,7 @@
         <v>45481</v>
       </c>
       <c r="B277" t="n">
-        <v>0.7020754497851149</v>
+        <v>0.7020754497851152</v>
       </c>
       <c r="C277" t="n">
         <v>10.76511449178787</v>
@@ -4342,10 +4342,10 @@
         <v>45483</v>
       </c>
       <c r="B279" t="n">
-        <v>0.6569510920069372</v>
+        <v>0.6569510920069368</v>
       </c>
       <c r="C279" t="n">
-        <v>3.270728988851051</v>
+        <v>3.270728988851049</v>
       </c>
       <c r="D279" t="n">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>45484</v>
       </c>
       <c r="B280" t="n">
-        <v>0.4992316895568284</v>
+        <v>0.4992316895568283</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -4370,7 +4370,7 @@
         <v>45485</v>
       </c>
       <c r="B281" t="n">
-        <v>0.4576411908222786</v>
+        <v>0.4576411908222787</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -4398,7 +4398,7 @@
         <v>45487</v>
       </c>
       <c r="B283" t="n">
-        <v>0.3767664819147036</v>
+        <v>0.3767664819147035</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>45495</v>
       </c>
       <c r="B291" t="n">
-        <v>0.1275522744543614</v>
+        <v>0.1275522744543615</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -4552,7 +4552,7 @@
         <v>45498</v>
       </c>
       <c r="B294" t="n">
-        <v>0.1015622643172687</v>
+        <v>0.1015622643172688</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -4594,7 +4594,7 @@
         <v>45501</v>
       </c>
       <c r="B297" t="n">
-        <v>0.09293553791662293</v>
+        <v>0.09293553791662294</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -4608,7 +4608,7 @@
         <v>45502</v>
       </c>
       <c r="B298" t="n">
-        <v>0.09818634375532331</v>
+        <v>0.0981863437553233</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>45503</v>
       </c>
       <c r="B299" t="n">
-        <v>0.07393180279855723</v>
+        <v>0.07393180279855725</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>45504</v>
       </c>
       <c r="B300" t="n">
-        <v>0.1032944209362559</v>
+        <v>0.103294420936256</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>45505</v>
       </c>
       <c r="B301" t="n">
-        <v>0.09541090740282394</v>
+        <v>0.09541090740282396</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -4720,10 +4720,10 @@
         <v>45510</v>
       </c>
       <c r="B306" t="n">
-        <v>0.5458632182290317</v>
+        <v>0.5458632182290318</v>
       </c>
       <c r="C306" t="n">
-        <v>2.239883282210281</v>
+        <v>2.239883282210282</v>
       </c>
       <c r="D306" t="n">
         <v>0</v>
@@ -4734,7 +4734,7 @@
         <v>45511</v>
       </c>
       <c r="B307" t="n">
-        <v>0.4446281352667343</v>
+        <v>0.4446281352667342</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -4776,7 +4776,7 @@
         <v>45514</v>
       </c>
       <c r="B310" t="n">
-        <v>0.2378777171378639</v>
+        <v>0.2378777171378638</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -4804,7 +4804,7 @@
         <v>45516</v>
       </c>
       <c r="B312" t="n">
-        <v>0.1908680349616998</v>
+        <v>0.1908680349616997</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -4832,7 +4832,7 @@
         <v>45518</v>
       </c>
       <c r="B314" t="n">
-        <v>0.08941677191292044</v>
+        <v>0.08941677191292043</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>45519</v>
       </c>
       <c r="B315" t="n">
-        <v>0.06578009690429293</v>
+        <v>0.06578009690429294</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>45526</v>
       </c>
       <c r="B322" t="n">
-        <v>0.1600500556596551</v>
+        <v>0.1600500556596552</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>45536</v>
       </c>
       <c r="B332" t="n">
-        <v>0.08252431694989747</v>
+        <v>0.08252431694989744</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -5224,10 +5224,10 @@
         <v>45546</v>
       </c>
       <c r="B342" t="n">
-        <v>0.5821525215871547</v>
+        <v>0.5821525215871545</v>
       </c>
       <c r="C342" t="n">
-        <v>2.882707777101287</v>
+        <v>2.882707777101285</v>
       </c>
       <c r="D342" t="n">
         <v>0</v>
@@ -5280,7 +5280,7 @@
         <v>45550</v>
       </c>
       <c r="B346" t="n">
-        <v>0.2933990163620504</v>
+        <v>0.2933990163620505</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>45552</v>
       </c>
       <c r="B348" t="n">
-        <v>0.3721913717085885</v>
+        <v>0.3721913717085886</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -5392,7 +5392,7 @@
         <v>45558</v>
       </c>
       <c r="B354" t="n">
-        <v>0.2885892667759851</v>
+        <v>0.2885892667759852</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>45560</v>
       </c>
       <c r="B356" t="n">
-        <v>0.4093152773211485</v>
+        <v>0.4093152773211484</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -5434,10 +5434,10 @@
         <v>45561</v>
       </c>
       <c r="B357" t="n">
-        <v>0.6272674319855348</v>
+        <v>0.6272674319855349</v>
       </c>
       <c r="C357" t="n">
-        <v>1.870981744917278</v>
+        <v>1.870981744917279</v>
       </c>
       <c r="D357" t="n">
         <v>55</v>
@@ -5448,7 +5448,7 @@
         <v>45562</v>
       </c>
       <c r="B358" t="n">
-        <v>0.6710172535067044</v>
+        <v>0.6710172535067043</v>
       </c>
       <c r="C358" t="n">
         <v>2.190012454471563</v>
@@ -5462,10 +5462,10 @@
         <v>45563</v>
       </c>
       <c r="B359" t="n">
-        <v>0.5739026379411329</v>
+        <v>0.5739026379411332</v>
       </c>
       <c r="C359" t="n">
-        <v>4.200585107876173</v>
+        <v>4.200585107876175</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -5504,7 +5504,7 @@
         <v>45566</v>
       </c>
       <c r="B362" t="n">
-        <v>0.4737706647724266</v>
+        <v>0.4737706647724267</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -5518,7 +5518,7 @@
         <v>45567</v>
       </c>
       <c r="B363" t="n">
-        <v>0.3743409732077357</v>
+        <v>0.3743409732077358</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>45568</v>
       </c>
       <c r="B364" t="n">
-        <v>0.3558412521532807</v>
+        <v>0.3558412521532806</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -5546,7 +5546,7 @@
         <v>45569</v>
       </c>
       <c r="B365" t="n">
-        <v>0.3615564135335622</v>
+        <v>0.3615564135335621</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -5574,7 +5574,7 @@
         <v>45571</v>
       </c>
       <c r="B367" t="n">
-        <v>0.2865973341813742</v>
+        <v>0.2865973341813741</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>45573</v>
       </c>
       <c r="B369" t="n">
-        <v>0.2608339923553759</v>
+        <v>0.260833992355376</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -5616,7 +5616,7 @@
         <v>45574</v>
       </c>
       <c r="B370" t="n">
-        <v>0.2665815039107689</v>
+        <v>0.2665815039107688</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>45579</v>
       </c>
       <c r="B375" t="n">
-        <v>0.2074939819465396</v>
+        <v>0.2074939819465397</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>45580</v>
       </c>
       <c r="B376" t="n">
-        <v>0.1617460029956691</v>
+        <v>0.1617460029956692</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -5714,7 +5714,7 @@
         <v>45581</v>
       </c>
       <c r="B377" t="n">
-        <v>0.3450014798995562</v>
+        <v>0.3450014798995561</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -5742,7 +5742,7 @@
         <v>45583</v>
       </c>
       <c r="B379" t="n">
-        <v>0.2811870679929646</v>
+        <v>0.2811870679929647</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -5756,7 +5756,7 @@
         <v>45584</v>
       </c>
       <c r="B380" t="n">
-        <v>0.2321261119942901</v>
+        <v>0.2321261119942902</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -5812,7 +5812,7 @@
         <v>45588</v>
       </c>
       <c r="B384" t="n">
-        <v>0.1225638888229804</v>
+        <v>0.1225638888229805</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -5868,7 +5868,7 @@
         <v>45592</v>
       </c>
       <c r="B388" t="n">
-        <v>0.3589223662657647</v>
+        <v>0.3589223662657646</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>45593</v>
       </c>
       <c r="B389" t="n">
-        <v>0.4473716573495342</v>
+        <v>0.4473716573495343</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -5910,7 +5910,7 @@
         <v>45595</v>
       </c>
       <c r="B391" t="n">
-        <v>0.4349425782051544</v>
+        <v>0.4349425782051545</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>45597</v>
       </c>
       <c r="B393" t="n">
-        <v>0.3304606322043539</v>
+        <v>0.330460632204354</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -5994,10 +5994,10 @@
         <v>45601</v>
       </c>
       <c r="B397" t="n">
-        <v>0.7440013806637579</v>
+        <v>0.7440013806637575</v>
       </c>
       <c r="C397" t="n">
-        <v>7.48175149395463</v>
+        <v>7.481751493954627</v>
       </c>
       <c r="D397" t="n">
         <v>14.5</v>
@@ -6022,7 +6022,7 @@
         <v>45603</v>
       </c>
       <c r="B399" t="n">
-        <v>0.5184549986118761</v>
+        <v>0.5184549986118759</v>
       </c>
       <c r="C399" t="n">
         <v>3.195941795980881</v>
@@ -6036,7 +6036,7 @@
         <v>45604</v>
       </c>
       <c r="B400" t="n">
-        <v>0.4563280825354313</v>
+        <v>0.4563280825354314</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -6064,10 +6064,10 @@
         <v>45606</v>
       </c>
       <c r="B402" t="n">
-        <v>0.504141099836398</v>
+        <v>0.5041410998363981</v>
       </c>
       <c r="C402" t="n">
-        <v>2.190163393926078</v>
+        <v>2.190163393926079</v>
       </c>
       <c r="D402" t="n">
         <v>0</v>
@@ -6078,7 +6078,7 @@
         <v>45607</v>
       </c>
       <c r="B403" t="n">
-        <v>0.4582346576523382</v>
+        <v>0.4582346576523381</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -6092,10 +6092,10 @@
         <v>45608</v>
       </c>
       <c r="B404" t="n">
-        <v>0.5457180187319881</v>
+        <v>0.545718018731988</v>
       </c>
       <c r="C404" t="n">
-        <v>5.330465684940647</v>
+        <v>5.330465684940646</v>
       </c>
       <c r="D404" t="n">
         <v>1.2</v>
@@ -6120,7 +6120,7 @@
         <v>45610</v>
       </c>
       <c r="B406" t="n">
-        <v>0.433083474499898</v>
+        <v>0.4330834744998978</v>
       </c>
       <c r="C406" t="n">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>45611</v>
       </c>
       <c r="B407" t="n">
-        <v>0.4493725122893397</v>
+        <v>0.4493725122893398</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>45612</v>
       </c>
       <c r="B408" t="n">
-        <v>0.4590400431901699</v>
+        <v>0.45904004319017</v>
       </c>
       <c r="C408" t="n">
         <v>0</v>
@@ -6176,7 +6176,7 @@
         <v>45614</v>
       </c>
       <c r="B410" t="n">
-        <v>0.5348117361349768</v>
+        <v>0.5348117361349767</v>
       </c>
       <c r="C410" t="n">
         <v>1.852359223096843</v>
@@ -6204,10 +6204,10 @@
         <v>45616</v>
       </c>
       <c r="B412" t="n">
-        <v>0.5592867886840136</v>
+        <v>0.5592867886840137</v>
       </c>
       <c r="C412" t="n">
-        <v>3.691192210328198</v>
+        <v>3.691192210328199</v>
       </c>
       <c r="D412" t="n">
         <v>0</v>
@@ -6218,10 +6218,10 @@
         <v>45617</v>
       </c>
       <c r="B413" t="n">
-        <v>0.5477872388443777</v>
+        <v>0.5477872388443779</v>
       </c>
       <c r="C413" t="n">
-        <v>3.472473059332368</v>
+        <v>3.472473059332369</v>
       </c>
       <c r="D413" t="n">
         <v>0</v>
@@ -6232,7 +6232,7 @@
         <v>45618</v>
       </c>
       <c r="B414" t="n">
-        <v>0.484394005054352</v>
+        <v>0.4843940050543519</v>
       </c>
       <c r="C414" t="n">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>45619</v>
       </c>
       <c r="B415" t="n">
-        <v>0.4249790624763854</v>
+        <v>0.4249790624763853</v>
       </c>
       <c r="C415" t="n">
         <v>0</v>
@@ -6288,7 +6288,7 @@
         <v>45622</v>
       </c>
       <c r="B418" t="n">
-        <v>0.3311718783284066</v>
+        <v>0.3311718783284067</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -6316,7 +6316,7 @@
         <v>45624</v>
       </c>
       <c r="B420" t="n">
-        <v>0.5568204930334677</v>
+        <v>0.5568204930334679</v>
       </c>
       <c r="C420" t="n">
         <v>1.885509509011951</v>
@@ -6344,7 +6344,7 @@
         <v>45626</v>
       </c>
       <c r="B422" t="n">
-        <v>0.385811356704211</v>
+        <v>0.3858113567042111</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -6372,7 +6372,7 @@
         <v>45628</v>
       </c>
       <c r="B424" t="n">
-        <v>0.51617591250427</v>
+        <v>0.5161759125042701</v>
       </c>
       <c r="C424" t="n">
         <v>1.510754004753299</v>
@@ -6414,10 +6414,10 @@
         <v>45631</v>
       </c>
       <c r="B427" t="n">
-        <v>0.8301764006255479</v>
+        <v>0.830176400625548</v>
       </c>
       <c r="C427" t="n">
-        <v>9.090991964787412</v>
+        <v>9.090991964787413</v>
       </c>
       <c r="D427" t="n">
         <v>48.2</v>
@@ -6470,10 +6470,10 @@
         <v>45635</v>
       </c>
       <c r="B431" t="n">
-        <v>0.7766867906585028</v>
+        <v>0.7766867906585027</v>
       </c>
       <c r="C431" t="n">
-        <v>4.320221018401207</v>
+        <v>4.320221018401206</v>
       </c>
       <c r="D431" t="n">
         <v>26</v>
@@ -6568,7 +6568,7 @@
         <v>45642</v>
       </c>
       <c r="B438" t="n">
-        <v>0.5942849534538853</v>
+        <v>0.5942849534538854</v>
       </c>
       <c r="C438" t="n">
         <v>3.41377564574016</v>
@@ -6610,7 +6610,7 @@
         <v>45645</v>
       </c>
       <c r="B441" t="n">
-        <v>0.4377002739810766</v>
+        <v>0.4377002739810765</v>
       </c>
       <c r="C441" t="n">
         <v>0</v>
@@ -6624,10 +6624,10 @@
         <v>45646</v>
       </c>
       <c r="B442" t="n">
-        <v>0.7873851076570989</v>
+        <v>0.787385107657099</v>
       </c>
       <c r="C442" t="n">
-        <v>2.682953014607342</v>
+        <v>2.682953014607343</v>
       </c>
       <c r="D442" t="n">
         <v>10.2</v>
@@ -6652,10 +6652,10 @@
         <v>45648</v>
       </c>
       <c r="B444" t="n">
-        <v>0.7156023282315008</v>
+        <v>0.7156023282315007</v>
       </c>
       <c r="C444" t="n">
-        <v>4.363556723766967</v>
+        <v>4.363556723766966</v>
       </c>
       <c r="D444" t="n">
         <v>43.8</v>
@@ -6666,10 +6666,10 @@
         <v>45649</v>
       </c>
       <c r="B445" t="n">
-        <v>0.844148366415621</v>
+        <v>0.8441483664156206</v>
       </c>
       <c r="C445" t="n">
-        <v>6.696052251804472</v>
+        <v>6.69605225180447</v>
       </c>
       <c r="D445" t="n">
         <v>17</v>
@@ -6694,10 +6694,10 @@
         <v>45651</v>
       </c>
       <c r="B447" t="n">
-        <v>0.7072701689943445</v>
+        <v>0.7072701689943444</v>
       </c>
       <c r="C447" t="n">
-        <v>4.956955660966229</v>
+        <v>4.956955660966228</v>
       </c>
       <c r="D447" t="n">
         <v>8.199999999999999</v>
@@ -6708,10 +6708,10 @@
         <v>45652</v>
       </c>
       <c r="B448" t="n">
-        <v>0.828911315329769</v>
+        <v>0.8289113153297688</v>
       </c>
       <c r="C448" t="n">
-        <v>5.820738044805349</v>
+        <v>5.820738044805347</v>
       </c>
       <c r="D448" t="n">
         <v>0</v>
@@ -6722,7 +6722,7 @@
         <v>45653</v>
       </c>
       <c r="B449" t="n">
-        <v>0.5404871465819118</v>
+        <v>0.5404871465819119</v>
       </c>
       <c r="C449" t="n">
         <v>1.441962225271294</v>
@@ -6736,7 +6736,7 @@
         <v>45654</v>
       </c>
       <c r="B450" t="n">
-        <v>0.5847090978509795</v>
+        <v>0.5847090978509796</v>
       </c>
       <c r="C450" t="n">
         <v>3.176266493412191</v>
@@ -6764,7 +6764,7 @@
         <v>45656</v>
       </c>
       <c r="B452" t="n">
-        <v>0.4501836552477639</v>
+        <v>0.450183655247764</v>
       </c>
       <c r="C452" t="n">
         <v>0</v>
@@ -6820,7 +6820,7 @@
         <v>45660</v>
       </c>
       <c r="B456" t="n">
-        <v>0.4799424790037596</v>
+        <v>0.4799424790037595</v>
       </c>
       <c r="C456" t="n">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>45661</v>
       </c>
       <c r="B457" t="n">
-        <v>0.4997123260572151</v>
+        <v>0.4997123260572152</v>
       </c>
       <c r="C457" t="n">
         <v>0</v>
@@ -6862,7 +6862,7 @@
         <v>45663</v>
       </c>
       <c r="B459" t="n">
-        <v>0.4941750977064952</v>
+        <v>0.4941750977064951</v>
       </c>
       <c r="C459" t="n">
         <v>0</v>
@@ -6876,10 +6876,10 @@
         <v>45664</v>
       </c>
       <c r="B460" t="n">
-        <v>0.5184076562819859</v>
+        <v>0.518407656281986</v>
       </c>
       <c r="C460" t="n">
-        <v>4.645625757740525</v>
+        <v>4.645625757740526</v>
       </c>
       <c r="D460" t="n">
         <v>9</v>
@@ -6904,7 +6904,7 @@
         <v>45666</v>
       </c>
       <c r="B462" t="n">
-        <v>0.7844077846611686</v>
+        <v>0.7844077846611687</v>
       </c>
       <c r="C462" t="n">
         <v>4.46583836345919</v>
@@ -6918,7 +6918,7 @@
         <v>45667</v>
       </c>
       <c r="B463" t="n">
-        <v>0.8576123155542975</v>
+        <v>0.8576123155542974</v>
       </c>
       <c r="C463" t="n">
         <v>10.89890632825781</v>
@@ -6932,10 +6932,10 @@
         <v>45668</v>
       </c>
       <c r="B464" t="n">
-        <v>0.6346368465859699</v>
+        <v>0.63463684658597</v>
       </c>
       <c r="C464" t="n">
-        <v>5.601833315320335</v>
+        <v>5.601833315320336</v>
       </c>
       <c r="D464" t="n">
         <v>2</v>
@@ -6946,7 +6946,7 @@
         <v>45669</v>
       </c>
       <c r="B465" t="n">
-        <v>0.8082208436084816</v>
+        <v>0.8082208436084815</v>
       </c>
       <c r="C465" t="n">
         <v>3.19653187351624</v>
@@ -6960,7 +6960,7 @@
         <v>45670</v>
       </c>
       <c r="B466" t="n">
-        <v>0.543853590173258</v>
+        <v>0.5438535901732581</v>
       </c>
       <c r="C466" t="n">
         <v>2.627625278682206</v>
@@ -6974,10 +6974,10 @@
         <v>45671</v>
       </c>
       <c r="B467" t="n">
-        <v>0.6533800393692883</v>
+        <v>0.6533800393692885</v>
       </c>
       <c r="C467" t="n">
-        <v>5.169925890812815</v>
+        <v>5.169925890812816</v>
       </c>
       <c r="D467" t="n">
         <v>18</v>
@@ -6988,7 +6988,7 @@
         <v>45672</v>
       </c>
       <c r="B468" t="n">
-        <v>0.9043075028134727</v>
+        <v>0.9043075028134726</v>
       </c>
       <c r="C468" t="n">
         <v>6.737528830215903</v>
@@ -7002,10 +7002,10 @@
         <v>45673</v>
       </c>
       <c r="B469" t="n">
-        <v>0.7131675480559673</v>
+        <v>0.7131675480559669</v>
       </c>
       <c r="C469" t="n">
-        <v>7.615226523568289</v>
+        <v>7.615226523568285</v>
       </c>
       <c r="D469" t="n">
         <v>0</v>
@@ -7044,7 +7044,7 @@
         <v>45676</v>
       </c>
       <c r="B472" t="n">
-        <v>0.8399125215041328</v>
+        <v>0.8399125215041329</v>
       </c>
       <c r="C472" t="n">
         <v>8.36182490835027</v>
@@ -7058,10 +7058,10 @@
         <v>45677</v>
       </c>
       <c r="B473" t="n">
-        <v>0.561295183317899</v>
+        <v>0.5612951833178992</v>
       </c>
       <c r="C473" t="n">
-        <v>6.454563797205282</v>
+        <v>6.454563797205284</v>
       </c>
       <c r="D473" t="n">
         <v>60</v>
@@ -7086,7 +7086,7 @@
         <v>45679</v>
       </c>
       <c r="B475" t="n">
-        <v>0.8740883458275841</v>
+        <v>0.874088345827584</v>
       </c>
       <c r="C475" t="n">
         <v>15.83728451667019</v>
@@ -7114,10 +7114,10 @@
         <v>45681</v>
       </c>
       <c r="B477" t="n">
-        <v>0.6901195443471889</v>
+        <v>0.690119544347189</v>
       </c>
       <c r="C477" t="n">
-        <v>4.710034825523326</v>
+        <v>4.710034825523327</v>
       </c>
       <c r="D477" t="n">
         <v>2</v>
@@ -7128,10 +7128,10 @@
         <v>45682</v>
       </c>
       <c r="B478" t="n">
-        <v>0.735702611433107</v>
+        <v>0.7357026114331071</v>
       </c>
       <c r="C478" t="n">
-        <v>4.848301721034378</v>
+        <v>4.848301721034379</v>
       </c>
       <c r="D478" t="n">
         <v>0</v>
@@ -7156,10 +7156,10 @@
         <v>45684</v>
       </c>
       <c r="B480" t="n">
-        <v>0.6743263003498965</v>
+        <v>0.6743263003498964</v>
       </c>
       <c r="C480" t="n">
-        <v>3.445632886516885</v>
+        <v>3.445632886516884</v>
       </c>
       <c r="D480" t="n">
         <v>0</v>
@@ -7268,7 +7268,7 @@
         <v>45692</v>
       </c>
       <c r="B488" t="n">
-        <v>0.7114272670147617</v>
+        <v>0.7114272670147616</v>
       </c>
       <c r="C488" t="n">
         <v>2.703175430362086</v>
@@ -7282,10 +7282,10 @@
         <v>45693</v>
       </c>
       <c r="B489" t="n">
-        <v>0.8092097826815059</v>
+        <v>0.8092097826815058</v>
       </c>
       <c r="C489" t="n">
-        <v>4.590020730058435</v>
+        <v>4.590020730058434</v>
       </c>
       <c r="D489" t="n">
         <v>13.8</v>
@@ -7296,10 +7296,10 @@
         <v>45694</v>
       </c>
       <c r="B490" t="n">
-        <v>0.7135545860631616</v>
+        <v>0.7135545860631614</v>
       </c>
       <c r="C490" t="n">
-        <v>4.9858195612435</v>
+        <v>4.985819561243498</v>
       </c>
       <c r="D490" t="n">
         <v>8.4</v>
@@ -7324,7 +7324,7 @@
         <v>45696</v>
       </c>
       <c r="B492" t="n">
-        <v>0.8048818923143686</v>
+        <v>0.8048818923143685</v>
       </c>
       <c r="C492" t="n">
         <v>11.52912467615086</v>
@@ -7338,7 +7338,7 @@
         <v>45697</v>
       </c>
       <c r="B493" t="n">
-        <v>0.8504675552923681</v>
+        <v>0.8504675552923682</v>
       </c>
       <c r="C493" t="n">
         <v>15.09196923831735</v>
@@ -7352,10 +7352,10 @@
         <v>45698</v>
       </c>
       <c r="B494" t="n">
-        <v>0.7389694979932362</v>
+        <v>0.7389694979932361</v>
       </c>
       <c r="C494" t="n">
-        <v>6.392040772628227</v>
+        <v>6.392040772628226</v>
       </c>
       <c r="D494" t="n">
         <v>1.1</v>
@@ -7380,10 +7380,10 @@
         <v>45700</v>
       </c>
       <c r="B496" t="n">
-        <v>0.807125031156959</v>
+        <v>0.8071250311569588</v>
       </c>
       <c r="C496" t="n">
-        <v>7.611444072215621</v>
+        <v>7.611444072215619</v>
       </c>
       <c r="D496" t="n">
         <v>0</v>
@@ -7394,10 +7394,10 @@
         <v>45701</v>
       </c>
       <c r="B497" t="n">
-        <v>0.6797039480228132</v>
+        <v>0.6797039480228133</v>
       </c>
       <c r="C497" t="n">
-        <v>4.642333186220857</v>
+        <v>4.642333186220858</v>
       </c>
       <c r="D497" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>45703</v>
       </c>
       <c r="B499" t="n">
-        <v>0.564051477404636</v>
+        <v>0.5640514774046359</v>
       </c>
       <c r="C499" t="n">
         <v>3.199535819645781</v>
@@ -7450,7 +7450,7 @@
         <v>45705</v>
       </c>
       <c r="B501" t="n">
-        <v>0.5693505933218604</v>
+        <v>0.5693505933218606</v>
       </c>
       <c r="C501" t="n">
         <v>4.685580284448696</v>
@@ -7464,7 +7464,7 @@
         <v>45706</v>
       </c>
       <c r="B502" t="n">
-        <v>0.816558579578174</v>
+        <v>0.8165585795781741</v>
       </c>
       <c r="C502" t="n">
         <v>9.8906827605286</v>
@@ -7492,10 +7492,10 @@
         <v>45708</v>
       </c>
       <c r="B504" t="n">
-        <v>0.8784196169076117</v>
+        <v>0.8784196169076116</v>
       </c>
       <c r="C504" t="n">
-        <v>9.105318413024794</v>
+        <v>9.105318413024792</v>
       </c>
       <c r="D504" t="n">
         <v>0</v>
@@ -7506,7 +7506,7 @@
         <v>45709</v>
       </c>
       <c r="B505" t="n">
-        <v>0.8587690904133539</v>
+        <v>0.858769090413354</v>
       </c>
       <c r="C505" t="n">
         <v>10.86313546913748</v>
@@ -7520,10 +7520,10 @@
         <v>45710</v>
       </c>
       <c r="B506" t="n">
-        <v>0.6146875687600641</v>
+        <v>0.6146875687600643</v>
       </c>
       <c r="C506" t="n">
-        <v>6.576873728216564</v>
+        <v>6.576873728216566</v>
       </c>
       <c r="D506" t="n">
         <v>5.5</v>
@@ -7562,7 +7562,7 @@
         <v>45713</v>
       </c>
       <c r="B509" t="n">
-        <v>0.9255695129122531</v>
+        <v>0.9255695129122532</v>
       </c>
       <c r="C509" t="n">
         <v>12.69712096129836</v>
@@ -7576,10 +7576,10 @@
         <v>45714</v>
       </c>
       <c r="B510" t="n">
-        <v>0.8093563290297965</v>
+        <v>0.8093563290297964</v>
       </c>
       <c r="C510" t="n">
-        <v>1.947156873359519</v>
+        <v>1.947156873359518</v>
       </c>
       <c r="D510" t="n">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>45718</v>
       </c>
       <c r="B514" t="n">
-        <v>0.6541276626302784</v>
+        <v>0.6541276626302783</v>
       </c>
       <c r="C514" t="n">
-        <v>2.620314110031018</v>
+        <v>2.620314110031017</v>
       </c>
       <c r="D514" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         <v>45721</v>
       </c>
       <c r="B517" t="n">
-        <v>0.8421714844712033</v>
+        <v>0.8421714844712032</v>
       </c>
       <c r="C517" t="n">
         <v>3.842210624357751</v>
@@ -7688,7 +7688,7 @@
         <v>45722</v>
       </c>
       <c r="B518" t="n">
-        <v>0.6284213560667068</v>
+        <v>0.6284213560667067</v>
       </c>
       <c r="C518" t="n">
         <v>2.876402100039298</v>
@@ -7702,10 +7702,10 @@
         <v>45723</v>
       </c>
       <c r="B519" t="n">
-        <v>0.5055458973110307</v>
+        <v>0.5055458973110308</v>
       </c>
       <c r="C519" t="n">
-        <v>2.576025990306179</v>
+        <v>2.57602599030618</v>
       </c>
       <c r="D519" t="n">
         <v>2.4136</v>
@@ -7722,7 +7722,7 @@
         <v>1.715070923173667</v>
       </c>
       <c r="D520" t="n">
-        <v>2.8018</v>
+        <v>2.801799999999999</v>
       </c>
     </row>
     <row r="521">
@@ -7744,10 +7744,10 @@
         <v>45726</v>
       </c>
       <c r="B522" t="n">
-        <v>0.6157397415874561</v>
+        <v>0.6157397415874563</v>
       </c>
       <c r="C522" t="n">
-        <v>2.887774794924617</v>
+        <v>2.887774794924618</v>
       </c>
       <c r="D522" t="n">
         <v>0</v>
@@ -7814,7 +7814,7 @@
         <v>45731</v>
       </c>
       <c r="B527" t="n">
-        <v>0.4264088704772403</v>
+        <v>0.4264088704772401</v>
       </c>
       <c r="C527" t="n">
         <v>0</v>
@@ -7842,7 +7842,7 @@
         <v>45733</v>
       </c>
       <c r="B529" t="n">
-        <v>0.3751464728805554</v>
+        <v>0.3751464728805552</v>
       </c>
       <c r="C529" t="n">
         <v>0</v>
@@ -7870,10 +7870,10 @@
         <v>45735</v>
       </c>
       <c r="B531" t="n">
-        <v>0.7035039687528096</v>
+        <v>0.7035039687528095</v>
       </c>
       <c r="C531" t="n">
-        <v>2.994781150543983</v>
+        <v>2.994781150543982</v>
       </c>
       <c r="D531" t="n">
         <v>6</v>
@@ -7898,10 +7898,10 @@
         <v>45737</v>
       </c>
       <c r="B533" t="n">
-        <v>0.583850243816743</v>
+        <v>0.5838502438167429</v>
       </c>
       <c r="C533" t="n">
-        <v>3.112444314597755</v>
+        <v>3.112444314597754</v>
       </c>
       <c r="D533" t="n">
         <v>0</v>
@@ -7926,10 +7926,10 @@
         <v>45739</v>
       </c>
       <c r="B535" t="n">
-        <v>0.7103538468442794</v>
+        <v>0.7103538468442796</v>
       </c>
       <c r="C535" t="n">
-        <v>5.780580167182641</v>
+        <v>5.780580167182642</v>
       </c>
       <c r="D535" t="n">
         <v>1.2</v>
@@ -7940,10 +7940,10 @@
         <v>45740</v>
       </c>
       <c r="B536" t="n">
-        <v>0.7596806717977499</v>
+        <v>0.75968067179775</v>
       </c>
       <c r="C536" t="n">
-        <v>4.316790422631318</v>
+        <v>4.316790422631319</v>
       </c>
       <c r="D536" t="n">
         <v>0</v>
@@ -7968,10 +7968,10 @@
         <v>45742</v>
       </c>
       <c r="B538" t="n">
-        <v>0.6746910165168177</v>
+        <v>0.6746910165168178</v>
       </c>
       <c r="C538" t="n">
-        <v>8.84121162514262</v>
+        <v>8.841211625142622</v>
       </c>
       <c r="D538" t="n">
         <v>0</v>
@@ -7982,10 +7982,10 @@
         <v>45743</v>
       </c>
       <c r="B539" t="n">
-        <v>0.7704496085973154</v>
+        <v>0.7704496085973151</v>
       </c>
       <c r="C539" t="n">
-        <v>8.975758954237634</v>
+        <v>8.97575895423763</v>
       </c>
       <c r="D539" t="n">
         <v>5.4</v>
@@ -8024,7 +8024,7 @@
         <v>45746</v>
       </c>
       <c r="B542" t="n">
-        <v>0.5669213880624064</v>
+        <v>0.5669213880624062</v>
       </c>
       <c r="C542" t="n">
         <v>1.702499677545984</v>
@@ -8052,7 +8052,7 @@
         <v>45748</v>
       </c>
       <c r="B544" t="n">
-        <v>0.4671381387810057</v>
+        <v>0.4671381387810059</v>
       </c>
       <c r="C544" t="n">
         <v>0</v>
@@ -8080,10 +8080,10 @@
         <v>45750</v>
       </c>
       <c r="B546" t="n">
-        <v>0.6941594348572729</v>
+        <v>0.6941594348572728</v>
       </c>
       <c r="C546" t="n">
-        <v>3.736684329414377</v>
+        <v>3.736684329414376</v>
       </c>
       <c r="D546" t="n">
         <v>5.9</v>
@@ -8094,7 +8094,7 @@
         <v>45751</v>
       </c>
       <c r="B547" t="n">
-        <v>0.6689462873953371</v>
+        <v>0.6689462873953372</v>
       </c>
       <c r="C547" t="n">
         <v>1.568059606937335</v>
@@ -8136,10 +8136,10 @@
         <v>45754</v>
       </c>
       <c r="B550" t="n">
-        <v>0.8125607549791971</v>
+        <v>0.8125607549791969</v>
       </c>
       <c r="C550" t="n">
-        <v>5.808405711051805</v>
+        <v>5.808405711051803</v>
       </c>
       <c r="D550" t="n">
         <v>0</v>
@@ -8150,10 +8150,10 @@
         <v>45755</v>
       </c>
       <c r="B551" t="n">
-        <v>0.6688356734346623</v>
+        <v>0.6688356734346622</v>
       </c>
       <c r="C551" t="n">
-        <v>2.000771619945209</v>
+        <v>2.000771619945208</v>
       </c>
       <c r="D551" t="n">
         <v>0</v>
@@ -8164,10 +8164,10 @@
         <v>45756</v>
       </c>
       <c r="B552" t="n">
-        <v>0.515867232122875</v>
+        <v>0.5158672321228752</v>
       </c>
       <c r="C552" t="n">
-        <v>2.251062737633839</v>
+        <v>2.25106273763384</v>
       </c>
       <c r="D552" t="n">
         <v>0</v>
@@ -8206,10 +8206,10 @@
         <v>45759</v>
       </c>
       <c r="B555" t="n">
-        <v>0.5916871904944287</v>
+        <v>0.5916871904944285</v>
       </c>
       <c r="C555" t="n">
-        <v>2.716294587601511</v>
+        <v>2.71629458760151</v>
       </c>
       <c r="D555" t="n">
         <v>11.1</v>
@@ -8220,10 +8220,10 @@
         <v>45760</v>
       </c>
       <c r="B556" t="n">
-        <v>0.6172721849263246</v>
+        <v>0.6172721849263244</v>
       </c>
       <c r="C556" t="n">
-        <v>2.710824087989558</v>
+        <v>2.710824087989557</v>
       </c>
       <c r="D556" t="n">
         <v>8.9</v>
@@ -8234,10 +8234,10 @@
         <v>45761</v>
       </c>
       <c r="B557" t="n">
-        <v>0.8172393145286215</v>
+        <v>0.8172393145286216</v>
       </c>
       <c r="C557" t="n">
-        <v>3.81026131902999</v>
+        <v>3.810261319029991</v>
       </c>
       <c r="D557" t="n">
         <v>0</v>
@@ -8248,10 +8248,10 @@
         <v>45762</v>
       </c>
       <c r="B558" t="n">
-        <v>0.5201857968754013</v>
+        <v>0.5201857968754015</v>
       </c>
       <c r="C558" t="n">
-        <v>1.165209988863849</v>
+        <v>1.16520998886385</v>
       </c>
       <c r="D558" t="n">
         <v>2.5</v>
@@ -8276,7 +8276,7 @@
         <v>45764</v>
       </c>
       <c r="B560" t="n">
-        <v>0.7065450468540031</v>
+        <v>0.7065450468540032</v>
       </c>
       <c r="C560" t="n">
         <v>2.863286106217015</v>
@@ -8332,10 +8332,10 @@
         <v>45768</v>
       </c>
       <c r="B564" t="n">
-        <v>0.5711035206473756</v>
+        <v>0.5711035206473755</v>
       </c>
       <c r="C564" t="n">
-        <v>3.112945711155868</v>
+        <v>3.112945711155867</v>
       </c>
       <c r="D564" t="n">
         <v>7.5</v>
@@ -8346,10 +8346,10 @@
         <v>45769</v>
       </c>
       <c r="B565" t="n">
-        <v>0.5337899588186923</v>
+        <v>0.5337899588186922</v>
       </c>
       <c r="C565" t="n">
-        <v>4.891723233181753</v>
+        <v>4.891723233181751</v>
       </c>
       <c r="D565" t="n">
         <v>9.5</v>
@@ -8360,7 +8360,7 @@
         <v>45770</v>
       </c>
       <c r="B566" t="n">
-        <v>0.688967039179245</v>
+        <v>0.6889670391792448</v>
       </c>
       <c r="C566" t="n">
         <v>3.001032301116997</v>
@@ -8430,10 +8430,10 @@
         <v>45775</v>
       </c>
       <c r="B571" t="n">
-        <v>0.6336259159891792</v>
+        <v>0.6336259159891791</v>
       </c>
       <c r="C571" t="n">
-        <v>2.389663712745556</v>
+        <v>2.389663712745555</v>
       </c>
       <c r="D571" t="n">
         <v>0</v>
@@ -8472,7 +8472,7 @@
         <v>45778</v>
       </c>
       <c r="B574" t="n">
-        <v>0.4082976846334092</v>
+        <v>0.4082976846334093</v>
       </c>
       <c r="C574" t="n">
         <v>0</v>
@@ -8486,7 +8486,7 @@
         <v>45779</v>
       </c>
       <c r="B575" t="n">
-        <v>0.350124020725246</v>
+        <v>0.3501240207252461</v>
       </c>
       <c r="C575" t="n">
         <v>0</v>
@@ -8500,7 +8500,7 @@
         <v>45780</v>
       </c>
       <c r="B576" t="n">
-        <v>0.4292104476937677</v>
+        <v>0.4292104476937676</v>
       </c>
       <c r="C576" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>45782</v>
       </c>
       <c r="B578" t="n">
-        <v>0.5378552575161666</v>
+        <v>0.5378552575161665</v>
       </c>
       <c r="C578" t="n">
         <v>2.918353192298228</v>
@@ -8542,7 +8542,7 @@
         <v>45783</v>
       </c>
       <c r="B579" t="n">
-        <v>0.4535596692287978</v>
+        <v>0.4535596692287976</v>
       </c>
       <c r="C579" t="n">
         <v>0</v>
@@ -8556,7 +8556,7 @@
         <v>45784</v>
       </c>
       <c r="B580" t="n">
-        <v>0.5111943530855152</v>
+        <v>0.5111943530855153</v>
       </c>
       <c r="C580" t="n">
         <v>1.177913373282528</v>
@@ -8570,7 +8570,7 @@
         <v>45785</v>
       </c>
       <c r="B581" t="n">
-        <v>0.6294250064937333</v>
+        <v>0.6294250064937332</v>
       </c>
       <c r="C581" t="n">
         <v>3.419466827039319</v>
@@ -8584,10 +8584,10 @@
         <v>45786</v>
       </c>
       <c r="B582" t="n">
-        <v>0.5961672519255719</v>
+        <v>0.596167251925572</v>
       </c>
       <c r="C582" t="n">
-        <v>2.848091062271436</v>
+        <v>2.848091062271437</v>
       </c>
       <c r="D582" t="n">
         <v>0</v>
@@ -8598,7 +8598,7 @@
         <v>45787</v>
       </c>
       <c r="B583" t="n">
-        <v>0.4474672449510655</v>
+        <v>0.4474672449510656</v>
       </c>
       <c r="C583" t="n">
         <v>0</v>
@@ -8626,10 +8626,10 @@
         <v>45789</v>
       </c>
       <c r="B585" t="n">
-        <v>0.6066937834275038</v>
+        <v>0.6066937834275036</v>
       </c>
       <c r="C585" t="n">
-        <v>2.389131023090127</v>
+        <v>2.389131023090126</v>
       </c>
       <c r="D585" t="n">
         <v>0</v>
@@ -8640,10 +8640,10 @@
         <v>45790</v>
       </c>
       <c r="B586" t="n">
-        <v>0.5097304559833894</v>
+        <v>0.5097304559833895</v>
       </c>
       <c r="C586" t="n">
-        <v>4.072347610827026</v>
+        <v>4.072347610827027</v>
       </c>
       <c r="D586" t="n">
         <v>55.2</v>
@@ -8668,10 +8668,10 @@
         <v>45792</v>
       </c>
       <c r="B588" t="n">
-        <v>0.537170374483084</v>
+        <v>0.5371703744830837</v>
       </c>
       <c r="C588" t="n">
-        <v>1.258536746805722</v>
+        <v>1.258536746805721</v>
       </c>
       <c r="D588" t="n">
         <v>37.2</v>
@@ -8696,7 +8696,7 @@
         <v>45794</v>
       </c>
       <c r="B590" t="n">
-        <v>0.6894646326454434</v>
+        <v>0.6894646326454433</v>
       </c>
       <c r="C590" t="n">
         <v>1.982749824738496</v>
@@ -8710,10 +8710,10 @@
         <v>45795</v>
       </c>
       <c r="B591" t="n">
-        <v>0.7281076101925432</v>
+        <v>0.7281076101925431</v>
       </c>
       <c r="C591" t="n">
-        <v>4.665007031424646</v>
+        <v>4.665007031424645</v>
       </c>
       <c r="D591" t="n">
         <v>1</v>
@@ -8724,7 +8724,7 @@
         <v>45796</v>
       </c>
       <c r="B592" t="n">
-        <v>0.557347064531004</v>
+        <v>0.5573470645310041</v>
       </c>
       <c r="C592" t="n">
         <v>1.954150520140596</v>
@@ -8738,10 +8738,10 @@
         <v>45797</v>
       </c>
       <c r="B593" t="n">
-        <v>0.5914485201347249</v>
+        <v>0.5914485201347252</v>
       </c>
       <c r="C593" t="n">
-        <v>2.730234770185476</v>
+        <v>2.730234770185477</v>
       </c>
       <c r="D593" t="n">
         <v>0</v>
@@ -8780,10 +8780,10 @@
         <v>45800</v>
       </c>
       <c r="B596" t="n">
-        <v>0.8004814536786949</v>
+        <v>0.8004814536786951</v>
       </c>
       <c r="C596" t="n">
-        <v>3.937773743959925</v>
+        <v>3.937773743959926</v>
       </c>
       <c r="D596" t="n">
         <v>7.5</v>
@@ -8794,10 +8794,10 @@
         <v>45801</v>
       </c>
       <c r="B597" t="n">
-        <v>0.8523183024059477</v>
+        <v>0.8523183024059476</v>
       </c>
       <c r="C597" t="n">
-        <v>4.065188446715834</v>
+        <v>4.065188446715833</v>
       </c>
       <c r="D597" t="n">
         <v>0.5</v>
@@ -8808,7 +8808,7 @@
         <v>45802</v>
       </c>
       <c r="B598" t="n">
-        <v>0.6801628366623106</v>
+        <v>0.6801628366623105</v>
       </c>
       <c r="C598" t="n">
         <v>2.218957178343596</v>
@@ -8822,10 +8822,10 @@
         <v>45803</v>
       </c>
       <c r="B599" t="n">
-        <v>0.863895675107999</v>
+        <v>0.8638956751079989</v>
       </c>
       <c r="C599" t="n">
-        <v>3.62754974175037</v>
+        <v>3.627549741750369</v>
       </c>
       <c r="D599" t="n">
         <v>21.3</v>
@@ -8836,7 +8836,7 @@
         <v>45804</v>
       </c>
       <c r="B600" t="n">
-        <v>0.8538446414844801</v>
+        <v>0.85384464148448</v>
       </c>
       <c r="C600" t="n">
         <v>3.355827524102742</v>
@@ -8850,7 +8850,7 @@
         <v>45805</v>
       </c>
       <c r="B601" t="n">
-        <v>0.5210369764891943</v>
+        <v>0.5210369764891942</v>
       </c>
       <c r="C601" t="n">
         <v>1.394762717432543</v>
@@ -8864,7 +8864,7 @@
         <v>45806</v>
       </c>
       <c r="B602" t="n">
-        <v>0.4670448064202874</v>
+        <v>0.4670448064202875</v>
       </c>
       <c r="C602" t="n">
         <v>0</v>
@@ -8878,10 +8878,10 @@
         <v>45807</v>
       </c>
       <c r="B603" t="n">
-        <v>0.5106588914120297</v>
+        <v>0.5106588914120298</v>
       </c>
       <c r="C603" t="n">
-        <v>0.5803523251481646</v>
+        <v>0.5803523251481647</v>
       </c>
       <c r="D603" t="n">
         <v>0</v>
@@ -8906,7 +8906,7 @@
         <v>45809</v>
       </c>
       <c r="B605" t="n">
-        <v>0.5334909023095289</v>
+        <v>0.533490902309529</v>
       </c>
       <c r="C605" t="n">
         <v>2.477194968726562</v>
@@ -8920,10 +8920,10 @@
         <v>45810</v>
       </c>
       <c r="B606" t="n">
-        <v>0.501155274216417</v>
+        <v>0.5011552742164171</v>
       </c>
       <c r="C606" t="n">
-        <v>1.365752623583184</v>
+        <v>1.365752623583185</v>
       </c>
       <c r="D606" t="n">
         <v>0</v>
@@ -8962,7 +8962,7 @@
         <v>45813</v>
       </c>
       <c r="B609" t="n">
-        <v>0.4027374698921669</v>
+        <v>0.402737469892167</v>
       </c>
       <c r="C609" t="n">
         <v>0</v>
@@ -8990,7 +8990,7 @@
         <v>45815</v>
       </c>
       <c r="B611" t="n">
-        <v>0.3313551784391256</v>
+        <v>0.3313551784391257</v>
       </c>
       <c r="C611" t="n">
         <v>0</v>
@@ -9004,10 +9004,10 @@
         <v>45816</v>
       </c>
       <c r="B612" t="n">
-        <v>0.6060579124269317</v>
+        <v>0.6060579124269314</v>
       </c>
       <c r="C612" t="n">
-        <v>1.036450663494984</v>
+        <v>1.036450663494983</v>
       </c>
       <c r="D612" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>45817</v>
       </c>
       <c r="B613" t="n">
-        <v>0.4860749246438788</v>
+        <v>0.4860749246438789</v>
       </c>
       <c r="C613" t="n">
         <v>0</v>
@@ -9060,10 +9060,10 @@
         <v>45820</v>
       </c>
       <c r="B616" t="n">
-        <v>0.5719398519138186</v>
+        <v>0.5719398519138187</v>
       </c>
       <c r="C616" t="n">
-        <v>3.648575964512566</v>
+        <v>3.648575964512567</v>
       </c>
       <c r="D616" t="n">
         <v>0</v>
@@ -9074,7 +9074,7 @@
         <v>45821</v>
       </c>
       <c r="B617" t="n">
-        <v>0.39882710067605</v>
+        <v>0.3988271006760502</v>
       </c>
       <c r="C617" t="n">
         <v>0</v>
@@ -9102,7 +9102,7 @@
         <v>45823</v>
       </c>
       <c r="B619" t="n">
-        <v>0.6102933692348889</v>
+        <v>0.6102933692348887</v>
       </c>
       <c r="C619" t="n">
         <v>3.264798536377042</v>
@@ -9144,7 +9144,7 @@
         <v>45826</v>
       </c>
       <c r="B622" t="n">
-        <v>0.4563542979014123</v>
+        <v>0.4563542979014122</v>
       </c>
       <c r="C622" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>45828</v>
       </c>
       <c r="B624" t="n">
-        <v>0.7426201471877411</v>
+        <v>0.7426201471877412</v>
       </c>
       <c r="C624" t="n">
         <v>9.014144673113796</v>
@@ -9186,13 +9186,13 @@
         <v>45829</v>
       </c>
       <c r="B625" t="n">
-        <v>0.5263635989977204</v>
+        <v>0.5263635989977206</v>
       </c>
       <c r="C625" t="n">
         <v>1.944115943314049</v>
       </c>
       <c r="D625" t="n">
-        <v>4.485599999999996</v>
+        <v>4.485599999999997</v>
       </c>
     </row>
     <row r="626">
@@ -9200,7 +9200,7 @@
         <v>45830</v>
       </c>
       <c r="B626" t="n">
-        <v>0.7689333617597063</v>
+        <v>0.7689333617597064</v>
       </c>
       <c r="C626" t="n">
         <v>2.737351025369966</v>
@@ -9214,10 +9214,10 @@
         <v>45831</v>
       </c>
       <c r="B627" t="n">
-        <v>0.5051532153318391</v>
+        <v>0.5051532153318392</v>
       </c>
       <c r="C627" t="n">
-        <v>2.936723596771235</v>
+        <v>2.936723596771236</v>
       </c>
       <c r="D627" t="n">
         <v>0.4</v>
@@ -9228,10 +9228,10 @@
         <v>45832</v>
       </c>
       <c r="B628" t="n">
-        <v>0.5192725579498095</v>
+        <v>0.5192725579498096</v>
       </c>
       <c r="C628" t="n">
-        <v>2.905115919079918</v>
+        <v>2.905115919079919</v>
       </c>
       <c r="D628" t="n">
         <v>0</v>
@@ -9284,7 +9284,7 @@
         <v>45836</v>
       </c>
       <c r="B632" t="n">
-        <v>0.4487147476949567</v>
+        <v>0.4487147476949568</v>
       </c>
       <c r="C632" t="n">
         <v>0</v>
@@ -9312,7 +9312,7 @@
         <v>45838</v>
       </c>
       <c r="B634" t="n">
-        <v>0.8467119734173166</v>
+        <v>0.8467119734173165</v>
       </c>
       <c r="C634" t="n">
         <v>2.781384104480896</v>
@@ -9326,7 +9326,7 @@
         <v>45839</v>
       </c>
       <c r="B635" t="n">
-        <v>0.575816259709151</v>
+        <v>0.5758162597091511</v>
       </c>
       <c r="C635" t="n">
         <v>3.25494344886304</v>
@@ -9396,7 +9396,7 @@
         <v>45844</v>
       </c>
       <c r="B640" t="n">
-        <v>0.4101161142277015</v>
+        <v>0.4101161142277016</v>
       </c>
       <c r="C640" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>45851</v>
       </c>
       <c r="B647" t="n">
-        <v>0.3763416862870642</v>
+        <v>0.3763416862870643</v>
       </c>
       <c r="C647" t="n">
         <v>0</v>
@@ -9508,7 +9508,7 @@
         <v>45852</v>
       </c>
       <c r="B648" t="n">
-        <v>0.4204444125663501</v>
+        <v>0.4204444125663502</v>
       </c>
       <c r="C648" t="n">
         <v>0</v>
@@ -9578,10 +9578,10 @@
         <v>45857</v>
       </c>
       <c r="B653" t="n">
-        <v>0.5288658015028035</v>
+        <v>0.5288658015028036</v>
       </c>
       <c r="C653" t="n">
-        <v>2.806202919463383</v>
+        <v>2.806202919463384</v>
       </c>
       <c r="D653" t="n">
         <v>0</v>
@@ -9634,7 +9634,7 @@
         <v>45861</v>
       </c>
       <c r="B657" t="n">
-        <v>0.3773922177256249</v>
+        <v>0.377392217725625</v>
       </c>
       <c r="C657" t="n">
         <v>0</v>
@@ -9746,7 +9746,7 @@
         <v>45869</v>
       </c>
       <c r="B665" t="n">
-        <v>0.3226600362612804</v>
+        <v>0.3226600362612803</v>
       </c>
       <c r="C665" t="n">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>45870</v>
       </c>
       <c r="B666" t="n">
-        <v>0.3550270146264795</v>
+        <v>0.3550270146264794</v>
       </c>
       <c r="C666" t="n">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>45874</v>
       </c>
       <c r="B670" t="n">
-        <v>0.2957817778505261</v>
+        <v>0.2957817778505262</v>
       </c>
       <c r="C670" t="n">
         <v>0</v>
@@ -9858,7 +9858,7 @@
         <v>45877</v>
       </c>
       <c r="B673" t="n">
-        <v>0.3493888662148495</v>
+        <v>0.3493888662148496</v>
       </c>
       <c r="C673" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>45878</v>
       </c>
       <c r="B674" t="n">
-        <v>0.6101437968540308</v>
+        <v>0.6101437968540306</v>
       </c>
       <c r="C674" t="n">
         <v>2.817463981106063</v>
@@ -9900,7 +9900,7 @@
         <v>45880</v>
       </c>
       <c r="B676" t="n">
-        <v>0.4137328344809</v>
+        <v>0.4137328344809001</v>
       </c>
       <c r="C676" t="n">
         <v>0</v>
@@ -9928,7 +9928,7 @@
         <v>45882</v>
       </c>
       <c r="B678" t="n">
-        <v>0.8494910890276411</v>
+        <v>0.8494910890276413</v>
       </c>
       <c r="C678" t="n">
         <v>3.611054910488064</v>
@@ -9956,7 +9956,7 @@
         <v>45884</v>
       </c>
       <c r="B680" t="n">
-        <v>0.4866963176560557</v>
+        <v>0.4866963176560556</v>
       </c>
       <c r="C680" t="n">
         <v>0</v>
@@ -10026,10 +10026,10 @@
         <v>45889</v>
       </c>
       <c r="B685" t="n">
-        <v>0.7254567910111602</v>
+        <v>0.7254567910111601</v>
       </c>
       <c r="C685" t="n">
-        <v>2.856335291413427</v>
+        <v>2.856335291413426</v>
       </c>
       <c r="D685" t="n">
         <v>2.6</v>
@@ -10138,7 +10138,7 @@
         <v>45897</v>
       </c>
       <c r="B693" t="n">
-        <v>0.3035834169876413</v>
+        <v>0.3035834169876412</v>
       </c>
       <c r="C693" t="n">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>45899</v>
       </c>
       <c r="B695" t="n">
-        <v>0.5290173049184632</v>
+        <v>0.5290173049184633</v>
       </c>
       <c r="C695" t="n">
         <v>1.301384608320695</v>
@@ -10236,7 +10236,7 @@
         <v>45904</v>
       </c>
       <c r="B700" t="n">
-        <v>0.3710028910611864</v>
+        <v>0.3710028910611863</v>
       </c>
       <c r="C700" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>45907</v>
       </c>
       <c r="B703" t="n">
-        <v>0.3044766490383201</v>
+        <v>0.3044766490383202</v>
       </c>
       <c r="C703" t="n">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         <v>45908</v>
       </c>
       <c r="B704" t="n">
-        <v>0.344437879248816</v>
+        <v>0.3444378792488159</v>
       </c>
       <c r="C704" t="n">
         <v>0</v>
@@ -10320,7 +10320,7 @@
         <v>45910</v>
       </c>
       <c r="B706" t="n">
-        <v>0.4910368171651654</v>
+        <v>0.4910368171651653</v>
       </c>
       <c r="C706" t="n">
         <v>0</v>
@@ -10334,10 +10334,10 @@
         <v>45911</v>
       </c>
       <c r="B707" t="n">
-        <v>0.5465079707486222</v>
+        <v>0.5465079707486223</v>
       </c>
       <c r="C707" t="n">
-        <v>3.054220265148638</v>
+        <v>3.054220265148639</v>
       </c>
       <c r="D707" t="n">
         <v>0.8</v>
@@ -10390,7 +10390,7 @@
         <v>45915</v>
       </c>
       <c r="B711" t="n">
-        <v>0.4024717109460021</v>
+        <v>0.402471710946002</v>
       </c>
       <c r="C711" t="n">
         <v>0</v>
@@ -10432,7 +10432,7 @@
         <v>45918</v>
       </c>
       <c r="B714" t="n">
-        <v>0.4922299710206578</v>
+        <v>0.4922299710206579</v>
       </c>
       <c r="C714" t="n">
         <v>0</v>
@@ -10460,7 +10460,7 @@
         <v>45920</v>
       </c>
       <c r="B716" t="n">
-        <v>0.4925949630841378</v>
+        <v>0.4925949630841377</v>
       </c>
       <c r="C716" t="n">
         <v>0</v>
@@ -10474,10 +10474,10 @@
         <v>45921</v>
       </c>
       <c r="B717" t="n">
-        <v>0.8548125919708113</v>
+        <v>0.8548125919708112</v>
       </c>
       <c r="C717" t="n">
-        <v>6.637861373122997</v>
+        <v>6.637861373122996</v>
       </c>
       <c r="D717" t="n">
         <v>0</v>
@@ -10502,7 +10502,7 @@
         <v>45923</v>
       </c>
       <c r="B719" t="n">
-        <v>0.428188211913819</v>
+        <v>0.4281882119138191</v>
       </c>
       <c r="C719" t="n">
         <v>0</v>
@@ -10530,7 +10530,7 @@
         <v>45925</v>
       </c>
       <c r="B721" t="n">
-        <v>0.4305241319894096</v>
+        <v>0.4305241319894095</v>
       </c>
       <c r="C721" t="n">
         <v>0</v>
@@ -10558,7 +10558,7 @@
         <v>45927</v>
       </c>
       <c r="B723" t="n">
-        <v>0.3793998636156004</v>
+        <v>0.3793998636156005</v>
       </c>
       <c r="C723" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>45930</v>
       </c>
       <c r="B726" t="n">
-        <v>0.4253700723344084</v>
+        <v>0.4253700723344085</v>
       </c>
       <c r="C726" t="n">
         <v>0</v>
@@ -10614,7 +10614,7 @@
         <v>45931</v>
       </c>
       <c r="B727" t="n">
-        <v>0.4901470123475739</v>
+        <v>0.4901470123475741</v>
       </c>
       <c r="C727" t="n">
         <v>0</v>
@@ -10628,7 +10628,7 @@
         <v>45932</v>
       </c>
       <c r="B728" t="n">
-        <v>0.4741825225413329</v>
+        <v>0.4741825225413328</v>
       </c>
       <c r="C728" t="n">
         <v>0</v>
@@ -10656,7 +10656,7 @@
         <v>45934</v>
       </c>
       <c r="B730" t="n">
-        <v>0.4597627901915942</v>
+        <v>0.4597627901915943</v>
       </c>
       <c r="C730" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>45935</v>
       </c>
       <c r="B731" t="n">
-        <v>0.4091794115354386</v>
+        <v>0.4091794115354385</v>
       </c>
       <c r="C731" t="n">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         <v>45938</v>
       </c>
       <c r="B734" t="n">
-        <v>0.4744797734458631</v>
+        <v>0.474479773445863</v>
       </c>
       <c r="C734" t="n">
         <v>0</v>
@@ -10740,7 +10740,7 @@
         <v>45940</v>
       </c>
       <c r="B736" t="n">
-        <v>0.1805686034245033</v>
+        <v>0.1805686034245034</v>
       </c>
       <c r="C736" t="n">
         <v>0</v>
@@ -10754,7 +10754,7 @@
         <v>45941</v>
       </c>
       <c r="B737" t="n">
-        <v>0.1534673541113306</v>
+        <v>0.1534673541113307</v>
       </c>
       <c r="C737" t="n">
         <v>0</v>
@@ -10810,7 +10810,7 @@
         <v>45945</v>
       </c>
       <c r="B741" t="n">
-        <v>0.3654005396091461</v>
+        <v>0.3654005396091463</v>
       </c>
       <c r="C741" t="n">
         <v>0</v>
@@ -10894,7 +10894,7 @@
         <v>45951</v>
       </c>
       <c r="B747" t="n">
-        <v>0.3734835440440023</v>
+        <v>0.3734835440440022</v>
       </c>
       <c r="C747" t="n">
         <v>0</v>
@@ -10908,7 +10908,7 @@
         <v>45952</v>
       </c>
       <c r="B748" t="n">
-        <v>0.3177678938988861</v>
+        <v>0.3177678938988862</v>
       </c>
       <c r="C748" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>45953</v>
       </c>
       <c r="B749" t="n">
-        <v>0.585398847815439</v>
+        <v>0.5853988478154389</v>
       </c>
       <c r="C749" t="n">
-        <v>4.658235673406624</v>
+        <v>4.658235673406623</v>
       </c>
       <c r="D749" t="n">
         <v>8.9</v>
@@ -10950,7 +10950,7 @@
         <v>45955</v>
       </c>
       <c r="B751" t="n">
-        <v>0.4973598536129168</v>
+        <v>0.4973598536129166</v>
       </c>
       <c r="C751" t="n">
         <v>0</v>
@@ -10964,10 +10964,10 @@
         <v>45956</v>
       </c>
       <c r="B752" t="n">
-        <v>0.5047362839418053</v>
+        <v>0.5047362839418051</v>
       </c>
       <c r="C752" t="n">
-        <v>1.54659050016882</v>
+        <v>1.546590500168819</v>
       </c>
       <c r="D752" t="n">
         <v>0</v>
@@ -10992,7 +10992,7 @@
         <v>45958</v>
       </c>
       <c r="B754" t="n">
-        <v>0.49464223215178</v>
+        <v>0.4946422321517801</v>
       </c>
       <c r="C754" t="n">
         <v>0</v>
@@ -11006,10 +11006,10 @@
         <v>45959</v>
       </c>
       <c r="B755" t="n">
-        <v>0.7198243368700128</v>
+        <v>0.719824336870013</v>
       </c>
       <c r="C755" t="n">
-        <v>5.206701407489943</v>
+        <v>5.206701407489945</v>
       </c>
       <c r="D755" t="n">
         <v>67</v>
@@ -11048,7 +11048,7 @@
         <v>45962</v>
       </c>
       <c r="B758" t="n">
-        <v>0.5399583918300477</v>
+        <v>0.5399583918300476</v>
       </c>
       <c r="C758" t="n">
         <v>2.862661422059138</v>
@@ -11076,7 +11076,7 @@
         <v>45963</v>
       </c>
       <c r="B760" t="n">
-        <v>0.472676593233734</v>
+        <v>0.4726765932337339</v>
       </c>
       <c r="C760" t="n">
         <v>0</v>
@@ -11090,7 +11090,7 @@
         <v>45963</v>
       </c>
       <c r="B761" t="n">
-        <v>0.422010705091828</v>
+        <v>0.4220107050918281</v>
       </c>
       <c r="C761" t="n">
         <v>0</v>
@@ -11132,7 +11132,7 @@
         <v>45965</v>
       </c>
       <c r="B764" t="n">
-        <v>0.3403415520551974</v>
+        <v>0.3403415520551972</v>
       </c>
       <c r="C764" t="n">
         <v>0</v>
@@ -11146,7 +11146,7 @@
         <v>45965</v>
       </c>
       <c r="B765" t="n">
-        <v>0.3165236057372169</v>
+        <v>0.316523605737217</v>
       </c>
       <c r="C765" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>45966</v>
       </c>
       <c r="B766" t="n">
-        <v>0.3009870245185537</v>
+        <v>0.3009870245185536</v>
       </c>
       <c r="C766" t="n">
         <v>0</v>
@@ -11174,7 +11174,7 @@
         <v>45966</v>
       </c>
       <c r="B767" t="n">
-        <v>0.380065375050898</v>
+        <v>0.3800653750508979</v>
       </c>
       <c r="C767" t="n">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>45967</v>
       </c>
       <c r="B769" t="n">
-        <v>0.3890531689358645</v>
+        <v>0.3890531689358644</v>
       </c>
       <c r="C769" t="n">
         <v>0</v>
@@ -11244,10 +11244,10 @@
         <v>45969</v>
       </c>
       <c r="B772" t="n">
-        <v>0.7011993851604902</v>
+        <v>0.70119938516049</v>
       </c>
       <c r="C772" t="n">
-        <v>3.03104450660441</v>
+        <v>3.031044506604409</v>
       </c>
       <c r="D772" t="n">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>45970</v>
       </c>
       <c r="B775" t="n">
-        <v>0.4375250544187815</v>
+        <v>0.4375250544187814</v>
       </c>
       <c r="C775" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>45971</v>
       </c>
       <c r="B777" t="n">
-        <v>0.4100413684026653</v>
+        <v>0.4100413684026654</v>
       </c>
       <c r="C777" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>45975</v>
       </c>
       <c r="B781" t="n">
-        <v>0.3652457208647014</v>
+        <v>0.3652457208647013</v>
       </c>
       <c r="C781" t="n">
         <v>0</v>
@@ -11384,10 +11384,10 @@
         <v>45976</v>
       </c>
       <c r="B782" t="n">
-        <v>0.8138898691163383</v>
+        <v>0.8138898691163384</v>
       </c>
       <c r="C782" t="n">
-        <v>4.235218196396866</v>
+        <v>4.235218196396867</v>
       </c>
       <c r="D782" t="n">
         <v>3.2</v>
@@ -11398,10 +11398,10 @@
         <v>45977</v>
       </c>
       <c r="B783" t="n">
-        <v>0.6798120614993525</v>
+        <v>0.6798120614993526</v>
       </c>
       <c r="C783" t="n">
-        <v>3.271057440944114</v>
+        <v>3.271057440944115</v>
       </c>
       <c r="D783" t="n">
         <v>0</v>
@@ -11426,7 +11426,7 @@
         <v>45979</v>
       </c>
       <c r="B785" t="n">
-        <v>0.3903788813772912</v>
+        <v>0.390378881377291</v>
       </c>
       <c r="C785" t="n">
         <v>0</v>
@@ -11468,7 +11468,7 @@
         <v>45982</v>
       </c>
       <c r="B788" t="n">
-        <v>0.4742446892382761</v>
+        <v>0.4742446892382762</v>
       </c>
       <c r="C788" t="n">
         <v>0</v>
@@ -11594,7 +11594,7 @@
         <v>45991</v>
       </c>
       <c r="B797" t="n">
-        <v>0.3035760477361416</v>
+        <v>0.3035760477361414</v>
       </c>
       <c r="C797" t="n">
         <v>0</v>
@@ -11608,7 +11608,7 @@
         <v>45992</v>
       </c>
       <c r="B798" t="n">
-        <v>0.3628053557552069</v>
+        <v>0.3628053557552068</v>
       </c>
       <c r="C798" t="n">
         <v>0</v>
@@ -11622,7 +11622,7 @@
         <v>45993</v>
       </c>
       <c r="B799" t="n">
-        <v>0.3511299150532705</v>
+        <v>0.3511299150532704</v>
       </c>
       <c r="C799" t="n">
         <v>0</v>

--- a/hasil_prediksi_regresi.xlsx
+++ b/hasil_prediksi_regresi.xlsx
@@ -464,7 +464,7 @@
         <v>45206</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4920352014806177</v>
+        <v>0.4920352014806178</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -478,7 +478,7 @@
         <v>45207</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4879952396172115</v>
+        <v>0.4879952396172114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>45208</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3980221199868451</v>
+        <v>0.398022119986845</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>45209</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4126874316189512</v>
+        <v>0.4126874316189513</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -534,10 +534,10 @@
         <v>45211</v>
       </c>
       <c r="B7" t="n">
-        <v>0.520347327181208</v>
+        <v>0.5203473271812081</v>
       </c>
       <c r="C7" t="n">
-        <v>2.221530249161143</v>
+        <v>2.221530249161144</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -562,7 +562,7 @@
         <v>45213</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3048312723393876</v>
+        <v>0.3048312723393875</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -604,7 +604,7 @@
         <v>45216</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2093494681083282</v>
+        <v>0.2093494681083281</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>45220</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3306912875034693</v>
+        <v>0.3306912875034692</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>45221</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2980344737670176</v>
+        <v>0.2980344737670177</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9565999999999999</v>
+        <v>0.9565999999999998</v>
       </c>
     </row>
     <row r="19">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>2.756200000000001</v>
+        <v>2.7562</v>
       </c>
     </row>
     <row r="20">
@@ -730,7 +730,7 @@
         <v>45225</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4191459430568589</v>
+        <v>0.419145943056859</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>45228</v>
       </c>
       <c r="B24" t="n">
-        <v>0.358000106555713</v>
+        <v>0.3580001065557129</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>45232</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4429058195292646</v>
+        <v>0.4429058195292647</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>45233</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3990008640349131</v>
+        <v>0.399000864034913</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>45236</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5811021978390881</v>
+        <v>0.5811021978390882</v>
       </c>
       <c r="C32" t="n">
         <v>2.133359451313051</v>
@@ -898,7 +898,7 @@
         <v>45237</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3886179074155395</v>
+        <v>0.3886179074155394</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -926,10 +926,10 @@
         <v>45239</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5241014379249022</v>
+        <v>0.5241014379249023</v>
       </c>
       <c r="C35" t="n">
-        <v>3.0575523665823</v>
+        <v>3.057552366582301</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>45240</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4180662941425629</v>
+        <v>0.418066294142563</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -954,10 +954,10 @@
         <v>45241</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5608799994286362</v>
+        <v>0.5608799994286361</v>
       </c>
       <c r="C37" t="n">
-        <v>3.262149476848079</v>
+        <v>3.262149476848078</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>45242</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5386451657009348</v>
+        <v>0.5386451657009349</v>
       </c>
       <c r="C38" t="n">
         <v>2.777887930635885</v>
       </c>
       <c r="D38" t="n">
-        <v>11.36499999999999</v>
+        <v>11.365</v>
       </c>
     </row>
     <row r="39">
@@ -982,7 +982,7 @@
         <v>45243</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3647810355364007</v>
+        <v>0.3647810355364008</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>45245</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5219677838731255</v>
+        <v>0.5219677838731256</v>
       </c>
       <c r="C41" t="n">
         <v>4.058099210016316</v>
@@ -1038,10 +1038,10 @@
         <v>45247</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5216639425647072</v>
+        <v>0.5216639425647073</v>
       </c>
       <c r="C43" t="n">
-        <v>3.594442101230045</v>
+        <v>3.594442101230046</v>
       </c>
       <c r="D43" t="n">
         <v>0.4</v>
@@ -1052,10 +1052,10 @@
         <v>45248</v>
       </c>
       <c r="B44" t="n">
-        <v>0.516257560632157</v>
+        <v>0.5162575606321571</v>
       </c>
       <c r="C44" t="n">
-        <v>2.434546381049948</v>
+        <v>2.434546381049949</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1066,10 +1066,10 @@
         <v>45249</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5535984515924846</v>
+        <v>0.5535984515924844</v>
       </c>
       <c r="C45" t="n">
-        <v>3.77754300329316</v>
+        <v>3.777543003293159</v>
       </c>
       <c r="D45" t="n">
         <v>4</v>
@@ -1080,7 +1080,7 @@
         <v>45250</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6163786705171395</v>
+        <v>0.6163786705171396</v>
       </c>
       <c r="C46" t="n">
         <v>3.475478599223168</v>
@@ -1122,10 +1122,10 @@
         <v>45253</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5222907059277031</v>
+        <v>0.5222907059277033</v>
       </c>
       <c r="C49" t="n">
-        <v>3.85110347908372</v>
+        <v>3.851103479083722</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>45255</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6370013591791234</v>
+        <v>0.6370013591791233</v>
       </c>
       <c r="C51" t="n">
-        <v>2.619960718441433</v>
+        <v>2.619960718441432</v>
       </c>
       <c r="D51" t="n">
         <v>18.1</v>
@@ -1164,13 +1164,13 @@
         <v>45256</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8730164428656871</v>
+        <v>0.873016442865687</v>
       </c>
       <c r="C52" t="n">
         <v>7.950283804636141</v>
       </c>
       <c r="D52" t="n">
-        <v>4.348599999999999</v>
+        <v>4.348599999999998</v>
       </c>
     </row>
     <row r="53">
@@ -1178,10 +1178,10 @@
         <v>45257</v>
       </c>
       <c r="B53" t="n">
-        <v>0.537559364385923</v>
+        <v>0.5375593643859228</v>
       </c>
       <c r="C53" t="n">
-        <v>4.100924887326757</v>
+        <v>4.100924887326755</v>
       </c>
       <c r="D53" t="n">
         <v>1.473400000000001</v>
@@ -1192,10 +1192,10 @@
         <v>45258</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6303593705402497</v>
+        <v>0.6303593705402498</v>
       </c>
       <c r="C54" t="n">
-        <v>4.800425723087824</v>
+        <v>4.800425723087825</v>
       </c>
       <c r="D54" t="n">
         <v>2.5</v>
@@ -1206,7 +1206,7 @@
         <v>45259</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5289962134961118</v>
+        <v>0.5289962134961117</v>
       </c>
       <c r="C55" t="n">
         <v>2.322710267688857</v>
@@ -1248,10 +1248,10 @@
         <v>45262</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8651828525191135</v>
+        <v>0.8651828525191136</v>
       </c>
       <c r="C58" t="n">
-        <v>7.056270568940913</v>
+        <v>7.056270568940914</v>
       </c>
       <c r="D58" t="n">
         <v>3.955999999999998</v>
@@ -1296,7 +1296,7 @@
         <v>3.545400505977158</v>
       </c>
       <c r="D61" t="n">
-        <v>5.698999999999995</v>
+        <v>5.698999999999996</v>
       </c>
     </row>
     <row r="62">
@@ -1318,7 +1318,7 @@
         <v>45267</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5317174614396249</v>
+        <v>0.5317174614396248</v>
       </c>
       <c r="C63" t="n">
         <v>1.690121598669565</v>
@@ -1388,7 +1388,7 @@
         <v>45272</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3479839065410644</v>
+        <v>0.3479839065410645</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1416,13 +1416,13 @@
         <v>45274</v>
       </c>
       <c r="B70" t="n">
-        <v>0.327055593281731</v>
+        <v>0.3270555932817309</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>8.883599999999987</v>
+        <v>8.883599999999989</v>
       </c>
     </row>
     <row r="71">
@@ -1458,7 +1458,7 @@
         <v>45277</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3462251617414872</v>
+        <v>0.3462251617414871</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5790000000000011</v>
+        <v>0.5790000000000012</v>
       </c>
     </row>
     <row r="76">
@@ -1500,7 +1500,7 @@
         <v>45280</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4032282430930699</v>
+        <v>0.4032282430930698</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>45281</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3931479324336058</v>
+        <v>0.3931479324336057</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>45286</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6174154157101395</v>
+        <v>0.6174154157101396</v>
       </c>
       <c r="C82" t="n">
-        <v>2.822651363651969</v>
+        <v>2.82265136365197</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1612,10 +1612,10 @@
         <v>45288</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5219262073059437</v>
+        <v>0.521926207305944</v>
       </c>
       <c r="C84" t="n">
-        <v>3.443038993201881</v>
+        <v>3.443038993201882</v>
       </c>
       <c r="D84" t="n">
         <v>1.064400000000001</v>
@@ -1626,7 +1626,7 @@
         <v>45289</v>
       </c>
       <c r="B85" t="n">
-        <v>0.471063445000704</v>
+        <v>0.4710634450007041</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1640,10 +1640,10 @@
         <v>45290</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6134103083184621</v>
+        <v>0.613410308318462</v>
       </c>
       <c r="C86" t="n">
-        <v>3.128369114178533</v>
+        <v>3.128369114178532</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>45294</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5589026932674241</v>
+        <v>0.558902693267424</v>
       </c>
       <c r="C90" t="n">
-        <v>4.188654216358211</v>
+        <v>4.18865421635821</v>
       </c>
       <c r="D90" t="n">
         <v>8.5</v>
@@ -1710,10 +1710,10 @@
         <v>45295</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8217352578104226</v>
+        <v>0.8217352578104227</v>
       </c>
       <c r="C91" t="n">
-        <v>5.844214450025648</v>
+        <v>5.844214450025649</v>
       </c>
       <c r="D91" t="n">
         <v>30.8</v>
@@ -1738,7 +1738,7 @@
         <v>45297</v>
       </c>
       <c r="B93" t="n">
-        <v>0.760651049133625</v>
+        <v>0.7606510491336251</v>
       </c>
       <c r="C93" t="n">
         <v>3.876701173070271</v>
@@ -1794,10 +1794,10 @@
         <v>45301</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5563110351016164</v>
+        <v>0.5563110351016165</v>
       </c>
       <c r="C97" t="n">
-        <v>3.984101576618739</v>
+        <v>3.98410157661874</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -1808,10 +1808,10 @@
         <v>45302</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5461753991940953</v>
+        <v>0.5461753991940954</v>
       </c>
       <c r="C98" t="n">
-        <v>2.160243983909828</v>
+        <v>2.160243983909829</v>
       </c>
       <c r="D98" t="n">
         <v>42</v>
@@ -1836,10 +1836,10 @@
         <v>45304</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5971657378944155</v>
+        <v>0.5971657378944153</v>
       </c>
       <c r="C100" t="n">
-        <v>2.916879981759647</v>
+        <v>2.916879981759645</v>
       </c>
       <c r="D100" t="n">
         <v>2.4</v>
@@ -1864,10 +1864,10 @@
         <v>45306</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5659617292885979</v>
+        <v>0.5659617292885978</v>
       </c>
       <c r="C102" t="n">
-        <v>3.30051029487456</v>
+        <v>3.300510294874559</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -1878,10 +1878,10 @@
         <v>45307</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5688848524788788</v>
+        <v>0.5688848524788787</v>
       </c>
       <c r="C103" t="n">
-        <v>6.172359634061851</v>
+        <v>6.172359634061849</v>
       </c>
       <c r="D103" t="n">
         <v>0.5127999999999998</v>
@@ -1906,7 +1906,7 @@
         <v>45309</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6793112685158809</v>
+        <v>0.679311268515881</v>
       </c>
       <c r="C105" t="n">
         <v>2.910349195977752</v>
@@ -1920,10 +1920,10 @@
         <v>45310</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6855200897306055</v>
+        <v>0.6855200897306056</v>
       </c>
       <c r="C106" t="n">
-        <v>5.037385687593343</v>
+        <v>5.037385687593344</v>
       </c>
       <c r="D106" t="n">
         <v>11</v>
@@ -1940,7 +1940,7 @@
         <v>7.109172790285446</v>
       </c>
       <c r="D107" t="n">
-        <v>6.344600000000008</v>
+        <v>6.344600000000007</v>
       </c>
     </row>
     <row r="108">
@@ -1976,7 +1976,7 @@
         <v>45314</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5216226182018499</v>
+        <v>0.5216226182018501</v>
       </c>
       <c r="C110" t="n">
         <v>2.552354754374536</v>
@@ -2004,10 +2004,10 @@
         <v>45316</v>
       </c>
       <c r="B112" t="n">
-        <v>0.527911143680542</v>
+        <v>0.5279111436805419</v>
       </c>
       <c r="C112" t="n">
-        <v>3.955340673627119</v>
+        <v>3.955340673627118</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>45317</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4598346521752083</v>
+        <v>0.4598346521752082</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -2032,10 +2032,10 @@
         <v>45318</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5808213352327292</v>
+        <v>0.5808213352327293</v>
       </c>
       <c r="C114" t="n">
-        <v>8.2091513976544</v>
+        <v>8.209151397654402</v>
       </c>
       <c r="D114" t="n">
         <v>28</v>
@@ -2060,7 +2060,7 @@
         <v>45320</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8690870464496611</v>
+        <v>0.8690870464496612</v>
       </c>
       <c r="C116" t="n">
         <v>12.55048768217033</v>
@@ -2074,7 +2074,7 @@
         <v>45321</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9299302791491263</v>
+        <v>0.9299302791491262</v>
       </c>
       <c r="C117" t="n">
         <v>13.41508518848713</v>
@@ -2102,10 +2102,10 @@
         <v>45323</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8206295276233608</v>
+        <v>0.8206295276233607</v>
       </c>
       <c r="C119" t="n">
-        <v>7.400810098651675</v>
+        <v>7.400810098651673</v>
       </c>
       <c r="D119" t="n">
         <v>20.1</v>
@@ -2116,10 +2116,10 @@
         <v>45324</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8511553580861597</v>
+        <v>0.8511553580861598</v>
       </c>
       <c r="C120" t="n">
-        <v>9.459994180710515</v>
+        <v>9.459994180710517</v>
       </c>
       <c r="D120" t="n">
         <v>20.3</v>
@@ -2192,7 +2192,7 @@
         <v>8.490395400526952</v>
       </c>
       <c r="D125" t="n">
-        <v>25.67060000000003</v>
+        <v>25.67060000000002</v>
       </c>
     </row>
     <row r="126">
@@ -2200,10 +2200,10 @@
         <v>45330</v>
       </c>
       <c r="B126" t="n">
-        <v>0.6159552461409685</v>
+        <v>0.6159552461409686</v>
       </c>
       <c r="C126" t="n">
-        <v>7.572070734170344</v>
+        <v>7.572070734170345</v>
       </c>
       <c r="D126" t="n">
         <v>8.097999999999999</v>
@@ -2214,10 +2214,10 @@
         <v>45331</v>
       </c>
       <c r="B127" t="n">
-        <v>0.5521573582560415</v>
+        <v>0.5521573582560414</v>
       </c>
       <c r="C127" t="n">
-        <v>6.860606359741219</v>
+        <v>6.860606359741217</v>
       </c>
       <c r="D127" t="n">
         <v>102</v>
@@ -2256,7 +2256,7 @@
         <v>45334</v>
       </c>
       <c r="B130" t="n">
-        <v>0.6311800693692424</v>
+        <v>0.6311800693692425</v>
       </c>
       <c r="C130" t="n">
         <v>4.357503047419172</v>
@@ -2270,10 +2270,10 @@
         <v>45335</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7114925747882964</v>
+        <v>0.7114925747882965</v>
       </c>
       <c r="C131" t="n">
-        <v>3.273440153675918</v>
+        <v>3.273440153675919</v>
       </c>
       <c r="D131" t="n">
         <v>140.9</v>
@@ -2284,7 +2284,7 @@
         <v>45336</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6921971206416159</v>
+        <v>0.6921971206416161</v>
       </c>
       <c r="C132" t="n">
         <v>14.42320966875988</v>
@@ -2298,7 +2298,7 @@
         <v>45337</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8483465232668083</v>
+        <v>0.8483465232668082</v>
       </c>
       <c r="C133" t="n">
         <v>11.39378434842018</v>
@@ -2368,10 +2368,10 @@
         <v>45342</v>
       </c>
       <c r="B138" t="n">
-        <v>0.6711642397539802</v>
+        <v>0.6711642397539804</v>
       </c>
       <c r="C138" t="n">
-        <v>1.840892637636575</v>
+        <v>1.840892637636576</v>
       </c>
       <c r="D138" t="n">
         <v>0.2</v>
@@ -2382,10 +2382,10 @@
         <v>45343</v>
       </c>
       <c r="B139" t="n">
-        <v>0.6272421858863223</v>
+        <v>0.6272421858863224</v>
       </c>
       <c r="C139" t="n">
-        <v>4.540621339240238</v>
+        <v>4.540621339240239</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         <v>45344</v>
       </c>
       <c r="B140" t="n">
-        <v>0.5397904185233459</v>
+        <v>0.539790418523346</v>
       </c>
       <c r="C140" t="n">
-        <v>5.403511730160078</v>
+        <v>5.403511730160079</v>
       </c>
       <c r="D140" t="n">
         <v>3.2</v>
@@ -2410,10 +2410,10 @@
         <v>45345</v>
       </c>
       <c r="B141" t="n">
-        <v>0.5016416498943336</v>
+        <v>0.5016416498943335</v>
       </c>
       <c r="C141" t="n">
-        <v>2.821694812428129</v>
+        <v>2.821694812428128</v>
       </c>
       <c r="D141" t="n">
         <v>3.261399999999998</v>
@@ -2424,7 +2424,7 @@
         <v>45346</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5638390426582345</v>
+        <v>0.5638390426582344</v>
       </c>
       <c r="C142" t="n">
         <v>2.583073203313833</v>
@@ -2438,10 +2438,10 @@
         <v>45347</v>
       </c>
       <c r="B143" t="n">
-        <v>0.6731456392223832</v>
+        <v>0.6731456392223835</v>
       </c>
       <c r="C143" t="n">
-        <v>3.909771163239691</v>
+        <v>3.909771163239692</v>
       </c>
       <c r="D143" t="n">
         <v>20.8</v>
@@ -2452,7 +2452,7 @@
         <v>45348</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6595457622646389</v>
+        <v>0.6595457622646388</v>
       </c>
       <c r="C144" t="n">
         <v>3.670842376153066</v>
@@ -2480,7 +2480,7 @@
         <v>45350</v>
       </c>
       <c r="B146" t="n">
-        <v>0.5930611187729704</v>
+        <v>0.5930611187729703</v>
       </c>
       <c r="C146" t="n">
         <v>3.856354790127981</v>
@@ -2508,10 +2508,10 @@
         <v>45352</v>
       </c>
       <c r="B148" t="n">
-        <v>0.9201671838931501</v>
+        <v>0.9201671838931499</v>
       </c>
       <c r="C148" t="n">
-        <v>10.4599112346575</v>
+        <v>10.45991123465749</v>
       </c>
       <c r="D148" t="n">
         <v>13.06300000000002</v>
@@ -2522,7 +2522,7 @@
         <v>45353</v>
       </c>
       <c r="B149" t="n">
-        <v>0.7134624134348981</v>
+        <v>0.713462413434898</v>
       </c>
       <c r="C149" t="n">
         <v>4.032503473773661</v>
@@ -2536,7 +2536,7 @@
         <v>45354</v>
       </c>
       <c r="B150" t="n">
-        <v>0.8822899108634428</v>
+        <v>0.8822899108634429</v>
       </c>
       <c r="C150" t="n">
         <v>4.869312628644415</v>
@@ -2564,7 +2564,7 @@
         <v>45356</v>
       </c>
       <c r="B152" t="n">
-        <v>0.634201380458756</v>
+        <v>0.6342013804587561</v>
       </c>
       <c r="C152" t="n">
         <v>2.444519427707446</v>
@@ -2578,7 +2578,7 @@
         <v>45357</v>
       </c>
       <c r="B153" t="n">
-        <v>0.5647752645554501</v>
+        <v>0.56477526455545</v>
       </c>
       <c r="C153" t="n">
         <v>1.616776890192262</v>
@@ -2606,7 +2606,7 @@
         <v>45359</v>
       </c>
       <c r="B155" t="n">
-        <v>0.6100113409615293</v>
+        <v>0.6100113409615292</v>
       </c>
       <c r="C155" t="n">
         <v>3.093464432250879</v>
@@ -2634,10 +2634,10 @@
         <v>45361</v>
       </c>
       <c r="B157" t="n">
-        <v>0.7827959695193299</v>
+        <v>0.7827959695193301</v>
       </c>
       <c r="C157" t="n">
-        <v>5.19812085578771</v>
+        <v>5.198120855787711</v>
       </c>
       <c r="D157" t="n">
         <v>10.4</v>
@@ -2676,7 +2676,7 @@
         <v>45364</v>
       </c>
       <c r="B160" t="n">
-        <v>0.7244934043012743</v>
+        <v>0.7244934043012744</v>
       </c>
       <c r="C160" t="n">
         <v>3.425198000616264</v>
@@ -2690,7 +2690,7 @@
         <v>45365</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7971775959213272</v>
+        <v>0.7971775959213273</v>
       </c>
       <c r="C161" t="n">
         <v>3.915327100652468</v>
@@ -2704,10 +2704,10 @@
         <v>45366</v>
       </c>
       <c r="B162" t="n">
-        <v>0.8774654156950469</v>
+        <v>0.8774654156950468</v>
       </c>
       <c r="C162" t="n">
-        <v>2.559657460678801</v>
+        <v>2.5596574606788</v>
       </c>
       <c r="D162" t="n">
         <v>6.5</v>
@@ -2760,13 +2760,13 @@
         <v>45370</v>
       </c>
       <c r="B166" t="n">
-        <v>0.7335580133764212</v>
+        <v>0.7335580133764213</v>
       </c>
       <c r="C166" t="n">
-        <v>5.303524761203269</v>
+        <v>5.30352476120327</v>
       </c>
       <c r="D166" t="n">
-        <v>9.695399999999999</v>
+        <v>9.695400000000001</v>
       </c>
     </row>
     <row r="167">
@@ -2788,7 +2788,7 @@
         <v>45372</v>
       </c>
       <c r="B168" t="n">
-        <v>0.522679522364237</v>
+        <v>0.5226795223642371</v>
       </c>
       <c r="C168" t="n">
         <v>1.471800851034039</v>
@@ -2802,10 +2802,10 @@
         <v>45373</v>
       </c>
       <c r="B169" t="n">
-        <v>0.5386323001387581</v>
+        <v>0.5386323001387577</v>
       </c>
       <c r="C169" t="n">
-        <v>1.704195631186578</v>
+        <v>1.704195631186577</v>
       </c>
       <c r="D169" t="n">
         <v>3.8</v>
@@ -2816,10 +2816,10 @@
         <v>45374</v>
       </c>
       <c r="B170" t="n">
-        <v>0.8268105229705637</v>
+        <v>0.8268105229705636</v>
       </c>
       <c r="C170" t="n">
-        <v>6.63861804690515</v>
+        <v>6.638618046905149</v>
       </c>
       <c r="D170" t="n">
         <v>5.479999999999992</v>
@@ -2830,10 +2830,10 @@
         <v>45375</v>
       </c>
       <c r="B171" t="n">
-        <v>0.6188969395939004</v>
+        <v>0.6188969395939002</v>
       </c>
       <c r="C171" t="n">
-        <v>3.846247438489594</v>
+        <v>3.846247438489593</v>
       </c>
       <c r="D171" t="n">
         <v>1.5456</v>
@@ -2844,10 +2844,10 @@
         <v>45376</v>
       </c>
       <c r="B172" t="n">
-        <v>0.5672652167825204</v>
+        <v>0.5672652167825203</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9457773492925478</v>
+        <v>0.9457773492925475</v>
       </c>
       <c r="D172" t="n">
         <v>0.5777999999999993</v>
@@ -2872,13 +2872,13 @@
         <v>45378</v>
       </c>
       <c r="B174" t="n">
-        <v>0.6207041787695325</v>
+        <v>0.6207041787695327</v>
       </c>
       <c r="C174" t="n">
         <v>1.729276966754737</v>
       </c>
       <c r="D174" t="n">
-        <v>2.990800000000002</v>
+        <v>2.990800000000001</v>
       </c>
     </row>
     <row r="175">
@@ -2900,10 +2900,10 @@
         <v>45380</v>
       </c>
       <c r="B176" t="n">
-        <v>0.6212844867043928</v>
+        <v>0.6212844867043927</v>
       </c>
       <c r="C176" t="n">
-        <v>1.183869102934647</v>
+        <v>1.183869102934646</v>
       </c>
       <c r="D176" t="n">
         <v>0.6757999999999986</v>
@@ -2928,10 +2928,10 @@
         <v>45382</v>
       </c>
       <c r="B178" t="n">
-        <v>0.5640348258331526</v>
+        <v>0.5640348258331525</v>
       </c>
       <c r="C178" t="n">
-        <v>1.4342610768698</v>
+        <v>1.434261076869799</v>
       </c>
       <c r="D178" t="n">
         <v>18.2</v>
@@ -2942,10 +2942,10 @@
         <v>45383</v>
       </c>
       <c r="B179" t="n">
-        <v>0.7329177353759927</v>
+        <v>0.7329177353759926</v>
       </c>
       <c r="C179" t="n">
-        <v>3.271524412273335</v>
+        <v>3.271524412273334</v>
       </c>
       <c r="D179" t="n">
         <v>1.2</v>
@@ -2956,10 +2956,10 @@
         <v>45384</v>
       </c>
       <c r="B180" t="n">
-        <v>0.6152134433936569</v>
+        <v>0.6152134433936567</v>
       </c>
       <c r="C180" t="n">
-        <v>4.556616420370315</v>
+        <v>4.556616420370314</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -2970,10 +2970,10 @@
         <v>45385</v>
       </c>
       <c r="B181" t="n">
-        <v>0.5741070077073039</v>
+        <v>0.5741070077073041</v>
       </c>
       <c r="C181" t="n">
-        <v>4.557028029765321</v>
+        <v>4.557028029765322</v>
       </c>
       <c r="D181" t="n">
         <v>5.6</v>
@@ -2984,10 +2984,10 @@
         <v>45386</v>
       </c>
       <c r="B182" t="n">
-        <v>0.7553507887645373</v>
+        <v>0.7553507887645372</v>
       </c>
       <c r="C182" t="n">
-        <v>3.490025629536181</v>
+        <v>3.49002562953618</v>
       </c>
       <c r="D182" t="n">
         <v>10.83299999999999</v>
@@ -3096,10 +3096,10 @@
         <v>45394</v>
       </c>
       <c r="B190" t="n">
-        <v>0.6681079156317318</v>
+        <v>0.6681079156317319</v>
       </c>
       <c r="C190" t="n">
-        <v>6.871268079565999</v>
+        <v>6.871268079566001</v>
       </c>
       <c r="D190" t="n">
         <v>1</v>
@@ -3110,10 +3110,10 @@
         <v>45395</v>
       </c>
       <c r="B191" t="n">
-        <v>0.8372792583861844</v>
+        <v>0.8372792583861846</v>
       </c>
       <c r="C191" t="n">
-        <v>6.464493181594412</v>
+        <v>6.464493181594413</v>
       </c>
       <c r="D191" t="n">
         <v>2.890200000000001</v>
@@ -3138,13 +3138,13 @@
         <v>45397</v>
       </c>
       <c r="B193" t="n">
-        <v>0.6895115810946464</v>
+        <v>0.6895115810946463</v>
       </c>
       <c r="C193" t="n">
-        <v>2.746246568741462</v>
+        <v>2.746246568741461</v>
       </c>
       <c r="D193" t="n">
-        <v>2.888000000000002</v>
+        <v>2.888000000000003</v>
       </c>
     </row>
     <row r="194">
@@ -3152,13 +3152,13 @@
         <v>45398</v>
       </c>
       <c r="B194" t="n">
-        <v>0.601681390927006</v>
+        <v>0.6016813909270061</v>
       </c>
       <c r="C194" t="n">
-        <v>4.731333451772543</v>
+        <v>4.731333451772544</v>
       </c>
       <c r="D194" t="n">
-        <v>7.091199999999996</v>
+        <v>7.091199999999997</v>
       </c>
     </row>
     <row r="195">
@@ -3166,7 +3166,7 @@
         <v>45399</v>
       </c>
       <c r="B195" t="n">
-        <v>0.5785255607064144</v>
+        <v>0.5785255607064145</v>
       </c>
       <c r="C195" t="n">
         <v>4.190548102560415</v>
@@ -3180,7 +3180,7 @@
         <v>45400</v>
       </c>
       <c r="B196" t="n">
-        <v>0.7031269047308365</v>
+        <v>0.7031269047308364</v>
       </c>
       <c r="C196" t="n">
         <v>2.94604276229727</v>
@@ -3200,7 +3200,7 @@
         <v>3.230291768522881</v>
       </c>
       <c r="D197" t="n">
-        <v>1.455800000000001</v>
+        <v>1.4558</v>
       </c>
     </row>
     <row r="198">
@@ -3208,10 +3208,10 @@
         <v>45402</v>
       </c>
       <c r="B198" t="n">
-        <v>0.5422665316985877</v>
+        <v>0.5422665316985875</v>
       </c>
       <c r="C198" t="n">
-        <v>2.7086967670439</v>
+        <v>2.708696767043898</v>
       </c>
       <c r="D198" t="n">
         <v>1.800800000000002</v>
@@ -3236,10 +3236,10 @@
         <v>45404</v>
       </c>
       <c r="B200" t="n">
-        <v>0.5968302854028604</v>
+        <v>0.5968302854028605</v>
       </c>
       <c r="C200" t="n">
-        <v>4.278295337687635</v>
+        <v>4.278295337687636</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>45405</v>
       </c>
       <c r="B201" t="n">
-        <v>0.4741776701731452</v>
+        <v>0.4741776701731453</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -3292,7 +3292,7 @@
         <v>45408</v>
       </c>
       <c r="B204" t="n">
-        <v>0.6357887884295207</v>
+        <v>0.6357887884295208</v>
       </c>
       <c r="C204" t="n">
         <v>1.776185086901955</v>
@@ -3306,10 +3306,10 @@
         <v>45409</v>
       </c>
       <c r="B205" t="n">
-        <v>0.5322687452796223</v>
+        <v>0.5322687452796224</v>
       </c>
       <c r="C205" t="n">
-        <v>6.389761983292399</v>
+        <v>6.3897619832924</v>
       </c>
       <c r="D205" t="n">
         <v>2</v>
@@ -3334,10 +3334,10 @@
         <v>45411</v>
       </c>
       <c r="B207" t="n">
-        <v>0.6229728122839405</v>
+        <v>0.6229728122839402</v>
       </c>
       <c r="C207" t="n">
-        <v>4.28192096270352</v>
+        <v>4.281920962703517</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>45412</v>
       </c>
       <c r="B208" t="n">
-        <v>0.5427132788923316</v>
+        <v>0.5427132788923317</v>
       </c>
       <c r="C208" t="n">
         <v>2.331538689072394</v>
@@ -3376,10 +3376,10 @@
         <v>45414</v>
       </c>
       <c r="B210" t="n">
-        <v>0.6231398185415968</v>
+        <v>0.6231398185415969</v>
       </c>
       <c r="C210" t="n">
-        <v>1.829024826460397</v>
+        <v>1.829024826460398</v>
       </c>
       <c r="D210" t="n">
         <v>1.0828</v>
@@ -3418,7 +3418,7 @@
         <v>45417</v>
       </c>
       <c r="B213" t="n">
-        <v>0.4871287583334393</v>
+        <v>0.4871287583334392</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>45418</v>
       </c>
       <c r="B214" t="n">
-        <v>0.4971807608685484</v>
+        <v>0.4971807608685485</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -3460,13 +3460,13 @@
         <v>45420</v>
       </c>
       <c r="B216" t="n">
-        <v>0.3217938906040173</v>
+        <v>0.3217938906040174</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>0.741799999999999</v>
+        <v>0.7417999999999989</v>
       </c>
     </row>
     <row r="217">
@@ -3474,7 +3474,7 @@
         <v>45421</v>
       </c>
       <c r="B217" t="n">
-        <v>0.3464395866260587</v>
+        <v>0.3464395866260586</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>0.8265999999999997</v>
+        <v>0.8265999999999998</v>
       </c>
     </row>
     <row r="219">
@@ -3502,7 +3502,7 @@
         <v>45423</v>
       </c>
       <c r="B219" t="n">
-        <v>0.241941245540977</v>
+        <v>0.2419412455409769</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>45424</v>
       </c>
       <c r="B220" t="n">
-        <v>0.3535698498254003</v>
+        <v>0.3535698498254002</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>45431</v>
       </c>
       <c r="B227" t="n">
-        <v>0.4910694578892125</v>
+        <v>0.4910694578892124</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -3628,10 +3628,10 @@
         <v>45432</v>
       </c>
       <c r="B228" t="n">
-        <v>0.5089241696345973</v>
+        <v>0.5089241696345972</v>
       </c>
       <c r="C228" t="n">
-        <v>1.826595209350334</v>
+        <v>1.826595209350333</v>
       </c>
       <c r="D228" t="n">
         <v>0</v>
@@ -3642,10 +3642,10 @@
         <v>45433</v>
       </c>
       <c r="B229" t="n">
-        <v>0.5155751494371944</v>
+        <v>0.5155751494371943</v>
       </c>
       <c r="C229" t="n">
-        <v>2.57639674132516</v>
+        <v>2.576396741325159</v>
       </c>
       <c r="D229" t="n">
         <v>0</v>
@@ -3656,10 +3656,10 @@
         <v>45434</v>
       </c>
       <c r="B230" t="n">
-        <v>0.5085132721293392</v>
+        <v>0.5085132721293391</v>
       </c>
       <c r="C230" t="n">
-        <v>2.586126325194652</v>
+        <v>2.586126325194651</v>
       </c>
       <c r="D230" t="n">
         <v>1.2148</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="D231" t="n">
-        <v>9.383599999999982</v>
+        <v>9.383599999999984</v>
       </c>
     </row>
     <row r="232">
@@ -3684,10 +3684,10 @@
         <v>45436</v>
       </c>
       <c r="B232" t="n">
-        <v>0.626270402561376</v>
+        <v>0.6262704025613761</v>
       </c>
       <c r="C232" t="n">
-        <v>2.566299957787445</v>
+        <v>2.566299957787446</v>
       </c>
       <c r="D232" t="n">
         <v>3.5</v>
@@ -3712,10 +3712,10 @@
         <v>45438</v>
       </c>
       <c r="B234" t="n">
-        <v>0.782814083366235</v>
+        <v>0.7828140833662349</v>
       </c>
       <c r="C234" t="n">
-        <v>8.112064877427828</v>
+        <v>8.112064877427827</v>
       </c>
       <c r="D234" t="n">
         <v>5.2422</v>
@@ -3726,10 +3726,10 @@
         <v>45439</v>
       </c>
       <c r="B235" t="n">
-        <v>0.5311941822650034</v>
+        <v>0.5311941822650036</v>
       </c>
       <c r="C235" t="n">
-        <v>2.104336480513212</v>
+        <v>2.104336480513213</v>
       </c>
       <c r="D235" t="n">
         <v>0.6803999999999998</v>
@@ -3740,10 +3740,10 @@
         <v>45440</v>
       </c>
       <c r="B236" t="n">
-        <v>0.5135131877626006</v>
+        <v>0.5135131877626005</v>
       </c>
       <c r="C236" t="n">
-        <v>0.8367242724721408</v>
+        <v>0.8367242724721405</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
@@ -3774,7 +3774,7 @@
         <v>1.399850211515672</v>
       </c>
       <c r="D238" t="n">
-        <v>0.154</v>
+        <v>0.1540000000000001</v>
       </c>
     </row>
     <row r="239">
@@ -3782,10 +3782,10 @@
         <v>45443</v>
       </c>
       <c r="B239" t="n">
-        <v>0.5646499522288002</v>
+        <v>0.5646499522288003</v>
       </c>
       <c r="C239" t="n">
-        <v>2.284846724395395</v>
+        <v>2.284846724395396</v>
       </c>
       <c r="D239" t="n">
         <v>1.825400000000001</v>
@@ -3796,13 +3796,13 @@
         <v>45444</v>
       </c>
       <c r="B240" t="n">
-        <v>0.5721017298332798</v>
+        <v>0.5721017298332797</v>
       </c>
       <c r="C240" t="n">
         <v>1.351641732131123</v>
       </c>
       <c r="D240" t="n">
-        <v>9.250599999999976</v>
+        <v>9.250599999999974</v>
       </c>
     </row>
     <row r="241">
@@ -3824,10 +3824,10 @@
         <v>45446</v>
       </c>
       <c r="B242" t="n">
-        <v>0.5234392103759296</v>
+        <v>0.5234392103759293</v>
       </c>
       <c r="C242" t="n">
-        <v>2.537525492705689</v>
+        <v>2.537525492705688</v>
       </c>
       <c r="D242" t="n">
         <v>1.886800000000001</v>
@@ -3838,10 +3838,10 @@
         <v>45447</v>
       </c>
       <c r="B243" t="n">
-        <v>0.648013438549764</v>
+        <v>0.6480134385497641</v>
       </c>
       <c r="C243" t="n">
-        <v>4.644364106908289</v>
+        <v>4.64436410690829</v>
       </c>
       <c r="D243" t="n">
         <v>0.1878000000000001</v>
@@ -3866,7 +3866,7 @@
         <v>45449</v>
       </c>
       <c r="B245" t="n">
-        <v>0.4947341595923913</v>
+        <v>0.4947341595923912</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -3908,10 +3908,10 @@
         <v>45452</v>
       </c>
       <c r="B248" t="n">
-        <v>0.5143615670050825</v>
+        <v>0.5143615670050823</v>
       </c>
       <c r="C248" t="n">
-        <v>1.697468566102781</v>
+        <v>1.69746856610278</v>
       </c>
       <c r="D248" t="n">
         <v>0</v>
@@ -3922,7 +3922,7 @@
         <v>45453</v>
       </c>
       <c r="B249" t="n">
-        <v>0.4716115110184627</v>
+        <v>0.4716115110184628</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -3936,7 +3936,7 @@
         <v>45454</v>
       </c>
       <c r="B250" t="n">
-        <v>0.3660675761822661</v>
+        <v>0.3660675761822662</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -3950,7 +3950,7 @@
         <v>45455</v>
       </c>
       <c r="B251" t="n">
-        <v>0.6781518407982751</v>
+        <v>0.678151840798275</v>
       </c>
       <c r="C251" t="n">
         <v>1.583551834676704</v>
@@ -3964,10 +3964,10 @@
         <v>45456</v>
       </c>
       <c r="B252" t="n">
-        <v>0.524043782393077</v>
+        <v>0.5240437823930771</v>
       </c>
       <c r="C252" t="n">
-        <v>5.548972039212314</v>
+        <v>5.548972039212316</v>
       </c>
       <c r="D252" t="n">
         <v>4.066600000000002</v>
@@ -3978,13 +3978,13 @@
         <v>45457</v>
       </c>
       <c r="B253" t="n">
-        <v>0.5028249531327954</v>
+        <v>0.5028249531327953</v>
       </c>
       <c r="C253" t="n">
-        <v>2.342920603002155</v>
+        <v>2.342920603002154</v>
       </c>
       <c r="D253" t="n">
-        <v>5.961999999999998</v>
+        <v>5.961999999999999</v>
       </c>
     </row>
     <row r="254">
@@ -4006,10 +4006,10 @@
         <v>45459</v>
       </c>
       <c r="B255" t="n">
-        <v>0.5652624936982454</v>
+        <v>0.5652624936982451</v>
       </c>
       <c r="C255" t="n">
-        <v>1.714984258468853</v>
+        <v>1.714984258468851</v>
       </c>
       <c r="D255" t="n">
         <v>0</v>
@@ -4020,10 +4020,10 @@
         <v>45460</v>
       </c>
       <c r="B256" t="n">
-        <v>0.7067439061121115</v>
+        <v>0.7067439061121114</v>
       </c>
       <c r="C256" t="n">
-        <v>2.74875212490663</v>
+        <v>2.748752124906629</v>
       </c>
       <c r="D256" t="n">
         <v>0</v>
@@ -4048,7 +4048,7 @@
         <v>45462</v>
       </c>
       <c r="B258" t="n">
-        <v>0.4597856923605892</v>
+        <v>0.4597856923605891</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="D262" t="n">
-        <v>0.5128000000000001</v>
+        <v>0.5128</v>
       </c>
     </row>
     <row r="263">
@@ -4118,7 +4118,7 @@
         <v>45467</v>
       </c>
       <c r="B263" t="n">
-        <v>0.4971481048544111</v>
+        <v>0.497148104854411</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>45469</v>
       </c>
       <c r="B265" t="n">
-        <v>0.640335386047659</v>
+        <v>0.6403353860476589</v>
       </c>
       <c r="C265" t="n">
         <v>2.02264478120445</v>
@@ -4160,7 +4160,7 @@
         <v>45470</v>
       </c>
       <c r="B266" t="n">
-        <v>0.5353645635632728</v>
+        <v>0.5353645635632727</v>
       </c>
       <c r="C266" t="n">
         <v>2.970862171042615</v>
@@ -4202,10 +4202,10 @@
         <v>45473</v>
       </c>
       <c r="B269" t="n">
-        <v>0.6998586026656031</v>
+        <v>0.6998586026656032</v>
       </c>
       <c r="C269" t="n">
-        <v>2.638398840108783</v>
+        <v>2.638398840108784</v>
       </c>
       <c r="D269" t="n">
         <v>0.4626000000000001</v>
@@ -4216,10 +4216,10 @@
         <v>45474</v>
       </c>
       <c r="B270" t="n">
-        <v>0.5321555697556052</v>
+        <v>0.5321555697556051</v>
       </c>
       <c r="C270" t="n">
-        <v>2.898706213003583</v>
+        <v>2.898706213003582</v>
       </c>
       <c r="D270" t="n">
         <v>0.6</v>
@@ -4272,7 +4272,7 @@
         <v>45478</v>
       </c>
       <c r="B274" t="n">
-        <v>0.8186192486740352</v>
+        <v>0.8186192486740351</v>
       </c>
       <c r="C274" t="n">
         <v>4.822882809301856</v>
@@ -4286,10 +4286,10 @@
         <v>45479</v>
       </c>
       <c r="B275" t="n">
-        <v>0.8079943653719357</v>
+        <v>0.8079943653719358</v>
       </c>
       <c r="C275" t="n">
-        <v>4.1093918902374</v>
+        <v>4.109391890237401</v>
       </c>
       <c r="D275" t="n">
         <v>49.3</v>
@@ -4306,7 +4306,7 @@
         <v>6.675611596879231</v>
       </c>
       <c r="D276" t="n">
-        <v>3.2284</v>
+        <v>3.228399999999999</v>
       </c>
     </row>
     <row r="277">
@@ -4314,7 +4314,7 @@
         <v>45481</v>
       </c>
       <c r="B277" t="n">
-        <v>0.7020754497851152</v>
+        <v>0.702075449785115</v>
       </c>
       <c r="C277" t="n">
         <v>10.76511449178787</v>
@@ -4342,10 +4342,10 @@
         <v>45483</v>
       </c>
       <c r="B279" t="n">
-        <v>0.6569510920069368</v>
+        <v>0.6569510920069369</v>
       </c>
       <c r="C279" t="n">
-        <v>3.270728988851049</v>
+        <v>3.27072898885105</v>
       </c>
       <c r="D279" t="n">
         <v>0</v>
@@ -4370,7 +4370,7 @@
         <v>45485</v>
       </c>
       <c r="B281" t="n">
-        <v>0.4576411908222787</v>
+        <v>0.4576411908222786</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -4384,7 +4384,7 @@
         <v>45486</v>
       </c>
       <c r="B282" t="n">
-        <v>0.4507945668831746</v>
+        <v>0.4507945668831745</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>45497</v>
       </c>
       <c r="B293" t="n">
-        <v>0.08878390148401973</v>
+        <v>0.08878390148401974</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -4552,7 +4552,7 @@
         <v>45498</v>
       </c>
       <c r="B294" t="n">
-        <v>0.1015622643172688</v>
+        <v>0.1015622643172687</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -4594,7 +4594,7 @@
         <v>45501</v>
       </c>
       <c r="B297" t="n">
-        <v>0.09293553791662294</v>
+        <v>0.09293553791662293</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -4608,7 +4608,7 @@
         <v>45502</v>
       </c>
       <c r="B298" t="n">
-        <v>0.0981863437553233</v>
+        <v>0.09818634375532331</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>45503</v>
       </c>
       <c r="B299" t="n">
-        <v>0.07393180279855725</v>
+        <v>0.07393180279855724</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -4678,7 +4678,7 @@
         <v>45507</v>
       </c>
       <c r="B303" t="n">
-        <v>0.3700785258766134</v>
+        <v>0.3700785258766133</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -4832,7 +4832,7 @@
         <v>45518</v>
       </c>
       <c r="B314" t="n">
-        <v>0.08941677191292043</v>
+        <v>0.08941677191292044</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>45519</v>
       </c>
       <c r="B315" t="n">
-        <v>0.06578009690429294</v>
+        <v>0.06578009690429291</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -4860,7 +4860,7 @@
         <v>45520</v>
       </c>
       <c r="B316" t="n">
-        <v>0.08174513568189039</v>
+        <v>0.0817451356818904</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -4916,7 +4916,7 @@
         <v>45524</v>
       </c>
       <c r="B320" t="n">
-        <v>0.08030512476906944</v>
+        <v>0.08030512476906947</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>45526</v>
       </c>
       <c r="B322" t="n">
-        <v>0.1600500556596552</v>
+        <v>0.1600500556596551</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>45536</v>
       </c>
       <c r="B332" t="n">
-        <v>0.08252431694989744</v>
+        <v>0.08252431694989745</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>45540</v>
       </c>
       <c r="B336" t="n">
-        <v>0.09173303824990667</v>
+        <v>0.09173303824990665</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -5224,7 +5224,7 @@
         <v>45546</v>
       </c>
       <c r="B342" t="n">
-        <v>0.5821525215871545</v>
+        <v>0.5821525215871544</v>
       </c>
       <c r="C342" t="n">
         <v>2.882707777101285</v>
@@ -5266,10 +5266,10 @@
         <v>45549</v>
       </c>
       <c r="B345" t="n">
-        <v>0.614303159351486</v>
+        <v>0.6143031593514858</v>
       </c>
       <c r="C345" t="n">
-        <v>3.487801539373954</v>
+        <v>3.487801539373952</v>
       </c>
       <c r="D345" t="n">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>45551</v>
       </c>
       <c r="B347" t="n">
-        <v>0.2942216300024343</v>
+        <v>0.2942216300024344</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -5322,7 +5322,7 @@
         <v>45553</v>
       </c>
       <c r="B349" t="n">
-        <v>0.3087420091178688</v>
+        <v>0.3087420091178687</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -5350,7 +5350,7 @@
         <v>45555</v>
       </c>
       <c r="B351" t="n">
-        <v>0.2628918310569056</v>
+        <v>0.2628918310569057</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -5392,7 +5392,7 @@
         <v>45558</v>
       </c>
       <c r="B354" t="n">
-        <v>0.2885892667759852</v>
+        <v>0.2885892667759851</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -5406,7 +5406,7 @@
         <v>45559</v>
       </c>
       <c r="B355" t="n">
-        <v>0.2789238659910883</v>
+        <v>0.2789238659910884</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>45560</v>
       </c>
       <c r="B356" t="n">
-        <v>0.4093152773211484</v>
+        <v>0.4093152773211485</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -5448,7 +5448,7 @@
         <v>45562</v>
       </c>
       <c r="B358" t="n">
-        <v>0.6710172535067043</v>
+        <v>0.6710172535067044</v>
       </c>
       <c r="C358" t="n">
         <v>2.190012454471563</v>
@@ -5462,10 +5462,10 @@
         <v>45563</v>
       </c>
       <c r="B359" t="n">
-        <v>0.5739026379411332</v>
+        <v>0.5739026379411329</v>
       </c>
       <c r="C359" t="n">
-        <v>4.200585107876175</v>
+        <v>4.200585107876173</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -5504,7 +5504,7 @@
         <v>45566</v>
       </c>
       <c r="B362" t="n">
-        <v>0.4737706647724267</v>
+        <v>0.4737706647724266</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>45568</v>
       </c>
       <c r="B364" t="n">
-        <v>0.3558412521532806</v>
+        <v>0.3558412521532807</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -5546,7 +5546,7 @@
         <v>45569</v>
       </c>
       <c r="B365" t="n">
-        <v>0.3615564135335621</v>
+        <v>0.3615564135335622</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -5574,7 +5574,7 @@
         <v>45571</v>
       </c>
       <c r="B367" t="n">
-        <v>0.2865973341813741</v>
+        <v>0.2865973341813742</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -5616,7 +5616,7 @@
         <v>45574</v>
       </c>
       <c r="B370" t="n">
-        <v>0.2665815039107688</v>
+        <v>0.266581503910769</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>45580</v>
       </c>
       <c r="B376" t="n">
-        <v>0.1617460029956692</v>
+        <v>0.1617460029956691</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -5742,7 +5742,7 @@
         <v>45583</v>
       </c>
       <c r="B379" t="n">
-        <v>0.2811870679929647</v>
+        <v>0.2811870679929646</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -5756,7 +5756,7 @@
         <v>45584</v>
       </c>
       <c r="B380" t="n">
-        <v>0.2321261119942902</v>
+        <v>0.2321261119942901</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>45586</v>
       </c>
       <c r="B382" t="n">
-        <v>0.1901984177093881</v>
+        <v>0.190198417709388</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
@@ -5840,7 +5840,7 @@
         <v>45590</v>
       </c>
       <c r="B386" t="n">
-        <v>0.4442581171198016</v>
+        <v>0.4442581171198017</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -5854,10 +5854,10 @@
         <v>45591</v>
       </c>
       <c r="B387" t="n">
-        <v>0.5616894229937246</v>
+        <v>0.5616894229937245</v>
       </c>
       <c r="C387" t="n">
-        <v>8.003623780219534</v>
+        <v>8.003623780219533</v>
       </c>
       <c r="D387" t="n">
         <v>0</v>
@@ -5868,7 +5868,7 @@
         <v>45592</v>
       </c>
       <c r="B388" t="n">
-        <v>0.3589223662657646</v>
+        <v>0.3589223662657647</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>45593</v>
       </c>
       <c r="B389" t="n">
-        <v>0.4473716573495343</v>
+        <v>0.4473716573495342</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -5896,7 +5896,7 @@
         <v>45594</v>
       </c>
       <c r="B390" t="n">
-        <v>0.4969633336512889</v>
+        <v>0.4969633336512888</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -5910,7 +5910,7 @@
         <v>45595</v>
       </c>
       <c r="B391" t="n">
-        <v>0.4349425782051545</v>
+        <v>0.4349425782051544</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>45597</v>
       </c>
       <c r="B393" t="n">
-        <v>0.330460632204354</v>
+        <v>0.3304606322043539</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>45599</v>
       </c>
       <c r="B395" t="n">
-        <v>0.4250306084964937</v>
+        <v>0.4250306084964936</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -5994,10 +5994,10 @@
         <v>45601</v>
       </c>
       <c r="B397" t="n">
-        <v>0.7440013806637575</v>
+        <v>0.7440013806637579</v>
       </c>
       <c r="C397" t="n">
-        <v>7.481751493954627</v>
+        <v>7.48175149395463</v>
       </c>
       <c r="D397" t="n">
         <v>14.5</v>
@@ -6008,7 +6008,7 @@
         <v>45602</v>
       </c>
       <c r="B398" t="n">
-        <v>0.4667458847402076</v>
+        <v>0.4667458847402077</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -6022,10 +6022,10 @@
         <v>45603</v>
       </c>
       <c r="B399" t="n">
-        <v>0.5184549986118759</v>
+        <v>0.5184549986118762</v>
       </c>
       <c r="C399" t="n">
-        <v>3.195941795980881</v>
+        <v>3.195941795980882</v>
       </c>
       <c r="D399" t="n">
         <v>0</v>
@@ -6036,7 +6036,7 @@
         <v>45604</v>
       </c>
       <c r="B400" t="n">
-        <v>0.4563280825354314</v>
+        <v>0.4563280825354313</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -6064,10 +6064,10 @@
         <v>45606</v>
       </c>
       <c r="B402" t="n">
-        <v>0.5041410998363981</v>
+        <v>0.504141099836398</v>
       </c>
       <c r="C402" t="n">
-        <v>2.190163393926079</v>
+        <v>2.190163393926078</v>
       </c>
       <c r="D402" t="n">
         <v>0</v>
@@ -6092,10 +6092,10 @@
         <v>45608</v>
       </c>
       <c r="B404" t="n">
-        <v>0.545718018731988</v>
+        <v>0.5457180187319881</v>
       </c>
       <c r="C404" t="n">
-        <v>5.330465684940646</v>
+        <v>5.330465684940647</v>
       </c>
       <c r="D404" t="n">
         <v>1.2</v>
@@ -6120,7 +6120,7 @@
         <v>45610</v>
       </c>
       <c r="B406" t="n">
-        <v>0.4330834744998978</v>
+        <v>0.4330834744998979</v>
       </c>
       <c r="C406" t="n">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>45611</v>
       </c>
       <c r="B407" t="n">
-        <v>0.4493725122893398</v>
+        <v>0.4493725122893397</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>45612</v>
       </c>
       <c r="B408" t="n">
-        <v>0.45904004319017</v>
+        <v>0.4590400431901699</v>
       </c>
       <c r="C408" t="n">
         <v>0</v>
@@ -6162,10 +6162,10 @@
         <v>45613</v>
       </c>
       <c r="B409" t="n">
-        <v>0.7139501404498139</v>
+        <v>0.7139501404498138</v>
       </c>
       <c r="C409" t="n">
-        <v>2.776819977304696</v>
+        <v>2.776819977304695</v>
       </c>
       <c r="D409" t="n">
         <v>17.8</v>
@@ -6176,7 +6176,7 @@
         <v>45614</v>
       </c>
       <c r="B410" t="n">
-        <v>0.5348117361349767</v>
+        <v>0.5348117361349768</v>
       </c>
       <c r="C410" t="n">
         <v>1.852359223096843</v>
@@ -6218,10 +6218,10 @@
         <v>45617</v>
       </c>
       <c r="B413" t="n">
-        <v>0.5477872388443779</v>
+        <v>0.5477872388443777</v>
       </c>
       <c r="C413" t="n">
-        <v>3.472473059332369</v>
+        <v>3.472473059332368</v>
       </c>
       <c r="D413" t="n">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>45619</v>
       </c>
       <c r="B415" t="n">
-        <v>0.4249790624763853</v>
+        <v>0.4249790624763854</v>
       </c>
       <c r="C415" t="n">
         <v>0</v>
@@ -6316,7 +6316,7 @@
         <v>45624</v>
       </c>
       <c r="B420" t="n">
-        <v>0.5568204930334679</v>
+        <v>0.5568204930334677</v>
       </c>
       <c r="C420" t="n">
         <v>1.885509509011951</v>
@@ -6330,7 +6330,7 @@
         <v>45625</v>
       </c>
       <c r="B421" t="n">
-        <v>0.4191846586377</v>
+        <v>0.4191846586377002</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -6344,7 +6344,7 @@
         <v>45626</v>
       </c>
       <c r="B422" t="n">
-        <v>0.3858113567042111</v>
+        <v>0.385811356704211</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -6372,7 +6372,7 @@
         <v>45628</v>
       </c>
       <c r="B424" t="n">
-        <v>0.5161759125042701</v>
+        <v>0.51617591250427</v>
       </c>
       <c r="C424" t="n">
         <v>1.510754004753299</v>
@@ -6428,7 +6428,7 @@
         <v>45632</v>
       </c>
       <c r="B428" t="n">
-        <v>0.8058105007361079</v>
+        <v>0.8058105007361077</v>
       </c>
       <c r="C428" t="n">
         <v>4.130750175976504</v>
@@ -6442,10 +6442,10 @@
         <v>45633</v>
       </c>
       <c r="B429" t="n">
-        <v>0.887159481339321</v>
+        <v>0.8871594813393209</v>
       </c>
       <c r="C429" t="n">
-        <v>6.67341779689452</v>
+        <v>6.673417796894519</v>
       </c>
       <c r="D429" t="n">
         <v>30.4</v>
@@ -6484,10 +6484,10 @@
         <v>45636</v>
       </c>
       <c r="B432" t="n">
-        <v>0.824644739815207</v>
+        <v>0.8246447398152069</v>
       </c>
       <c r="C432" t="n">
-        <v>4.721971872407353</v>
+        <v>4.721971872407352</v>
       </c>
       <c r="D432" t="n">
         <v>0.7</v>
@@ -6498,10 +6498,10 @@
         <v>45637</v>
       </c>
       <c r="B433" t="n">
-        <v>0.8169529638970773</v>
+        <v>0.8169529638970771</v>
       </c>
       <c r="C433" t="n">
-        <v>3.99425790016479</v>
+        <v>3.994257900164789</v>
       </c>
       <c r="D433" t="n">
         <v>1</v>
@@ -6554,10 +6554,10 @@
         <v>45641</v>
       </c>
       <c r="B437" t="n">
-        <v>0.5401827186297204</v>
+        <v>0.5401827186297203</v>
       </c>
       <c r="C437" t="n">
-        <v>2.636271776587573</v>
+        <v>2.636271776587572</v>
       </c>
       <c r="D437" t="n">
         <v>18.5</v>
@@ -6568,10 +6568,10 @@
         <v>45642</v>
       </c>
       <c r="B438" t="n">
-        <v>0.5942849534538854</v>
+        <v>0.5942849534538855</v>
       </c>
       <c r="C438" t="n">
-        <v>3.41377564574016</v>
+        <v>3.413775645740161</v>
       </c>
       <c r="D438" t="n">
         <v>6.5</v>
@@ -6582,7 +6582,7 @@
         <v>45643</v>
       </c>
       <c r="B439" t="n">
-        <v>0.5918282701295904</v>
+        <v>0.5918282701295903</v>
       </c>
       <c r="C439" t="n">
         <v>5.865633275127244</v>
@@ -6596,7 +6596,7 @@
         <v>45644</v>
       </c>
       <c r="B440" t="n">
-        <v>0.7070612025238104</v>
+        <v>0.7070612025238103</v>
       </c>
       <c r="C440" t="n">
         <v>2.992307869398391</v>
@@ -6652,10 +6652,10 @@
         <v>45648</v>
       </c>
       <c r="B444" t="n">
-        <v>0.7156023282315007</v>
+        <v>0.7156023282315008</v>
       </c>
       <c r="C444" t="n">
-        <v>4.363556723766966</v>
+        <v>4.363556723766967</v>
       </c>
       <c r="D444" t="n">
         <v>43.8</v>
@@ -6666,10 +6666,10 @@
         <v>45649</v>
       </c>
       <c r="B445" t="n">
-        <v>0.8441483664156206</v>
+        <v>0.8441483664156207</v>
       </c>
       <c r="C445" t="n">
-        <v>6.69605225180447</v>
+        <v>6.696052251804471</v>
       </c>
       <c r="D445" t="n">
         <v>17</v>
@@ -6680,7 +6680,7 @@
         <v>45650</v>
       </c>
       <c r="B446" t="n">
-        <v>0.9058485486216314</v>
+        <v>0.9058485486216313</v>
       </c>
       <c r="C446" t="n">
         <v>4.422416082236911</v>
@@ -6694,10 +6694,10 @@
         <v>45651</v>
       </c>
       <c r="B447" t="n">
-        <v>0.7072701689943444</v>
+        <v>0.7072701689943443</v>
       </c>
       <c r="C447" t="n">
-        <v>4.956955660966228</v>
+        <v>4.956955660966227</v>
       </c>
       <c r="D447" t="n">
         <v>8.199999999999999</v>
@@ -6722,7 +6722,7 @@
         <v>45653</v>
       </c>
       <c r="B449" t="n">
-        <v>0.5404871465819119</v>
+        <v>0.5404871465819118</v>
       </c>
       <c r="C449" t="n">
         <v>1.441962225271294</v>
@@ -6736,7 +6736,7 @@
         <v>45654</v>
       </c>
       <c r="B450" t="n">
-        <v>0.5847090978509796</v>
+        <v>0.5847090978509795</v>
       </c>
       <c r="C450" t="n">
         <v>3.176266493412191</v>
@@ -6750,7 +6750,7 @@
         <v>45655</v>
       </c>
       <c r="B451" t="n">
-        <v>0.4631904987199124</v>
+        <v>0.4631904987199123</v>
       </c>
       <c r="C451" t="n">
         <v>0</v>
@@ -6764,7 +6764,7 @@
         <v>45656</v>
       </c>
       <c r="B452" t="n">
-        <v>0.450183655247764</v>
+        <v>0.4501836552477639</v>
       </c>
       <c r="C452" t="n">
         <v>0</v>
@@ -6820,7 +6820,7 @@
         <v>45660</v>
       </c>
       <c r="B456" t="n">
-        <v>0.4799424790037595</v>
+        <v>0.4799424790037596</v>
       </c>
       <c r="C456" t="n">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>45661</v>
       </c>
       <c r="B457" t="n">
-        <v>0.4997123260572152</v>
+        <v>0.4997123260572151</v>
       </c>
       <c r="C457" t="n">
         <v>0</v>
@@ -6848,7 +6848,7 @@
         <v>45662</v>
       </c>
       <c r="B458" t="n">
-        <v>0.32620143889435</v>
+        <v>0.3262014388943499</v>
       </c>
       <c r="C458" t="n">
         <v>0</v>
@@ -6876,10 +6876,10 @@
         <v>45664</v>
       </c>
       <c r="B460" t="n">
-        <v>0.518407656281986</v>
+        <v>0.5184076562819859</v>
       </c>
       <c r="C460" t="n">
-        <v>4.645625757740526</v>
+        <v>4.645625757740525</v>
       </c>
       <c r="D460" t="n">
         <v>9</v>
@@ -6946,7 +6946,7 @@
         <v>45669</v>
       </c>
       <c r="B465" t="n">
-        <v>0.8082208436084815</v>
+        <v>0.8082208436084813</v>
       </c>
       <c r="C465" t="n">
         <v>3.19653187351624</v>
@@ -6960,7 +6960,7 @@
         <v>45670</v>
       </c>
       <c r="B466" t="n">
-        <v>0.5438535901732581</v>
+        <v>0.543853590173258</v>
       </c>
       <c r="C466" t="n">
         <v>2.627625278682206</v>
@@ -7044,7 +7044,7 @@
         <v>45676</v>
       </c>
       <c r="B472" t="n">
-        <v>0.8399125215041329</v>
+        <v>0.8399125215041328</v>
       </c>
       <c r="C472" t="n">
         <v>8.36182490835027</v>
@@ -7058,10 +7058,10 @@
         <v>45677</v>
       </c>
       <c r="B473" t="n">
-        <v>0.5612951833178992</v>
+        <v>0.561295183317899</v>
       </c>
       <c r="C473" t="n">
-        <v>6.454563797205284</v>
+        <v>6.454563797205282</v>
       </c>
       <c r="D473" t="n">
         <v>60</v>
@@ -7072,10 +7072,10 @@
         <v>45678</v>
       </c>
       <c r="B474" t="n">
-        <v>0.8974297717186936</v>
+        <v>0.8974297717186935</v>
       </c>
       <c r="C474" t="n">
-        <v>4.074487750966145</v>
+        <v>4.074487750966144</v>
       </c>
       <c r="D474" t="n">
         <v>22.1</v>
@@ -7100,7 +7100,7 @@
         <v>45680</v>
       </c>
       <c r="B476" t="n">
-        <v>0.8957599930292255</v>
+        <v>0.8957599930292254</v>
       </c>
       <c r="C476" t="n">
         <v>4.997280124876285</v>
@@ -7114,10 +7114,10 @@
         <v>45681</v>
       </c>
       <c r="B477" t="n">
-        <v>0.690119544347189</v>
+        <v>0.6901195443471887</v>
       </c>
       <c r="C477" t="n">
-        <v>4.710034825523327</v>
+        <v>4.710034825523326</v>
       </c>
       <c r="D477" t="n">
         <v>2</v>
@@ -7156,10 +7156,10 @@
         <v>45684</v>
       </c>
       <c r="B480" t="n">
-        <v>0.6743263003498964</v>
+        <v>0.6743263003498963</v>
       </c>
       <c r="C480" t="n">
-        <v>3.445632886516884</v>
+        <v>3.445632886516883</v>
       </c>
       <c r="D480" t="n">
         <v>0</v>
@@ -7170,10 +7170,10 @@
         <v>45685</v>
       </c>
       <c r="B481" t="n">
-        <v>0.6440474491118416</v>
+        <v>0.6440474491118418</v>
       </c>
       <c r="C481" t="n">
-        <v>9.466291681906139</v>
+        <v>9.46629168190614</v>
       </c>
       <c r="D481" t="n">
         <v>184.8</v>
@@ -7198,7 +7198,7 @@
         <v>45687</v>
       </c>
       <c r="B483" t="n">
-        <v>0.9232236164478275</v>
+        <v>0.9232236164478276</v>
       </c>
       <c r="C483" t="n">
         <v>10.79158298376677</v>
@@ -7212,7 +7212,7 @@
         <v>45688</v>
       </c>
       <c r="B484" t="n">
-        <v>0.8818648430420414</v>
+        <v>0.8818648430420413</v>
       </c>
       <c r="C484" t="n">
         <v>3.776572549115313</v>
@@ -7226,10 +7226,10 @@
         <v>45689</v>
       </c>
       <c r="B485" t="n">
-        <v>0.9066120908218515</v>
+        <v>0.9066120908218516</v>
       </c>
       <c r="C485" t="n">
-        <v>6.202318845356598</v>
+        <v>6.202318845356599</v>
       </c>
       <c r="D485" t="n">
         <v>1.3</v>
@@ -7240,10 +7240,10 @@
         <v>45690</v>
       </c>
       <c r="B486" t="n">
-        <v>0.6942102712435864</v>
+        <v>0.6942102712435865</v>
       </c>
       <c r="C486" t="n">
-        <v>6.676233160035889</v>
+        <v>6.67623316003589</v>
       </c>
       <c r="D486" t="n">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>45696</v>
       </c>
       <c r="B492" t="n">
-        <v>0.8048818923143685</v>
+        <v>0.8048818923143682</v>
       </c>
       <c r="C492" t="n">
         <v>11.52912467615086</v>
@@ -7338,7 +7338,7 @@
         <v>45697</v>
       </c>
       <c r="B493" t="n">
-        <v>0.8504675552923682</v>
+        <v>0.8504675552923681</v>
       </c>
       <c r="C493" t="n">
         <v>15.09196923831735</v>
@@ -7352,10 +7352,10 @@
         <v>45698</v>
       </c>
       <c r="B494" t="n">
-        <v>0.7389694979932361</v>
+        <v>0.7389694979932362</v>
       </c>
       <c r="C494" t="n">
-        <v>6.392040772628226</v>
+        <v>6.392040772628227</v>
       </c>
       <c r="D494" t="n">
         <v>1.1</v>
@@ -7366,7 +7366,7 @@
         <v>45699</v>
       </c>
       <c r="B495" t="n">
-        <v>0.7953570467183441</v>
+        <v>0.7953570467183442</v>
       </c>
       <c r="C495" t="n">
         <v>5.078074655307706</v>
@@ -7394,10 +7394,10 @@
         <v>45701</v>
       </c>
       <c r="B497" t="n">
-        <v>0.6797039480228133</v>
+        <v>0.6797039480228132</v>
       </c>
       <c r="C497" t="n">
-        <v>4.642333186220858</v>
+        <v>4.642333186220857</v>
       </c>
       <c r="D497" t="n">
         <v>0</v>
@@ -7408,10 +7408,10 @@
         <v>45702</v>
       </c>
       <c r="B498" t="n">
-        <v>0.501375992544206</v>
+        <v>0.5013759925442058</v>
       </c>
       <c r="C498" t="n">
-        <v>2.597307578563811</v>
+        <v>2.59730757856381</v>
       </c>
       <c r="D498" t="n">
         <v>1.140400000000001</v>
@@ -7422,10 +7422,10 @@
         <v>45703</v>
       </c>
       <c r="B499" t="n">
-        <v>0.5640514774046359</v>
+        <v>0.5640514774046358</v>
       </c>
       <c r="C499" t="n">
-        <v>3.199535819645781</v>
+        <v>3.19953581964578</v>
       </c>
       <c r="D499" t="n">
         <v>1.6</v>
@@ -7436,10 +7436,10 @@
         <v>45704</v>
       </c>
       <c r="B500" t="n">
-        <v>0.6535447169092425</v>
+        <v>0.6535447169092424</v>
       </c>
       <c r="C500" t="n">
-        <v>6.883807066089669</v>
+        <v>6.883807066089668</v>
       </c>
       <c r="D500" t="n">
         <v>0.6</v>
@@ -7464,7 +7464,7 @@
         <v>45706</v>
       </c>
       <c r="B502" t="n">
-        <v>0.8165585795781741</v>
+        <v>0.816558579578174</v>
       </c>
       <c r="C502" t="n">
         <v>9.8906827605286</v>
@@ -7478,7 +7478,7 @@
         <v>45707</v>
       </c>
       <c r="B503" t="n">
-        <v>0.8675651477300526</v>
+        <v>0.8675651477300527</v>
       </c>
       <c r="C503" t="n">
         <v>11.74848350686993</v>
@@ -7492,10 +7492,10 @@
         <v>45708</v>
       </c>
       <c r="B504" t="n">
-        <v>0.8784196169076116</v>
+        <v>0.8784196169076117</v>
       </c>
       <c r="C504" t="n">
-        <v>9.105318413024792</v>
+        <v>9.105318413024794</v>
       </c>
       <c r="D504" t="n">
         <v>0</v>
@@ -7506,7 +7506,7 @@
         <v>45709</v>
       </c>
       <c r="B505" t="n">
-        <v>0.858769090413354</v>
+        <v>0.8587690904133539</v>
       </c>
       <c r="C505" t="n">
         <v>10.86313546913748</v>
@@ -7534,10 +7534,10 @@
         <v>45711</v>
       </c>
       <c r="B507" t="n">
-        <v>0.8387862724332987</v>
+        <v>0.8387862724332988</v>
       </c>
       <c r="C507" t="n">
-        <v>14.88319440322257</v>
+        <v>14.88319440322258</v>
       </c>
       <c r="D507" t="n">
         <v>87.7</v>
@@ -7548,7 +7548,7 @@
         <v>45712</v>
       </c>
       <c r="B508" t="n">
-        <v>0.8888573018451132</v>
+        <v>0.8888573018451131</v>
       </c>
       <c r="C508" t="n">
         <v>10.26994703147993</v>
@@ -7562,10 +7562,10 @@
         <v>45713</v>
       </c>
       <c r="B509" t="n">
-        <v>0.9255695129122532</v>
+        <v>0.925569512912253</v>
       </c>
       <c r="C509" t="n">
-        <v>12.69712096129836</v>
+        <v>12.69712096129835</v>
       </c>
       <c r="D509" t="n">
         <v>0</v>
@@ -7590,10 +7590,10 @@
         <v>45715</v>
       </c>
       <c r="B511" t="n">
-        <v>0.8452992521074637</v>
+        <v>0.8452992521074636</v>
       </c>
       <c r="C511" t="n">
-        <v>5.425152149765165</v>
+        <v>5.425152149765164</v>
       </c>
       <c r="D511" t="n">
         <v>8.4</v>
@@ -7618,7 +7618,7 @@
         <v>45717</v>
       </c>
       <c r="B513" t="n">
-        <v>0.6887669228252058</v>
+        <v>0.6887669228252059</v>
       </c>
       <c r="C513" t="n">
         <v>2.078750551678521</v>
@@ -7632,10 +7632,10 @@
         <v>45718</v>
       </c>
       <c r="B514" t="n">
-        <v>0.6541276626302783</v>
+        <v>0.6541276626302784</v>
       </c>
       <c r="C514" t="n">
-        <v>2.620314110031017</v>
+        <v>2.620314110031018</v>
       </c>
       <c r="D514" t="n">
         <v>0</v>
@@ -7646,10 +7646,10 @@
         <v>45719</v>
       </c>
       <c r="B515" t="n">
-        <v>0.6547900802599551</v>
+        <v>0.6547900802599552</v>
       </c>
       <c r="C515" t="n">
-        <v>2.0581557986975</v>
+        <v>2.058155798697501</v>
       </c>
       <c r="D515" t="n">
         <v>40.5</v>
@@ -7660,10 +7660,10 @@
         <v>45720</v>
       </c>
       <c r="B516" t="n">
-        <v>0.6830281576235969</v>
+        <v>0.683028157623597</v>
       </c>
       <c r="C516" t="n">
-        <v>5.612377237763057</v>
+        <v>5.612377237763058</v>
       </c>
       <c r="D516" t="n">
         <v>9.981999999999994</v>
@@ -7674,10 +7674,10 @@
         <v>45721</v>
       </c>
       <c r="B517" t="n">
-        <v>0.8421714844712032</v>
+        <v>0.842171484471203</v>
       </c>
       <c r="C517" t="n">
-        <v>3.842210624357751</v>
+        <v>3.84221062435775</v>
       </c>
       <c r="D517" t="n">
         <v>0</v>
@@ -7688,13 +7688,13 @@
         <v>45722</v>
       </c>
       <c r="B518" t="n">
-        <v>0.6284213560667067</v>
+        <v>0.6284213560667068</v>
       </c>
       <c r="C518" t="n">
         <v>2.876402100039298</v>
       </c>
       <c r="D518" t="n">
-        <v>4.097799999999984</v>
+        <v>4.097799999999983</v>
       </c>
     </row>
     <row r="519">
@@ -7716,13 +7716,13 @@
         <v>45724</v>
       </c>
       <c r="B520" t="n">
-        <v>0.5734744121782089</v>
+        <v>0.5734744121782088</v>
       </c>
       <c r="C520" t="n">
-        <v>1.715070923173667</v>
+        <v>1.715070923173666</v>
       </c>
       <c r="D520" t="n">
-        <v>2.801799999999999</v>
+        <v>2.8018</v>
       </c>
     </row>
     <row r="521">
@@ -7730,10 +7730,10 @@
         <v>45725</v>
       </c>
       <c r="B521" t="n">
-        <v>0.6519301047905433</v>
+        <v>0.6519301047905431</v>
       </c>
       <c r="C521" t="n">
-        <v>2.596691568483844</v>
+        <v>2.596691568483843</v>
       </c>
       <c r="D521" t="n">
         <v>0</v>
@@ -7758,7 +7758,7 @@
         <v>45727</v>
       </c>
       <c r="B523" t="n">
-        <v>0.6378345200703148</v>
+        <v>0.6378345200703147</v>
       </c>
       <c r="C523" t="n">
         <v>3.902188278018563</v>
@@ -7786,7 +7786,7 @@
         <v>45729</v>
       </c>
       <c r="B525" t="n">
-        <v>0.4788716551440358</v>
+        <v>0.4788716551440357</v>
       </c>
       <c r="C525" t="n">
         <v>0</v>
@@ -7800,7 +7800,7 @@
         <v>45730</v>
       </c>
       <c r="B526" t="n">
-        <v>0.5232744981648527</v>
+        <v>0.5232744981648526</v>
       </c>
       <c r="C526" t="n">
         <v>4.487232923292765</v>
@@ -7828,7 +7828,7 @@
         <v>45732</v>
       </c>
       <c r="B528" t="n">
-        <v>0.4447759143978529</v>
+        <v>0.4447759143978528</v>
       </c>
       <c r="C528" t="n">
         <v>0</v>
@@ -7842,7 +7842,7 @@
         <v>45733</v>
       </c>
       <c r="B529" t="n">
-        <v>0.3751464728805552</v>
+        <v>0.3751464728805553</v>
       </c>
       <c r="C529" t="n">
         <v>0</v>
@@ -7898,7 +7898,7 @@
         <v>45737</v>
       </c>
       <c r="B533" t="n">
-        <v>0.5838502438167429</v>
+        <v>0.5838502438167428</v>
       </c>
       <c r="C533" t="n">
         <v>3.112444314597754</v>
@@ -7926,10 +7926,10 @@
         <v>45739</v>
       </c>
       <c r="B535" t="n">
-        <v>0.7103538468442796</v>
+        <v>0.7103538468442794</v>
       </c>
       <c r="C535" t="n">
-        <v>5.780580167182642</v>
+        <v>5.780580167182641</v>
       </c>
       <c r="D535" t="n">
         <v>1.2</v>
@@ -7940,10 +7940,10 @@
         <v>45740</v>
       </c>
       <c r="B536" t="n">
-        <v>0.75968067179775</v>
+        <v>0.7596806717977499</v>
       </c>
       <c r="C536" t="n">
-        <v>4.316790422631319</v>
+        <v>4.316790422631318</v>
       </c>
       <c r="D536" t="n">
         <v>0</v>
@@ -7982,10 +7982,10 @@
         <v>45743</v>
       </c>
       <c r="B539" t="n">
-        <v>0.7704496085973151</v>
+        <v>0.7704496085973154</v>
       </c>
       <c r="C539" t="n">
-        <v>8.97575895423763</v>
+        <v>8.975758954237634</v>
       </c>
       <c r="D539" t="n">
         <v>5.4</v>
@@ -7996,7 +7996,7 @@
         <v>45744</v>
       </c>
       <c r="B540" t="n">
-        <v>0.7620121690153326</v>
+        <v>0.7620121690153328</v>
       </c>
       <c r="C540" t="n">
         <v>1.725293428506964</v>
@@ -8010,7 +8010,7 @@
         <v>45745</v>
       </c>
       <c r="B541" t="n">
-        <v>0.7990173876479546</v>
+        <v>0.7990173876479545</v>
       </c>
       <c r="C541" t="n">
         <v>3.938808110867392</v>
@@ -8038,10 +8038,10 @@
         <v>45747</v>
       </c>
       <c r="B543" t="n">
-        <v>0.5142223604230913</v>
+        <v>0.5142223604230912</v>
       </c>
       <c r="C543" t="n">
-        <v>2.468480261996567</v>
+        <v>2.468480261996566</v>
       </c>
       <c r="D543" t="n">
         <v>1</v>
@@ -8052,7 +8052,7 @@
         <v>45748</v>
       </c>
       <c r="B544" t="n">
-        <v>0.4671381387810059</v>
+        <v>0.4671381387810058</v>
       </c>
       <c r="C544" t="n">
         <v>0</v>
@@ -8080,10 +8080,10 @@
         <v>45750</v>
       </c>
       <c r="B546" t="n">
-        <v>0.6941594348572728</v>
+        <v>0.694159434857273</v>
       </c>
       <c r="C546" t="n">
-        <v>3.736684329414376</v>
+        <v>3.736684329414377</v>
       </c>
       <c r="D546" t="n">
         <v>5.9</v>
@@ -8094,7 +8094,7 @@
         <v>45751</v>
       </c>
       <c r="B547" t="n">
-        <v>0.6689462873953372</v>
+        <v>0.668946287395337</v>
       </c>
       <c r="C547" t="n">
         <v>1.568059606937335</v>
@@ -8122,10 +8122,10 @@
         <v>45753</v>
       </c>
       <c r="B549" t="n">
-        <v>0.6939541227160728</v>
+        <v>0.6939541227160729</v>
       </c>
       <c r="C549" t="n">
-        <v>2.966755528047156</v>
+        <v>2.966755528047157</v>
       </c>
       <c r="D549" t="n">
         <v>43</v>
@@ -8136,10 +8136,10 @@
         <v>45754</v>
       </c>
       <c r="B550" t="n">
-        <v>0.8125607549791969</v>
+        <v>0.812560754979197</v>
       </c>
       <c r="C550" t="n">
-        <v>5.808405711051803</v>
+        <v>5.808405711051804</v>
       </c>
       <c r="D550" t="n">
         <v>0</v>
@@ -8150,10 +8150,10 @@
         <v>45755</v>
       </c>
       <c r="B551" t="n">
-        <v>0.6688356734346622</v>
+        <v>0.6688356734346623</v>
       </c>
       <c r="C551" t="n">
-        <v>2.000771619945208</v>
+        <v>2.000771619945209</v>
       </c>
       <c r="D551" t="n">
         <v>0</v>
@@ -8164,10 +8164,10 @@
         <v>45756</v>
       </c>
       <c r="B552" t="n">
-        <v>0.5158672321228752</v>
+        <v>0.5158672321228749</v>
       </c>
       <c r="C552" t="n">
-        <v>2.25106273763384</v>
+        <v>2.251062737633839</v>
       </c>
       <c r="D552" t="n">
         <v>0</v>
@@ -8178,10 +8178,10 @@
         <v>45757</v>
       </c>
       <c r="B553" t="n">
-        <v>0.5147702658455118</v>
+        <v>0.5147702658455117</v>
       </c>
       <c r="C553" t="n">
-        <v>1.46780839721915</v>
+        <v>1.467808397219149</v>
       </c>
       <c r="D553" t="n">
         <v>0</v>
@@ -8206,10 +8206,10 @@
         <v>45759</v>
       </c>
       <c r="B555" t="n">
-        <v>0.5916871904944285</v>
+        <v>0.5916871904944286</v>
       </c>
       <c r="C555" t="n">
-        <v>2.71629458760151</v>
+        <v>2.716294587601511</v>
       </c>
       <c r="D555" t="n">
         <v>11.1</v>
@@ -8220,10 +8220,10 @@
         <v>45760</v>
       </c>
       <c r="B556" t="n">
-        <v>0.6172721849263244</v>
+        <v>0.6172721849263247</v>
       </c>
       <c r="C556" t="n">
-        <v>2.710824087989557</v>
+        <v>2.710824087989558</v>
       </c>
       <c r="D556" t="n">
         <v>8.9</v>
@@ -8304,10 +8304,10 @@
         <v>45766</v>
       </c>
       <c r="B562" t="n">
-        <v>0.734527345237714</v>
+        <v>0.7345273452377141</v>
       </c>
       <c r="C562" t="n">
-        <v>2.394756154056657</v>
+        <v>2.394756154056658</v>
       </c>
       <c r="D562" t="n">
         <v>2.1</v>
@@ -8360,7 +8360,7 @@
         <v>45770</v>
       </c>
       <c r="B566" t="n">
-        <v>0.6889670391792448</v>
+        <v>0.688967039179245</v>
       </c>
       <c r="C566" t="n">
         <v>3.001032301116997</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="D568" t="n">
-        <v>0.9438000000000011</v>
+        <v>0.943800000000001</v>
       </c>
     </row>
     <row r="569">
@@ -8416,10 +8416,10 @@
         <v>45774</v>
       </c>
       <c r="B570" t="n">
-        <v>0.5991762150520433</v>
+        <v>0.5991762150520432</v>
       </c>
       <c r="C570" t="n">
-        <v>3.486409973546346</v>
+        <v>3.486409973546345</v>
       </c>
       <c r="D570" t="n">
         <v>0</v>
@@ -8430,7 +8430,7 @@
         <v>45775</v>
       </c>
       <c r="B571" t="n">
-        <v>0.6336259159891791</v>
+        <v>0.6336259159891789</v>
       </c>
       <c r="C571" t="n">
         <v>2.389663712745555</v>
@@ -8486,7 +8486,7 @@
         <v>45779</v>
       </c>
       <c r="B575" t="n">
-        <v>0.3501240207252461</v>
+        <v>0.350124020725246</v>
       </c>
       <c r="C575" t="n">
         <v>0</v>
@@ -8556,7 +8556,7 @@
         <v>45784</v>
       </c>
       <c r="B580" t="n">
-        <v>0.5111943530855153</v>
+        <v>0.5111943530855152</v>
       </c>
       <c r="C580" t="n">
         <v>1.177913373282528</v>
@@ -8598,7 +8598,7 @@
         <v>45787</v>
       </c>
       <c r="B583" t="n">
-        <v>0.4474672449510656</v>
+        <v>0.4474672449510657</v>
       </c>
       <c r="C583" t="n">
         <v>0</v>
@@ -8612,10 +8612,10 @@
         <v>45788</v>
       </c>
       <c r="B584" t="n">
-        <v>0.5541668603126075</v>
+        <v>0.5541668603126078</v>
       </c>
       <c r="C584" t="n">
-        <v>2.393683042116448</v>
+        <v>2.393683042116449</v>
       </c>
       <c r="D584" t="n">
         <v>27</v>
@@ -8626,10 +8626,10 @@
         <v>45789</v>
       </c>
       <c r="B585" t="n">
-        <v>0.6066937834275036</v>
+        <v>0.6066937834275038</v>
       </c>
       <c r="C585" t="n">
-        <v>2.389131023090126</v>
+        <v>2.389131023090127</v>
       </c>
       <c r="D585" t="n">
         <v>0</v>
@@ -8654,7 +8654,7 @@
         <v>45791</v>
       </c>
       <c r="B587" t="n">
-        <v>0.4374344515451135</v>
+        <v>0.4374344515451136</v>
       </c>
       <c r="C587" t="n">
         <v>0</v>
@@ -8668,7 +8668,7 @@
         <v>45792</v>
       </c>
       <c r="B588" t="n">
-        <v>0.5371703744830837</v>
+        <v>0.5371703744830838</v>
       </c>
       <c r="C588" t="n">
         <v>1.258536746805721</v>
@@ -8696,7 +8696,7 @@
         <v>45794</v>
       </c>
       <c r="B590" t="n">
-        <v>0.6894646326454433</v>
+        <v>0.6894646326454436</v>
       </c>
       <c r="C590" t="n">
         <v>1.982749824738496</v>
@@ -8710,10 +8710,10 @@
         <v>45795</v>
       </c>
       <c r="B591" t="n">
-        <v>0.7281076101925431</v>
+        <v>0.7281076101925432</v>
       </c>
       <c r="C591" t="n">
-        <v>4.665007031424645</v>
+        <v>4.665007031424646</v>
       </c>
       <c r="D591" t="n">
         <v>1</v>
@@ -8724,7 +8724,7 @@
         <v>45796</v>
       </c>
       <c r="B592" t="n">
-        <v>0.5573470645310041</v>
+        <v>0.557347064531004</v>
       </c>
       <c r="C592" t="n">
         <v>1.954150520140596</v>
@@ -8738,10 +8738,10 @@
         <v>45797</v>
       </c>
       <c r="B593" t="n">
-        <v>0.5914485201347252</v>
+        <v>0.591448520134725</v>
       </c>
       <c r="C593" t="n">
-        <v>2.730234770185477</v>
+        <v>2.730234770185476</v>
       </c>
       <c r="D593" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>45799</v>
       </c>
       <c r="B595" t="n">
-        <v>0.7812214453413078</v>
+        <v>0.7812214453413079</v>
       </c>
       <c r="C595" t="n">
         <v>4.878725601660284</v>
@@ -8780,10 +8780,10 @@
         <v>45800</v>
       </c>
       <c r="B596" t="n">
-        <v>0.8004814536786951</v>
+        <v>0.8004814536786949</v>
       </c>
       <c r="C596" t="n">
-        <v>3.937773743959926</v>
+        <v>3.937773743959925</v>
       </c>
       <c r="D596" t="n">
         <v>7.5</v>
@@ -8794,10 +8794,10 @@
         <v>45801</v>
       </c>
       <c r="B597" t="n">
-        <v>0.8523183024059476</v>
+        <v>0.8523183024059477</v>
       </c>
       <c r="C597" t="n">
-        <v>4.065188446715833</v>
+        <v>4.065188446715834</v>
       </c>
       <c r="D597" t="n">
         <v>0.5</v>
@@ -8808,7 +8808,7 @@
         <v>45802</v>
       </c>
       <c r="B598" t="n">
-        <v>0.6801628366623105</v>
+        <v>0.6801628366623106</v>
       </c>
       <c r="C598" t="n">
         <v>2.218957178343596</v>
@@ -8822,10 +8822,10 @@
         <v>45803</v>
       </c>
       <c r="B599" t="n">
-        <v>0.8638956751079989</v>
+        <v>0.863895675107999</v>
       </c>
       <c r="C599" t="n">
-        <v>3.627549741750369</v>
+        <v>3.62754974175037</v>
       </c>
       <c r="D599" t="n">
         <v>21.3</v>
@@ -8836,10 +8836,10 @@
         <v>45804</v>
       </c>
       <c r="B600" t="n">
-        <v>0.85384464148448</v>
+        <v>0.8538446414844802</v>
       </c>
       <c r="C600" t="n">
-        <v>3.355827524102742</v>
+        <v>3.355827524102743</v>
       </c>
       <c r="D600" t="n">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>45805</v>
       </c>
       <c r="B601" t="n">
-        <v>0.5210369764891942</v>
+        <v>0.5210369764891943</v>
       </c>
       <c r="C601" t="n">
         <v>1.394762717432543</v>
@@ -8878,10 +8878,10 @@
         <v>45807</v>
       </c>
       <c r="B603" t="n">
-        <v>0.5106588914120298</v>
+        <v>0.5106588914120297</v>
       </c>
       <c r="C603" t="n">
-        <v>0.5803523251481647</v>
+        <v>0.5803523251481646</v>
       </c>
       <c r="D603" t="n">
         <v>0</v>
@@ -8892,7 +8892,7 @@
         <v>45808</v>
       </c>
       <c r="B604" t="n">
-        <v>0.7134783315798313</v>
+        <v>0.7134783315798314</v>
       </c>
       <c r="C604" t="n">
         <v>2.17388541536594</v>
@@ -8948,7 +8948,7 @@
         <v>45812</v>
       </c>
       <c r="B608" t="n">
-        <v>0.4033885191542193</v>
+        <v>0.4033885191542192</v>
       </c>
       <c r="C608" t="n">
         <v>0</v>
@@ -8962,7 +8962,7 @@
         <v>45813</v>
       </c>
       <c r="B609" t="n">
-        <v>0.402737469892167</v>
+        <v>0.4027374698921669</v>
       </c>
       <c r="C609" t="n">
         <v>0</v>
@@ -8976,7 +8976,7 @@
         <v>45814</v>
       </c>
       <c r="B610" t="n">
-        <v>0.3876899834874943</v>
+        <v>0.3876899834874944</v>
       </c>
       <c r="C610" t="n">
         <v>0</v>
@@ -9004,7 +9004,7 @@
         <v>45816</v>
       </c>
       <c r="B612" t="n">
-        <v>0.6060579124269314</v>
+        <v>0.6060579124269316</v>
       </c>
       <c r="C612" t="n">
         <v>1.036450663494983</v>
@@ -9018,7 +9018,7 @@
         <v>45817</v>
       </c>
       <c r="B613" t="n">
-        <v>0.4860749246438789</v>
+        <v>0.486074924643879</v>
       </c>
       <c r="C613" t="n">
         <v>0</v>
@@ -9046,10 +9046,10 @@
         <v>45819</v>
       </c>
       <c r="B615" t="n">
-        <v>0.583988991232103</v>
+        <v>0.5839889912321031</v>
       </c>
       <c r="C615" t="n">
-        <v>2.233376557861513</v>
+        <v>2.233376557861514</v>
       </c>
       <c r="D615" t="n">
         <v>0</v>
@@ -9060,10 +9060,10 @@
         <v>45820</v>
       </c>
       <c r="B616" t="n">
-        <v>0.5719398519138187</v>
+        <v>0.5719398519138186</v>
       </c>
       <c r="C616" t="n">
-        <v>3.648575964512567</v>
+        <v>3.648575964512566</v>
       </c>
       <c r="D616" t="n">
         <v>0</v>
@@ -9074,7 +9074,7 @@
         <v>45821</v>
       </c>
       <c r="B617" t="n">
-        <v>0.3988271006760502</v>
+        <v>0.3988271006760501</v>
       </c>
       <c r="C617" t="n">
         <v>0</v>
@@ -9088,7 +9088,7 @@
         <v>45822</v>
       </c>
       <c r="B618" t="n">
-        <v>0.425902120003352</v>
+        <v>0.4259021200033521</v>
       </c>
       <c r="C618" t="n">
         <v>0</v>
@@ -9102,7 +9102,7 @@
         <v>45823</v>
       </c>
       <c r="B619" t="n">
-        <v>0.6102933692348887</v>
+        <v>0.6102933692348889</v>
       </c>
       <c r="C619" t="n">
         <v>3.264798536377042</v>
@@ -9158,10 +9158,10 @@
         <v>45827</v>
       </c>
       <c r="B623" t="n">
-        <v>0.8530287062078927</v>
+        <v>0.853028706207893</v>
       </c>
       <c r="C623" t="n">
-        <v>2.662780777428707</v>
+        <v>2.662780777428708</v>
       </c>
       <c r="D623" t="n">
         <v>9.319200000000006</v>
@@ -9172,7 +9172,7 @@
         <v>45828</v>
       </c>
       <c r="B624" t="n">
-        <v>0.7426201471877412</v>
+        <v>0.7426201471877411</v>
       </c>
       <c r="C624" t="n">
         <v>9.014144673113796</v>
@@ -9192,7 +9192,7 @@
         <v>1.944115943314049</v>
       </c>
       <c r="D625" t="n">
-        <v>4.485599999999997</v>
+        <v>4.485599999999996</v>
       </c>
     </row>
     <row r="626">
@@ -9214,10 +9214,10 @@
         <v>45831</v>
       </c>
       <c r="B627" t="n">
-        <v>0.5051532153318392</v>
+        <v>0.5051532153318391</v>
       </c>
       <c r="C627" t="n">
-        <v>2.936723596771236</v>
+        <v>2.936723596771235</v>
       </c>
       <c r="D627" t="n">
         <v>0.4</v>
@@ -9228,10 +9228,10 @@
         <v>45832</v>
       </c>
       <c r="B628" t="n">
-        <v>0.5192725579498096</v>
+        <v>0.5192725579498095</v>
       </c>
       <c r="C628" t="n">
-        <v>2.905115919079919</v>
+        <v>2.905115919079918</v>
       </c>
       <c r="D628" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>45833</v>
       </c>
       <c r="B629" t="n">
-        <v>0.6778222638741755</v>
+        <v>0.6778222638741758</v>
       </c>
       <c r="C629" t="n">
-        <v>9.034978994188434</v>
+        <v>9.034978994188437</v>
       </c>
       <c r="D629" t="n">
         <v>0</v>
@@ -9270,7 +9270,7 @@
         <v>45835</v>
       </c>
       <c r="B631" t="n">
-        <v>0.478065217862751</v>
+        <v>0.4780652178627511</v>
       </c>
       <c r="C631" t="n">
         <v>0</v>
@@ -9284,7 +9284,7 @@
         <v>45836</v>
       </c>
       <c r="B632" t="n">
-        <v>0.4487147476949568</v>
+        <v>0.4487147476949566</v>
       </c>
       <c r="C632" t="n">
         <v>0</v>
@@ -9312,7 +9312,7 @@
         <v>45838</v>
       </c>
       <c r="B634" t="n">
-        <v>0.8467119734173165</v>
+        <v>0.8467119734173166</v>
       </c>
       <c r="C634" t="n">
         <v>2.781384104480896</v>
@@ -9326,7 +9326,7 @@
         <v>45839</v>
       </c>
       <c r="B635" t="n">
-        <v>0.5758162597091511</v>
+        <v>0.575816259709151</v>
       </c>
       <c r="C635" t="n">
         <v>3.25494344886304</v>
@@ -9354,10 +9354,10 @@
         <v>45841</v>
       </c>
       <c r="B637" t="n">
-        <v>0.5458431708070733</v>
+        <v>0.5458431708070732</v>
       </c>
       <c r="C637" t="n">
-        <v>3.116595865788111</v>
+        <v>3.11659586578811</v>
       </c>
       <c r="D637" t="n">
         <v>0</v>
@@ -9396,7 +9396,7 @@
         <v>45844</v>
       </c>
       <c r="B640" t="n">
-        <v>0.4101161142277016</v>
+        <v>0.4101161142277015</v>
       </c>
       <c r="C640" t="n">
         <v>0</v>
@@ -9438,7 +9438,7 @@
         <v>45847</v>
       </c>
       <c r="B643" t="n">
-        <v>0.4223778564938643</v>
+        <v>0.4223778564938642</v>
       </c>
       <c r="C643" t="n">
         <v>0</v>
@@ -9466,7 +9466,7 @@
         <v>45849</v>
       </c>
       <c r="B645" t="n">
-        <v>0.4898507563975752</v>
+        <v>0.4898507563975751</v>
       </c>
       <c r="C645" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>45851</v>
       </c>
       <c r="B647" t="n">
-        <v>0.3763416862870643</v>
+        <v>0.3763416862870642</v>
       </c>
       <c r="C647" t="n">
         <v>0</v>
@@ -9522,7 +9522,7 @@
         <v>45853</v>
       </c>
       <c r="B649" t="n">
-        <v>0.5639541949435041</v>
+        <v>0.563954194943504</v>
       </c>
       <c r="C649" t="n">
         <v>1.562645087977458</v>
@@ -9578,10 +9578,10 @@
         <v>45857</v>
       </c>
       <c r="B653" t="n">
-        <v>0.5288658015028036</v>
+        <v>0.5288658015028035</v>
       </c>
       <c r="C653" t="n">
-        <v>2.806202919463384</v>
+        <v>2.806202919463383</v>
       </c>
       <c r="D653" t="n">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>45858</v>
       </c>
       <c r="B654" t="n">
-        <v>0.4547665154904347</v>
+        <v>0.4547665154904346</v>
       </c>
       <c r="C654" t="n">
         <v>0</v>
@@ -9634,7 +9634,7 @@
         <v>45861</v>
       </c>
       <c r="B657" t="n">
-        <v>0.377392217725625</v>
+        <v>0.3773922177256249</v>
       </c>
       <c r="C657" t="n">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>45864</v>
       </c>
       <c r="B660" t="n">
-        <v>0.2462114950648673</v>
+        <v>0.2462114950648672</v>
       </c>
       <c r="C660" t="n">
         <v>0</v>
@@ -9718,7 +9718,7 @@
         <v>45867</v>
       </c>
       <c r="B663" t="n">
-        <v>0.2911681666455389</v>
+        <v>0.291168166645539</v>
       </c>
       <c r="C663" t="n">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>45870</v>
       </c>
       <c r="B666" t="n">
-        <v>0.3550270146264794</v>
+        <v>0.3550270146264795</v>
       </c>
       <c r="C666" t="n">
         <v>0</v>
@@ -9788,7 +9788,7 @@
         <v>45872</v>
       </c>
       <c r="B668" t="n">
-        <v>0.2939344806519467</v>
+        <v>0.2939344806519468</v>
       </c>
       <c r="C668" t="n">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>45874</v>
       </c>
       <c r="B670" t="n">
-        <v>0.2957817778505262</v>
+        <v>0.2957817778505261</v>
       </c>
       <c r="C670" t="n">
         <v>0</v>
@@ -9844,7 +9844,7 @@
         <v>45876</v>
       </c>
       <c r="B672" t="n">
-        <v>0.3789800482764678</v>
+        <v>0.3789800482764679</v>
       </c>
       <c r="C672" t="n">
         <v>0</v>
@@ -9858,7 +9858,7 @@
         <v>45877</v>
       </c>
       <c r="B673" t="n">
-        <v>0.3493888662148496</v>
+        <v>0.3493888662148495</v>
       </c>
       <c r="C673" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>45878</v>
       </c>
       <c r="B674" t="n">
-        <v>0.6101437968540306</v>
+        <v>0.6101437968540308</v>
       </c>
       <c r="C674" t="n">
         <v>2.817463981106063</v>
@@ -9886,7 +9886,7 @@
         <v>45879</v>
       </c>
       <c r="B675" t="n">
-        <v>0.4669867904135911</v>
+        <v>0.4669867904135912</v>
       </c>
       <c r="C675" t="n">
         <v>0</v>
@@ -9900,7 +9900,7 @@
         <v>45880</v>
       </c>
       <c r="B676" t="n">
-        <v>0.4137328344809001</v>
+        <v>0.4137328344809002</v>
       </c>
       <c r="C676" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>45884</v>
       </c>
       <c r="B680" t="n">
-        <v>0.4866963176560556</v>
+        <v>0.4866963176560557</v>
       </c>
       <c r="C680" t="n">
         <v>0</v>
@@ -9984,7 +9984,7 @@
         <v>45886</v>
       </c>
       <c r="B682" t="n">
-        <v>0.404969026849571</v>
+        <v>0.4049690268495711</v>
       </c>
       <c r="C682" t="n">
         <v>0</v>
@@ -9998,7 +9998,7 @@
         <v>45887</v>
       </c>
       <c r="B683" t="n">
-        <v>0.3972548762157206</v>
+        <v>0.3972548762157208</v>
       </c>
       <c r="C683" t="n">
         <v>0</v>
@@ -10054,10 +10054,10 @@
         <v>45891</v>
       </c>
       <c r="B687" t="n">
-        <v>0.6294041105284433</v>
+        <v>0.6294041105284431</v>
       </c>
       <c r="C687" t="n">
-        <v>3.139552585378862</v>
+        <v>3.139552585378861</v>
       </c>
       <c r="D687" t="n">
         <v>0</v>
@@ -10110,10 +10110,10 @@
         <v>45895</v>
       </c>
       <c r="B691" t="n">
-        <v>0.5149248748856881</v>
+        <v>0.5149248748856882</v>
       </c>
       <c r="C691" t="n">
-        <v>2.101651417762363</v>
+        <v>2.101651417762364</v>
       </c>
       <c r="D691" t="n">
         <v>0</v>
@@ -10138,7 +10138,7 @@
         <v>45897</v>
       </c>
       <c r="B693" t="n">
-        <v>0.3035834169876412</v>
+        <v>0.3035834169876413</v>
       </c>
       <c r="C693" t="n">
         <v>0</v>
@@ -10180,7 +10180,7 @@
         <v>45900</v>
       </c>
       <c r="B696" t="n">
-        <v>0.3707237551364906</v>
+        <v>0.3707237551364905</v>
       </c>
       <c r="C696" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>45902</v>
       </c>
       <c r="B698" t="n">
-        <v>0.5310074206473698</v>
+        <v>0.5310074206473697</v>
       </c>
       <c r="C698" t="n">
-        <v>2.541196806817879</v>
+        <v>2.541196806817878</v>
       </c>
       <c r="D698" t="n">
         <v>0</v>
@@ -10264,7 +10264,7 @@
         <v>45906</v>
       </c>
       <c r="B702" t="n">
-        <v>0.313361531944633</v>
+        <v>0.3133615319446331</v>
       </c>
       <c r="C702" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>45907</v>
       </c>
       <c r="B703" t="n">
-        <v>0.3044766490383202</v>
+        <v>0.3044766490383201</v>
       </c>
       <c r="C703" t="n">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         <v>45908</v>
       </c>
       <c r="B704" t="n">
-        <v>0.3444378792488159</v>
+        <v>0.3444378792488158</v>
       </c>
       <c r="C704" t="n">
         <v>0</v>
@@ -10334,10 +10334,10 @@
         <v>45911</v>
       </c>
       <c r="B707" t="n">
-        <v>0.5465079707486223</v>
+        <v>0.5465079707486222</v>
       </c>
       <c r="C707" t="n">
-        <v>3.054220265148639</v>
+        <v>3.054220265148638</v>
       </c>
       <c r="D707" t="n">
         <v>0.8</v>
@@ -10348,7 +10348,7 @@
         <v>45912</v>
       </c>
       <c r="B708" t="n">
-        <v>0.4855171672843395</v>
+        <v>0.4855171672843396</v>
       </c>
       <c r="C708" t="n">
         <v>0</v>
@@ -10376,10 +10376,10 @@
         <v>45914</v>
       </c>
       <c r="B710" t="n">
-        <v>0.5100633001771364</v>
+        <v>0.5100633001771363</v>
       </c>
       <c r="C710" t="n">
-        <v>2.317056432597268</v>
+        <v>2.317056432597267</v>
       </c>
       <c r="D710" t="n">
         <v>0</v>
@@ -10390,7 +10390,7 @@
         <v>45915</v>
       </c>
       <c r="B711" t="n">
-        <v>0.402471710946002</v>
+        <v>0.4024717109460021</v>
       </c>
       <c r="C711" t="n">
         <v>0</v>
@@ -10460,7 +10460,7 @@
         <v>45920</v>
       </c>
       <c r="B716" t="n">
-        <v>0.4925949630841377</v>
+        <v>0.4925949630841378</v>
       </c>
       <c r="C716" t="n">
         <v>0</v>
@@ -10474,10 +10474,10 @@
         <v>45921</v>
       </c>
       <c r="B717" t="n">
-        <v>0.8548125919708112</v>
+        <v>0.8548125919708113</v>
       </c>
       <c r="C717" t="n">
-        <v>6.637861373122996</v>
+        <v>6.637861373122997</v>
       </c>
       <c r="D717" t="n">
         <v>0</v>
@@ -10502,7 +10502,7 @@
         <v>45923</v>
       </c>
       <c r="B719" t="n">
-        <v>0.4281882119138191</v>
+        <v>0.428188211913819</v>
       </c>
       <c r="C719" t="n">
         <v>0</v>
@@ -10516,10 +10516,10 @@
         <v>45924</v>
       </c>
       <c r="B720" t="n">
-        <v>0.5626467278340871</v>
+        <v>0.562646727834087</v>
       </c>
       <c r="C720" t="n">
-        <v>3.932572915632323</v>
+        <v>3.932572915632322</v>
       </c>
       <c r="D720" t="n">
         <v>0</v>
@@ -10530,7 +10530,7 @@
         <v>45925</v>
       </c>
       <c r="B721" t="n">
-        <v>0.4305241319894095</v>
+        <v>0.4305241319894096</v>
       </c>
       <c r="C721" t="n">
         <v>0</v>
@@ -10558,7 +10558,7 @@
         <v>45927</v>
       </c>
       <c r="B723" t="n">
-        <v>0.3793998636156005</v>
+        <v>0.3793998636156004</v>
       </c>
       <c r="C723" t="n">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>45928</v>
       </c>
       <c r="B724" t="n">
-        <v>0.3283912324846043</v>
+        <v>0.3283912324846044</v>
       </c>
       <c r="C724" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>45929</v>
       </c>
       <c r="B725" t="n">
-        <v>0.3283482973175578</v>
+        <v>0.3283482973175579</v>
       </c>
       <c r="C725" t="n">
         <v>0</v>
@@ -10614,7 +10614,7 @@
         <v>45931</v>
       </c>
       <c r="B727" t="n">
-        <v>0.4901470123475741</v>
+        <v>0.4901470123475742</v>
       </c>
       <c r="C727" t="n">
         <v>0</v>
@@ -10656,7 +10656,7 @@
         <v>45934</v>
       </c>
       <c r="B730" t="n">
-        <v>0.4597627901915943</v>
+        <v>0.4597627901915942</v>
       </c>
       <c r="C730" t="n">
         <v>0</v>
@@ -10740,7 +10740,7 @@
         <v>45940</v>
       </c>
       <c r="B736" t="n">
-        <v>0.1805686034245034</v>
+        <v>0.1805686034245033</v>
       </c>
       <c r="C736" t="n">
         <v>0</v>
@@ -10810,7 +10810,7 @@
         <v>45945</v>
       </c>
       <c r="B741" t="n">
-        <v>0.3654005396091463</v>
+        <v>0.3654005396091462</v>
       </c>
       <c r="C741" t="n">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>45946</v>
       </c>
       <c r="B742" t="n">
-        <v>0.332755160510871</v>
+        <v>0.3327551605108711</v>
       </c>
       <c r="C742" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>45947</v>
       </c>
       <c r="B743" t="n">
-        <v>0.3877031474142687</v>
+        <v>0.3877031474142688</v>
       </c>
       <c r="C743" t="n">
         <v>0</v>
@@ -10852,7 +10852,7 @@
         <v>45948</v>
       </c>
       <c r="B744" t="n">
-        <v>0.3808146433183972</v>
+        <v>0.3808146433183973</v>
       </c>
       <c r="C744" t="n">
         <v>0</v>
@@ -10894,7 +10894,7 @@
         <v>45951</v>
       </c>
       <c r="B747" t="n">
-        <v>0.3734835440440022</v>
+        <v>0.3734835440440023</v>
       </c>
       <c r="C747" t="n">
         <v>0</v>
@@ -10908,7 +10908,7 @@
         <v>45952</v>
       </c>
       <c r="B748" t="n">
-        <v>0.3177678938988862</v>
+        <v>0.317767893898886</v>
       </c>
       <c r="C748" t="n">
         <v>0</v>
@@ -10964,7 +10964,7 @@
         <v>45956</v>
       </c>
       <c r="B752" t="n">
-        <v>0.5047362839418051</v>
+        <v>0.504736283941805</v>
       </c>
       <c r="C752" t="n">
         <v>1.546590500168819</v>
@@ -10992,7 +10992,7 @@
         <v>45958</v>
       </c>
       <c r="B754" t="n">
-        <v>0.4946422321517801</v>
+        <v>0.49464223215178</v>
       </c>
       <c r="C754" t="n">
         <v>0</v>
@@ -11006,10 +11006,10 @@
         <v>45959</v>
       </c>
       <c r="B755" t="n">
-        <v>0.719824336870013</v>
+        <v>0.7198243368700129</v>
       </c>
       <c r="C755" t="n">
-        <v>5.206701407489945</v>
+        <v>5.206701407489944</v>
       </c>
       <c r="D755" t="n">
         <v>67</v>
@@ -11020,10 +11020,10 @@
         <v>45960</v>
       </c>
       <c r="B756" t="n">
-        <v>0.6306544758247848</v>
+        <v>0.6306544758247847</v>
       </c>
       <c r="C756" t="n">
-        <v>1.391170753215097</v>
+        <v>1.391170753215096</v>
       </c>
       <c r="D756" t="n">
         <v>16</v>
@@ -11034,10 +11034,10 @@
         <v>45961</v>
       </c>
       <c r="B757" t="n">
-        <v>0.6393517848859426</v>
+        <v>0.6393517848859425</v>
       </c>
       <c r="C757" t="n">
-        <v>2.768157517827485</v>
+        <v>2.768157517827484</v>
       </c>
       <c r="D757" t="n">
         <v>43.6</v>
@@ -11076,7 +11076,7 @@
         <v>45963</v>
       </c>
       <c r="B760" t="n">
-        <v>0.4726765932337339</v>
+        <v>0.472676593233734</v>
       </c>
       <c r="C760" t="n">
         <v>0</v>
@@ -11104,7 +11104,7 @@
         <v>45964</v>
       </c>
       <c r="B762" t="n">
-        <v>0.4430210040327452</v>
+        <v>0.4430210040327451</v>
       </c>
       <c r="C762" t="n">
         <v>0</v>
@@ -11118,7 +11118,7 @@
         <v>45964</v>
       </c>
       <c r="B763" t="n">
-        <v>0.4192309702424786</v>
+        <v>0.4192309702424785</v>
       </c>
       <c r="C763" t="n">
         <v>0</v>
@@ -11132,7 +11132,7 @@
         <v>45965</v>
       </c>
       <c r="B764" t="n">
-        <v>0.3403415520551972</v>
+        <v>0.3403415520551973</v>
       </c>
       <c r="C764" t="n">
         <v>0</v>
@@ -11174,7 +11174,7 @@
         <v>45966</v>
       </c>
       <c r="B767" t="n">
-        <v>0.3800653750508979</v>
+        <v>0.380065375050898</v>
       </c>
       <c r="C767" t="n">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>45967</v>
       </c>
       <c r="B768" t="n">
-        <v>0.393686744314689</v>
+        <v>0.3936867443146891</v>
       </c>
       <c r="C768" t="n">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>45967</v>
       </c>
       <c r="B769" t="n">
-        <v>0.3890531689358644</v>
+        <v>0.3890531689358643</v>
       </c>
       <c r="C769" t="n">
         <v>0</v>
@@ -11244,10 +11244,10 @@
         <v>45969</v>
       </c>
       <c r="B772" t="n">
-        <v>0.70119938516049</v>
+        <v>0.7011993851604901</v>
       </c>
       <c r="C772" t="n">
-        <v>3.031044506604409</v>
+        <v>3.03104450660441</v>
       </c>
       <c r="D772" t="n">
         <v>0</v>
@@ -11272,10 +11272,10 @@
         <v>45970</v>
       </c>
       <c r="B774" t="n">
-        <v>0.6741424655479457</v>
+        <v>0.6741424655479458</v>
       </c>
       <c r="C774" t="n">
-        <v>3.680226729697862</v>
+        <v>3.680226729697863</v>
       </c>
       <c r="D774" t="n">
         <v>12.4</v>
@@ -11286,7 +11286,7 @@
         <v>45970</v>
       </c>
       <c r="B775" t="n">
-        <v>0.4375250544187814</v>
+        <v>0.4375250544187815</v>
       </c>
       <c r="C775" t="n">
         <v>0</v>
@@ -11348,7 +11348,7 @@
         <v>0</v>
       </c>
       <c r="D779" t="n">
-        <v>2.865800000000001</v>
+        <v>2.865800000000002</v>
       </c>
     </row>
     <row r="780">
@@ -11384,10 +11384,10 @@
         <v>45976</v>
       </c>
       <c r="B782" t="n">
-        <v>0.8138898691163384</v>
+        <v>0.8138898691163383</v>
       </c>
       <c r="C782" t="n">
-        <v>4.235218196396867</v>
+        <v>4.235218196396866</v>
       </c>
       <c r="D782" t="n">
         <v>3.2</v>
@@ -11608,7 +11608,7 @@
         <v>45992</v>
       </c>
       <c r="B798" t="n">
-        <v>0.3628053557552068</v>
+        <v>0.3628053557552069</v>
       </c>
       <c r="C798" t="n">
         <v>0</v>
@@ -11622,7 +11622,7 @@
         <v>45993</v>
       </c>
       <c r="B799" t="n">
-        <v>0.3511299150532704</v>
+        <v>0.3511299150532703</v>
       </c>
       <c r="C799" t="n">
         <v>0</v>
@@ -11636,7 +11636,7 @@
         <v>45994</v>
       </c>
       <c r="B800" t="n">
-        <v>0.3293487761409218</v>
+        <v>0.3293487761409216</v>
       </c>
       <c r="C800" t="n">
         <v>0</v>
@@ -11692,10 +11692,10 @@
         <v>45998</v>
       </c>
       <c r="B804" t="n">
-        <v>0.509940880171464</v>
+        <v>0.5099408801714639</v>
       </c>
       <c r="C804" t="n">
-        <v>3.571689484475568</v>
+        <v>3.571689484475567</v>
       </c>
       <c r="D804" t="inlineStr"/>
     </row>
